--- a/reddit_cleaned_processed.xlsx
+++ b/reddit_cleaned_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D544"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -938,500 +938,500 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fiz algumas alterações </t>
+          <t>Ideias para nome</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lendo comentários post anterior desenrolar campanha fiz algumas alterações</t>
+          <t>nome dariam macho prenda natal esposa</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>24-12-2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMINEM (editado por mim)</t>
+          <t xml:space="preserve">Fiz algumas alterações </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mesma família inéme jénierre jnr eminem ideia ascanilho</t>
+          <t>lendo comentários post anterior desenrolar campanha fiz algumas alterações</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19-11-2024</t>
+          <t>06-03-2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Eu não entendo as leis</t>
+          <t>EMINEM (editado por mim)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>percebo nada possível muitos filhos serem tirados pais falta condições ciganos usarem garotos pedir dinheiro leiria péssimo andam grupo virem pessoa sozinha mandam garoto pequeno mínimo educação miúdos pedem exigem coisas ten dinheiro comida contada mês posso dar comida garotos faço milagres disse garoto pequeno moedas tirou dedo rego tentou enfiar cara merda outra garota pediu dinheiro ofereci comida aceitou queria tudo obrigada faz favor dá dinheiro dó caralho tão todos cágados calor morte rua possível continuarem ter filhos monte terem condições cuidar acontecer nada pais ficam filhos menos</t>
+          <t>mesma família inéme jénierre jnr eminem ideia ascanilho</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-07-2024</t>
+          <t>19-11-2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Êxodo tem um “impacto brutal”: 30% dos jovens nascidos em Portugal vivem fora do país</t>
+          <t>Eu não entendo as leis</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>população jovem altamente qualificada geral encontra emprego facilidade área formação portugal noutros casos opta trabalhar estrangeiro condições salariais laborais vantajosas entretanto país desenvolve sobretudo setor turismo depende trabalhadores qualificados funções camareiros empregados mesa outras evidente portuguese número desempenhar tai funções população portuguesa idade ativa nomeadamente abaixo ano qualificações coadunam tipo trabalho disponível área turismo resultado importação mãodeobra semiescrava rei roque marcha clara substituição populacional deliberada vê quer urgente refletir bem sobre futuro queremos país sobre sobrevivência enquanto população votar consciência próximas eleições quais ditarão provavelmente irreversibilidade desta substituição</t>
+          <t>percebo nada possível muitos filhos serem tirados pais falta condições ciganos usarem garotos pedir dinheiro leiria péssimo andam grupo virem pessoa sozinha mandam garoto pequeno mínimo educação miúdos pedem exigem coisas ten dinheiro comida contada mês posso dar comida garotos faço milagres disse garoto pequeno moedas tirou dedo rego tentou enfiar cara merda outra garota pediu dinheiro ofereci comida aceitou queria tudo obrigada faz favor dá dinheiro dó caralho tão todos cágados calor morte rua possível continuarem ter filhos monte terem condições cuidar acontecer nada pais ficam filhos menos</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12-01-2024</t>
+          <t>18-07-2024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>a ciganita que fugiu para casar com 13 anos</t>
+          <t>Êxodo tem um “impacto brutal”: 30% dos jovens nascidos em Portugal vivem fora do país</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>voluntariado apoiar famílias pobres lido várias famílias ciganas posso falar sobre nesta área dão problemas relevantes algumas têm comportamentos fazem consigam arranjar emprego alguns ciganos ciganas empregos normais nesta família pai cigana emprego normal fábrica ganhava pouco salário mínimo renda euro maus hábitos faziam família mulher filhos continue passar necessidade recebiam ri abusa álcool fim semana chega casa manhã bêbado emprego envolveuse outra mulher cigana obviamente esposa cigana gostou certeza fortes suspeitas ambiente casa ficou mau discussões permanentes filha velha apenas ano prometida casamento jovem cigano ano dada altura saturada permanente guerra conjugal necessidades passava casa fugiu viver noivo comunidade cigana casados família medo soubesse poi sabem casarem filhos ante ante podem ter problemas justiça mim contaramme logo confiam completamente mim podium fazer apenas ano casa guerra permanente aliás menina tratamento psiquiátrico depressão conselho óbvia necessidade institucionalizála iria piorar situação vejo pudesse melhorar entretanto fez ano cpcj justiça irão fazer coisa nenhuma pai deixou mãe juntouse outra mulher emigrou alemanha onde arranjaram outros empregos vive lá bem coloca fotos facebook mostrar mulher restantes filhos sair onde moravam agora moram junto pais doentes amontoados pequeno apartamento habitação social podium arranjar emprego sinceramente depressão ninguém dava emprego cigana continuum gostar marido agora mãe proíbe filhos falarem pai telemóvel redes sociais acho ainda esperança volta meio tudo sinto sensação impotência procuramos ajudar alguns alimentos medicamentos conselhos apenas ouvindo desabafos podem importante filhos crescerem repitam ciclo pobreza pais vivem</t>
+          <t>população jovem altamente qualificada geral encontra emprego facilidade área formação portugal noutros casos opta trabalhar estrangeiro condições salariais laborais vantajosas entretanto país desenvolve sobretudo setor turismo depende trabalhadores qualificados funções camareiros empregados mesa outras evidente portuguese número desempenhar tai funções população portuguesa idade ativa nomeadamente abaixo ano qualificações coadunam tipo trabalho disponível área turismo resultado importação mãodeobra semiescrava rei roque marcha clara substituição populacional deliberada vê quer urgente refletir bem sobre futuro queremos país sobre sobrevivência enquanto população votar consciência próximas eleições quais ditarão provavelmente irreversibilidade desta substituição</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14-06-2024</t>
+          <t>12-01-2024</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ir para o 3° filho, porque todas as pessoas são contra.</t>
+          <t>a ciganita que fugiu para casar com 13 anos</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>esposa filhotes ano ano queremos vamos ter filho espera nova ano meio toda gente dizemos criticam opinião contrário pais sogros irmãos cunhados amigo médico família ginecologista dizem doi chega deixem tardenão sabem metemetcetc vida estabilizada ganhamos bem pequena quinta quase toda paga dificuldade financeira arriscado ir ano loucura sermos jovens conseguimos entender porque toda gente relutante queremos esperar tarde alguns fatores nasci pais agora bastante acabados convivem netos casa consigo arrastar atividade família quero passar todos pais sabem primeiros ano difícil ir cinema jantar etccom crianças espaçadas sempre presos assim rápido relação irmãos achamos menos idade maior probabilidade terem infância gira brincarem junto etc edite obrigado todos apoio vou tentar responder todos conseguir fica aqui agradecimento edite genecologista deu luz verde engravidar teceu opiniões pessoais contra dissemos certeza insistiu voltamos afirmar fez cara feia quase chamando burro ficamos parvo situação poi feito exames médica acabado dar luz verde aceitamos opinião pessoal sobre ter crianças idades próximas ficou xatiada vez médica porque deixou trabalhar grupo hospitalar vamos vamos voltar</t>
+          <t>voluntariado apoiar famílias pobres lido várias famílias ciganas posso falar sobre nesta área dão problemas relevantes algumas têm comportamentos fazem consigam arranjar emprego alguns ciganos ciganas empregos normais nesta família pai cigana emprego normal fábrica ganhava pouco salário mínimo renda euro maus hábitos faziam família mulher filhos continue passar necessidade recebiam ri abusa álcool fim semana chega casa manhã bêbado emprego envolveuse outra mulher cigana obviamente esposa cigana gostou certeza fortes suspeitas ambiente casa ficou mau discussões permanentes filha velha apenas ano prometida casamento jovem cigano ano dada altura saturada permanente guerra conjugal necessidades passava casa fugiu viver noivo comunidade cigana casados família medo soubesse poi sabem casarem filhos ante ante podem ter problemas justiça mim contaramme logo confiam completamente mim podium fazer apenas ano casa guerra permanente aliás menina tratamento psiquiátrico depressão conselho óbvia necessidade institucionalizála iria piorar situação vejo pudesse melhorar entretanto fez ano cpcj justiça irão fazer coisa nenhuma pai deixou mãe juntouse outra mulher emigrou alemanha onde arranjaram outros empregos vive lá bem coloca fotos facebook mostrar mulher restantes filhos sair onde moravam agora moram junto pais doentes amontoados pequeno apartamento habitação social podium arranjar emprego sinceramente depressão ninguém dava emprego cigana continuum gostar marido agora mãe proíbe filhos falarem pai telemóvel redes sociais acho ainda esperança volta meio tudo sinto sensação impotência procuramos ajudar alguns alimentos medicamentos conselhos apenas ouvindo desabafos podem importante filhos crescerem repitam ciclo pobreza pais vivem</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>09-07-2024</t>
+          <t>14-06-2024</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Trump de 2024 vai ser diferente do Trump de 2016-2020 </t>
+          <t>Ir para o 3° filho, porque todas as pessoas são contra.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vai ter poder partido republicano vai dominar supremo tribunal senado provavelmente congresso além disso agradar porque pode reeleito tudo somado pode radical</t>
+          <t>esposa filhotes ano ano queremos vamos ter filho espera nova ano meio toda gente dizemos criticam opinião contrário pais sogros irmãos cunhados amigo médico família ginecologista dizem doi chega deixem tardenão sabem metemetcetc vida estabilizada ganhamos bem pequena quinta quase toda paga dificuldade financeira arriscado ir ano loucura sermos jovens conseguimos entender porque toda gente relutante queremos esperar tarde alguns fatores nasci pais agora bastante acabados convivem netos casa consigo arrastar atividade família quero passar todos pais sabem primeiros ano difícil ir cinema jantar etccom crianças espaçadas sempre presos assim rápido relação irmãos achamos menos idade maior probabilidade terem infância gira brincarem junto etc edite obrigado todos apoio vou tentar responder todos conseguir fica aqui agradecimento edite genecologista deu luz verde engravidar teceu opiniões pessoais contra dissemos certeza insistiu voltamos afirmar fez cara feia quase chamando burro ficamos parvo situação poi feito exames médica acabado dar luz verde aceitamos opinião pessoal sobre ter crianças idades próximas ficou xatiada vez médica porque deixou trabalhar grupo hospitalar vamos vamos voltar</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AD ou ADN? As contas do engano</t>
+          <t>Sismo em direto...Açores</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>caros amigo internautas fazer contas impacto confusão nome adn ad possam ter tido nestas legislativas pontos prévios tipicamente votante direita partime rir falta visãoatenção psdcds considero culpa totalmente desses doi partidos bom exemplo mercado funcionar processo rebranding vou considerar concordam influência deste engano número votantes adn relatos primeira pessoa alguns simple facto partido passar k k votos x maior ano qualquer mediatismo vou assumir resultados faltam lisboa mem martin vão absolutamente anormais passando contas considerando votos adn ad p perde deputados lisboa viseu chega perde deputado coimbra ad ganha deputados bastava realidade cerca votos adn ad acontecer cenário considerando cenário ultra conservador votos adn ad p perde deputado viseu ad ganha deputado contas feitas números deputados finais maiores partidos números momento considerando psad estrangeiro deverão ad p chega cenário normal adn ad ad p chega conservador ad p chega contas ad perdeu claro erro estratégico relação nome eleições boa noite todos obrigado votarem</t>
+          <t>sismo durante transmissão missa freguesia serreta reparem ruído balanço árvore natal</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11-03-2024</t>
+          <t>25-12-2024</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Atenção aos doentes que por aqui andam</t>
+          <t xml:space="preserve">O Trump de 2024 vai ser diferente do Trump de 2016-2020 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>últimos dia comentado sub tugas tentar dar dicas pessoal sair operadoras un minutos uextremeshock mandoume pm dizer curtido comentários aceitei pensar queria ajuda alguma ajuda conversa rapidamente ficou estranha começou perguntar idade saca dum ten dama disse logo demasiado pessoal pra gajo qualquer reddit perguntar responde desculpa desabafar virgem hermafrodita logo aqui grande red flag porque termo hermafrodita correto intersexo certeza saberia termo correto começa então dizer mora america traços femininos blablabla começa mandar fotos modelo diz modelo nada começa dizer quer dar prazer homem mulher fiquei reação gajo comete erro mandar link insta tal modelo nome cesar daniel telemóvel abre definição browser conta insta aberta browser primeira coisa aparece juntate miguel silva instagram abrir app mandeio logo merda disse gajo doentio objectivo disto queria ganhar mim tipo doença ter inventar toda história triste hermafrodita saber quer sei dizer conseguiu surpreender afinal gajos ainda doentes cabeça pensava desculpem rant atenção mete conversa convosco aqui un tempo outro querer partilhar fotos pita agora sei posso postar aqui desculpem mod</t>
+          <t>vai ter poder partido republicano vai dominar supremo tribunal senado provavelmente congresso além disso agradar porque pode reeleito tudo somado pode radical</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ideias para nome</t>
+          <t>AD ou ADN? As contas do engano</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nome dariam macho prenda natal esposa</t>
+          <t>caros amigo internautas fazer contas impacto confusão nome adn ad possam ter tido nestas legislativas pontos prévios tipicamente votante direita partime rir falta visãoatenção psdcds considero culpa totalmente desses doi partidos bom exemplo mercado funcionar processo rebranding vou considerar concordam influência deste engano número votantes adn relatos primeira pessoa alguns simple facto partido passar k k votos x maior ano qualquer mediatismo vou assumir resultados faltam lisboa mem martin vão absolutamente anormais passando contas considerando votos adn ad p perde deputados lisboa viseu chega perde deputado coimbra ad ganha deputados bastava realidade cerca votos adn ad acontecer cenário considerando cenário ultra conservador votos adn ad p perde deputado viseu ad ganha deputado contas feitas números deputados finais maiores partidos números momento considerando psad estrangeiro deverão ad p chega cenário normal adn ad ad p chega conservador ad p chega contas ad perdeu claro erro estratégico relação nome eleições boa noite todos obrigado votarem</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>24-12-2024</t>
+          <t>11-03-2024</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Assédio feminino</t>
+          <t>Atenção aos doentes que por aqui andam</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bem termo certo cá vai conto porque voluntariado sábado ocorreume chovia distribuía alimentos várias famílias molhado bastante evidente particular calças molhadas perto mim várias pessoas dizerme abrigar melhor falta tempo condições climatéricas favoráveis além disso molhado coisa incomoda aí além nisto mulher viúva ano dáme bom apalpão rabo diz molhado evidente bastante óbvio intenção ver molhado ignorei abuso tempo atrás férias allgarve resolvi rapar cabeça fácil secar mercado local mulher banca onde ocasionalmente comprado algumas frutas legume começa cantar samba carecas gostam ignorei boca ainda atrás outra vez voluntariado furgoneta cheia sacos alimentos distribuir encostado porta lateral furgoneta esticado chegar saco alimentos determinada família mulher ano ano encostase mim começa abanarse fazer sexo comigo vários presentes riramse aqui pude ignorar repreender alguma aspereza dizendo ter pouco respeito mim respondeu desastradamente tesão pior emenda soneto jovens estudantes façam insinuações menos veladas dou desconto jovens imaturas olhar reprovação seguese frente mulheres idade ter juízo casadas ainda cima exemplo primeiro caso homem dar apalpão rabo mulher provavelmente distribuição alimentos acabava logo ali terceiro exemplo provavelmente família nunca ajudada provavelmente mulher sentirseía abusada mulheres fazer fizeram sendo homem sinto propriamente vítima acho apenas parvoíce seguese frente ignorando tolices</t>
+          <t>últimos dia comentado sub tugas tentar dar dicas pessoal sair operadoras un minutos uextremeshock mandoume pm dizer curtido comentários aceitei pensar queria ajuda alguma ajuda conversa rapidamente ficou estranha começou perguntar idade saca dum ten dama disse logo demasiado pessoal pra gajo qualquer reddit perguntar responde desculpa desabafar virgem hermafrodita logo aqui grande red flag porque termo hermafrodita correto intersexo certeza saberia termo correto começa então dizer mora america traços femininos blablabla começa mandar fotos modelo diz modelo nada começa dizer quer dar prazer homem mulher fiquei reação gajo comete erro mandar link insta tal modelo nome cesar daniel telemóvel abre definição browser conta insta aberta browser primeira coisa aparece juntate miguel silva instagram abrir app mandeio logo merda disse gajo doentio objectivo disto queria ganhar mim tipo doença ter inventar toda história triste hermafrodita saber quer sei dizer conseguiu surpreender afinal gajos ainda doentes cabeça pensava desculpem rant atenção mete conversa convosco aqui un tempo outro querer partilhar fotos pita agora sei posso postar aqui desculpem mod</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>01-04-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Deputado do Chega constituído arguido por prestar falsas declarações em tribunal</t>
+          <t>Assédio feminino</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>filipe melo ultimo post primeiro deputado lista três eleitos chega círculo braga legislativas arguido falsidade depoimento declaração disse tribunal desconhecer acta interna partido proprio assinou httpsecosapoptdeputadodochegaconstituidoarguidoporprestarfalsasdeclaracoesemtribunalhttpsecosapoptdeputadodochegaconstituidoarguidoporprestarfalsasdeclaracoesemtribunal xb httpswwwredditcomrportugalcommentsbezcdvamoslimparportugalhttpswwwredditcomrportugalcommentsbezcdvamoslimparportugal</t>
+          <t>bem termo certo cá vai conto porque voluntariado sábado ocorreume chovia distribuía alimentos várias famílias molhado bastante evidente particular calças molhadas perto mim várias pessoas dizerme abrigar melhor falta tempo condições climatéricas favoráveis além disso molhado coisa incomoda aí além nisto mulher viúva ano dáme bom apalpão rabo diz molhado evidente bastante óbvio intenção ver molhado ignorei abuso tempo atrás férias allgarve resolvi rapar cabeça fácil secar mercado local mulher banca onde ocasionalmente comprado algumas frutas legume começa cantar samba carecas gostam ignorei boca ainda atrás outra vez voluntariado furgoneta cheia sacos alimentos distribuir encostado porta lateral furgoneta esticado chegar saco alimentos determinada família mulher ano ano encostase mim começa abanarse fazer sexo comigo vários presentes riramse aqui pude ignorar repreender alguma aspereza dizendo ter pouco respeito mim respondeu desastradamente tesão pior emenda soneto jovens estudantes façam insinuações menos veladas dou desconto jovens imaturas olhar reprovação seguese frente mulheres idade ter juízo casadas ainda cima exemplo primeiro caso homem dar apalpão rabo mulher provavelmente distribuição alimentos acabava logo ali terceiro exemplo provavelmente família nunca ajudada provavelmente mulher sentirseía abusada mulheres fazer fizeram sendo homem sinto propriamente vítima acho apenas parvoíce seguese frente ignorando tolices</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>01-04-2024</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joana Mortágua disse que 80% dos imigrantes são pessoas trabalhadoras e apenas 40% dos portugueses o são, o polígrafo deu-lhe razão, não sei se por incompetência ou por manipulação </t>
+          <t>Deputado do Chega constituído arguido por prestar falsas declarações em tribunal</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>diz polígrafo acordo relatório estatístico anual estrangeiros mantêm contribuintes total residentes contribuintes cada residentes população total portugal contribuintes cada residentes baseouse relatório estatístico anual indicadores integração imigranteshttpsmigrantintegrationeceuropaeusystemfilesrelatorioestatisticoanualindicadoresdeintegracaodeimigrantespdf basta ir relatório ver página concluímos apenas população imigrante ano neste intervalo etário poucos imigrantes estudantes reformados logo nunca podem contribuintes residentes resto população nesta faixa etária pessoas podemos ver ainda taxon desemprego imigrantes população geral página podemos ver página número beneficiários diversas prestações sociais usando taxon desemprego considerando população idade ativa então ordem concluo taxon imigrantes trabalham ordem polígrafo demagogia incompetência pretende fazer passar faço post debater nada sobre imigração analisar análise polígrafo parece total incompetência então manipulação grosseira ainda dizem redes sociais veiculam fake news edit quadro relatório página particularmente elucidativo origem erro joana mortágua polígrafo nesse quadro rácio contribuintes residentes duas nacionalidade imigrantes brasileiros indianos os indica claramente muitos imigrantes têm autorização residência contabilizados residentes contribuintes aliás valor rácio contribuintesemigrantes subiu quase</t>
+          <t>filipe melo ultimo post primeiro deputado lista três eleitos chega círculo braga legislativas arguido falsidade depoimento declaração disse tribunal desconhecer acta interna partido proprio assinou httpsecosapoptdeputadodochegaconstituidoarguidoporprestarfalsasdeclaracoesemtribunalhttpsecosapoptdeputadodochegaconstituidoarguidoporprestarfalsasdeclaracoesemtribunal xb httpswwwredditcomrportugalcommentsbezcdvamoslimparportugalhttpswwwredditcomrportugalcommentsbezcdvamoslimparportugal</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>02-09-2024</t>
+          <t>18-03-2024</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>App já denunciou às polícias 15 mil estacionamentos</t>
+          <t xml:space="preserve">Joana Mortágua disse que 80% dos imigrantes são pessoas trabalhadoras e apenas 40% dos portugueses o são, o polígrafo deu-lhe razão, não sei se por incompetência ou por manipulação </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>httpspreviewredditcptoybgxcjpgwidthformatpjpgautowebpsbeedacccdc</t>
+          <t>diz polígrafo acordo relatório estatístico anual estrangeiros mantêm contribuintes total residentes contribuintes cada residentes população total portugal contribuintes cada residentes baseouse relatório estatístico anual indicadores integração imigranteshttpsmigrantintegrationeceuropaeusystemfilesrelatorioestatisticoanualindicadoresdeintegracaodeimigrantespdf basta ir relatório ver página concluímos apenas população imigrante ano neste intervalo etário poucos imigrantes estudantes reformados logo nunca podem contribuintes residentes resto população nesta faixa etária pessoas podemos ver ainda taxon desemprego imigrantes população geral página podemos ver página número beneficiários diversas prestações sociais usando taxon desemprego considerando população idade ativa então ordem concluo taxon imigrantes trabalham ordem polígrafo demagogia incompetência pretende fazer passar faço post debater nada sobre imigração analisar análise polígrafo parece total incompetência então manipulação grosseira ainda dizem redes sociais veiculam fake news edit quadro relatório página particularmente elucidativo origem erro joana mortágua polígrafo nesse quadro rácio contribuintes residentes duas nacionalidade imigrantes brasileiros indianos os indica claramente muitos imigrantes têm autorização residência contabilizados residentes contribuintes aliás valor rácio contribuintesemigrantes subiu quase</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>29-04-2024</t>
+          <t>02-09-2024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Menina de 12 anos abusada por 14 homens - Condenados 10 dos 14 homens acusados de abuso sexual de menor nos Açores - ocorrido em 2010 </t>
+          <t>App já denunciou às polícias 15 mil estacionamentos</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>httpswwwacoreshorasptmeninadeanosabusadaporhomenshttpswwwacoreshorasptmeninadeanosabusadaporhomens surgiram informações sobre abusos arguido acompanhado cerca homens trabalhavam construção urbanização deslocouse residência menor ameaçar morte mãe vítima caso calasse acordo acusação ministério público restantes arguidos praticaram momentos distintos dezenas abusos sexuais arguidos ofereciam cigarros dinheiro menor procuravam coagir vítima ameaçando contariam pai comportamento abusos prolongaramse durante meses caso chegou conhecimento comissão protecção menores denunciou psp httpssicnoticiasptpaiscondenadosdoshomensacusadosdeabusosexualdemenornosacoreshttpssicnoticiasptpaiscondenadosdoshomensacusadosdeabusosexualdemenornosacores acusados cinco condenados penas prisão quatro seis ano prática abuso sexual criança tendo sido considerado provado cópula sexo oral menor tribunal condenou ainda outros cinco homens penas suspensas absolveu três considerou outro inimputável</t>
+          <t>httpspreviewredditcptoybgxcjpgwidthformatpjpgautowebpsbeedacccdc</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15-11-2024</t>
+          <t>29-04-2024</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Distribuição de sacos cama a sem abrigo</t>
+          <t xml:space="preserve">Menina de 12 anos abusada por 14 homens - Condenados 10 dos 14 homens acusados de abuso sexual de menor nos Açores - ocorrido em 2010 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>seguimento post anterior decidi comprar meia dúzia sacos cama meia dúzia pessoas abrigo dormem ruahttpswwwredditcomrportugalcommentsayszdecidicomprarmeiadcbaziadesacoscamaparaa ante doi post anteriores porque saiu querer duplicado httpswwwredditcomrportugalcommentsaytldecidicomprarmeiadcbaziadesacoscamaparaahttpswwwredditcomrportugalcommentsaytldecidicomprarmeiadcbaziadesacoscamaparaa acabei comprar sacos cama temperatura conforto c sugestão cientistacrazyhttpswwwredditcomusercientistacrazy comprei colchões campismohttpswwwdecathlonptpcolchonetedobravelmtisolantexcmpessoarpmccazul além disso alguém deu algumas sugestões pareceram boa segui ainda toda segui comprei pasta dentes escovas talheres copos plástico ainda comprei sugestão alguém aqui dez manta térmicas emergênciahttpswwwdecathlonptpmantadesobrevivenciareutilizavelrpmc cometi alguns erros distribuição principalmente primeiros sacos cama levei sacos cama perguntei queriam disseram sim usar colchenetes comecei inquirir primeiro levar sacos colchonetes alguns souberam usar corretamente colchonetes consegui explicarlhe devem usados doi abrigo disseram queriam sacos cama porque rapidamente iriam roubar maior parte manifestou receio roubassem coisas têm quase sempre vigiálas razões juntarem pequenos grupos pessoas maior parte abrigo dentes poucos quis pasta dentes escova dentes alguns pegaram nelas preciosidades maior parte pareceume serem alcoólicos dei doi casais coisa recentemente praticamente via ruas claramente homem atraso mental bastante evidente outro homem dormia perto vaio apoiando alguns tanta necessidade conversa coisas levava doi poucos meses situação abrigo outra coisa reparei alguns precisam gorros quentes cabeça vou ver ainda hoje consigo arranjar alguns resolvi colocar aqui agradecer todos ajudaram sugestões post anteriores dar conhecimento ocorreu entretanto</t>
+          <t>httpswwwacoreshorasptmeninadeanosabusadaporhomenshttpswwwacoreshorasptmeninadeanosabusadaporhomens surgiram informações sobre abusos arguido acompanhado cerca homens trabalhavam construção urbanização deslocouse residência menor ameaçar morte mãe vítima caso calasse acordo acusação ministério público restantes arguidos praticaram momentos distintos dezenas abusos sexuais arguidos ofereciam cigarros dinheiro menor procuravam coagir vítima ameaçando contariam pai comportamento abusos prolongaramse durante meses caso chegou conhecimento comissão protecção menores denunciou psp httpssicnoticiasptpaiscondenadosdoshomensacusadosdeabusosexualdemenornosacoreshttpssicnoticiasptpaiscondenadosdoshomensacusadosdeabusosexualdemenornosacores acusados cinco condenados penas prisão quatro seis ano prática abuso sexual criança tendo sido considerado provado cópula sexo oral menor tribunal condenou ainda outros cinco homens penas suspensas absolveu três considerou outro inimputável</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>29-12-2023</t>
+          <t>15-11-2024</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fui o responsável pela recolha de alimentos de um banco alimentar num supermercado</t>
+          <t>Distribuição de sacos cama a sem abrigo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>agrade tarefa pediramme fazer alguém fazêlo arranjar voluntários todos horários fácil principalmente domingo tarde contar imprevistos última hora alguém fica doente outra razão pode vir contrário propaganda negativa alguns grupos fazem nomeadamente alguns grupos políticos esmagadora maioria voluntários recolha alimentos logística disto banco alimentar tenta aproveitar alimentos recolhidos contrário quer contribuir compram alguns alimentos doar acho estranho alguns setores políticos tentem combater tudo iniciativa privada ajudar necessitam ainda cima alguns fazem dizemse esquerda defender políticas solidárias toda pessoas cortes voluntários assim simpáticos todos desagradáveis voluntários apesar disso generalidade pessoas afável voluntários principalmente crianças jovens curioso estando tempo entrada supermercado faço vários ano apercebome número significativo pessoas faz ronda vários supermercados regressa supermercado várias vezes fim semana obviamente ocorre reformados acabamos aperceber generalizando tipo pessoas ajuda ajuda menos pessoas pobremente vestidas tendem doar menos esperar pessoas vestidas forma vistosa parecer vão festa dão menos ainda tanto esperar pessoas vestidas forma cuidada discreta tendem generosos experiência pessoal obviamente nenhum rigor científico porque experiência empírica apenas supermercado sempre vários ano aparecem algumas pessoas dizerem precisam ajuda ficámos contactos avaliar necessidade dessas pessoas desses casos verificouse precisar realmente ajuda</t>
+          <t>seguimento post anterior decidi comprar meia dúzia sacos cama meia dúzia pessoas abrigo dormem ruahttpswwwredditcomrportugalcommentsayszdecidicomprarmeiadcbaziadesacoscamaparaa ante doi post anteriores porque saiu querer duplicado httpswwwredditcomrportugalcommentsaytldecidicomprarmeiadcbaziadesacoscamaparaahttpswwwredditcomrportugalcommentsaytldecidicomprarmeiadcbaziadesacoscamaparaa acabei comprar sacos cama temperatura conforto c sugestão cientistacrazyhttpswwwredditcomusercientistacrazy comprei colchões campismohttpswwwdecathlonptpcolchonetedobravelmtisolantexcmpessoarpmccazul além disso alguém deu algumas sugestões pareceram boa segui ainda toda segui comprei pasta dentes escovas talheres copos plástico ainda comprei sugestão alguém aqui dez manta térmicas emergênciahttpswwwdecathlonptpmantadesobrevivenciareutilizavelrpmc cometi alguns erros distribuição principalmente primeiros sacos cama levei sacos cama perguntei queriam disseram sim usar colchenetes comecei inquirir primeiro levar sacos colchonetes alguns souberam usar corretamente colchonetes consegui explicarlhe devem usados doi abrigo disseram queriam sacos cama porque rapidamente iriam roubar maior parte manifestou receio roubassem coisas têm quase sempre vigiálas razões juntarem pequenos grupos pessoas maior parte abrigo dentes poucos quis pasta dentes escova dentes alguns pegaram nelas preciosidades maior parte pareceume serem alcoólicos dei doi casais coisa recentemente praticamente via ruas claramente homem atraso mental bastante evidente outro homem dormia perto vaio apoiando alguns tanta necessidade conversa coisas levava doi poucos meses situação abrigo outra coisa reparei alguns precisam gorros quentes cabeça vou ver ainda hoje consigo arranjar alguns resolvi colocar aqui agradecer todos ajudaram sugestões post anteriores dar conhecimento ocorreu entretanto</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17-12-2024</t>
+          <t>29-12-2023</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Criminalização do Stealthing em Portugal</t>
+          <t>Fui o responsável pela recolha de alimentos de um banco alimentar num supermercado</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>stealthing prática remover preservativo durante ato sexual conhecimento consentimento outra pessoa petição online pedir criminalização stealthing mim pareceme difícil provar consentimento ausência tribunal acham deve criminalizado</t>
+          <t>agrade tarefa pediramme fazer alguém fazêlo arranjar voluntários todos horários fácil principalmente domingo tarde contar imprevistos última hora alguém fica doente outra razão pode vir contrário propaganda negativa alguns grupos fazem nomeadamente alguns grupos políticos esmagadora maioria voluntários recolha alimentos logística disto banco alimentar tenta aproveitar alimentos recolhidos contrário quer contribuir compram alguns alimentos doar acho estranho alguns setores políticos tentem combater tudo iniciativa privada ajudar necessitam ainda cima alguns fazem dizemse esquerda defender políticas solidárias toda pessoas cortes voluntários assim simpáticos todos desagradáveis voluntários apesar disso generalidade pessoas afável voluntários principalmente crianças jovens curioso estando tempo entrada supermercado faço vários ano apercebome número significativo pessoas faz ronda vários supermercados regressa supermercado várias vezes fim semana obviamente ocorre reformados acabamos aperceber generalizando tipo pessoas ajuda ajuda menos pessoas pobremente vestidas tendem doar menos esperar pessoas vestidas forma vistosa parecer vão festa dão menos ainda tanto esperar pessoas vestidas forma cuidada discreta tendem generosos experiência pessoal obviamente nenhum rigor científico porque experiência empírica apenas supermercado sempre vários ano aparecem algumas pessoas dizerem precisam ajuda ficámos contactos avaliar necessidade dessas pessoas desses casos verificouse precisar realmente ajuda</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>19-11-2024</t>
+          <t>17-12-2024</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Opinião muito impopular</t>
+          <t>Criminalização do Stealthing em Portugal</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>garantidamente impopular devia proibido levantar tabuleiros praças alimentação centros comerciais pessoas protestam alguém levanta levantar tabuleiro sentarse seguida outra pessoa mesma mesa limpa bom meio transmissão doenças contagiosas gripe tuberculose covid outras doenças transmitidas desta forma prática devia proibida praças alimentação fechadas durante pandemia obrigatoriedade levantamento tabuleiros serve apenas baixar custos pessoal logo aumentar lucros donos centros comerciais</t>
+          <t>stealthing prática remover preservativo durante ato sexual conhecimento consentimento outra pessoa petição online pedir criminalização stealthing mim pareceme difícil provar consentimento ausência tribunal acham deve criminalizado</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>19-11-2024</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Indostânicos lutam na via pública em Beja</t>
+          <t>Opinião muito impopular</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>beja indostânicos lutam si tira facão bolso trás</t>
+          <t>garantidamente impopular devia proibido levantar tabuleiros praças alimentação centros comerciais pessoas protestam alguém levanta levantar tabuleiro sentarse seguida outra pessoa mesma mesa limpa bom meio transmissão doenças contagiosas gripe tuberculose covid outras doenças transmitidas desta forma prática devia proibida praças alimentação fechadas durante pandemia obrigatoriedade levantamento tabuleiros serve apenas baixar custos pessoal logo aumentar lucros donos centros comerciais</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10-05-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Que acham? </t>
+          <t>Indostânicos lutam na via pública em Beja</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>simple preserva quinas castelos esfera armilar gostei</t>
+          <t>beja indostânicos lutam si tira facão bolso trás</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>06-05-2024</t>
+          <t>10-05-2024</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PSP sufocou homem com saco de plástico para obter confissão</t>
+          <t xml:space="preserve">Que acham? </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>httpswwwjnptpspsufocouhomemcomsacodeplasticoparaobterconfissao</t>
+          <t>simple preserva quinas castelos esfera armilar gostei</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09-08-2024</t>
+          <t>06-05-2024</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Eu sinto-me a ficar comido da cabeça</t>
+          <t>PSP sufocou homem com saco de plástico para obter confissão</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sintome ficar comido cabeça esposa igual ver achamos anda todo mundo ficar vossa opinião algo correu malou através alimentação radiação qualquer outro motivo vem agora ia porque vamos deixar ter capacidade continuar sozinhos sinto grande perda cognitiva nível profissional consultor informático programador sintome perder muitas capacidades percome meio pensamentos capaz ter reunião h fim lembrar metade pontos</t>
+          <t>httpswwwjnptpspsufocouhomemcomsacodeplasticoparaobterconfissao</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12-07-2024</t>
+          <t>09-08-2024</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nivea RIP</t>
+          <t>Eu sinto-me a ficar comido da cabeça</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>acabas almoçar vais redes sociais</t>
+          <t>sintome ficar comido cabeça esposa igual ver achamos anda todo mundo ficar vossa opinião algo correu malou através alimentação radiação qualquer outro motivo vem agora ia porque vamos deixar ter capacidade continuar sozinhos sinto grande perda cognitiva nível profissional consultor informático programador sintome perder muitas capacidades percome meio pensamentos capaz ter reunião h fim lembrar metade pontos</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>12-07-2024</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Para os parvos otimistas</t>
+          <t>Nivea RIP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>maiores europa</t>
+          <t>acabas almoçar vais redes sociais</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>28-12-2023</t>
+          <t>23-03-2024</t>
         </is>
       </c>
     </row>
@@ -1478,76 +1478,76 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sismo em direto...Açores</t>
+          <t>A Worten</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sismo durante transmissão missa freguesia serreta reparem ruído balanço árvore natal</t>
+          <t>worten grande cancro comercial vendedores lojas agarrados púlpitos caixas registadoras colados stand smartphones artigo situações porque sabem gerir armazém deve podemos encomendar moço fazer encomenda faziao casa venho loja ter artigo hora sabem vender sabem vender produto alguns andam lá andar feitos zombie encontra vendedor presente loja vezes entro lá dentro ninguém andam lá clientes toda gente percebeu vale pena grande abraço fórum coimbra alma shopping coimbra visto</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>25-12-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A Worten</t>
+          <t>“Em Portugal não vale a pena grandes lutas, senti-me muito só quando era preciso lutar; as pessoas gostam de ser roubadas e viver na merda”</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>worten grande cancro comercial vendedores lojas agarrados púlpitos caixas registadoras colados stand smartphones artigo situações porque sabem gerir armazém deve podemos encomendar moço fazer encomenda faziao casa venho loja ter artigo hora sabem vender sabem vender produto alguns andam lá andar feitos zombie encontra vendedor presente loja vezes entro lá dentro ninguém andam lá clientes toda gente percebeu vale pena grande abraço fórum coimbra alma shopping coimbra visto</t>
+          <t>mouche</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10-10-2024</t>
+          <t>04-02-2024</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>“Em Portugal não vale a pena grandes lutas, senti-me muito só quando era preciso lutar; as pessoas gostam de ser roubadas e viver na merda”</t>
+          <t xml:space="preserve">Unpopular opinion: Não suporto feministas </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mouche</t>
+          <t>mulher sinto importante expressar pensamentos sobre feminismo especialmente trata certas atitudes vejo movimento fico desiludida algumas feministas clara tânia graça criticam homens inerentemente inferiores tipo retórica faz mal bem cria divisões desnecessárias géneros acredito defender direitos mulheres deve envolver menosprezar homens verdadeira igualdade implica reconhecer valor todos indivíduos independentemente género possível lutar direitos mulheres recorrer desvalorizar outros gostava saber pensam sobre única sentirme assim</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>48</v>
+        <v>512</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>04-02-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unpopular opinion: Não suporto feministas </t>
+          <t>Quem agredir polícias, médicos e professores vai ser punido com 8 anos de prisão</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mulher sinto importante expressar pensamentos sobre feminismo especialmente trata certas atitudes vejo movimento fico desiludida algumas feministas clara tânia graça criticam homens inerentemente inferiores tipo retórica faz mal bem cria divisões desnecessárias géneros acredito defender direitos mulheres deve envolver menosprezar homens verdadeira igualdade implica reconhecer valor todos indivíduos independentemente género possível lutar direitos mulheres recorrer desvalorizar outros gostava saber pensam sobre única sentirme assim</t>
+          <t>httpswwwcmjornalptportugaldetalheagredirpoliciasmedicoseprofessoresvaiserpunidocomanosdeprisaorefhpprimeirosdestaqueshttpswwwcmjornalptportugaldetalheagredirpoliciasmedicoseprofessoresvaiserpunidocomanosdeprisaorefhpprimeirosdestaques quase agentes psp militares gnr agredidos desde início deste ano agredir elementos forças segurança guardas prisionais professores pessoal docente escolas profissionais saúde bombeiros vai arriscar oito ano prisão efetiva caso proposta governo enviada assembleia república aprovada previsto segundo ministra administração interna documento agrava penas agora moldura penal cinco ano prisão deu entrada semana passada prevê isenção custas transforma parte desses crime crime públicos dispensando queixa vítima ministra margarida blasco inadmissível inaceitável janeiro agosto deste ano agentes psp militares gnr sido agredidos funções</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>512</v>
+        <v>109</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1558,1020 +1558,1020 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Quem agredir polícias, médicos e professores vai ser punido com 8 anos de prisão</t>
+          <t>Vejo muitas pessoas alarmadas com a guerra como se fosse o fim do mundo. Talvez seja hora de desligarem as TVs (de vez) e procurarem informação verdadeiramente fiável.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalheagredirpoliciasmedicoseprofessoresvaiserpunidocomanosdeprisaorefhpprimeirosdestaqueshttpswwwcmjornalptportugaldetalheagredirpoliciasmedicoseprofessoresvaiserpunidocomanosdeprisaorefhpprimeirosdestaques quase agentes psp militares gnr agredidos desde início deste ano agredir elementos forças segurança guardas prisionais professores pessoal docente escolas profissionais saúde bombeiros vai arriscar oito ano prisão efetiva caso proposta governo enviada assembleia república aprovada previsto segundo ministra administração interna documento agrava penas agora moldura penal cinco ano prisão deu entrada semana passada prevê isenção custas transforma parte desses crime crime públicos dispensando queixa vítima ministra margarida blasco inadmissível inaceitável janeiro agosto deste ano agentes psp militares gnr sido agredidos funções</t>
+          <t>guerra putin contra ucrânia mergulhar ruzzia abismo todos dia cerca soldados ruzzos perdem vida campo batalha refletindo exército mal equipado comandado falta pessoal crítica ponto putin ter depender aliados coreia norte armamento básico sinal claro desespero militar consequências vão além campo batalha economia ruzza colapsar sanções fuga talentos falta jovens trabalhadores sustentar economia alarmante agravada recrutamento forçado êxodo massa tempo descontentamento população cresce silenciosamente censura evidente muitos russos rejeitariam guerra absurda trouxe nada além isolamento sofrimento putin perder campo batalha economia confiança próprio povo aliança regime coreia norte reforça quanto regime encurralado escalada contínua levará fim rápido inevitável regime guerra perdida verdadeiro poder nesta guerra povo ucraniano resiliência inabalável defendem terra liberdade mostrando mundo coragem igual tempo modernos</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16-10-2024</t>
+          <t>23-11-2024</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Vejo muitas pessoas alarmadas com a guerra como se fosse o fim do mundo. Talvez seja hora de desligarem as TVs (de vez) e procurarem informação verdadeiramente fiável.</t>
+          <t>Contínuo abusou de cinco crianças em Matosinhos: mãe de vítima processou Estado</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>guerra putin contra ucrânia mergulhar ruzzia abismo todos dia cerca soldados ruzzos perdem vida campo batalha refletindo exército mal equipado comandado falta pessoal crítica ponto putin ter depender aliados coreia norte armamento básico sinal claro desespero militar consequências vão além campo batalha economia ruzza colapsar sanções fuga talentos falta jovens trabalhadores sustentar economia alarmante agravada recrutamento forçado êxodo massa tempo descontentamento população cresce silenciosamente censura evidente muitos russos rejeitariam guerra absurda trouxe nada além isolamento sofrimento putin perder campo batalha economia confiança próprio povo aliança regime coreia norte reforça quanto regime encurralado escalada contínua levará fim rápido inevitável regime guerra perdida verdadeiro poder nesta guerra povo ucraniano resiliência inabalável defendem terra liberdade mostrando mundo coragem igual tempo modernos</t>
+          <t>httpssicnoticiasptpaisvideocontinuoabusoudecincocriancasemmatosinhosmaedevitimaprocessouestadodfhttpssicnoticiasptpaisvideocontinuoabusoudecincocriancasemmatosinhosmaedevitimaprocessouestadodf mãe vítimas abuso sexual cadastro crime tráfico droga furto agressões condução carta suficiente escola autarquia afastado cargo ocupava escola mãe aluna abusada sexualmente funcionário escola matosinhos processou instituição ensino estado ter colocado exrecluso trabalhar instituição homem antecedentes criminais trabalhar contínuo através programa instituto emprego formação profissional condenado três ano pena suspensa abusos sexuais cinco alunos escola xb</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>23-11-2024</t>
+          <t>17-04-2024</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Contínuo abusou de cinco crianças em Matosinhos: mãe de vítima processou Estado</t>
+          <t>Crónica de uma tarde de voluntariado a ajudar famílias pobres</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>httpssicnoticiasptpaisvideocontinuoabusoudecincocriancasemmatosinhosmaedevitimaprocessouestadodfhttpssicnoticiasptpaisvideocontinuoabusoudecincocriancasemmatosinhosmaedevitimaprocessouestadodf mãe vítimas abuso sexual cadastro crime tráfico droga furto agressões condução carta suficiente escola autarquia afastado cargo ocupava escola mãe aluna abusada sexualmente funcionário escola matosinhos processou instituição ensino estado ter colocado exrecluso trabalhar instituição homem antecedentes criminais trabalhar contínuo através programa instituto emprego formação profissional condenado três ano pena suspensa abusos sexuais cinco alunos escola xb</t>
+          <t>vieram buscar roupa algumas famílias maioria imigrantes continuam chegar muitos quase sempre mulheres vir buscar roupa toda família imigrantes levam muita roupa chegam apenas pequena mala avião instituição onde faço algum voluntariado ajuda várias famílias ciganas imigrantes outras maior parte famílias monoparentais procuro tratar bem toda gente ouvir pouco todos sempre tempo disponível permite vejo ciganos habituados bem tratados parte agressividade atribuída vem daí parte cigana perto ano grávida meses mostrame lista médica diz precisa diz nada diz possibilidades comprar quase nada daquilo sei verdade olha lista angústia ternura compreilhe algumas coisas outras instituição usadas demoslhe faltam ainda quase metade coisas saída visito famílias casas cigana disse pediu amizade facebook usam facebook facebook disselhe aliás disse várias vezes cair si então pedi amizade diz algum alarme sei facebook entrego alimentos algumas famílias mãe imigrante chegada poucas semanas filho velho ano pergunto todo material precisa escola frequenta uma semanas nada previsto acaso levado material escolar dado comecei darlhe algum desse material esferográficas borrachas lápis grafite caderno escolar linhas etc menino salta contentamento enquanto recebe cada destas coisas nunca visto reação assim acabou tarde regresso casa contente consciência damos pouco necessidades recorrem dizer muitas vezes podíamos ajudar ajudamos deixa certa angústia alma</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>17-04-2024</t>
+          <t>03-02-2024</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Crónica de uma tarde de voluntariado a ajudar famílias pobres</t>
+          <t>Como perdi grande parte do respeito que tinha pelos enfermeiros das urgências (pelo menos daquele hospital)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vieram buscar roupa algumas famílias maioria imigrantes continuam chegar muitos quase sempre mulheres vir buscar roupa toda família imigrantes levam muita roupa chegam apenas pequena mala avião instituição onde faço algum voluntariado ajuda várias famílias ciganas imigrantes outras maior parte famílias monoparentais procuro tratar bem toda gente ouvir pouco todos sempre tempo disponível permite vejo ciganos habituados bem tratados parte agressividade atribuída vem daí parte cigana perto ano grávida meses mostrame lista médica diz precisa diz nada diz possibilidades comprar quase nada daquilo sei verdade olha lista angústia ternura compreilhe algumas coisas outras instituição usadas demoslhe faltam ainda quase metade coisas saída visito famílias casas cigana disse pediu amizade facebook usam facebook facebook disselhe aliás disse várias vezes cair si então pedi amizade diz algum alarme sei facebook entrego alimentos algumas famílias mãe imigrante chegada poucas semanas filho velho ano pergunto todo material precisa escola frequenta uma semanas nada previsto acaso levado material escolar dado comecei darlhe algum desse material esferográficas borrachas lápis grafite caderno escolar linhas etc menino salta contentamento enquanto recebe cada destas coisas nunca visto reação assim acabou tarde regresso casa contente consciência damos pouco necessidades recorrem dizer muitas vezes podíamos ajudar ajudamos deixa certa angústia alma</t>
+          <t>un largo meses acompanhei familiar urgência hospital cujo nome apetece lembrar hospital universitário problema pneumotorax pulmão totalmente colapsado acabou ter internado durante várias semanas deixaramme entrar pude apreciar enorme falta humanidade grupo enfermeirosas doente colocado sala ampla cortina impedia visão dentro dentro perto meia noite dada altura médica tenta colocar dreno pulmão doente lado poucos metro grupo meia dúzia enfermeiros enfermeiras médica chama nome váris virem ajudar manobra imediatamente tod menos enfermeira afastam outro lado sala enfermeira sobrante vai ajudar logo espera doi minuto entra diz chamou vim agora precisa diz médica tom cansado coloquei dreno primeira reação querer denunciar todo grupo enfermeiros enfermeiras indignos médica pensei familiar podium ficar dependente má vontade alguns poi provavelmente iria ficar internado ficou podiam vingarse nele hoje provavelmente faria forma diferente arranjaria maneira denunciar manter familiar segurança naquele momento cansaço receio consequências familiar caleime ficoume imenso desprezo enorme repugnância enfermeirs</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>03-02-2024</t>
+          <t>06-07-2024</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Como perdi grande parte do respeito que tinha pelos enfermeiros das urgências (pelo menos daquele hospital)</t>
+          <t xml:space="preserve">Preciso de passa a palavra </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>un largo meses acompanhei familiar urgência hospital cujo nome apetece lembrar hospital universitário problema pneumotorax pulmão totalmente colapsado acabou ter internado durante várias semanas deixaramme entrar pude apreciar enorme falta humanidade grupo enfermeirosas doente colocado sala ampla cortina impedia visão dentro dentro perto meia noite dada altura médica tenta colocar dreno pulmão doente lado poucos metro grupo meia dúzia enfermeiros enfermeiras médica chama nome váris virem ajudar manobra imediatamente tod menos enfermeira afastam outro lado sala enfermeira sobrante vai ajudar logo espera doi minuto entra diz chamou vim agora precisa diz médica tom cansado coloquei dreno primeira reação querer denunciar todo grupo enfermeiros enfermeiras indignos médica pensei familiar podium ficar dependente má vontade alguns poi provavelmente iria ficar internado ficou podiam vingarse nele hoje provavelmente faria forma diferente arranjaria maneira denunciar manter familiar segurança naquele momento cansaço receio consequências familiar caleime ficoume imenso desprezo enorme repugnância enfermeirs</t>
+          <t>boa tarde amigo reddit grande problema mãos sei onde virar devido problema força maior infelizmente alugar quarto ter onde morar problema cadela labradora ano desde bebe sempre cuidei tratei família agora vejo encurralada poi posso ter comigo grande tristeza pesar fazer post associações dão resposta lotação cheia família amigo ninguém sabe ninguém ninguém pode ficar preciso passa palavra chegar algum lado cadela super mega meiga fofa ano idosa sabe sentar deitar dar pata busca fica tudo cão saudável precisa equilibrado dá maravilhosamente bem outros cães ladra praticamente circunstância nenhuma preciso julgamentos aqui tentar algo porque esgotei todos contactos contactos contactos possíveis zona lisboa precisamente arredores saiba algo favor diga algo obrigado</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>06-07-2024</t>
+          <t>25-04-2024</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preciso de passa a palavra </t>
+          <t>Influencer</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>boa tarde amigo reddit grande problema mãos sei onde virar devido problema força maior infelizmente alugar quarto ter onde morar problema cadela labradora ano desde bebe sempre cuidei tratei família agora vejo encurralada poi posso ter comigo grande tristeza pesar fazer post associações dão resposta lotação cheia família amigo ninguém sabe ninguém ninguém pode ficar preciso passa palavra chegar algum lado cadela super mega meiga fofa ano idosa sabe sentar deitar dar pata busca fica tudo cão saudável precisa equilibrado dá maravilhosamente bem outros cães ladra praticamente circunstância nenhuma preciso julgamentos aqui tentar algo porque esgotei todos contactos contactos contactos possíveis zona lisboa precisamente arredores saiba algo favor diga algo obrigado</t>
+          <t>facto exmelhor amigo costa recebeu k dinheiro m ações único trabalho estabelecer contatos governo httpsvisaoptatualidadepoliticadiogolacerdamachadorecebeumaisdeemileacoesdastartcampuscomoreconhecimentoparaosucessofuturodaempresa httpssicnoticiasptpaiseprecisoescalaraoprimeiroministroescutasrevelampressaodastartcampusbfb facto start campus facilidades ninguém chegando ponto escreverem quatro lei governo aprovar muitos afirmam facilidades dada ilegais httpswwwrtpptnoticiaspoliticagalambaatuoudeformailegalparabeneficiarstartcampusn facto escutas ouvese quero nada disso escrito quero nada disso email obvio sendo completamente estúpidos sabem coisas escrevem httpsrrsapoptespecialpaisstartcampuscolaborouemquatrodiplomasdegalambasefizeresoqueestouadizeraportariaestaaqui facto tribunal diz indícios tráfico influências suspeitas meras especulações httpswwwrtpptnoticiaspaisoperacaoinfluencerrelacaodizquenaohaindiciosdetraficodeinfluenciasdeescariaelacerdamachadon sugiro arquivarem todos processo contra sócrates nada escrito josé sócrates aceito corrompido troco milhões amigo vai guardar tudo especulações tribunal chama tudo reconhecido notário imprensa cada vez dependente dinheiro poder alinha discurso lincha investiga acha óbvio facilidades causa pagaram exmelhor amigo primeiro ministro</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>25-04-2024</t>
+          <t>20-04-2024</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Influencer</t>
+          <t xml:space="preserve">PAN avança com denúncia contra concorrente da "Casa dos Segredos" </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>facto exmelhor amigo costa recebeu k dinheiro m ações único trabalho estabelecer contatos governo httpsvisaoptatualidadepoliticadiogolacerdamachadorecebeumaisdeemileacoesdastartcampuscomoreconhecimentoparaosucessofuturodaempresa httpssicnoticiasptpaiseprecisoescalaraoprimeiroministroescutasrevelampressaodastartcampusbfb facto start campus facilidades ninguém chegando ponto escreverem quatro lei governo aprovar muitos afirmam facilidades dada ilegais httpswwwrtpptnoticiaspoliticagalambaatuoudeformailegalparabeneficiarstartcampusn facto escutas ouvese quero nada disso escrito quero nada disso email obvio sendo completamente estúpidos sabem coisas escrevem httpsrrsapoptespecialpaisstartcampuscolaborouemquatrodiplomasdegalambasefizeresoqueestouadizeraportariaestaaqui facto tribunal diz indícios tráfico influências suspeitas meras especulações httpswwwrtpptnoticiaspaisoperacaoinfluencerrelacaodizquenaohaindiciosdetraficodeinfluenciasdeescariaelacerdamachadon sugiro arquivarem todos processo contra sócrates nada escrito josé sócrates aceito corrompido troco milhões amigo vai guardar tudo especulações tribunal chama tudo reconhecido notário imprensa cada vez dependente dinheiro poder alinha discurso lincha investiga acha óbvio facilidades causa pagaram exmelhor amigo primeiro ministro</t>
+          <t>httpswwwjnptpanavancacomdenunciacontraconcorrentedacasadossegredoshttpswwwjnptpanavancacomdenunciacontraconcorrentedacasadossegredos renata concorrente casa segredos contou colegas cadela levou coça vida disso nunca fugiu vídeo tornouse viral madrugada desta segundafeira inês sousa real portavoz pan anunciou partido irá fazer chegar denúncia ministério público</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20-04-2024</t>
+          <t>05-12-2024</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">PAN avança com denúncia contra concorrente da "Casa dos Segredos" </t>
+          <t>Israel financiou o Hamas para enfraquecer a autoridade palestiniana</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>httpswwwjnptpanavancacomdenunciacontraconcorrentedacasadossegredoshttpswwwjnptpanavancacomdenunciacontraconcorrentedacasadossegredos renata concorrente casa segredos contou colegas cadela levou coça vida disso nunca fugiu vídeo tornouse viral madrugada desta segundafeira inês sousa real portavoz pan anunciou partido irá fazer chegar denúncia ministério público</t>
+          <t>httpspteuronewscommyeuropeisraelfinanciouohamasparaenfraqueceraautoridadepalestinianaafirmajosepborrell nenhuma dúvida sobre dito letras toda ministro actual israel hamas util israel muitas provas incluindo celebre malas milhões dólares apanhados fronteira tempo vejo noticias médico amputar anestesia perna sobrinha mesa sala europa defensora direitos humanos apoia país diz ter exército moral mundo faz tudo pode minimizar atingir civis tempo recusa medicamentos anestesia toda população exceção</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>05-12-2024</t>
+          <t>19-01-2024</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Israel financiou o Hamas para enfraquecer a autoridade palestiniana</t>
+          <t>Viver com o meu namorado tornou-se num pesadelo de filme de terror [sério]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>httpspteuronewscommyeuropeisraelfinanciouohamasparaenfraqueceraautoridadepalestinianaafirmajosepborrell nenhuma dúvida sobre dito letras toda ministro actual israel hamas util israel muitas provas incluindo celebre malas milhões dólares apanhados fronteira tempo vejo noticias médico amputar anestesia perna sobrinha mesa sala europa defensora direitos humanos apoia país diz ter exército moral mundo faz tudo pode minimizar atingir civis tempo recusa medicamentos anestesia toda população exceção</t>
+          <t>olá todos favor julguem ontem passei piores dia vida companhia namorado preciso desabafar desesperada sei fazer cerca ano comecei namorar atual companheiro início ano decidimos altura darmos passo adiante encetámos preparações arrumarmos trouxas realizarmos sonho viver concumbinato semana partilhamos mesma casa posso adiantar sonho transformouse espécie pesadelo sei desembaraçar perceberem melhor falar deixemme darvos algum contexto tremer enquanto escrevo vou tentar clara possível ano sempre vivi pais irmãos avós vida família casa cheia apoio familiar completo nunca sozinha vi situação precisasse ajuda brotassem imediato várias pessoas apoiar companheiro órfão posso dar muitos pormenores manter anonimato vida facil viémos viver cantinho puxar interior lugar vazio apenas meia dúzia casas afastado povoação casa fica defronte antigo cemitério nunca gostei casa causa disso confesso tudo resto merecedor grande gratidão lá podermos viver propriamente assustadiça preparada viria acontecer último fim semana sábado domingo inaugurámos vija junto iria melhor noite vidairia porque expetativa acontece tiro saiume culatra noite começou bem ficámos acordados tarde devemos ter adormecido lá horas meninas passaram sabem bem grande acontecimento vidas diferente adormeci sorriso satisfação cara perdeu todo significaso logo seguida meio noite acordei estremunhada sobressaltada ruído estranho vindo perto mim tentei ver negrume distinguia nada chamei fiquei resposta peguei telemóvel h madrugada ruído estranho vinha namorado fiquei medo ter ataque algo gnero corri ligar luz quarto deitado barriga cima respirava maneira grosseira pensei asfixiar dentro calmo mexia coração ficou logo acelerado aproximeime acordar pousei mãos nele dei salto horror porque olhos revirados respiração grave piorou tentei despertar acordou grito contribuiu piorar grau pânico tomada medo chamei nome havia meio acordar aproximei novamente levantouse olhoume ar doente pergunteilhe bem ficou especado olhar mim ar sério indiferente disse meia duzia coisas dentes quais percebi mãe mãe deitate puta tentei chamálo terra verificar bem deitouse novamente completamente alheio mim ignorandome completo voltou dormir sério pessoal tentar descrever melhor posso episódio sei consigo fazer entender aterrorizante disto tudo voltei cama encolhime canto assutada dentro pensar havia presenciado tentando acalmar batidas coração devo ter demorado mmais duas horas pegar sono novamnete primeira noite viver segurança casa pais episódio terror absoluto volta horas acordei havia tomado pequenoalmoço tomado duche escutar música enquanto lavava loiça manhã tudo parecia diferente talvez luz dia aterrorizada ainda presente susto apanhado apenas algumas horas ante falar super normal feliz pessoa carinhosa elegante sempre serviume pequeno almoço mesa cozinha conteilhe passado obter respostas sossegassem lembrava nada desvalorizou situação concenveume devia ter tido febre noturna deve ter alucinado fiquei descansada longo dia esqueci assunto passou segunda noite ainda pior desta vez acordada gritos comigo apanhei susto vida desatei gritos tentei perceber passava luzes acesas mãos cabeça dizer visto pai sair cemitério imenso embaraço contar aqui público acreditem preciso fazer imaginem acontecer convosco próximo janela olhava lugar onde havia dito cemitério desativado abandonado sei lá dizia acordado gritos cabeça visto pai sair maldito cemitério chorei disselhe acalmar porque assustar precisávamos falar sério porque noite passada vivido puro terror agora piorar passar contigo passar contigo amor estás assustarme gritei choro desespero demonstrou qualquer empatia comigo sentouse cama pensar quieto quis ligar pais fiquei coregem fazer sequer sabia dizer passar pouco deitava mãos cabeça dizia sentia peso enorme nuca batia mãos coro cabeludo fim tempo lá acalmou deitouse voltou dormir olhou mim nesta segunda noite dormi nada fiquei branco hora levantar sorte tento férias sempre podium recuperar sono durante dia caso contrário poderia ter consequências âmbito desempenho profissional tomada cansaço decorrente falta sono tentei falar sério clarificar vez toda passar especial vez reagiu acontecido super bemdsposto saudável parecia zombie quase incapaz manter pálpebras abertas ficar longo deixemme dizervos apenas piorou noites seguintes coisas estranhas passam companheiro durante noite hoje consegui dormir casa amiga quero terminar relação favor ajudemme perceber passa pesadelo</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>19-01-2024</t>
+          <t>30-06-2024</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Viver com o meu namorado tornou-se num pesadelo de filme de terror [sério]</t>
+          <t>Ponte 25 de Abril cortada por causa de fuga de assaltantes suecos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>olá todos favor julguem ontem passei piores dia vida companhia namorado preciso desabafar desesperada sei fazer cerca ano comecei namorar atual companheiro início ano decidimos altura darmos passo adiante encetámos preparações arrumarmos trouxas realizarmos sonho viver concumbinato semana partilhamos mesma casa posso adiantar sonho transformouse espécie pesadelo sei desembaraçar perceberem melhor falar deixemme darvos algum contexto tremer enquanto escrevo vou tentar clara possível ano sempre vivi pais irmãos avós vida família casa cheia apoio familiar completo nunca sozinha vi situação precisasse ajuda brotassem imediato várias pessoas apoiar companheiro órfão posso dar muitos pormenores manter anonimato vida facil viémos viver cantinho puxar interior lugar vazio apenas meia dúzia casas afastado povoação casa fica defronte antigo cemitério nunca gostei casa causa disso confesso tudo resto merecedor grande gratidão lá podermos viver propriamente assustadiça preparada viria acontecer último fim semana sábado domingo inaugurámos vija junto iria melhor noite vidairia porque expetativa acontece tiro saiume culatra noite começou bem ficámos acordados tarde devemos ter adormecido lá horas meninas passaram sabem bem grande acontecimento vidas diferente adormeci sorriso satisfação cara perdeu todo significaso logo seguida meio noite acordei estremunhada sobressaltada ruído estranho vindo perto mim tentei ver negrume distinguia nada chamei fiquei resposta peguei telemóvel h madrugada ruído estranho vinha namorado fiquei medo ter ataque algo gnero corri ligar luz quarto deitado barriga cima respirava maneira grosseira pensei asfixiar dentro calmo mexia coração ficou logo acelerado aproximeime acordar pousei mãos nele dei salto horror porque olhos revirados respiração grave piorou tentei despertar acordou grito contribuiu piorar grau pânico tomada medo chamei nome havia meio acordar aproximei novamente levantouse olhoume ar doente pergunteilhe bem ficou especado olhar mim ar sério indiferente disse meia duzia coisas dentes quais percebi mãe mãe deitate puta tentei chamálo terra verificar bem deitouse novamente completamente alheio mim ignorandome completo voltou dormir sério pessoal tentar descrever melhor posso episódio sei consigo fazer entender aterrorizante disto tudo voltei cama encolhime canto assutada dentro pensar havia presenciado tentando acalmar batidas coração devo ter demorado mmais duas horas pegar sono novamnete primeira noite viver segurança casa pais episódio terror absoluto volta horas acordei havia tomado pequenoalmoço tomado duche escutar música enquanto lavava loiça manhã tudo parecia diferente talvez luz dia aterrorizada ainda presente susto apanhado apenas algumas horas ante falar super normal feliz pessoa carinhosa elegante sempre serviume pequeno almoço mesa cozinha conteilhe passado obter respostas sossegassem lembrava nada desvalorizou situação concenveume devia ter tido febre noturna deve ter alucinado fiquei descansada longo dia esqueci assunto passou segunda noite ainda pior desta vez acordada gritos comigo apanhei susto vida desatei gritos tentei perceber passava luzes acesas mãos cabeça dizer visto pai sair cemitério imenso embaraço contar aqui público acreditem preciso fazer imaginem acontecer convosco próximo janela olhava lugar onde havia dito cemitério desativado abandonado sei lá dizia acordado gritos cabeça visto pai sair maldito cemitério chorei disselhe acalmar porque assustar precisávamos falar sério porque noite passada vivido puro terror agora piorar passar contigo passar contigo amor estás assustarme gritei choro desespero demonstrou qualquer empatia comigo sentouse cama pensar quieto quis ligar pais fiquei coregem fazer sequer sabia dizer passar pouco deitava mãos cabeça dizia sentia peso enorme nuca batia mãos coro cabeludo fim tempo lá acalmou deitouse voltou dormir olhou mim nesta segunda noite dormi nada fiquei branco hora levantar sorte tento férias sempre podium recuperar sono durante dia caso contrário poderia ter consequências âmbito desempenho profissional tomada cansaço decorrente falta sono tentei falar sério clarificar vez toda passar especial vez reagiu acontecido super bemdsposto saudável parecia zombie quase incapaz manter pálpebras abertas ficar longo deixemme dizervos apenas piorou noites seguintes coisas estranhas passam companheiro durante noite hoje consegui dormir casa amiga quero terminar relação favor ajudemme perceber passa pesadelo</t>
+          <t>httpswwwcmtvptatualidadedetalhepspcortapontedeabrilnosdoissentidosedetemhomemvejaovideodomomentorefhpdestaquesarasgarhttpswwwcmtvptatualidadedetalhepspcortapontedeabrilnosdoissentidosedetemhomemvejaovideodomomentorefhpdestaquesarasgar surreal todos dia agora sai fornada quentinha crime sensações</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>30-06-2024</t>
+          <t>18-09-2024</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ponte 25 de Abril cortada por causa de fuga de assaltantes suecos</t>
+          <t>Criminalidade em Lisboa. “As pessoas acabam por achar que não vale a pena queixarem-se”</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>httpswwwcmtvptatualidadedetalhepspcortapontedeabrilnosdoissentidosedetemhomemvejaovideodomomentorefhpdestaquesarasgarhttpswwwcmtvptatualidadedetalhepspcortapontedeabrilnosdoissentidosedetemhomemvejaovideodomomentorefhpdestaquesarasgar surreal todos dia agora sai fornada quentinha crime sensações</t>
+          <t>httpswwwdnptcriminalidadeemlisboaaspessoasacabamporacharquenaovaleapenaqueixaremse zona mouraria repetemse assaltos consumos droga céu aberto agressões tentativa violação homicídio presidente junta pede ajuda cml psp governo vendedores ambulantes martim moniz pleno dia vender charros ninguém faz nada questão colocada muitos trabalhadores daquela zona baixa paulo nuno silva partilha preocupações outros funcionários moradores durante sessão pública promovida hotel mundial junta freguesia santa maria maior jfsmm sob mote estado alerta insegurança santa maria maior dn acesso alguns depoimentos prestados nessa sessão</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>18-09-2024</t>
+          <t>23-07-2024</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Criminalidade em Lisboa. “As pessoas acabam por achar que não vale a pena queixarem-se”</t>
+          <t>Alemanha vai controlar todas as fronteiras para combater imigração irregular</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>httpswwwdnptcriminalidadeemlisboaaspessoasacabamporacharquenaovaleapenaqueixaremse zona mouraria repetemse assaltos consumos droga céu aberto agressões tentativa violação homicídio presidente junta pede ajuda cml psp governo vendedores ambulantes martim moniz pleno dia vender charros ninguém faz nada questão colocada muitos trabalhadores daquela zona baixa paulo nuno silva partilha preocupações outros funcionários moradores durante sessão pública promovida hotel mundial junta freguesia santa maria maior jfsmm sob mote estado alerta insegurança santa maria maior dn acesso alguns depoimentos prestados nessa sessão</t>
+          <t>httpswwwcmjornalptmundodetalhealemanhavaicontrolartodasasfronteirasparacombaterimigracaoirregularhttpswwwcmjornalptmundodetalhealemanhavaicontrolartodasasfronteirasparacombaterimigracaoirregular medida ainda objetivo reduzir ameaças grupos terroristas islâmicos organizações criminosas transfronteiriças ministério administração interna alemanha anunciou alargamento controlo toda fronteiras país combater imigração irregular proteger segurança interna controlos fronteiriços vigor fronteira polaca bem república checa suíça acordo dw medida ainda objetivo reduzir ameaças grupos terroristas islâmicos organizações criminosas transfronteiriças países vizinhos alemanha todos membros zona schengen dentro restrições controlos viagens debate longa data sobre imigração sistema asilo alemanha intensificouse últimas semanas após ataque mortal faca cidade solingen oeste país</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>23-07-2024</t>
+          <t>10-09-2024</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Alemanha vai controlar todas as fronteiras para combater imigração irregular</t>
+          <t>Riscaram-me o carro...</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptmundodetalhealemanhavaicontrolartodasasfronteirasparacombaterimigracaoirregularhttpswwwcmjornalptmundodetalhealemanhavaicontrolartodasasfronteirasparacombaterimigracaoirregular medida ainda objetivo reduzir ameaças grupos terroristas islâmicos organizações criminosas transfronteiriças ministério administração interna alemanha anunciou alargamento controlo toda fronteiras país combater imigração irregular proteger segurança interna controlos fronteiriços vigor fronteira polaca bem república checa suíça acordo dw medida ainda objetivo reduzir ameaças grupos terroristas islâmicos organizações criminosas transfronteiriças países vizinhos alemanha todos membros zona schengen dentro restrições controlos viagens debate longa data sobre imigração sistema asilo alemanha intensificouse últimas semanas após ataque mortal faca cidade solingen oeste país</t>
+          <t>café voltava carro vi velha chave riscar carro acham normal chameia bazou carro carro mal estacionado nada pronto perguntei empregado café conhecia senhora deume número filho liguei deu nada acham faça vou polícia</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10-09-2024</t>
+          <t>27-10-2024</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Riscaram-me o carro...</t>
+          <t>Novo comentador da CNN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>café voltava carro vi velha chave riscar carro acham normal chameia bazou carro carro mal estacionado nada pronto perguntei empregado café conhecia senhora deume número filho liguei deu nada acham faça vou polícia</t>
+          <t>pai encaminhado nova carreira bruxelas agora eis ex presidente junta campo ourique novo ceo agência comunicação aparece novo comentador cnn isenção editorial quero ainda dizem despudorado nepotismo imunda cumplicidade medium</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>27-10-2024</t>
+          <t>15-06-2024</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Novo comentador da CNN</t>
+          <t>Filha que bloqueou o pai nas redes sociais perde pensão de alimentos</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pai encaminhado nova carreira bruxelas agora eis ex presidente junta campo ourique novo ceo agência comunicação aparece novo comentador cnn isenção editorial quero ainda dizem despudorado nepotismo imunda cumplicidade medium</t>
+          <t>httpswwwjnptfilhaquebloqueouopainasredessociaisperdepensaodealimentos tribunal relação porto considera jovem ano via pai mera fonte rendimentos juízes punem violação acentuada dever respeito cortou relações pai visitando telefonando perguntando estado saúde tentou contactar filha bloqueouo redes sociais onde partilhou fotografia padrasto legendandoa ten orgulho pai posta foto pai faz sim cria progenitor queria filha ano conhecesse meiairmã bebé nascida outra relação rejeitou outros contactos família paterna queria sim pai contribuísse sustento educação recentemente tribunal relação porto trp acusou jovem ver progenitor mera fonte rendimento privoua pensão alimentos bloquear pai rede social semelhante cumprimentar publicamente chegaram comparar juízes desembargadores</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>15-06-2024</t>
+          <t>03-06-2024</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Filha que bloqueou o pai nas redes sociais perde pensão de alimentos</t>
+          <t>A minha alimentação durante o dia de ontem - Kcal e preços</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>httpswwwjnptfilhaquebloqueouopainasredessociaisperdepensaodealimentos tribunal relação porto considera jovem ano via pai mera fonte rendimentos juízes punem violação acentuada dever respeito cortou relações pai visitando telefonando perguntando estado saúde tentou contactar filha bloqueouo redes sociais onde partilhou fotografia padrasto legendandoa ten orgulho pai posta foto pai faz sim cria progenitor queria filha ano conhecesse meiairmã bebé nascida outra relação rejeitou outros contactos família paterna queria sim pai contribuísse sustento educação recentemente tribunal relação porto trp acusou jovem ver progenitor mera fonte rendimento privoua pensão alimentos bloquear pai rede social semelhante cumprimentar publicamente chegaram comparar juízes desembargadores</t>
+          <t>xb httpspreviewredditwociqwucpngwidthformatpngautowebpscceeeacebcaccdbdf preço mirtilos porque compro diretamente produtor quilos época congeloos total consumi kcal gastei euro energia cozinhar</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>03-06-2024</t>
+          <t>16-04-2024</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A minha alimentação durante o dia de ontem - Kcal e preços</t>
+          <t xml:space="preserve">Encalhada e desesperada </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditwociqwucpngwidthformatpngautowebpscceeeacebcaccdbdf preço mirtilos porque compro diretamente produtor quilos época congeloos total consumi kcal gastei euro energia cozinhar</t>
+          <t>sinto f vários ano querer relacionamentos ninguém dedicar outras coisas vida ano sent necessidade procurar alguém porque sozinha tempo quer queiras acaba deixar triste depressiva acabas querer alguém sente falta carinho tudo relação proporciona saí saio algumas vezes encontrei ninguém agrade emocionalmente fisicamente tentei meetups saídas á noite último tentei apps encontros onde dava match quase toda gente propriamente tinder onde enganada agora receio parar lá voltar gostava encontrar alguém dividir vida sonho casar ter filhos acho destino vai sempre ficar sozinha nunca vou encontrar ninguém dizem fazer hobby interesse nada trabalho dá conta cabeça suficiente pensei conversa pessoas rua demasiado creepy pensei deixar instagram aberto colocar vários story partilhar vida alguém passou situação dêem dicas posso fazer encontrar solução</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>16-04-2024</t>
+          <t>16-12-2024</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Encalhada e desesperada </t>
+          <t>Fecha mais um estabelecimento português em Lisboa</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sinto f vários ano querer relacionamentos ninguém dedicar outras coisas vida ano sent necessidade procurar alguém porque sozinha tempo quer queiras acaba deixar triste depressiva acabas querer alguém sente falta carinho tudo relação proporciona saí saio algumas vezes encontrei ninguém agrade emocionalmente fisicamente tentei meetups saídas á noite último tentei apps encontros onde dava match quase toda gente propriamente tinder onde enganada agora receio parar lá voltar gostava encontrar alguém dividir vida sonho casar ter filhos acho destino vai sempre ficar sozinha nunca vou encontrar ninguém dizem fazer hobby interesse nada trabalho dá conta cabeça suficiente pensei conversa pessoas rua demasiado creepy pensei deixar instagram aberto colocar vários story partilhar vida alguém passou situação dêem dicas posso fazer encontrar solução</t>
+          <t>agora restaurante bota altahttpsexpressoptboacamaboamesaaumentoderendaobrigaaoencerramentodohistoricorestaurantebotaaltatenhopenadestalisboaqueestaafecharaab bairro alto fecha apesar incluído programa lojas história proprietários imóvel exigiram aumento renda negócios fecham terem sustentabilidade económica porque proprietários imóveis utilizam contratos abrigo nrau através aumentos renda brutais expulsarem neste mês dezembro anunciados encerramentos casa chineza vida portuguesa livraria ferin casa achilles barbearia campos virão porque vários proprietários negócios encostados parede proprietários imóveis pagarem várias vezes pagam renda saírem brevemente haverá confeitaria nacional gambrinus galeto benard mexicana pavilhão chinês outros lugares icónicos históricos cidade país lugar destes estabelecimentos vão nascer hotéis alojamento local outros estabelecimentos gosto nova população expat lisboa massas turistas invadem cidade tudo corrido cafés brunch tosta abacate ovo mexido nómadas similares assim vai lisboa cada vez menos lisboeta cada vez menos portuguesa</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>16-12-2024</t>
+          <t>30-12-2023</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Fecha mais um estabelecimento português em Lisboa</t>
+          <t>Quem inventou a moda de passar a roupa a ferro?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>agora restaurante bota altahttpsexpressoptboacamaboamesaaumentoderendaobrigaaoencerramentodohistoricorestaurantebotaaltatenhopenadestalisboaqueestaafecharaab bairro alto fecha apesar incluído programa lojas história proprietários imóvel exigiram aumento renda negócios fecham terem sustentabilidade económica porque proprietários imóveis utilizam contratos abrigo nrau através aumentos renda brutais expulsarem neste mês dezembro anunciados encerramentos casa chineza vida portuguesa livraria ferin casa achilles barbearia campos virão porque vários proprietários negócios encostados parede proprietários imóveis pagarem várias vezes pagam renda saírem brevemente haverá confeitaria nacional gambrinus galeto benard mexicana pavilhão chinês outros lugares icónicos históricos cidade país lugar destes estabelecimentos vão nascer hotéis alojamento local outros estabelecimentos gosto nova população expat lisboa massas turistas invadem cidade tudo corrido cafés brunch tosta abacate ovo mexido nómadas similares assim vai lisboa cada vez menos lisboeta cada vez menos portuguesa</t>
+          <t>moda inútil anti ecológica faz perder tempo dinheiro energia espero futuro passe moda</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>30-12-2023</t>
+          <t>10-11-2024</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Quem inventou a moda de passar a roupa a ferro?</t>
+          <t>Ponto da situação das revoltas em Lisboa</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>moda inútil anti ecológica faz perder tempo dinheiro energia espero futuro passe moda</t>
+          <t>afinal homem morto nenhuma faca mão próprios polícias reconhecem justificar uso armas fogo polícias novatos porque sempre polícias novatos fazerem trabalho locais problemáticos onde bom ter experiência atos vandalismo continuam ainda li nada sobre consequências autores ainda ninguém identificado detido causa destes atos vandalismo motorista autocarro incendiado continuum internado estado grave autores disto identificados detidos autores incêndio bomba gasolina ato perigoso identificados presos apareceu suposto líder algumas revoltas httpsexpressoptsociedadevideoelesnaovaopararagoragaranteoliderdosconfrontosnobairrodozambujalementrevistaasicfbdhttpsexpressoptsociedadevideoelesnaovaopararagoragaranteoliderdosconfrontosnobairrodozambujalementrevistaasicfbd atos criminosos jornalista obrigado identificar fontes causa atos criminosos</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ponto da situação das revoltas em Lisboa</t>
+          <t>A menina que estava sempre a chorar</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>afinal homem morto nenhuma faca mão próprios polícias reconhecem justificar uso armas fogo polícias novatos porque sempre polícias novatos fazerem trabalho locais problemáticos onde bom ter experiência atos vandalismo continuam ainda li nada sobre consequências autores ainda ninguém identificado detido causa destes atos vandalismo motorista autocarro incendiado continuum internado estado grave autores disto identificados detidos autores incêndio bomba gasolina ato perigoso identificados presos apareceu suposto líder algumas revoltas httpsexpressoptsociedadevideoelesnaovaopararagoragaranteoliderdosconfrontosnobairrodozambujalementrevistaasicfbdhttpsexpressoptsociedadevideoelesnaovaopararagoragaranteoliderdosconfrontosnobairrodozambujalementrevistaasicfbd atos criminosos jornalista obrigado identificar fontes causa atos criminosos</t>
+          <t>voluntariado costumo telefonar famílias ante visitar normalmente levar alguma ajuda alimentos medicamentos etc destas famílias menina agora ano pouco tempo sempre telefonava sempre chorar desde cerca ano recentemente lembro telefonar menina chorar recentemente percebi porquê menina aliás altura ainda bebé sempre usar telemóvel mãe atender tirarlhe telemóvel maneira mãe entreter casa agora chora fase atendedor chamadas sabe nome atende chamada fala pouco comigo tagarela chama mãe família monoparental pai suíça dinheiro chegalhe pagar jantares euro restaurante publica conta facebook pagar pensão alimentos</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>15-09-2024</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A menina que estava sempre a chorar</t>
+          <t>O Estado esqueceu-se das comemorações dos 500 anos de Camões?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>voluntariado costumo telefonar famílias ante visitar normalmente levar alguma ajuda alimentos medicamentos etc destas famílias menina agora ano pouco tempo sempre telefonava sempre chorar desde cerca ano recentemente lembro telefonar menina chorar recentemente percebi porquê menina aliás altura ainda bebé sempre usar telemóvel mãe atender tirarlhe telemóvel maneira mãe entreter casa agora chora fase atendedor chamadas sabe nome atende chamada fala pouco comigo tagarela chama mãe família monoparental pai suíça dinheiro chegalhe pagar jantares euro restaurante publica conta facebook pagar pensão alimentos</t>
+          <t>alguém ouviu falar alguma comemoração ano camões ouvi acho lamentável esquecimento irrelevância comemorações ano camões</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>15-09-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>O Estado esqueceu-se das comemorações dos 500 anos de Camões?</t>
+          <t>Lisboa vai ter pela primeira vez um desfile de St. Patrick’s Day</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>alguém ouviu falar alguma comemoração ano camões ouvi acho lamentável esquecimento irrelevância comemorações ano camões</t>
+          <t>acho ridículo cada vez celebrações estrangeiras cidades portuguesas celebrações estrangeiras estrangeiros menos portuguese li algures começa dificuldades encontrar participantes tradicionais desfiles santo antónio admira bairros inteiros lisboa onde portuguese minoria praticamente inexistentes ninguém quer parar</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lisboa vai ter pela primeira vez um desfile de St. Patrick’s Day</t>
+          <t>A vodafone anda muito generosa 🤣🤣</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>acho ridículo cada vez celebrações estrangeiras cidades portuguesas celebrações estrangeiras estrangeiros menos portuguese li algures começa dificuldades encontrar participantes tradicionais desfiles santo antónio admira bairros inteiros lisboa onde portuguese minoria praticamente inexistentes ninguém quer parar</t>
+          <t>oferecer gb net yorn</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>09-03-2024</t>
+          <t>22-11-2024</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A vodafone anda muito generosa 🤣🤣</t>
+          <t>A influência dos pastores evangélicos nos votos: "Não vamos parar até que a Bíblia entre no Parlamento"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>oferecer gb net yorn</t>
+          <t>vamos virar brasil</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>22-11-2024</t>
+          <t>26-03-2024</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A influência dos pastores evangélicos nos votos: "Não vamos parar até que a Bíblia entre no Parlamento"</t>
+          <t>Faz 7 anos que acabei com a minha ex e ainda tenho sonhos à noite sobre ela</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vamos virar brasil</t>
+          <t>olá malta faz bastante tempo desde ex acabou comigo fiquei embaixo gostava maior medo perdela infelizmente aconteceu resumidamente gostava mim acabarmos me namorava outro demorou bastante tempo conseguir mentalizar aconteceu ter aceitar eventualmente consegui falo tempo vejo desde então ocasionalmente lá aparece sonhos deixa frustrado sei fazer desde então conheci nova pessoas fiz novos amigo comecei ir gym tento passear posso sai cabeça decide aparecer sonhos enquanto dormo</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>26-03-2024</t>
+          <t>21-03-2024</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Faz 7 anos que acabei com a minha ex e ainda tenho sonhos à noite sobre ela</t>
+          <t>A NOS é incompetente e sinceramente já estou farto</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>olá malta faz bastante tempo desde ex acabou comigo fiquei embaixo gostava maior medo perdela infelizmente aconteceu resumidamente gostava mim acabarmos me namorava outro demorou bastante tempo conseguir mentalizar aconteceu ter aceitar eventualmente consegui falo tempo vejo desde então ocasionalmente lá aparece sonhos deixa frustrado sei fazer desde então conheci nova pessoas fiz novos amigo comecei ir gym tento passear posso sai cabeça decide aparecer sonhos enquanto dormo</t>
+          <t>boa malta peço desculpa ante qualquer tipo linguagem apropriada sub venho partilhar experiência basicamente desabafo pedido dicas dar contexto aluno universitário cibersegurança redes sistemas informáticos hobby jogar online recorro uso internet diferentes tipos horários horas indefinidas tanto posso estudar h jogar manhã estudar manhã vir café indiferentemente horário farto desta operadora cliente ano bem caso pai titular contrato casa irmãos sempre serviços zon passaram lembrome desde sempre problemas novo pouco ligava porque dava uso bem lembro irmãos sempre reclamar medida crescendo desenvolvendo gosto informática desde novo hobby jogar online óbvio comecei passar primeira pessoa problemas internet pais nunca muita literacia informática então aconteceu inúmeras vezes falar contactar destes problemas vez chavalo ia ligar linha apoio cliente desde un ano trás passo ter interação direta nome pai ter conhecimento passa desde ligar lá manhã porque fazer projetos fico net serem h cheio packet loss sinceramente passei tanto atendimento terrível desde comentários epah consigo fazer nada lol horas horas dormir atendido profissionais impecáveis deu entender ponto estuda constante contacto área difícil mim analisar anomalias recorrentes identificar clara falta noção nestas ridículas práticas poupar un trocos lá ganham parece tou ter interações amen lol sinto farto experienciar problemas recorrentes sendo pai cliente tantos ano tornase falta consideração diversas vezes irmão tentamos chamar atenção pai trocarmos operadora acaba sempre trocar contentarse ofertas ridículas fazem forma tentar limpar incompetência apresentam culpo pai porque preocupar dá uso serviços tv chamadas dado móveis vez motorista vida pessoal envolve tecnologia ponto sentir problemas penso receio fazer mudança drástica serviço vez implica trocar todo tipo coisas tv cartões telemóvel net gosta envolvido burocracias sei perto único passar problemas malta passou problemas resolveram fazer trocaram operadora procedimentos passaram conseguiram resolverse manter tipo problemas passaram valeu pena sei vir nova operadora possivelmente promissora caso mudar iria vodafone problema contrato penso acabar daqui ano força input todo tipo dicas dar experiências partilhar aceites qualquer tipo detalhes queiram questionar vontade</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>31-05-2024</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A NOS é incompetente e sinceramente já estou farto</t>
+          <t>Florida advances law banning children under 16 from using social media</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>boa malta peço desculpa ante qualquer tipo linguagem apropriada sub venho partilhar experiência basicamente desabafo pedido dicas dar contexto aluno universitário cibersegurança redes sistemas informáticos hobby jogar online recorro uso internet diferentes tipos horários horas indefinidas tanto posso estudar h jogar manhã estudar manhã vir café indiferentemente horário farto desta operadora cliente ano bem caso pai titular contrato casa irmãos sempre serviços zon passaram lembrome desde sempre problemas novo pouco ligava porque dava uso bem lembro irmãos sempre reclamar medida crescendo desenvolvendo gosto informática desde novo hobby jogar online óbvio comecei passar primeira pessoa problemas internet pais nunca muita literacia informática então aconteceu inúmeras vezes falar contactar destes problemas vez chavalo ia ligar linha apoio cliente desde un ano trás passo ter interação direta nome pai ter conhecimento passa desde ligar lá manhã porque fazer projetos fico net serem h cheio packet loss sinceramente passei tanto atendimento terrível desde comentários epah consigo fazer nada lol horas horas dormir atendido profissionais impecáveis deu entender ponto estuda constante contacto área difícil mim analisar anomalias recorrentes identificar clara falta noção nestas ridículas práticas poupar un trocos lá ganham parece tou ter interações amen lol sinto farto experienciar problemas recorrentes sendo pai cliente tantos ano tornase falta consideração diversas vezes irmão tentamos chamar atenção pai trocarmos operadora acaba sempre trocar contentarse ofertas ridículas fazem forma tentar limpar incompetência apresentam culpo pai porque preocupar dá uso serviços tv chamadas dado móveis vez motorista vida pessoal envolve tecnologia ponto sentir problemas penso receio fazer mudança drástica serviço vez implica trocar todo tipo coisas tv cartões telemóvel net gosta envolvido burocracias sei perto único passar problemas malta passou problemas resolveram fazer trocaram operadora procedimentos passaram conseguiram resolverse manter tipo problemas passaram valeu pena sei vir nova operadora possivelmente promissora caso mudar iria vodafone problema contrato penso acabar daqui ano força input todo tipo dicas dar experiências partilhar aceites qualquer tipo detalhes queiram questionar vontade</t>
+          <t>httpswwwtheguardiancomusnewsjanfloridasocialmediateenagerbanbillhttpswwwtheguardiancomusnewsjanfloridasocialmediateenagerbanbill bill would prohibit teenager from creating an account and is now headed to the state republicancontrolled senate florida lawmaker advanced billhttpswwwflsenategovsessionbillbilltextepdf on wednesday that would prohibit social medium platform from allowing young teen to have an account while requiring everyone else to verify their age the measure prohibits anyone under from creating new social medium account and requires platform to delete existing account held by minor who are younger than it also would require social medium company to delete any personal information from the account and the platform to use nongovernmental independent thirdparty not affiliated with the social medium platform to verify user age the bill passed the florida house with bipartisan votehttpswwwflsenategovsessionbilltabvotehistory and now head to the republicancontrolled senate these dopamine hit from social medium are so addictive it like digital fentanyl fiona mcfarland republican state lawmaker who cosponsored the legislation said on the house floor on wednesday according to politicohttpswwwpoliticocomnewsfloridasocialmediarestrictions and even the most pluggedin parent or attuned teen ha hard time shutting the door against these addictive feature vivek murthy the u surgeon general released warning last yearhttpswwwhhsgovsitesdefaultfilessgyouthmentalhealthsocialmediaadvisorypdf about the danger of social medium kid while he said more research wa needed to fully understand the effect there are ample indicator that social medium can also have profound risk of harm to the mental health and wellbeing of child and adolescent the bill doe not name which platform specifically the bill would apply to but say it would apply to anything that utilizes addictive harmful or deceptive design feature or any other feature that is designed to cause an account holder to have an excessive or compulsive need to use or engage with the social medium platform florida is one of several state that ha taken action recently to limit teenagershttpswwwpoliticocomnewsfloridasocialmediarestrictions exposure to social medium last year utah becamehttpswwwsltribcomnewspoliticsutahsnewsocialmediaregulation the first state in the country to ban people under from using social medium without consent from guardian the state also prohibits minor from using social medium account from pm to am an industry trade group is currently suing utah over the law other state have required the platform to undertake measure such child safety assessment and requiring changehttpswwwpoliticocomnewskidsonlinestatessocialmediatextsomestatesclikeutahandtodirectcontenttominors in the algorithm that are served to minor new york city also declared social mediahttpsabcchicagocomsocialmediaaddictionpublichealthhazardnewyorkcityexcidtawlstwtaidbdaffccffecutmcampaigntrueanthematrendingcontentutmmediumtrueanthemutmsourcetwitter public health hazard on wednesday xb</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>31-05-2024</t>
+          <t>24-02-2024</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Florida advances law banning children under 16 from using social media</t>
+          <t xml:space="preserve">Desabafo </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>httpswwwtheguardiancomusnewsjanfloridasocialmediateenagerbanbillhttpswwwtheguardiancomusnewsjanfloridasocialmediateenagerbanbill bill would prohibit teenager from creating an account and is now headed to the state republicancontrolled senate florida lawmaker advanced billhttpswwwflsenategovsessionbillbilltextepdf on wednesday that would prohibit social medium platform from allowing young teen to have an account while requiring everyone else to verify their age the measure prohibits anyone under from creating new social medium account and requires platform to delete existing account held by minor who are younger than it also would require social medium company to delete any personal information from the account and the platform to use nongovernmental independent thirdparty not affiliated with the social medium platform to verify user age the bill passed the florida house with bipartisan votehttpswwwflsenategovsessionbilltabvotehistory and now head to the republicancontrolled senate these dopamine hit from social medium are so addictive it like digital fentanyl fiona mcfarland republican state lawmaker who cosponsored the legislation said on the house floor on wednesday according to politicohttpswwwpoliticocomnewsfloridasocialmediarestrictions and even the most pluggedin parent or attuned teen ha hard time shutting the door against these addictive feature vivek murthy the u surgeon general released warning last yearhttpswwwhhsgovsitesdefaultfilessgyouthmentalhealthsocialmediaadvisorypdf about the danger of social medium kid while he said more research wa needed to fully understand the effect there are ample indicator that social medium can also have profound risk of harm to the mental health and wellbeing of child and adolescent the bill doe not name which platform specifically the bill would apply to but say it would apply to anything that utilizes addictive harmful or deceptive design feature or any other feature that is designed to cause an account holder to have an excessive or compulsive need to use or engage with the social medium platform florida is one of several state that ha taken action recently to limit teenagershttpswwwpoliticocomnewsfloridasocialmediarestrictions exposure to social medium last year utah becamehttpswwwsltribcomnewspoliticsutahsnewsocialmediaregulation the first state in the country to ban people under from using social medium without consent from guardian the state also prohibits minor from using social medium account from pm to am an industry trade group is currently suing utah over the law other state have required the platform to undertake measure such child safety assessment and requiring changehttpswwwpoliticocomnewskidsonlinestatessocialmediatextsomestatesclikeutahandtodirectcontenttominors in the algorithm that are served to minor new york city also declared social mediahttpsabcchicagocomsocialmediaaddictionpublichealthhazardnewyorkcityexcidtawlstwtaidbdaffccffecutmcampaigntrueanthematrendingcontentutmmediumtrueanthemutmsourcetwitter public health hazard on wednesday xb</t>
+          <t>quero começar guerra aqui sub faço post so quero ouvir perspectivas morei ano portugal voltei imaginam mudado melhor pouco pouco voume apercebendo maquilhagem chegar ponto pensando migrar novo duas coisas melhoraram nada suficiente burocracia corrupçãoimpunidade un exemplos quis abrir empresa registros fiquei filum desde manhã finalmente abrem porta funcionária grita hoje atendemos possível todos filum lá investir país criar trabalhos pagar impostos primer passo complicam tudo finalmente abri puxar dentes casamento casado ano casamento portugal registrado países diferentes problemas nenhuns aqui levo ano tentar resolver registrar casamento nenhum documento serve oficiais união europeia lei precisam aceitar finalmente consegui marcassem entrevista investigar realmente casados nunca deram horário agora pedido negado oferecer informação necessária tentamos recorrer ninguém sabe dizer fazer irs demorou meses inscrever sistema perguntem porque algo ver ter migrado tempo levaram finalmente poder pagar impostos recibo verde deramme coimas ter registrado rendimentos podium registrar parte pequena seguro cheios histórias porque assim fizemos merecer atraso acho política algo cultural porque pura má vontade funcionários acham perto chorar</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>24-02-2024</t>
+          <t>10-06-2024</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desabafo </t>
+          <t>‘Chairman’ da Leica diz que os empregados em Famalicão são únicos: “Não temos disto na Alemanha”</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>quero começar guerra aqui sub faço post so quero ouvir perspectivas morei ano portugal voltei imaginam mudado melhor pouco pouco voume apercebendo maquilhagem chegar ponto pensando migrar novo duas coisas melhoraram nada suficiente burocracia corrupçãoimpunidade un exemplos quis abrir empresa registros fiquei filum desde manhã finalmente abrem porta funcionária grita hoje atendemos possível todos filum lá investir país criar trabalhos pagar impostos primer passo complicam tudo finalmente abri puxar dentes casamento casado ano casamento portugal registrado países diferentes problemas nenhuns aqui levo ano tentar resolver registrar casamento nenhum documento serve oficiais união europeia lei precisam aceitar finalmente consegui marcassem entrevista investigar realmente casados nunca deram horário agora pedido negado oferecer informação necessária tentamos recorrer ninguém sabe dizer fazer irs demorou meses inscrever sistema perguntem porque algo ver ter migrado tempo levaram finalmente poder pagar impostos recibo verde deramme coimas ter registrado rendimentos podium registrar parte pequena seguro cheios histórias porque assim fizemos merecer atraso acho política algo cultural porque pura má vontade funcionários acham perto chorar</t>
+          <t>httpsominhoptchairmandaleicadizqueosempregadosemfamalicaosaounicosnaotemosdistonaalemanhahttpsominhoptchairmandaleicadizqueosempregadosemfamalicaosaounicosnaotemosdistonaalemanha andreas kauffman chairman leica camera ag empresa alemã máquinas fotográficas cuja préprodução integralmente assegurada unidade industrial famalicão deixou rasgados elogios trabalhadores portuguese considerandoos talentosos comprometidos profissionalmente próprios alemães carregam décadas rótulo entrevista portal executive digesthttpsexecutivedigestsapoptnoticiasanosleicaaformacomoosempregadosaquinutremasempresaseestaoaoladodelasealgounicodizandreaskauffman kauffman revelou empresamãe alemã grande respeito profissionais engenheiros portuguese destacou parceria universidade minho assegurar talentos alemão explica região minho muitas empresas alemãs outras sempre procura melhor talento forma empregados aqui nutrem empresas lado algo único alemanha compromisso trabalho grande chairman salienta ainda trabalhadores portuguese orgulhosos portugal apenas pequeno país canto europa andreas kauffman revelou ainda alguns projetos futuro ainda condicionado terreno poder ampliar instalações localizadas lousado concelho famalicão contudo termos equipamentos investidos cerca milhões euro ano número diminuído porque máquinas têm apresentado maior durabilidade responsável alemão lembra leica decidiu abrir fábrica famalicão ano ante abril altura responsável engenharia viu carro alvejado autoestrada decidiu permanecer país erguer fábrica conta ainda além famalicão havia opções tunísia irlanda serem países salários baixos alemanha onde trabalhadores contacto setor industrial forte implementação têxtil proximidade aeroporto maia fez alemãs escolhessem freguesia limite famalicão distrito porto integrarem xb</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>10-06-2024</t>
+          <t>29-12-2023</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>‘Chairman’ da Leica diz que os empregados em Famalicão são únicos: “Não temos disto na Alemanha”</t>
+          <t>Maioria dos portugueses não sabe como gerir dinheiro</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>httpsominhoptchairmandaleicadizqueosempregadosemfamalicaosaounicosnaotemosdistonaalemanhahttpsominhoptchairmandaleicadizqueosempregadosemfamalicaosaounicosnaotemosdistonaalemanha andreas kauffman chairman leica camera ag empresa alemã máquinas fotográficas cuja préprodução integralmente assegurada unidade industrial famalicão deixou rasgados elogios trabalhadores portuguese considerandoos talentosos comprometidos profissionalmente próprios alemães carregam décadas rótulo entrevista portal executive digesthttpsexecutivedigestsapoptnoticiasanosleicaaformacomoosempregadosaquinutremasempresaseestaoaoladodelasealgounicodizandreaskauffman kauffman revelou empresamãe alemã grande respeito profissionais engenheiros portuguese destacou parceria universidade minho assegurar talentos alemão explica região minho muitas empresas alemãs outras sempre procura melhor talento forma empregados aqui nutrem empresas lado algo único alemanha compromisso trabalho grande chairman salienta ainda trabalhadores portuguese orgulhosos portugal apenas pequeno país canto europa andreas kauffman revelou ainda alguns projetos futuro ainda condicionado terreno poder ampliar instalações localizadas lousado concelho famalicão contudo termos equipamentos investidos cerca milhões euro ano número diminuído porque máquinas têm apresentado maior durabilidade responsável alemão lembra leica decidiu abrir fábrica famalicão ano ante abril altura responsável engenharia viu carro alvejado autoestrada decidiu permanecer país erguer fábrica conta ainda além famalicão havia opções tunísia irlanda serem países salários baixos alemanha onde trabalhadores contacto setor industrial forte implementação têxtil proximidade aeroporto maia fez alemãs escolhessem freguesia limite famalicão distrito porto integrarem xb</t>
+          <t>jornal notícias maio httpspreviewredditwvftjozedjpgwidthformatpjpgautowebpseccaeedeeabbaeebd</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>29-12-2023</t>
+          <t>29-05-2024</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Maioria dos portugueses não sabe como gerir dinheiro</t>
+          <t xml:space="preserve">Dissonância cognitiva </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jornal notícias maio httpspreviewredditwvftjozedjpgwidthformatpjpgautowebpseccaeedeeabbaeebd</t>
+          <t>inventado vezes realidade bem estranha ficção httpswwwpublicoptpoliticanoticiadeputadochegaeuropaimigranteilegalfrancaexpulsoduasvezes</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>29-05-2024</t>
+          <t>20-03-2024</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dissonância cognitiva </t>
+          <t>Planos da treta e gajos que deviam ser pendurados pelo tintins</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>inventado vezes realidade bem estranha ficção httpswwwpublicoptpoliticanoticiadeputadochegaeuropaimigranteilegalfrancaexpulsoduasvezes</t>
+          <t>plano abre estações metro semabrigo valores diários temperatura mínima apresentem c c menos horas seguidas plano treta nbsp gajo ontem diz nessa temperatura acompanhar serviços atuar ainda hoje preciso frio continuar vamos imediatamente acionar plano vamos proteger acolher pessoas gajo devia ir passar noite rua nbsp certo talvez saber imprensa pegar nisto lá ativou plano deviam ter aberto estações dia atrás espera imprensa</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>09-01-2024</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Planos da treta e gajos que deviam ser pendurados pelo tintins</t>
+          <t>A Russia atingiu a embaixada do Portugal</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>plano abre estações metro semabrigo valores diários temperatura mínima apresentem c c menos horas seguidas plano treta nbsp gajo ontem diz nessa temperatura acompanhar serviços atuar ainda hoje preciso frio continuar vamos imediatamente acionar plano vamos proteger acolher pessoas gajo devia ir passar noite rua nbsp certo talvez saber imprensa pegar nisto lá ativou plano deviam ter aberto estações dia atrás espera imprensa</t>
+          <t>russia atingiu embaixada portugal ucrânia ninguem abre bico portugal queria saber têm pro russos portugal dizer sobre assunto</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>09-01-2024</t>
+          <t>21-12-2024</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A Russia atingiu a embaixada do Portugal</t>
+          <t>Quase um quarto dos senhorios têm rendas em atraso</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>russia atingiu embaixada portugal ucrânia ninguem abre bico portugal queria saber têm pro russos portugal dizer sobre assunto</t>
+          <t>xb jornal notícias httpspreviewredditrplozyhscjpgwidthformatpjpgautowebpscfdbcddeedaefccba</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>21-12-2024</t>
+          <t>03-04-2024</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Quase um quarto dos senhorios têm rendas em atraso</t>
+          <t>O menino perdido e eu</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>xb jornal notícias httpspreviewredditrplozyhscjpgwidthformatpjpgautowebpscfdbcddeedaefccba</t>
+          <t>ía caminhar povoação turística passei menino cerca ano chamava pai ninguém parecia ligarlhe nada olhando redor vi poderia pai menino caminhava rua comercial transito deitando olho atrevi segurálo ainda acusado querer raptar menino agrediamme limiteime manterme suficientemente perto impedir atravessar estrada transito aproximava menino atravessar estrada transito pensei bem lá vou ter correr risco segurar menino impedilo atropelado felizmente preciso porque pai apareceu correr tempo segurar menino mulher tido tantos receios impedir menino perdido andar ali vaguear rumo enquanto chamava pai sendo homem achei melhor intervir alternativa</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>12-07-2024</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>O menino perdido e eu</t>
+          <t>Gasta 407 mil euros em raspadinhas sem prémio atrás do "sonho da riqueza"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ía caminhar povoação turística passei menino cerca ano chamava pai ninguém parecia ligarlhe nada olhando redor vi poderia pai menino caminhava rua comercial transito deitando olho atrevi segurálo ainda acusado querer raptar menino agrediamme limiteime manterme suficientemente perto impedir atravessar estrada transito aproximava menino atravessar estrada transito pensei bem lá vou ter correr risco segurar menino impedilo atropelado felizmente preciso porque pai apareceu correr tempo segurar menino mulher tido tantos receios impedir menino perdido andar ali vaguear rumo enquanto chamava pai sendo homem achei melhor intervir alternativa</t>
+          <t>httpswwwnoticiasaominutocommundogastamileurosemraspadinhassempremioatrasdosonhodariqueza homem guarda hoje raspadinhas prémio pensou ajudasse combater vício errado agora receber tratamento</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>12-07-2024</t>
+          <t>04-05-2024</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Gasta 407 mil euros em raspadinhas sem prémio atrás do "sonho da riqueza"</t>
+          <t>Governo autoriza invasão de terrenos para exploração de lítio</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocommundogastamileurosemraspadinhassempremioatrasdosonhodariqueza homem guarda hoje raspadinhas prémio pensou ajudasse combater vício errado agora receber tratamento</t>
+          <t>httpswwwcmjornalptpoliticadetalhegovernoautorizainvasaodeterrenosparaexploracaodelitiohttpswwwcmjornalptpoliticadetalhegovernoautorizainvasaodeterrenosparaexploracaodelitio empresa responsável prospeção lítio autorização governo entrar terrenos privados baldios aldeias boticas ontem enviou carta visados informar trabalhos vão avançar</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>04-05-2024</t>
+          <t>12-12-2024</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Governo autoriza invasão de terrenos para exploração de lítio</t>
+          <t>Apple Watch salvou a vida a um português de 34 anos</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptpoliticadetalhegovernoautorizainvasaodeterrenosparaexploracaodelitiohttpswwwcmjornalptpoliticadetalhegovernoautorizainvasaodeterrenosparaexploracaodelitio empresa responsável prospeção lítio autorização governo entrar terrenos privados baldios aldeias boticas ontem enviou carta visados informar trabalhos vão avançar</t>
+          <t>httpspplwaresapoptappleapplewatchsalvouavidaaumportuguesdeanos</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12-12-2024</t>
+          <t>13-09-2024</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Apple Watch salvou a vida a um português de 34 anos</t>
+          <t>Homem condenado por violência doméstica mudou de sexo e foi ilibado em Espanha</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>httpspplwaresapoptappleapplewatchsalvouavidaaumportuguesdeanos</t>
+          <t>httpswwwcmjornalptmundodetalhehomemcondenadoporviolenciadomesticamudoudesexoefoiilibadoemespanhahttpswwwcmjornalptmundodetalhehomemcondenadoporviolenciadomesticamudoudesexoefoiilibadoemespanha tribunal violência contra mulheres sevilha disse agora competência objetiva homem condenado meses prisão crime violência doméstica contra namorada ilibado após ter mudado sexo sevilha espanha conta el mundo setembro agressor julgado tribunal penal sevilha pena prisão efetiva meses após serem recusados vários recursos mês ante homem mudou sexo conservatória registo civil advogado vítima considera fraude lei agosto tribunal violência contra mulheres sevilha emitiu despacho inibe tribunais instrução aplicar nova medidas coação argumentando sexo mudou sendo agora mulher competência objetiva julgar ficando então ilibado vítima terminou relação excompanheiro cinco ano devido maus tratos tanto físicos psicológicos sujeita habitualmente denunciados tribunais violência contra mulheres contou agência efe josé antónio sire advogada vítima mês julho agora mulher voltado agredir ameçar excompanheira restam alguns dia vida informando mudado sexo alucinação woke vai chegar ponto portugal</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13-09-2024</t>
+          <t>09-09-2024</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Homem condenado por violência doméstica mudou de sexo e foi ilibado em Espanha</t>
+          <t>Ainda sobre a doação de sacos cama</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptmundodetalhehomemcondenadoporviolenciadomesticamudoudesexoefoiilibadoemespanhahttpswwwcmjornalptmundodetalhehomemcondenadoporviolenciadomesticamudoudesexoefoiilibadoemespanha tribunal violência contra mulheres sevilha disse agora competência objetiva homem condenado meses prisão crime violência doméstica contra namorada ilibado após ter mudado sexo sevilha espanha conta el mundo setembro agressor julgado tribunal penal sevilha pena prisão efetiva meses após serem recusados vários recursos mês ante homem mudou sexo conservatória registo civil advogado vítima considera fraude lei agosto tribunal violência contra mulheres sevilha emitiu despacho inibe tribunais instrução aplicar nova medidas coação argumentando sexo mudou sendo agora mulher competência objetiva julgar ficando então ilibado vítima terminou relação excompanheiro cinco ano devido maus tratos tanto físicos psicológicos sujeita habitualmente denunciados tribunais violência contra mulheres contou agência efe josé antónio sire advogada vítima mês julho agora mulher voltado agredir ameçar excompanheira restam alguns dia vida informando mudado sexo alucinação woke vai chegar ponto portugal</t>
+          <t>seguimento post anteriorhttpswwwredditcomrportugalcommentstquwjdistribuicacaodesacoscamaasemabrigo tencionava voltar assunto certo pudor voltar mencionálo aqui ninguém conhece volto partilhar coisa ocorreu hoje mostra verdadeira generosidade hoje ia dar alguns gorros abrigo dei saco cama veio pedir podium dar outro saco cama perguntei aconteceu outro saco cama dado disseme deu mulher casal apareceu abrigo mesma rua deitados poucos metro dei sacos cama naquele local abrigo agora realmente lá mulher deitada saco cama dado abrigo pedir novo saco cama gesto verdadeiro altruísmo generosidade mim comprar saco cama faz assim tanta diferença vai representar un dia sofrer frio vento fazem sentir durante noite porto nesta altura</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>09-09-2024</t>
+          <t>04-01-2024</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ainda sobre a doação de sacos cama</t>
+          <t>os mais comuns arrependimentos que as pessoas expressam no leito da morte.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>seguimento post anteriorhttpswwwredditcomrportugalcommentstquwjdistribuicacaodesacoscamaasemabrigo tencionava voltar assunto certo pudor voltar mencionálo aqui ninguém conhece volto partilhar coisa ocorreu hoje mostra verdadeira generosidade hoje ia dar alguns gorros abrigo dei saco cama veio pedir podium dar outro saco cama perguntei aconteceu outro saco cama dado disseme deu mulher casal apareceu abrigo mesma rua deitados poucos metro dei sacos cama naquele local abrigo agora realmente lá mulher deitada saco cama dado abrigo pedir novo saco cama gesto verdadeiro altruísmo generosidade mim comprar saco cama faz assim tanta diferença vai representar un dia sofrer frio vento fazem sentir durante noite porto nesta altura</t>
+          <t>httpsdelitodeopiniaoblogssapoptpensamentodasemanahttpsdelitodeopiniaoblogssapoptpensamentodasemana bronnie ware prestadora cuidados paliativos reino unido escreve sobre comuns arrependimentos pessoas expressam leito morte terem tido coragem viver vida fiel si próprios terem passado demasiado tempo trabalhar terem tido coragem expressar sentimentos terem conseguido preservar amizades terem permitido serem felizes top five regret of the dying lição contra materialismo consumismo caracterizam paradigma vida moderna httpswwwtheguardiancomlifeandstylefebtopfiveregretsofthedyinghttpswwwtheguardiancomlifeandstylefebtopfiveregretsofthedying</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>04-01-2024</t>
+          <t>22-05-2024</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>os mais comuns arrependimentos que as pessoas expressam no leito da morte.</t>
+          <t>Sou só eu que sinto uma espécie de prazer perverso ao ouvir António Costa e apaniguados a queixar-se do funcionamento da justiça</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>httpsdelitodeopiniaoblogssapoptpensamentodasemanahttpsdelitodeopiniaoblogssapoptpensamentodasemana bronnie ware prestadora cuidados paliativos reino unido escreve sobre comuns arrependimentos pessoas expressam leito morte terem tido coragem viver vida fiel si próprios terem passado demasiado tempo trabalhar terem tido coragem expressar sentimentos terem conseguido preservar amizades terem permitido serem felizes top five regret of the dying lição contra materialismo consumismo caracterizam paradigma vida moderna httpswwwtheguardiancomlifeandstylefebtopfiveregretsofthedyinghttpswwwtheguardiancomlifeandstylefebtopfiveregretsofthedying</t>
+          <t>lentidão atendendo ministro justiça durante alguns ano primeiro ministro durante oito ano possibilidade fazer justiça funcionar forma minimamente eficaz ver poder deixou justiça estado lamentável queixarse forma justiça funciona mal prazer perverso apaniguados anterior governo perdoem pequena mesquinhez</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>22-05-2024</t>
+          <t>12-04-2024</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Sou só eu que sinto uma espécie de prazer perverso ao ouvir António Costa e apaniguados a queixar-se do funcionamento da justiça</t>
+          <t>Ejaculação prematura - opções?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>lentidão atendendo ministro justiça durante alguns ano primeiro ministro durante oito ano possibilidade fazer justiça funcionar forma minimamente eficaz ver poder deixou justiça estado lamentável queixarse forma justiça funciona mal prazer perverso apaniguados anterior governo perdoem pequena mesquinhez</t>
+          <t>sofro desde mal bastante tempo tentei várias coisas preservativo substâncias spray etc urologista prescreveu comprimido tomar ante ato mim funciona poi chance ter sexo planejado baixíssimas gostava saber algo uso contínuo li algumas opções medicamentos ansiedade etc efeito positivos tratar desse tipo problema consigo prescrição tipo medicamentos consulta psicanalista deve bastar extremamente frustante alguém partilhar problema trataram</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>12-04-2024</t>
+          <t>10-04-2024</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ejaculação prematura - opções?</t>
+          <t>Em Portugal 40% dos adultos só compreendem textos simples e matemática básica</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>sofro desde mal bastante tempo tentei várias coisas preservativo substâncias spray etc urologista prescreveu comprimido tomar ante ato mim funciona poi chance ter sexo planejado baixíssimas gostava saber algo uso contínuo li algumas opções medicamentos ansiedade etc efeito positivos tratar desse tipo problema consigo prescrição tipo medicamentos consulta psicanalista deve bastar extremamente frustante alguém partilhar problema trataram</t>
+          <t>httpswwwpublicoptsociedadenoticiaadultosportugalsocompreendetextossimplesmatematicabasica</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10-04-2024</t>
+          <t>11-12-2024</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Em Portugal 40% dos adultos só compreendem textos simples e matemática básica</t>
+          <t>Bom dia, bom dia e bom dia!</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>httpswwwpublicoptsociedadenoticiaadultosportugalsocompreendetextossimplesmatematicabasica</t>
+          <t>bom dia todos escrevovos autêntica genuina motivacional alegria matinal desejar excelente bom dia lembremse acordarem vosso sono sextafeira aí aproxima belo fim semana aleluia glória deus amém fim quero agradecer vossa encarecida simpática atenção cumprimentos breve</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>11-12-2024</t>
+          <t>13-09-2024</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bom dia, bom dia e bom dia!</t>
+          <t>Tribunal trava demissão de polícia que furtou dois sumos com valor de 1€</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bom dia todos escrevovos autêntica genuina motivacional alegria matinal desejar excelente bom dia lembremse acordarem vosso sono sextafeira aí aproxima belo fim semana aleluia glória deus amém fim quero agradecer vossa encarecida simpática atenção cumprimentos breve</t>
+          <t>httpswwwnoticiasaominutocompaistribunaltravademissaodepoliciaquefurtoudoissumoscomvalordehttpswwwnoticiasaominutocompaistribunaltravademissaodepoliciaquefurtoudoissumoscomvalorde caso noticiado jornal notícias remonta janeiro polícia forçou entrada instalações messe comando distrital psp santarém levar duas garrafas sumo montante euro agente condenado crime furto simple tribunal santarém pagar multa euro decisão transitou julgado janeiro psp abriulhe processo disciplinar contudo seis ano factos maio ministro administração interna josé luís carneiro aplicoulhe pena demissão agente psp interpôs procedimento cautelar suspender demissão segundo jornal alegou apresentado relatório final processo disciplinar diretor nacional psp ordenou reformulação nele constasse pena demissão aposentação compulsiva vez suspensão agravada sugerira instrutor homem alegou ainda doi filhos sustentar vencimento demissão consequências economia familiar assim setembro tribunal administrativo fiscal leiria deu razão polícia concedendolhe providência cautelar ministério administração interna mai recorreu então decisão suspensão tcas mantevea acórdão tcas consultado notícias minutohttpswwwdgsiptjtcansfafbccddedfafcaopendocument juízes antecipam pena demissão mostrará manifestamente desproporcional aplicação pena expulsiva deverá ter lugar conduta arguido atinja tal forma prestígio credibilidade instituição integra aplicação degradaria imagem dessa entidade imagem impunidade permissiva transmitiria verdade respeita proporcionalidade pena podemos perder vista perante agente policial específico código deontológico apertado conjunto deveres conduta facto mostra desproporcional aplicar pena demissão resultado furto messe psp refrigerantes valor total cerca atenta ausência repercussão publica referido evento estando poi demonstrado controvertido crime inviabilizado manutenção relação funcional pode ainda lerse</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>13-09-2024</t>
+          <t>19-03-2024</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tribunal trava demissão de polícia que furtou dois sumos com valor de 1€</t>
+          <t>O melhor queijo do mundo é português e vem do Fundão</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocompaistribunaltravademissaodepoliciaquefurtoudoissumoscomvalordehttpswwwnoticiasaominutocompaistribunaltravademissaodepoliciaquefurtoudoissumoscomvalorde caso noticiado jornal notícias remonta janeiro polícia forçou entrada instalações messe comando distrital psp santarém levar duas garrafas sumo montante euro agente condenado crime furto simple tribunal santarém pagar multa euro decisão transitou julgado janeiro psp abriulhe processo disciplinar contudo seis ano factos maio ministro administração interna josé luís carneiro aplicoulhe pena demissão agente psp interpôs procedimento cautelar suspender demissão segundo jornal alegou apresentado relatório final processo disciplinar diretor nacional psp ordenou reformulação nele constasse pena demissão aposentação compulsiva vez suspensão agravada sugerira instrutor homem alegou ainda doi filhos sustentar vencimento demissão consequências economia familiar assim setembro tribunal administrativo fiscal leiria deu razão polícia concedendolhe providência cautelar ministério administração interna mai recorreu então decisão suspensão tcas mantevea acórdão tcas consultado notícias minutohttpswwwdgsiptjtcansfafbccddedfafcaopendocument juízes antecipam pena demissão mostrará manifestamente desproporcional aplicação pena expulsiva deverá ter lugar conduta arguido atinja tal forma prestígio credibilidade instituição integra aplicação degradaria imagem dessa entidade imagem impunidade permissiva transmitiria verdade respeita proporcionalidade pena podemos perder vista perante agente policial específico código deontológico apertado conjunto deveres conduta facto mostra desproporcional aplicar pena demissão resultado furto messe psp refrigerantes valor total cerca atenta ausência repercussão publica referido evento estando poi demonstrado controvertido crime inviabilizado manutenção relação funcional pode ainda lerse</t>
+          <t>httpswwwcmjornalptsociedadedetalheomelhorqueijodomundoeportuguesevemdofundao</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>17-11-2024</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>O melhor queijo do mundo é português e vem do Fundão</t>
+          <t>O dia em que fui humilhado na Futuralia.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptsociedadedetalheomelhorqueijodomundoeportuguesevemdofundao</t>
+          <t>dia futuralia pai ver irmão trabalhar lá investigámos algumas universidades ano falámos pessoas lá pai falar pessoa universidade perguntou homem boa universidade vossos alunos acabam mcdonalds disse frente cara toda gente favor façam humilhante pior universidade</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>17-11-2024</t>
+          <t>20-06-2024</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>O dia em que fui humilhado na Futuralia.</t>
+          <t>O casamento de menores na etnia cigana - os poucos casos que conheço</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>dia futuralia pai ver irmão trabalhar lá investigámos algumas universidades ano falámos pessoas lá pai falar pessoa universidade perguntou homem boa universidade vossos alunos acabam mcdonalds disse frente cara toda gente favor façam humilhante pior universidade</t>
+          <t>famílias pobres procuro apoiar conheço alguns casos casamentos menores entendendo casamento realidade legal contrato casamento sim realidade social anterior realidade legal existem casamentos sociedades povos têm estado sequer têm lei escritas neste sentido ciganos consideramse casados desde relação sexual considerem têm intenção manter relacionamento duradouro sendo assim conheço casos casamentos menores partir ano casos raparigas casaram ano ainda casaram ano partir daí ainda casos casaram ano contrário ideia comum nenhum destes casos casamento forçado pais contrário muitos casos forçado filhos forçado filhos porque muitas vezes pais mães ciganos queriam filhos filhas casassem tão cedo adolescentes ciganos sabendo etnia cigana aceita casamentos adolescentes apaixonandose vezes apenas querendo fugir problemas família forçam casamento contra vontade pais nestes casos contra vontade pais simplesmente fogem pais têm relações sexuais querer casar comunicam ato consumado pais obrigados lei ciganas aceitar casamento casos conheço região norte litoral apetece divulgar posso dizer nada sobre outras regiões porque vou apercebendo algumas diferenças significativas ciganos diferentes zona portugal</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>20-06-2024</t>
+          <t>19-06-2024</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>O casamento de menores na etnia cigana - os poucos casos que conheço</t>
+          <t>Ruzzia responsável pela queda do avião Azer 8432</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>famílias pobres procuro apoiar conheço alguns casos casamentos menores entendendo casamento realidade legal contrato casamento sim realidade social anterior realidade legal existem casamentos sociedades povos têm estado sequer têm lei escritas neste sentido ciganos consideramse casados desde relação sexual considerem têm intenção manter relacionamento duradouro sendo assim conheço casos casamentos menores partir ano casos raparigas casaram ano ainda casaram ano partir daí ainda casos casaram ano contrário ideia comum nenhum destes casos casamento forçado pais contrário muitos casos forçado filhos forçado filhos porque muitas vezes pais mães ciganos queriam filhos filhas casassem tão cedo adolescentes ciganos sabendo etnia cigana aceita casamentos adolescentes apaixonandose vezes apenas querendo fugir problemas família forçam casamento contra vontade pais nestes casos contra vontade pais simplesmente fogem pais têm relações sexuais querer casar comunicam ato consumado pais obrigados lei ciganas aceitar casamento casos conheço região norte litoral apetece divulgar posso dizer nada sobre outras regiões porque vou apercebendo algumas diferenças significativas ciganos diferentes zona portugal</t>
+          <t>confirmase vez ruzzia abateu avião cheio civis deve paz pzp defendeou putinistas cá tasco vai nato continuar dormir</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>19-06-2024</t>
+          <t>26-12-2024</t>
         </is>
       </c>
     </row>
@@ -4938,812 +4938,812 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>O regresso dos cro-magnons</t>
+          <t>SIC e TVI Condenadas a Pagar Mais de 10 Milhões de Euros pelos Direitos dos Artistas</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>httpscortafitasblogssapoptoregressodoscromagnonhttpscortafitasblogssapoptoregressodoscromagnon joãoafonso machado história absolutamente verdadeira ocorreu cerca hora contase assim recheada testemunhas presenciais i comboio suburbano vinha porto norte páginas tantas quatro barulhentos indíviduos três homens mulher quê exibindo arma branca desataram dar pancada doi pacatos indianos vinham famalicão ii bateram selvaticamente deixandoo ferido necessitar tratamento hospitalar após fugiram estação s tomão coronado pouco longe destino indianos sendo cautela ainda perguntaram onde dirigiam iii carruagem ficou encharcada sangue ninguém nela moveu dedo auxílio vítimas iv meliantes apresentavamse cabeça rapada cabelo pintado extravagantemente todos tatuagens posto v indianos comunmente gente pacífica ordeira migraram ganhar sustento encontramse muitas vezes ainda desenquadrados desambientados sendo presa fácil deste tipo energúmenos vi quais agem normalmente selváticos propósitos raciais políticos adianta ocultar lê redes sociais tal respeito arrogância vg troglodita chamado mário machado talvez maior mentor deste tipo atitudes quanto sabe ocasionalmente encarcerado vii neste contexto haverá sempre distinguir machados pedra lascada sobredito caso demais machados sobretudos oriundos melhores forjas rhur viii chegada famalicão desceram três testemunhas vítima companheiro surgiram carro psp ambulância seguiu hospital ix falei outro indiano manifestamente apavorado x criminosos identificados sairem s romão estarão algures agora rindo façanha gruta restantes bando hoje saciado fome amanhã porventura voltarão emboscadas xi vale dizer certeza apanhados quiçá próxima alguém agir lestamente concluindo xii xenófobo raça primitiva tatuada énos manifestamente inferior qualquer motivo dê caça</t>
+          <t>httpsoregioesptsicetvicondenadasapagarmaisdemilhoesdeeurospelosdireitosdosartistas</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>06-12-2024</t>
+          <t>26-12-2024</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>barreiro &gt;3</t>
+          <t>O regresso dos cro-magnons</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>fotografia ums meses</t>
+          <t>httpscortafitasblogssapoptoregressodoscromagnonhttpscortafitasblogssapoptoregressodoscromagnon joãoafonso machado história absolutamente verdadeira ocorreu cerca hora contase assim recheada testemunhas presenciais i comboio suburbano vinha porto norte páginas tantas quatro barulhentos indíviduos três homens mulher quê exibindo arma branca desataram dar pancada doi pacatos indianos vinham famalicão ii bateram selvaticamente deixandoo ferido necessitar tratamento hospitalar após fugiram estação s tomão coronado pouco longe destino indianos sendo cautela ainda perguntaram onde dirigiam iii carruagem ficou encharcada sangue ninguém nela moveu dedo auxílio vítimas iv meliantes apresentavamse cabeça rapada cabelo pintado extravagantemente todos tatuagens posto v indianos comunmente gente pacífica ordeira migraram ganhar sustento encontramse muitas vezes ainda desenquadrados desambientados sendo presa fácil deste tipo energúmenos vi quais agem normalmente selváticos propósitos raciais políticos adianta ocultar lê redes sociais tal respeito arrogância vg troglodita chamado mário machado talvez maior mentor deste tipo atitudes quanto sabe ocasionalmente encarcerado vii neste contexto haverá sempre distinguir machados pedra lascada sobredito caso demais machados sobretudos oriundos melhores forjas rhur viii chegada famalicão desceram três testemunhas vítima companheiro surgiram carro psp ambulância seguiu hospital ix falei outro indiano manifestamente apavorado x criminosos identificados sairem s romão estarão algures agora rindo façanha gruta restantes bando hoje saciado fome amanhã porventura voltarão emboscadas xi vale dizer certeza apanhados quiçá próxima alguém agir lestamente concluindo xii xenófobo raça primitiva tatuada énos manifestamente inferior qualquer motivo dê caça</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>06-12-2024</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>O verdadeiro "gentleman driver" português:</t>
+          <t>barreiro &gt;3</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>gentleman driver português conduz devagar gastar rolamentos rodas pneus coloca sempre carro pertinho berma estrada gastar alcatrão acciona piscas virar utiliza apenas polegar indicador desgastar plástico segura volante mínimo dedos possível mesmas razões retira plásticos proteção tablier botões desgastem chegar cruzamento nunca prioridade deixa sempre toda gente passar frente venha direita cede prioridade outros humildade caracteriza nobre povo levanta mão cumprimentar todos peões passeio assim outros condutores estaciona carro tenta sempre ocupar apenas metade lugar poupar portagens escolhe sempre pórtico funcionário pagar moedas trava suavemente posicionar junto janela funcionário conversa pouco despedese cumprimento ante arrancar lentamente dizendo grato senhor engenheiro portagens além disso dia chuva verdadeiro gentleman driver português nunca usa limpavidros máximo gastar borrachas prefere deixar chuva acumular pouco vidro poi sabe vidro bem molhado requer manutenção assim poupa próxima viagem</t>
+          <t>fotografia ums meses</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Tribunal confirma multa de 225 milhões ao “cartel da banca”</t>
+          <t>O verdadeiro "gentleman driver" português:</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>httpsecosapopttribunalconfirmamultademilhoesaocarteldabanca</t>
+          <t>gentleman driver português conduz devagar gastar rolamentos rodas pneus coloca sempre carro pertinho berma estrada gastar alcatrão acciona piscas virar utiliza apenas polegar indicador desgastar plástico segura volante mínimo dedos possível mesmas razões retira plásticos proteção tablier botões desgastem chegar cruzamento nunca prioridade deixa sempre toda gente passar frente venha direita cede prioridade outros humildade caracteriza nobre povo levanta mão cumprimentar todos peões passeio assim outros condutores estaciona carro tenta sempre ocupar apenas metade lugar poupar portagens escolhe sempre pórtico funcionário pagar moedas trava suavemente posicionar junto janela funcionário conversa pouco despedese cumprimento ante arrancar lentamente dizendo grato senhor engenheiro portagens além disso dia chuva verdadeiro gentleman driver português nunca usa limpavidros máximo gastar borrachas prefere deixar chuva acumular pouco vidro poi sabe vidro bem molhado requer manutenção assim poupa próxima viagem</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>21-09-2024</t>
+          <t>01-10-2024</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Os testemunhas de Jeová estão de volta?</t>
+          <t>Tribunal confirma multa de 225 milhões ao “cartel da banca”</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>tocaramme campainha testemunha jeová queria discutir assunto bíblico sobre futuro ameaçado despachei gajo porque acredito nada disso gajo continuum tocar campainhas parou embora ameacei chamar polícia sequer legal estarem incomodar pessoas</t>
+          <t>httpsecosapopttribunalconfirmamultademilhoesaocarteldabanca</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>09-09-2024</t>
+          <t>21-09-2024</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Governo acaba com primazia total do comprador de casa sobre a banca quando construtor entra em insolvência</t>
+          <t>Os testemunhas de Jeová estão de volta?</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>httpsecosapoptgovernoacabacomprimaziatotaldocompradordecasasobreabancaquandoconstrutorentraeminsolvencia</t>
+          <t>tocaramme campainha testemunha jeová queria discutir assunto bíblico sobre futuro ameaçado despachei gajo porque acredito nada disso gajo continuum tocar campainhas parou embora ameacei chamar polícia sequer legal estarem incomodar pessoas</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>03-08-2024</t>
+          <t>09-09-2024</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Produtores de vinho pedem ao Governo mais 30 milhões para acabar com excedentes</t>
+          <t>Governo acaba com primazia total do comprador de casa sobre a banca quando construtor entra em insolvência</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>httpswwwdinheirovivoptprodutoresdevinhopedemaogovernomaismilhoesparaacabarcomexcedenteshttpswwwdinheirovivoptprodutoresdevinhopedemaogovernomaismilhoesparaacabarcomexcedentes bruxelas aprovou mobilização milhões euro destilação crise portugal admite montante possa vir complementado verbas nacionais milhões litros vinho excesso mercado nacional portugal preparase quarta vez cinco ano fazer nova destilação crise pagar vinhos excesso mercado queimados transformados álcool fin industriais energéticos milhões euro bruxelas aprovou semana destilação temporária excecional pretende ajudar fazer face acumulação stock precedentes ministro agricultura avisou proposta ainda aprovada votada dia julho colégio comissários setor considera valor insuficiente atendendo existência cerca milhões litros vinho vender pouco sabe ainda sobre operacionalizada destilação sendo certo comunicado deu conhecer pacote milhões ministro agricultura deixou claro trata medida repetida futuro atribuição apoio vai obedecer rigorosos critérios regras elegibilidade controlo produtores importado vinho últimos três ano elegíveis receber apoios destilação sextafeira parlamento josé manuel fernandes alertou destilação pequeno paliativo solução problema setor prometeu reforçar brutalmente fiscalização entrada vinho país questão desde portugal importado quase milhões litros vinho ano refere presidente andovi associação nacional denominações origem equivalente milhão garrafas dia todos dia ano loucura cria suspeição sobre vinho introduzido mercado diz francisco toscano rico responsável comissão vitivinícola região cvr lisboa país importava metade deste valor entretanto âmbito medidas apoio crise setor causa pandemia estado disponibilizou milhões euro quais destilação crise seis ajudas armazenamento verbas chegaram totalmente utilizadas nesse ano apesar ministra agricultura então ter aumentado cêntimos valor pago litro vinho denominação origem doc encaminhado destilação cêntimos vinhos indicação geográfica ig altura aprovada majoração regiões viticultura zona montanha cêntimos doc cêntimos vinhos ig nesse ano aprovada queima quase milhões litros vinho nova destilação crise embora referente ainda programa apoio setor causa covid permitiu retirar quase milhões litros excedentes sendo preço pago ano anterior milhões euro destinados fim serviram apenas retirar mercado pouco metade vinho adegas vitivinicultores propunhamse entregar destilação quase milhões litros dinheiro milhões complicar situação si difícil vindima cerca milhões litros maior desde elevadas últimas duas décadas indicou ine final ano passado associado quebra exportações redução consumo mercado nacional criou tempestade perfeita duas quebras explicam aproximadamente milhões litros menos</t>
+          <t>httpsecosapoptgovernoacabacomprimaziatotaldocompradordecasasobreabancaquandoconstrutorentraeminsolvencia</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>15-07-2024</t>
+          <t>03-08-2024</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Há uma crise de criatividade no cinema?</t>
+          <t>Produtores de vinho pedem ao Governo mais 30 milhões para acabar com excedentes</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>últimos ano parece cinema menos cinema comercial sofre crescente crise criatividade maiores sucessos novo filme série vários filmes nova versão filme menos antigo melhor hipóteses filme baseado livro menos sucesso filmes novos argumentos originais fazerem sucesso parecemme cada vez menos pareceme crise agravar concordam sim quais motivos</t>
+          <t>httpswwwdinheirovivoptprodutoresdevinhopedemaogovernomaismilhoesparaacabarcomexcedenteshttpswwwdinheirovivoptprodutoresdevinhopedemaogovernomaismilhoesparaacabarcomexcedentes bruxelas aprovou mobilização milhões euro destilação crise portugal admite montante possa vir complementado verbas nacionais milhões litros vinho excesso mercado nacional portugal preparase quarta vez cinco ano fazer nova destilação crise pagar vinhos excesso mercado queimados transformados álcool fin industriais energéticos milhões euro bruxelas aprovou semana destilação temporária excecional pretende ajudar fazer face acumulação stock precedentes ministro agricultura avisou proposta ainda aprovada votada dia julho colégio comissários setor considera valor insuficiente atendendo existência cerca milhões litros vinho vender pouco sabe ainda sobre operacionalizada destilação sendo certo comunicado deu conhecer pacote milhões ministro agricultura deixou claro trata medida repetida futuro atribuição apoio vai obedecer rigorosos critérios regras elegibilidade controlo produtores importado vinho últimos três ano elegíveis receber apoios destilação sextafeira parlamento josé manuel fernandes alertou destilação pequeno paliativo solução problema setor prometeu reforçar brutalmente fiscalização entrada vinho país questão desde portugal importado quase milhões litros vinho ano refere presidente andovi associação nacional denominações origem equivalente milhão garrafas dia todos dia ano loucura cria suspeição sobre vinho introduzido mercado diz francisco toscano rico responsável comissão vitivinícola região cvr lisboa país importava metade deste valor entretanto âmbito medidas apoio crise setor causa pandemia estado disponibilizou milhões euro quais destilação crise seis ajudas armazenamento verbas chegaram totalmente utilizadas nesse ano apesar ministra agricultura então ter aumentado cêntimos valor pago litro vinho denominação origem doc encaminhado destilação cêntimos vinhos indicação geográfica ig altura aprovada majoração regiões viticultura zona montanha cêntimos doc cêntimos vinhos ig nesse ano aprovada queima quase milhões litros vinho nova destilação crise embora referente ainda programa apoio setor causa covid permitiu retirar quase milhões litros excedentes sendo preço pago ano anterior milhões euro destinados fim serviram apenas retirar mercado pouco metade vinho adegas vitivinicultores propunhamse entregar destilação quase milhões litros dinheiro milhões complicar situação si difícil vindima cerca milhões litros maior desde elevadas últimas duas décadas indicou ine final ano passado associado quebra exportações redução consumo mercado nacional criou tempestade perfeita duas quebras explicam aproximadamente milhões litros menos</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>24-06-2024</t>
+          <t>15-07-2024</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Incluir o sofrimento no preço da carne</t>
+          <t>Há uma crise de criatividade no cinema?</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>jornal notícias junho httpspreviewredditjinowogiqdjpgwidthformatpjpgautowebpsbbaaadafbfcedfeacde</t>
+          <t>últimos ano parece cinema menos cinema comercial sofre crescente crise criatividade maiores sucessos novo filme série vários filmes nova versão filme menos antigo melhor hipóteses filme baseado livro menos sucesso filmes novos argumentos originais fazerem sucesso parecemme cada vez menos pareceme crise agravar concordam sim quais motivos</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>20-06-2024</t>
+          <t>24-06-2024</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Santa Casa deve dinheiro à maior organização criminosa do Brasil</t>
+          <t>Incluir o sofrimento no preço da carne</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>httpsexpressoptsociedadesantacasadevedinheiroamaiororganizacaocriminosadobrasilcaa sorrir pra chorar</t>
+          <t>jornal notícias junho httpspreviewredditjinowogiqdjpgwidthformatpjpgautowebpsbbaaadafbfcedfeacde</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>13-06-2024</t>
+          <t>20-06-2024</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>De trabalhador para colaborador</t>
+          <t>Santa Casa deve dinheiro à maior organização criminosa do Brasil</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>apenas esquerda identitaria tentar mudar forma pessoas percecionam realidade atraves linguagem empresas fazem deixam referir trabalhador trabalhador empregado usarem termo colaborador tentando criar ilusao donos empresa chefes estao nivel exatamente mesmos interesses trabalhadores</t>
+          <t>httpsexpressoptsociedadesantacasadevedinheiroamaiororganizacaocriminosadobrasilcaa sorrir pra chorar</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>01-05-2024</t>
+          <t>13-06-2024</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Eu sou um idiota.</t>
+          <t>De trabalhador para colaborador</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>única coisa boa faço inútil outras pessoas tudo faço escola acaba mal família odeiame sozinho todos vão ter futuro brilhante vou semabrigo morar debaixo ponte autismo consigo falar corretamente outras pessoas força suficiente entrar exército trabalhar obras idade mental ano única coisa vou fazer agora ver canal panda ouvir xana toctoc porque acho vou sempre falhado criança nunca vai ter futuro adulto sério</t>
+          <t>apenas esquerda identitaria tentar mudar forma pessoas percecionam realidade atraves linguagem empresas fazem deixam referir trabalhador trabalhador empregado usarem termo colaborador tentando criar ilusao donos empresa chefes estao nivel exatamente mesmos interesses trabalhadores</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>01-05-2024</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Candiadiase Vaginal</t>
+          <t>Eu sou um idiota.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>sintoma comum prurido vaginal pode intenso outros sintomas ardor urinar corrimento vaginal branco espesso geralmente apresenta mau odor dor durante relações sexuais vermelhidão volta vagina vaginites candidíase geralmente resultado proliferação excessiva fungo candida situações normais fungo naturalmente presente vagina pequenas quantidades doença considerada infeção sexualmente transmissível embora possa ocorrer maior frequência pessoas sexualmente ativas possível dieta rica açúcares simple possa ter influência roupa apertada tipo roupa interior higiene pessoal aparentam ter influênciao diagnóstico realizado análises amostra corrimento vaginal dado sintomas semelhantes infeções sexualmente transmissíveis clamídia gonorreia pode necessário realizar exames despistar outras causa cerca toda mulheres apresentam menos vaginite candidíase algum momento vida cerca metade apresenta menos duas cerca apresenta três infeções ano segunda causa comum inflamação vaginal atrás vaginose bacteriana</t>
+          <t>única coisa boa faço inútil outras pessoas tudo faço escola acaba mal família odeiame sozinho todos vão ter futuro brilhante vou semabrigo morar debaixo ponte autismo consigo falar corretamente outras pessoas força suficiente entrar exército trabalhar obras idade mental ano única coisa vou fazer agora ver canal panda ouvir xana toctoc porque acho vou sempre falhado criança nunca vai ter futuro adulto sério</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>02-12-2024</t>
+          <t>18-03-2024</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faria sentido implementar uma democracia direta em Portugal?</t>
+          <t>Candiadiase Vaginal</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>imaginem sistema onde cada cidadão pudesse votar tempo real através plataforma online propostas surgissem diretamente população acabaríamos privilégios representantes políticos colocaríamos poder verdadeiramente mãos povo sim democracias diretas exigem população educada informada impossível alcançar vejam exemplo países nórdicos onde após gerações investimento educação confiança mútua alcançaram nível impressionante maturidade social ilustrar ness países existem lojas qualquer funcionário supervisão onde pessoas escolhem produtos registam compraram sistema automático fazem pagamento sozinhas câmaras seguranças controlo confiam ninguém irá roubar demonstra nível responsabilidade ética sociedade pode atingir aposta verdadeiramente educação confiança outro lado modelo representativo hoje raramente serve interesses maioria historicamente temse inclinado beneficiar pequena elite muitas vezes degradase autoritarismo corrupção tempo piorar muitos cansados sentirmos representados nenhum partido parece política atual reflete anseios reais população sim interesses individuais grupos restritos claro desafios democracia direta desinformação cibersegurança inclusão digital problemas enfrentados tecnologia disponível hoje perfeitamente possível criar sistema transparente seguro eficiente plataformas digitais utilizadas alguns países mostram utopia então pergunto estaríamos prontos apostar educação confiança povo decidir destinos país vez continuar depender vontade representantes muitas vezes jogam apenas causa própria verdadeira democracia vamos debater faz sentido portugal avançar modelo democracia direta quais desafios podemos superar</t>
+          <t>sintoma comum prurido vaginal pode intenso outros sintomas ardor urinar corrimento vaginal branco espesso geralmente apresenta mau odor dor durante relações sexuais vermelhidão volta vagina vaginites candidíase geralmente resultado proliferação excessiva fungo candida situações normais fungo naturalmente presente vagina pequenas quantidades doença considerada infeção sexualmente transmissível embora possa ocorrer maior frequência pessoas sexualmente ativas possível dieta rica açúcares simple possa ter influência roupa apertada tipo roupa interior higiene pessoal aparentam ter influênciao diagnóstico realizado análises amostra corrimento vaginal dado sintomas semelhantes infeções sexualmente transmissíveis clamídia gonorreia pode necessário realizar exames despistar outras causa cerca toda mulheres apresentam menos vaginite candidíase algum momento vida cerca metade apresenta menos duas cerca apresenta três infeções ano segunda causa comum inflamação vaginal atrás vaginose bacteriana</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>16-11-2024</t>
+          <t>02-12-2024</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Decidi que vou acabar com tudo.</t>
+          <t xml:space="preserve"> Faria sentido implementar uma democracia direta em Portugal?</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>decisão difícil exigiu muita reflexão vida demasiado dura mim demasiado fraco coisas têm estado correr mal consigo mudálas pioram cada vez melhor mim acabar tudo vez ter viver vou tentar acabar tudo ante natal causar problemas preparei mensagem família outra grupo whatsapp faculdade desejo vida feliz toda gente conheço família possa compreender tudo culpa decisão perguntarem pensar agora sim consigo acreditar alguns dia terra porque agora porque quero ver toda gente última vez</t>
+          <t>imaginem sistema onde cada cidadão pudesse votar tempo real através plataforma online propostas surgissem diretamente população acabaríamos privilégios representantes políticos colocaríamos poder verdadeiramente mãos povo sim democracias diretas exigem população educada informada impossível alcançar vejam exemplo países nórdicos onde após gerações investimento educação confiança mútua alcançaram nível impressionante maturidade social ilustrar ness países existem lojas qualquer funcionário supervisão onde pessoas escolhem produtos registam compraram sistema automático fazem pagamento sozinhas câmaras seguranças controlo confiam ninguém irá roubar demonstra nível responsabilidade ética sociedade pode atingir aposta verdadeiramente educação confiança outro lado modelo representativo hoje raramente serve interesses maioria historicamente temse inclinado beneficiar pequena elite muitas vezes degradase autoritarismo corrupção tempo piorar muitos cansados sentirmos representados nenhum partido parece política atual reflete anseios reais população sim interesses individuais grupos restritos claro desafios democracia direta desinformação cibersegurança inclusão digital problemas enfrentados tecnologia disponível hoje perfeitamente possível criar sistema transparente seguro eficiente plataformas digitais utilizadas alguns países mostram utopia então pergunto estaríamos prontos apostar educação confiança povo decidir destinos país vez continuar depender vontade representantes muitas vezes jogam apenas causa própria verdadeira democracia vamos debater faz sentido portugal avançar modelo democracia direta quais desafios podemos superar</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>10-11-2024</t>
+          <t>16-11-2024</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Conversa da Treta</t>
+          <t>Decidi que vou acabar com tudo.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>acho melhores peças humor português atualmente pouco conhecida httpswwwyoutubecomwatchvdwivrrdhttpswwwyoutubecomwatchvdwivrrd antónio feio josé pedro gomes antónio feio melhores humoristas portuguese devidamente conhecido</t>
+          <t>decisão difícil exigiu muita reflexão vida demasiado dura mim demasiado fraco coisas têm estado correr mal consigo mudálas pioram cada vez melhor mim acabar tudo vez ter viver vou tentar acabar tudo ante natal causar problemas preparei mensagem família outra grupo whatsapp faculdade desejo vida feliz toda gente conheço família possa compreender tudo culpa decisão perguntarem pensar agora sim consigo acreditar alguns dia terra porque agora porque quero ver toda gente última vez</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>10-10-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A popularidade do futebol em Portugal contribui para o menor sucesso de Portugal nos Jogos Olímpicos?</t>
+          <t>Conversa da Treta</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>termos desporto portugal quase monocultura futebol longe desporto popular sei outro país onde futebol forma tão esmagadora desporto dominante portugal difícil atleta tornarse profissional noutro desporto futebol pode contribuir existam muitos menos atletas topo noutros desportos muitos potenciais campeões outros desportos hoje futebolistas terceira divisão nacional</t>
+          <t>acho melhores peças humor português atualmente pouco conhecida httpswwwyoutubecomwatchvdwivrrdhttpswwwyoutubecomwatchvdwivrrd antónio feio josé pedro gomes antónio feio melhores humoristas portuguese devidamente conhecido</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>31-07-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Amanhã, uma forte tempestade geomagnética vai atingir a Terra, segundo a NOAA. O que é e o que pode acontecer?</t>
+          <t>A popularidade do futebol em Portugal contribui para o menor sucesso de Portugal nos Jogos Olímpicos?</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>httpswwwtempoptnoticiascienciaamanhaumafortetempestadegeomagneticavaiatingiraterrasegundoanoaaoqueeeoquepodeaconteceralertahtml</t>
+          <t>termos desporto portugal quase monocultura futebol longe desporto popular sei outro país onde futebol forma tão esmagadora desporto dominante portugal difícil atleta tornarse profissional noutro desporto futebol pode contribuir existam muitos menos atletas topo noutros desportos muitos potenciais campeões outros desportos hoje futebolistas terceira divisão nacional</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>10-05-2024</t>
+          <t>31-07-2024</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bem que podia ser na tuga, mas desta vez não aconteceu no brasil no estádio de futebol , na noticia diz que depois do jogo um adepto ao sair do estádio se enganou e acabou aqui </t>
+          <t>Amanhã, uma forte tempestade geomagnética vai atingir a Terra, segundo a NOAA. O que é e o que pode acontecer?</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>httpswwwinstagramcomreelcybjsosstiigshzrbthsbwhhmhlh</t>
+          <t>httpswwwtempoptnoticiascienciaamanhaumafortetempestadegeomagneticavaiatingiraterrasegundoanoaaoqueeeoquepodeaconteceralertahtml</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>15-04-2024</t>
+          <t>10-05-2024</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Câmara do Porto discute regulamento dos artistas de rua que proíbe amplificação de som</t>
+          <t xml:space="preserve">Bem que podia ser na tuga, mas desta vez não aconteceu no brasil no estádio de futebol , na noticia diz que depois do jogo um adepto ao sair do estádio se enganou e acabou aqui </t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>httpswwwjnptcamaradoportodiscuteregulamentodosartistasderuaqueproibeamplificacaodesomhttpswwwjnptcamaradoportodiscuteregulamentodosartistasderuaqueproibeamplificacaodesom executivo câmara porto discute segundafeira regulamento animadores rua distingue cidade duas zona atuação implica emissão licença proíbe utilização amplificação som proposta lusa hoje acesso vereadora catarina santos cunha esclarece objetivo município contribuir valorização atividade animador rua regulamentando gerindo qualificando intervenções espaço público incentivando diversificação disseminação diferentes zona regulamento animadores rua anexo proposta mantém conforme inicialmente anunciado duas áreas onde artistas poderão atuar maior pressão turística referente baixa cidade zona b outra menor pressão turística zona abrange toda freguesias exceto centro histórico toda ruas qualquer zona artistas devem manter distância mínima metro sendo além distanciamento zona maior pressão turística definido número máximo animadores topónimo rua cedofeita poderão atuar cinco animadores rua flores rua santa catarina praça ribeira cais estiva cais ribeira cais guindais três terreiro sé poderão atuar doi animadores animador calçada vandoma largo domingo rua carmelitas rua sampaio bruno animadores poderão ocupar espaço público terem licença deverá solicitada presencialmente gabinete munícipe via online zona animadores ficam isentos pagamento taxas zona b aplicase redução valor previsto tabela taxas municipais fixa euro dia licença poderá atribuída cada animador período máximo dia seguidos topónimo sendo dentro mesma rua animadores podem trocar lugar regulamento determina licença pode prorrogada fim data respetiva licença início seguinte mesma rua existir período carência trinta dia seguidos podendo entanto animador requerer licenças outros topónimos animador pode pedir único requerimento número licenças deseja meses seguintes contar data primeiro pedido licença área ocupação permitida comercialização artigos exposição intuito comercial respetiva área deverá delimitada devendo animador usar obrigatoriamente esteira própria disponibilizada câmara municipal porto atuações poderão decorrer sendo permitidas atuações proximidades edifícios habitação junto escolas durante horário funcionamento junto unidades saúde menos cinco metro qualquer cruzamento passadeiras frente entradas degraus estações comboio metro outros meios avenida aliados praça general humberto delgado praça d joão i largo amor perdição passeio frente jardim palácio cristal menos metro cada lado paragens autocarros interdita atuação animadores rua toda atuações proibida amplificação som considerando regulamento animador deve procurar minimizar incomodidade sonora compatibilizar convivência junto habitações espaços comerciais estabelecimentos hospitalares escolas regulamento discutido reunião pública executivo deverá entrar vigor dia após publicação diário república estando prevista consulta pública discutido reunião municipal documento segue discussão assembleia municipal porto município manifestou intenção regular atividade julho ano passado</t>
+          <t>httpswwwinstagramcomreelcybjsosstiigshzrbthsbwhhmhlh</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>05-04-2024</t>
+          <t>15-04-2024</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>O que leva um grupo de empresários a manter uma empresa que perde todos os anos cerca de um milhão de euros</t>
+          <t>Câmara do Porto discute regulamento dos artistas de rua que proíbe amplificação de som</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>httpsportaltransparenciaercptentidadesocsobservadorontimesaidentidadebceeeeeanofinanceirogeraldafin gostam deitar dinheiro janela poderem influenciar opinião pública sentido defesa interesses jornal mão trabalhadores conta outrem defesa grande maioria população portuguesa</t>
+          <t>httpswwwjnptcamaradoportodiscuteregulamentodosartistasderuaqueproibeamplificacaodesomhttpswwwjnptcamaradoportodiscuteregulamentodosartistasderuaqueproibeamplificacaodesom executivo câmara porto discute segundafeira regulamento animadores rua distingue cidade duas zona atuação implica emissão licença proíbe utilização amplificação som proposta lusa hoje acesso vereadora catarina santos cunha esclarece objetivo município contribuir valorização atividade animador rua regulamentando gerindo qualificando intervenções espaço público incentivando diversificação disseminação diferentes zona regulamento animadores rua anexo proposta mantém conforme inicialmente anunciado duas áreas onde artistas poderão atuar maior pressão turística referente baixa cidade zona b outra menor pressão turística zona abrange toda freguesias exceto centro histórico toda ruas qualquer zona artistas devem manter distância mínima metro sendo além distanciamento zona maior pressão turística definido número máximo animadores topónimo rua cedofeita poderão atuar cinco animadores rua flores rua santa catarina praça ribeira cais estiva cais ribeira cais guindais três terreiro sé poderão atuar doi animadores animador calçada vandoma largo domingo rua carmelitas rua sampaio bruno animadores poderão ocupar espaço público terem licença deverá solicitada presencialmente gabinete munícipe via online zona animadores ficam isentos pagamento taxas zona b aplicase redução valor previsto tabela taxas municipais fixa euro dia licença poderá atribuída cada animador período máximo dia seguidos topónimo sendo dentro mesma rua animadores podem trocar lugar regulamento determina licença pode prorrogada fim data respetiva licença início seguinte mesma rua existir período carência trinta dia seguidos podendo entanto animador requerer licenças outros topónimos animador pode pedir único requerimento número licenças deseja meses seguintes contar data primeiro pedido licença área ocupação permitida comercialização artigos exposição intuito comercial respetiva área deverá delimitada devendo animador usar obrigatoriamente esteira própria disponibilizada câmara municipal porto atuações poderão decorrer sendo permitidas atuações proximidades edifícios habitação junto escolas durante horário funcionamento junto unidades saúde menos cinco metro qualquer cruzamento passadeiras frente entradas degraus estações comboio metro outros meios avenida aliados praça general humberto delgado praça d joão i largo amor perdição passeio frente jardim palácio cristal menos metro cada lado paragens autocarros interdita atuação animadores rua toda atuações proibida amplificação som considerando regulamento animador deve procurar minimizar incomodidade sonora compatibilizar convivência junto habitações espaços comerciais estabelecimentos hospitalares escolas regulamento discutido reunião pública executivo deverá entrar vigor dia após publicação diário república estando prevista consulta pública discutido reunião municipal documento segue discussão assembleia municipal porto município manifestou intenção regular atividade julho ano passado</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>20-01-2024</t>
+          <t>05-04-2024</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Há 437 milhões para transportes e metade fica em Lisboa</t>
+          <t>O que leva um grupo de empresários a manter uma empresa que perde todos os anos cerca de um milhão de euros</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>xb httpspreviewreddithiuxodicdcjpgwidthformatpjpgautowebpscfabcdafcec</t>
+          <t>httpsportaltransparenciaercptentidadesocsobservadorontimesaidentidadebceeeeeanofinanceirogeraldafin gostam deitar dinheiro janela poderem influenciar opinião pública sentido defesa interesses jornal mão trabalhadores conta outrem defesa grande maioria população portuguesa</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>18-01-2024</t>
+          <t>20-01-2024</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Novo Conselho para a Ação Climática não pode tomar posse porque tem metade das mulheres que devia ter</t>
+          <t>Há 437 milhões para transportes e metade fica em Lisboa</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>httpsobservadorptnovoconselhoparaaacaoclimaticanaopodetomarposseporquetemmetadedasmulheresquedeviaterhttpsobservadorptnovoconselhoparaaacaoclimaticanaopodetomarposseporquetemmetadedasmulheresquedeviater</t>
+          <t>xb httpspreviewreddithiuxodicdcjpgwidthformatpjpgautowebpscfabcdafcec</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>18-01-2024</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Crónica do voluntariado - O adolescente pobre e vegetariano - os médicos de família sabem o suficiente de nutrição para o orientar?</t>
+          <t>Novo Conselho para a Ação Climática não pode tomar posse porque tem metade das mulheres que devia ter</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>famílias pobres apoio voluntariado faço adolescente ano decidiu vegetariano os famílias além pobre pouca instrução instrução capacidade fazer dieta vegetariana sofrer défices nutricionais disselhe pedirem orientação médico família sei médicos família sabem suficiente nutrição evitar adolescente venha sofrer problemas causa desta dieta vegetariana familiares médicos doutras especialidades disseram formação têm sobre nutrição pouca edit obrigado todos conselhos vamos adaptar cabaz alimentos damos família atendendo situação</t>
+          <t>httpsobservadorptnovoconselhoparaaacaoclimaticanaopodetomarposseporquetemmetadedasmulheresquedeviaterhttpsobservadorptnovoconselhoparaaacaoclimaticanaopodetomarposseporquetemmetadedasmulheresquedeviater</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Dinheiro a "streamers" do tiktok</t>
+          <t>Crónica do voluntariado - O adolescente pobre e vegetariano - os médicos de família sabem o suficiente de nutrição para o orientar?</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>prévia uso tiktok p controlar puto tb acompanhalo nova redes posto dou mim ver life pessoal tuga tiktok fico parvo gente pedir taptap baleias pistolas leões insultaremse un outros forma q estarolas tomem posições contribuam guito pessoal ganhar batalhas tiktokers ganham balúrdios deve gente tirar k mês n percebo cm gente dar febre vou enunciar alguns casos gaja q ex toxico q vive rsi nada contra pedir dinheiro p almocar restaurante comprar tabaco drogado chamado fabio insultar toda gente vestirse princesa pessoaa ver mandar prendas euro tiago grila tiago big brother slo bento sinceramente conjunto atrasados cheios pasta custa disto pronto rant n consigo perceber gasta dinheiro onde metade vai tiktok enviar leões corações mao whatever pessoas merda ha un qts palhaços cindy q quer anel loja n sei quê toni q frança so visto pf n gastem dinheiro nessa merda n vao nesse engodo q fdp mundo</t>
+          <t>famílias pobres apoio voluntariado faço adolescente ano decidiu vegetariano os famílias além pobre pouca instrução instrução capacidade fazer dieta vegetariana sofrer défices nutricionais disselhe pedirem orientação médico família sei médicos família sabem suficiente nutrição evitar adolescente venha sofrer problemas causa desta dieta vegetariana familiares médicos doutras especialidades disseram formação têm sobre nutrição pouca edit obrigado todos conselhos vamos adaptar cabaz alimentos damos família atendendo situação</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>16-10-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Quantos de vocês têm doenças crónicas?</t>
+          <t>Dinheiro a "streamers" do tiktok</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>gostava saber curiosidade saber faixa sim circunstâncias adquiridas</t>
+          <t>prévia uso tiktok p controlar puto tb acompanhalo nova redes posto dou mim ver life pessoal tuga tiktok fico parvo gente pedir taptap baleias pistolas leões insultaremse un outros forma q estarolas tomem posições contribuam guito pessoal ganhar batalhas tiktokers ganham balúrdios deve gente tirar k mês n percebo cm gente dar febre vou enunciar alguns casos gaja q ex toxico q vive rsi nada contra pedir dinheiro p almocar restaurante comprar tabaco drogado chamado fabio insultar toda gente vestirse princesa pessoaa ver mandar prendas euro tiago grila tiago big brother slo bento sinceramente conjunto atrasados cheios pasta custa disto pronto rant n consigo perceber gasta dinheiro onde metade vai tiktok enviar leões corações mao whatever pessoas merda ha un qts palhaços cindy q quer anel loja n sei quê toni q frança so visto pf n gastem dinheiro nessa merda n vao nesse engodo q fdp mundo</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Venderam milhões de kg de frutas e legumes como biológicos (mas não eram)</t>
+          <t>Quantos de vocês têm doenças crónicas?</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocommundovenderammilhoesdekgdefrutaselegumescomobiologicosmasnaoeramhttpswwwnoticiasaominutocommundovenderammilhoesdekgdefrutaselegumescomobiologicosmasnaoeram rede criminosa vendido últimos seis meses doi milhões quilos frutas legume produzidos convencionalmente sendo biológicos guardia civil espanhola desmantelou grupo criminoso motril granada dedicado fraude alimentar internacional quatro pessoas detidas outras investigadas grupo vendia frutas legume convencionais produção biológica principais mercados europeus vez frutas legume biológicos caros convencionais ness mercados detidos falsificaram sistematicamente certificados produção venda devem emitidos organismos controlo produção biológica sobre rastreabilidade destes frutos produtos hortícolas revela guardia civil comunicado quartafeira</t>
+          <t>gostava saber curiosidade saber faixa sim circunstâncias adquiridas</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>19-09-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Quanto vale esta Honda CBF 125</t>
+          <t>Venderam milhões de kg de frutas e legumes como biológicos (mas não eram)</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>tendo conta estado mota alguma ferrugem rua ano poi garagem pôr embora sempre protegida capa chove suficiente quanto acham vale encontrase andar perfeitamente precisa bateria nova pedal travão empenado queda tal tambor gasolina uma mossas carenagens tubo escape modificado comprei assim peças originais guardadas</t>
+          <t>httpswwwnoticiasaominutocommundovenderammilhoesdekgdefrutaselegumescomobiologicosmasnaoeramhttpswwwnoticiasaominutocommundovenderammilhoesdekgdefrutaselegumescomobiologicosmasnaoeram rede criminosa vendido últimos seis meses doi milhões quilos frutas legume produzidos convencionalmente sendo biológicos guardia civil espanhola desmantelou grupo criminoso motril granada dedicado fraude alimentar internacional quatro pessoas detidas outras investigadas grupo vendia frutas legume convencionais produção biológica principais mercados europeus vez frutas legume biológicos caros convencionais ness mercados detidos falsificaram sistematicamente certificados produção venda devem emitidos organismos controlo produção biológica sobre rastreabilidade destes frutos produtos hortícolas revela guardia civil comunicado quartafeira</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>03-08-2024</t>
+          <t>19-09-2024</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Castas organizadas pela direcção da escola</t>
+          <t>Quanto vale esta Honda CBF 125</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>matriculava escola erame dado papel perguntar profissão pai mãe nível escolaridade coincidência sempre colocada turma pobres dia secundário escolhi geologia betos escolheram disciplina colocada turma melhores colegas onde menos discriminada p modelo gay luís borges turma ano discriminava colegas chora programa daniel oliveira dizendo adotado mãe adotiva deixou ir ano</t>
+          <t>tendo conta estado mota alguma ferrugem rua ano poi garagem pôr embora sempre protegida capa chove suficiente quanto acham vale encontrase andar perfeitamente precisa bateria nova pedal travão empenado queda tal tambor gasolina uma mossas carenagens tubo escape modificado comprei assim peças originais guardadas</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>18-07-2024</t>
+          <t>03-08-2024</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>“Percebi que usava o sexo como moeda de troca”: Assédio sexual de Boaventura Sousa Santos relatado por sete mulheres</t>
+          <t>Castas organizadas pela direcção da escola</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptsociedadedetalhepercebiqueusavaosexocomomoedadetrocaassediosexualdeboaventurasousasantosrelatadoporsetemulheres revelações investidas sexuais surgem após carta coletivo vítimas onde primeira vez surgiram nome subscritoras sete mulheres relataram primeira vez publicamente investidas sexuais sociólogo boaventura sousa santos entrevista agência brasileira jornalismo investigação pública descrevem situações assédio sexual vítimas parte sociólogo universidade coimbra percebi usava sexo moeda troca disse ofendidas entrevista surge após divulgação carta coletivo vítimas onde primeira vez surgiram nome subscritoras antigo coordenador centro estudos sociais desmente acusações</t>
+          <t>matriculava escola erame dado papel perguntar profissão pai mãe nível escolaridade coincidência sempre colocada turma pobres dia secundário escolhi geologia betos escolheram disciplina colocada turma melhores colegas onde menos discriminada p modelo gay luís borges turma ano discriminava colegas chora programa daniel oliveira dizendo adotado mãe adotiva deixou ir ano</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>24-05-2024</t>
+          <t>18-07-2024</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Devaneios de um pequeno almoço em Madrid</t>
+          <t>“Percebi que usava o sexo como moeda de troca”: Assédio sexual de Boaventura Sousa Santos relatado por sete mulheres</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>os bom dia todos passar un dia madrid ficamos hospedados hostel presenteia pequeno almoço simpático hoje enquanto tomava pequeno almoço observei dinâmica família adolescentes rapazes marido mulher leste penso rússia curiosidade nesta observação prendese facto pessoas sexo masculino levantaram cu única vez ir buscar nada nada sempre mãeesposa buscar tudo meninosmarido os fodasse incluíndo fazer sandes meninos prai ano acusem cusquice parte sociologo falar alto qd puto realmente coisas diferentes mãe fazia quase tudo chegamos exageros os gostaria saber vossa opinião sobre temática caros redditers alguém cusco apercebeu dinâmicas assim pra frentex faço próprias sandesironia ta dizem</t>
+          <t>httpswwwcmjornalptsociedadedetalhepercebiqueusavaosexocomomoedadetrocaassediosexualdeboaventurasousasantosrelatadoporsetemulheres revelações investidas sexuais surgem após carta coletivo vítimas onde primeira vez surgiram nome subscritoras sete mulheres relataram primeira vez publicamente investidas sexuais sociólogo boaventura sousa santos entrevista agência brasileira jornalismo investigação pública descrevem situações assédio sexual vítimas parte sociólogo universidade coimbra percebi usava sexo moeda troca disse ofendidas entrevista surge após divulgação carta coletivo vítimas onde primeira vez surgiram nome subscritoras antigo coordenador centro estudos sociais desmente acusações</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>12-05-2024</t>
+          <t>24-05-2024</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Mortal Kombat</t>
+          <t>Devaneios de um pequeno almoço em Madrid</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>the dog just passed away</t>
+          <t>os bom dia todos passar un dia madrid ficamos hospedados hostel presenteia pequeno almoço simpático hoje enquanto tomava pequeno almoço observei dinâmica família adolescentes rapazes marido mulher leste penso rússia curiosidade nesta observação prendese facto pessoas sexo masculino levantaram cu única vez ir buscar nada nada sempre mãeesposa buscar tudo meninosmarido os fodasse incluíndo fazer sandes meninos prai ano acusem cusquice parte sociologo falar alto qd puto realmente coisas diferentes mãe fazia quase tudo chegamos exageros os gostaria saber vossa opinião sobre temática caros redditers alguém cusco apercebeu dinâmicas assim pra frentex faço próprias sandesironia ta dizem</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>18-04-2024</t>
+          <t>12-05-2024</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>São a favor ou contra o restabelecimento do serviço militar obrigatório?</t>
+          <t>Mortal Kombat</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>todos homens ante serviço militar passar inteiramente voluntário view pollhttpswwwredditcompollbyyxf</t>
+          <t>the dog just passed away</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>18-04-2024</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>O que se passa com as agências de publicidade e marketing das operadoras de comunicações?</t>
+          <t>São a favor ou contra o restabelecimento do serviço militar obrigatório?</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>últimos tempo parece anúncios empresas telecomunicações têm descido qualidade forma quase surreal desde argumentos vagos estética quase caricatural tendência anúncios parecem tocar insanidade tanto difícil imaginar reunião aprovação destes conceitos mãos departamentos marketing agências perderam toque reflexo próprio setor acredita tipo publicidade ainda eficaz alguém sente bombardeados anúncios cada vez chungosos</t>
+          <t>todos homens ante serviço militar passar inteiramente voluntário view pollhttpswwwredditcompollbyyxf</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>08-04-2024</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Cinco guardas escoltam recluso a sala de cinema no Estoril</t>
+          <t>O que se passa com as agências de publicidade e marketing das operadoras de comunicações?</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptexclusivosdetalhecincoguardasescoltamreclusoasaladecinemanoestoril sindicato alerta precedente grave diz perceber situação cadeia onde reina indisciplina</t>
+          <t>últimos tempo parece anúncios empresas telecomunicações têm descido qualidade forma quase surreal desde argumentos vagos estética quase caricatural tendência anúncios parecem tocar insanidade tanto difícil imaginar reunião aprovação destes conceitos mãos departamentos marketing agências perderam toque reflexo próprio setor acredita tipo publicidade ainda eficaz alguém sente bombardeados anúncios cada vez chungosos</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>04-08-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Bruxelas “declara guerra” aos preços baixos da Temu e Shein</t>
+          <t>Cinco guardas escoltam recluso a sala de cinema no Estoril</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>httpsecosapoptbruxelasdeclaraguerraaosprecosbaixosdatemueshein bruxelas preparase impor taxas sobre produtos baixo custo plataformas chinesas medida visa combater subsidiação pequim segue ataque recente indústria veículos elétricos acomissão europeia preparar terreno mudança significativa panorama comércio eletrónico plano impor taxas alfandegárias sobre produtos baratos provenientes retalhistas online chinese temu shein medida noticiada quartafeira financial time visa travar bruxelas considera subsidiação governo chinês indústria comercialização produtos baixo custo</t>
+          <t>httpswwwcmjornalptexclusivosdetalhecincoguardasescoltamreclusoasaladecinemanoestoril sindicato alerta precedente grave diz perceber situação cadeia onde reina indisciplina</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>04-07-2024</t>
+          <t>04-08-2024</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Pessoas tratam manifestantes portugueses como cães vadios...</t>
+          <t>Bruxelas “declara guerra” aos preços baixos da Temu e Shein</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>vão rir algumas bocas fiz porém triste pessoas pensarem assim militares portuguese comentar manifestantes terroristas p major exército português veio falar sobre atitude israel agressiva httpswwwrtpptplaypeo</t>
+          <t>httpsecosapoptbruxelasdeclaraguerraaosprecosbaixosdatemueshein bruxelas preparase impor taxas sobre produtos baixo custo plataformas chinesas medida visa combater subsidiação pequim segue ataque recente indústria veículos elétricos acomissão europeia preparar terreno mudança significativa panorama comércio eletrónico plano impor taxas alfandegárias sobre produtos baratos provenientes retalhistas online chinese temu shein medida noticiada quartafeira financial time visa travar bruxelas considera subsidiação governo chinês indústria comercialização produtos baixo custo</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>30-05-2024</t>
+          <t>04-07-2024</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Cidade 15 minutos</t>
+          <t>Pessoas tratam manifestantes portugueses como cães vadios...</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>modelo cidade defendido prática decisores modelo mercados decidem preço consequência tipo utilização imobiliário estado encarregase pagar estradas transportes etc nbsp modelo gera cidades crescem centros escritórios comércio subúrbios habitação cada vez longínquos medida centros crescem modelo bom rendimento imobiliário mau qualidade vida habitantes mau orçamento publico gaste nunca vais ter vias transportes equipamentos suficientes nbsp existe modelo distribuído raio minutos pé existe comércio centros saúde trabalho zona verdes bares restaurantes escolas modelo excelente qualidade vida pessoas barato orçamento estado gera menos rendimentos imobiliários porque existe pressão procura crescente zona concentração faz aumentar preços nbsp tema enorme impacto despesa tempo despendido diariamente quase toda gente tema falado marginalmente agenda nenhum partido voz televisão</t>
+          <t>vão rir algumas bocas fiz porém triste pessoas pensarem assim militares portuguese comentar manifestantes terroristas p major exército português veio falar sobre atitude israel agressiva httpswwwrtpptplaypeo</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>10-02-2024</t>
+          <t>30-05-2024</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Portugal continental segundo os alentejanos</t>
+          <t>Cidade 15 minutos</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditrqeysuwfcjpgwidthformatpjpgautowebpsacbdefddcfdbaeafbeb</t>
+          <t>modelo cidade defendido prática decisores modelo mercados decidem preço consequência tipo utilização imobiliário estado encarregase pagar estradas transportes etc nbsp modelo gera cidades crescem centros escritórios comércio subúrbios habitação cada vez longínquos medida centros crescem modelo bom rendimento imobiliário mau qualidade vida habitantes mau orçamento publico gaste nunca vais ter vias transportes equipamentos suficientes nbsp existe modelo distribuído raio minutos pé existe comércio centros saúde trabalho zona verdes bares restaurantes escolas modelo excelente qualidade vida pessoas barato orçamento estado gera menos rendimentos imobiliários porque existe pressão procura crescente zona concentração faz aumentar preços nbsp tema enorme impacto despesa tempo despendido diariamente quase toda gente tema falado marginalmente agenda nenhum partido voz televisão</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>01-02-2024</t>
+          <t>10-02-2024</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Mais de um terço dos médicos internos não voltariam a escolher o curso de Medicina</t>
+          <t>Portugal continental segundo os alentejanos</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>httpswwwjnptmaisdemetadedosmedicosinternosnaovoltariaaescolherocursodemedicina</t>
+          <t>xb httpspreviewredditrqeysuwfcjpgwidthformatpjpgautowebpsacbdefddcfdbaeafbeb</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>14-11-2024</t>
+          <t>01-02-2024</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grupo de WhatsApp para doentes crónicos </t>
+          <t>Mais de um terço dos médicos internos não voltariam a escolher o curso de Medicina</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>boa malta decidi criar grupo whatsapp doentes crónicos pt ideia ando maturar algum tempo porque sei experiência própria quão solitário pode viver varias doenças crónicas especialmente novos muitas vezes sentimos falar difícil encontrar pessoas realmente entendam passar assim decidi criar grupo grupo onde podemos trocar experiências apoiarmonos entanto quero deixar claro intuito grupo proporcionar partilhas baseadas experiências pessoais qualquer decisão sobre tratamento outras questões relacionadas saúde deve sempre discutida profissional saúde existem centenas comunidades internacionais facebook discord exemplo posso dizer facto sentir tão compreendida identificarme tanto outras pessoas si terapêutico pensei replicar portugal alguém identificar quiser fazer parte aqui link httpschatwhatsappcomerarjawycmihhjrtzm abreijos</t>
+          <t>httpswwwjnptmaisdemetadedosmedicosinternosnaovoltariaaescolherocursodemedicina</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -5751,915 +5751,915 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>02-10-2024</t>
+          <t>14-11-2024</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Sésamo - Tenho orgulho em ser uma vaca </t>
+          <t xml:space="preserve">Grupo de WhatsApp para doentes crónicos </t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>canção infantil cómica ainda cómica adultos crianças partilho convosco pérola humor httpswwwyoutubecomwatchvxogdlnqfshttpswwwyoutubecomwatchvxogdlnqfs</t>
+          <t>boa malta decidi criar grupo whatsapp doentes crónicos pt ideia ando maturar algum tempo porque sei experiência própria quão solitário pode viver varias doenças crónicas especialmente novos muitas vezes sentimos falar difícil encontrar pessoas realmente entendam passar assim decidi criar grupo grupo onde podemos trocar experiências apoiarmonos entanto quero deixar claro intuito grupo proporcionar partilhas baseadas experiências pessoais qualquer decisão sobre tratamento outras questões relacionadas saúde deve sempre discutida profissional saúde existem centenas comunidades internacionais facebook discord exemplo posso dizer facto sentir tão compreendida identificarme tanto outras pessoas si terapêutico pensei replicar portugal alguém identificar quiser fazer parte aqui link httpschatwhatsappcomerarjawycmihhjrtzm abreijos</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>20-09-2024</t>
+          <t>02-10-2024</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>História de Portugal nos tuk-tuk</t>
+          <t xml:space="preserve">Rua Sésamo - Tenho orgulho em ser uma vaca </t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>sei único notar repararam malta norte europa faz vida tuktuk lisboa goza torto direito história hoje vi tuk tuk passar mural abril cravo basicamente gajo disse continuamos usar símbolo precisarmos contém vossas</t>
+          <t>canção infantil cómica ainda cómica adultos crianças partilho convosco pérola humor httpswwwyoutubecomwatchvxogdlnqfshttpswwwyoutubecomwatchvxogdlnqfs</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>01-08-2024</t>
+          <t>20-09-2024</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Vila Nova de Punhete, 2017</t>
+          <t>História de Portugal nos tuk-tuk</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>mistura estilos</t>
+          <t>sei único notar repararam malta norte europa faz vida tuktuk lisboa goza torto direito história hoje vi tuk tuk passar mural abril cravo basicamente gajo disse continuamos usar símbolo precisarmos contém vossas</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>31-07-2024</t>
+          <t>01-08-2024</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Crise?</t>
+          <t>Vila Nova de Punhete, 2017</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>excluindo sector turístico sensação entrar crise severa sensação falar pessoas diversos sectores ficando ideia</t>
+          <t>mistura estilos</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>15-07-2024</t>
+          <t>31-07-2024</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Só uma pequena fatia das casas à venda é para a classe média</t>
+          <t>Crise?</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditexbfabecxwqcjpgwidthformatpjpgautowebpsadbfcdebceddcdcbfb</t>
+          <t>excluindo sector turístico sensação entrar crise severa sensação falar pessoas diversos sectores ficando ideia</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>27-03-2024</t>
+          <t>15-07-2024</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Kiev critica Papa por sugerir negociações de paz com Moscovo</t>
+          <t>Só uma pequena fatia das casas à venda é para a classe média</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditkvfkupjvncjpgwidthformatpjpgautowebpscbdfdccabafccce</t>
+          <t>xb jornal notícias março httpspreviewredditexbfabecxwqcjpgwidthformatpjpgautowebpsadbfcdebceddcdcbfb</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>12-03-2024</t>
+          <t>27-03-2024</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Influência da maçonaria em Portugal?</t>
+          <t>Kiev critica Papa por sugerir negociações de paz com Moscovo</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>muita pouca positiva negativa maçons boa intenções apenas querem fazer tráfico influências favores mútuos líderes políticos pertencem maçonarias</t>
+          <t>xb jornal notícias março httpspreviewredditkvfkupjvncjpgwidthformatpjpgautowebpscbdfdccabafccce</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>22-02-2024</t>
+          <t>12-03-2024</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>O Golpe do 25 de Novembro Documentário 9º ano História</t>
+          <t>Influência da maçonaria em Portugal?</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>queria saber pena melhores materiais mesma forma festejamos abril devemos festejar novembro</t>
+          <t>muita pouca positiva negativa maçons boa intenções apenas querem fazer tráfico influências favores mútuos líderes políticos pertencem maçonarias</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>23-01-2024</t>
+          <t>22-02-2024</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Praias de nudismo</t>
+          <t>O Golpe do 25 de Novembro Documentário 9º ano História</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>boa existe alguma lista oficial praia nudismo portugal</t>
+          <t>queria saber pena melhores materiais mesma forma festejamos abril devemos festejar novembro</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>23-01-2024</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Os algoritmos favorecem os extremismos (e a insensatez?)</t>
+          <t>Praias de nudismo</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>algoritmos redes sociais procuram captar audiências favorecem controvérsias polémicas normal homem morde cão alguém preferência famoso diz estupidez logo outras pessoas desatam replicar estupidez média redes sociais todo lado aparecem outros contestar dizer colocou errado gerase troca argumentos audiência sobe online online famoso disse estupidez recompensado ficando famoso todo processo repete assim extremismos crescem disparates começam tornarse aceitáveis alguém diz algo sensato sorte alguém concorda assunto fica ali tráfico online menor audiências menores logo lucros menores menores</t>
+          <t>boa existe alguma lista oficial praia nudismo portugal</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>03-12-2024</t>
+          <t>08-01-2024</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>“Buraco” na lei permite fraudes eleitorais nos partidos</t>
+          <t xml:space="preserve">Estudo sobre pornografia e imagem corporal </t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>httpszapaeiouptburaconaleipermitefraudeseleitoraisnospartidoshttpszapaeiouptburaconaleipermitefraudeseleitoraisnospartidos buraco lei permite fraudes eleitorais todos sufrágios órgãos soberania fraudes eleitorais levadas cabo eleições internas partidos associações outras organizações punidas lei lei prevê crime fraude eleitoral circunscritos eleições órgãos soberania exemplo presidência república assembleia república parlamento europeu órgãos regiões autónomas autarquias locais nesse ponto excluemse exemplo fraudes eleitorais cometidos eleições internas liderança partidos políticos clubes futebol</t>
+          <t>fazer estudo sobre efeitos pornografia imagem corporal puderem responder favor façam independentemente consumidores desse conteúdo respostas toda anónimas obrigado boa festas todos</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>26-11-2024</t>
+          <t>25-12-2024</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A Saga dos Comboios: Deixar Sair Antes de Entrar!</t>
+          <t>Os algoritmos favorecem os extremismos (e a insensatez?)</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>manual etiqueta básica comboios pessoal calma deixem pessoas sair prometo comboio vai arrancar bem quase sempre facilita vida toda gente</t>
+          <t>algoritmos redes sociais procuram captar audiências favorecem controvérsias polémicas normal homem morde cão alguém preferência famoso diz estupidez logo outras pessoas desatam replicar estupidez média redes sociais todo lado aparecem outros contestar dizer colocou errado gerase troca argumentos audiência sobe online online famoso disse estupidez recompensado ficando famoso todo processo repete assim extremismos crescem disparates começam tornarse aceitáveis alguém diz algo sensato sorte alguém concorda assunto fica ali tráfico online menor audiências menores logo lucros menores menores</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>14-10-2024</t>
+          <t>03-12-2024</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Seinfeld</t>
+          <t>“Buraco” na lei permite fraudes eleitorais nos partidos</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>todos episódios seinfeld todos adquiridos legalmente senhor agente guarda judiciária coloqueios loop tv acontecer contigo aconteceu contigo sim série</t>
+          <t>httpszapaeiouptburaconaleipermitefraudeseleitoraisnospartidoshttpszapaeiouptburaconaleipermitefraudeseleitoraisnospartidos buraco lei permite fraudes eleitorais todos sufrágios órgãos soberania fraudes eleitorais levadas cabo eleições internas partidos associações outras organizações punidas lei lei prevê crime fraude eleitoral circunscritos eleições órgãos soberania exemplo presidência república assembleia república parlamento europeu órgãos regiões autónomas autarquias locais nesse ponto excluemse exemplo fraudes eleitorais cometidos eleições internas liderança partidos políticos clubes futebol</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>13-09-2024</t>
+          <t>26-11-2024</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Depressão pós-férias: mais alguém como eu?</t>
+          <t>A Saga dos Comboios: Deixar Sair Antes de Entrar!</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>vou regressar trabalho deprimir lidam regresso trabalho</t>
+          <t>manual etiqueta básica comboios pessoal calma deixem pessoas sair prometo comboio vai arrancar bem quase sempre facilita vida toda gente</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>31-08-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Laboratórios condenados a pagar 48,6 milhões de euros por cartel em análises e testes covid-19</t>
+          <t>Seinfeld</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>httpssolsapoptlaboratorioscondenadosapagarmilhoesdeeurosporcartelemanalisesetestescovid</t>
+          <t>todos episódios seinfeld todos adquiridos legalmente senhor agente guarda judiciária coloqueios loop tv acontecer contigo aconteceu contigo sim série</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>25-07-2024</t>
+          <t>13-09-2024</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Não há nada mais a fazer, está a morrer, é mentira, há algo a fazer pela dignidade do humano.</t>
+          <t>Depressão pós-férias: mais alguém como eu?</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>httpsmalomilblogspotcomnaohanadamaisfazerestamorrerehtmlhttpsmalomilblogspotcomnaohanadamaisfazerestamorrerehtml bem verdade ideia distorcida quanto natureza cuidados paliativos certo senso comum conjunto cuidados associados gente vai morrer nada fazer jornalista pôsse encalço diferentes situações doença grave incurável ouviu profissionais doentes familiares nesta poderosa narrativa morrer viver histórias cuidados paliativos sofia teixeira fundação francisco manuel santos afirmase convicção pessoas viver têm direito serem cuidadas terem mínimo sofrimento máximo apoio viagem retratam cinco doentes nini joão francisco maria josé djamila ficanos certeza sempre algo fazer autora dizse chegou fim trabalho ficou enriquecida poi doente pensar morte ajudanos refletir sobre vida vida final surpreendente livro maioria protagonistas oportunidade ler páginas entanto deixaram história outros possam conhecer queria livro servisse lê fizesse si próprio perguntas considera importantes saiba respostas comprei livro vou lêlo fim semana espero nada inesperado surgir admirome falar sobre necessidade melhores cuidados paliativos li metade pessoas precisará un precisam acesso bons cuidados paliativos</t>
+          <t>vou regressar trabalho deprimir lidam regresso trabalho</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>27-06-2024</t>
+          <t>31-08-2024</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Procuro vídeo do fail no cântico</t>
+          <t>Laboratórios condenados a pagar 48,6 milhões de euros por cartel em análises e testes covid-19</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>antigamente youtube existia vídeo senhora faço ideia cesar mourão imagem encontrei net alguém sabe onde posso ver vídeo obrigado</t>
+          <t>httpssolsapoptlaboratorioscondenadosapagarmilhoesdeeurosporcartelemanalisesetestescovid</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>17-05-2024</t>
+          <t>25-07-2024</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Preços de produtos de higiene em PT</t>
+          <t>Não há nada mais a fazer, está a morrer, é mentira, há algo a fazer pela dignidade do humano.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>alguém sabe explicar produtos higiene limpeza desde cremes hidratantes detergentes chão tão absurdamente caros caros espanha sabia un dia dinamarca propriamente país barato supermercado fiquei chocado diferença</t>
+          <t>httpsmalomilblogspotcomnaohanadamaisfazerestamorrerehtmlhttpsmalomilblogspotcomnaohanadamaisfazerestamorrerehtml bem verdade ideia distorcida quanto natureza cuidados paliativos certo senso comum conjunto cuidados associados gente vai morrer nada fazer jornalista pôsse encalço diferentes situações doença grave incurável ouviu profissionais doentes familiares nesta poderosa narrativa morrer viver histórias cuidados paliativos sofia teixeira fundação francisco manuel santos afirmase convicção pessoas viver têm direito serem cuidadas terem mínimo sofrimento máximo apoio viagem retratam cinco doentes nini joão francisco maria josé djamila ficanos certeza sempre algo fazer autora dizse chegou fim trabalho ficou enriquecida poi doente pensar morte ajudanos refletir sobre vida vida final surpreendente livro maioria protagonistas oportunidade ler páginas entanto deixaram história outros possam conhecer queria livro servisse lê fizesse si próprio perguntas considera importantes saiba respostas comprei livro vou lêlo fim semana espero nada inesperado surgir admirome falar sobre necessidade melhores cuidados paliativos li metade pessoas precisará un precisam acesso bons cuidados paliativos</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>25-03-2024</t>
+          <t>27-06-2024</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>D'Hondt vs. Hare-Niemeyer</t>
+          <t>Procuro vídeo do fail no cântico</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>tempo venho discutir aqui eleições afirmo mesmas minadas viciadas impedir outras forças chegarem ter voz voz povo ter valor representatividade suposto terem democracia muitos perguntaramme porquê dizer afirmo porque usar método viciado deu maioria absoluta falsa podium ter sido evitada convém deime trabalho construir prova vivemos democracia voz popular deixovos aqui aconteceu legislativas acontecido usar sistema hareniemeyer apoio incondicionalmente rodeios transparência tomar partidos porque afecta todos vamos discutir problemas poi conhecimento lev liberdade</t>
+          <t>antigamente youtube existia vídeo senhora faço ideia cesar mourão imagem encontrei net alguém sabe onde posso ver vídeo obrigado</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>17-02-2024</t>
+          <t>17-05-2024</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbeiros 5 € </t>
+          <t>Preços de produtos de higiene em PT</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>debate aceso namorado porque tantos barbeiros tão baratos fazem dinheiro suficiente pagarem empregados têm</t>
+          <t>alguém sabe explicar produtos higiene limpeza desde cremes hidratantes detergentes chão tão absurdamente caros caros espanha sabia un dia dinamarca propriamente país barato supermercado fiquei chocado diferença</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>17-02-2024</t>
+          <t>25-03-2024</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Intenção de voto para as eleições legislativas de 10 de março</t>
+          <t>D'Hondt vs. Hare-Niemeyer</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>httpsssurveyplanetcomilzjhttpsssurveyplanetcomilzj título explica ideia entender intenção voto malta reddit pode trazer alguma claridade sobre sondagens têm sido publicadas sobre demografia política deste grupo sondagem ficará aberta termos menos participantes poder tirar conclusões erro partilhada aqui assim possível sondagem apenas pessoas votam refletindo itençao votar</t>
+          <t>tempo venho discutir aqui eleições afirmo mesmas minadas viciadas impedir outras forças chegarem ter voz voz povo ter valor representatividade suposto terem democracia muitos perguntaramme porquê dizer afirmo porque usar método viciado deu maioria absoluta falsa podium ter sido evitada convém deime trabalho construir prova vivemos democracia voz popular deixovos aqui aconteceu legislativas acontecido usar sistema hareniemeyer apoio incondicionalmente rodeios transparência tomar partidos porque afecta todos vamos discutir problemas poi conhecimento lev liberdade</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>03-02-2024</t>
+          <t>17-02-2024</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Turismo e imigração por motivos de saúde</t>
+          <t xml:space="preserve">Barbeiros 5 € </t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>sei quantificar números expressivos duvidam perguntem trabalhe nalguma farmácia voluntário instituição apoia famílias pobres últimos tempo aumentado conheço melhor casos imigrantes motivos saúde vários casos caso gémeas brasileiras receberam medicamento caro mundo apenas ponta iceberg ponta pequena instituição colaboro damos alimentos roupa outros ben roupa tempo sobra sobra imigrantes muitas vezes chegam apenas mala avião vezes motivos imigrarem estarem doentes país existirem condições serem tratados conheço casos angolanos lusovenezuelanos brasileiros lusobrasileiros casos pessoas posse rendimentos elevados oriundas países rico reino unido usa pagar tratamentos medicamentos aqui recebemnos graça quase graça hemodiálises medicamentos caros operações diversos tipos sistema saúde generoso imigração turismo saúde estará sobrecarregar sistema ponto</t>
+          <t>debate aceso namorado porque tantos barbeiros tão baratos fazem dinheiro suficiente pagarem empregados têm</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>29-01-2024</t>
+          <t>17-02-2024</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Onde está a grande quantidade de plástico que é reciclado na Europa? Surpreenda-se</t>
+          <t>Intenção de voto para as eleições legislativas de 10 de março</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>httpswwwtempoptnoticiasactualidadeondeestaagrandequantidadedeplasticoqueerecicladonaeuropasurpreendaseambientehtmlhttpswwwtempoptnoticiasactualidadeondeestaagrandequantidadedeplasticoqueerecicladonaeuropasurpreendaseambientehtml acordo novo estudo cerca metade resíduos plástico europa exportados vários países muitos europeus pensam reciclados velho continente grande percentagem plástico europeu enviada diferentes países distantes vietname acaba natureza segundo estudo cerca metade resíduos plástico europa exportados vários países ásia equipa investigação universidade utrecht investigou destino grande parte plástico europeuhttpswwwtempopteuropahtm imagem rua aterro cheia plásticos país ásia httpspreviewredditofqnqdfcjpgwidthformatpjpgautowebpsddeaabfeababccfec reciclagem europeia plásticos apesar regulamentação rigorosa ue matéria reciclagem plásticos pouca supervisão resíduos plástico enviados ue exemplo vietname grande percentagem plástico europeu exportado pode reciclado eliminado natureza conclusão nova investigação liderada kaustubh thapa universidade utrecht publicada circular economy and sustainability xb gráfico logarítmico mostra exportações europeias resíduos plástico países sudeste asiático últimos ano acordo dado europa fonte eurostathttpspreviewredditzlfqrzxsdfcjpgwidthformatpjpgautowebpsdedcebefcdebfdcb observámos pessoas cozinhar comer viver interior instalação reciclagem rodeadas fumos nocivos plástico derretido crianças brincavam neste ambiente sufocante afirma thapa investigador principal acordo investigação todos dia despejados milhões litros águas residuais tóxicas cursos água cidade embora tipo comércio resíduos lucrativo alguns transferência responsabilidade gestão resíduos produtores aldeias causa danos pessoas comunidades ambiente afirma thapa políticas realidades contrastantes negociações onu tratado internacional sobre plásticos atualmente curso nova investigação thapa mostra contraste notável políticas vietnamitas europeias realidade centros reciclagem sul global consumidores europeus fazer esforços separar reciclagem podemos ver claramente esforços grande medida vão afirma thapa acrescenta concentrarse aumentar taxas reciclagem ue abordar sistematicamente danos humanos ambientais associados longo toda cadeia valor ético circular sustentável investigadores perdem esperança acreditam externalização resíduos plásticos reciclagem possível forma sustentável novo acordo verde europeu plano ação economia circular conversações curso nações unidas sobre tratado global sobre plásticos juridicamente vinculativo podem ignorar conclusões medida consumimos cada vez conseguinte geramos resíduos comércio resíduos reciclagem deve abordado nível sistemático conclui thapa referência notícia kaustubh thapa et al towards just circular economy transition the case of european plastic waste trade to vietnam recycling circular economy and sustainability doi sw li ue proíbe exportação resíduos plásticoshttpspteuronewscomueproibeexportacaoderesiduosplasticos resíduos plástico reciclável deixam poder exportados países desenvolvimento partir janeiro plástico reciclável poder exportado países desenvolvimento nova regras europeias determinam apenas plásticos recicláveis podem exportados países ocde organização cooperação desenvolvimento económico comissário europeu responsável ambiente oceanos pescas afirma trata marco importante luta contra poluição</t>
+          <t>httpsssurveyplanetcomilzjhttpsssurveyplanetcomilzj título explica ideia entender intenção voto malta reddit pode trazer alguma claridade sobre sondagens têm sido publicadas sobre demografia política deste grupo sondagem ficará aberta termos menos participantes poder tirar conclusões erro partilhada aqui assim possível sondagem apenas pessoas votam refletindo itençao votar</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>29-01-2024</t>
+          <t>03-02-2024</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Murça apoia natalidade com três mil euros por bebé</t>
+          <t>Turismo e imigração por motivos de saúde</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>xb jornal notícias janeiro httpspreviewredditvwbxfncecjpgwidthformatpjpgautowebpsaefcedafaaebbc</t>
+          <t>sei quantificar números expressivos duvidam perguntem trabalhe nalguma farmácia voluntário instituição apoia famílias pobres últimos tempo aumentado conheço melhor casos imigrantes motivos saúde vários casos caso gémeas brasileiras receberam medicamento caro mundo apenas ponta iceberg ponta pequena instituição colaboro damos alimentos roupa outros ben roupa tempo sobra sobra imigrantes muitas vezes chegam apenas mala avião vezes motivos imigrarem estarem doentes país existirem condições serem tratados conheço casos angolanos lusovenezuelanos brasileiros lusobrasileiros casos pessoas posse rendimentos elevados oriundas países rico reino unido usa pagar tratamentos medicamentos aqui recebemnos graça quase graça hemodiálises medicamentos caros operações diversos tipos sistema saúde generoso imigração turismo saúde estará sobrecarregar sistema ponto</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>24-01-2024</t>
+          <t>29-01-2024</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Nuno Palma: “Portugal e o Brasil tornaram-se mais pobres devido à escravatura”</t>
+          <t>Onde está a grande quantidade de plástico que é reciclado na Europa? Surpreenda-se</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>httpssolsapoptnunopalmaportugaleobrasiltornaramsemaispobresdevidoaescravaturahttpssolsapoptnunopalmaportugaleobrasiltornaramsemaispobresdevidoaescravatura nuno palma explica novo livro causa atraso portugal ouro brasil marquês pombal fundos comunitários principais responsáveis salazar dinamizou país poucos livro podemos concluir atraso portugal começou século xviii devido efeitos económicos políticos ouro brasil fez exemplo deixado investir indústria diz marquês pombal talvez pior político sempre país reconhece nenhum mérito recuperação lisboa após terramoto exemplo defenda marquês pombal quis modernizar universidade coimbra livro explico efeitos diretos terramoto têm sido exagerados contrário muitas vezes diz pouco destrutivo país mostro livro dado estatísticas concretas número habitantes lisboa morreram deixaram cidade correspondeu pouco duas décadas meia capital voltaria ter mesma população rendimento nacional pessoa reagiu terramoto grande parte população país vivia centro norte pouco afetados terramoto ajudou pombal centralizar poder político pessoa viria ter consequências sérias país prazo poi legado político desastroso reformas universidade coimbra apenas tantos outros exemplos ideias parecendo boa papel nunca implementadas forma eficaz explico justifico porquê detalhe livro convencido marquês pombal expulsou jesuítas porque contra interesses brasil diz destruir rede escolas jesuítas pombal condenou portugal ignorância livro mostro assim apoiandome sempre estudos históricos científicos alguns quais recentes primeira metade século xviii portugal ainda atrasado nível educativo final desse século pode surpreender poi quase toda escolas país fechadas pombal qualquer alternativa posta terreno substituição destruído possível compreender porque portugal entrou século xx analfabetos porque nível capital humano particular literacia financeira país ainda hoje tão baixo conhecer contexto defende ouro brasil serviu aumentar consumo tendo servido modernizar país acabando concluir funcionou maldição recursos porquê ouro brasil aumentou consumo riqueza país temporariamente prazo condenounos pobres sido explico detalhe livro ouro condenou indústria portuguesa abandono distorceu instituições políticas forma negativa futuro país outra constatação polémica diz respeito escravatura poi defende portugal beneficiou mesma assim diz portugal brasil países rico mundo vezes ouvimos dizer riqueza portugal outros países ocidentais conseguida graças escravatura ideia absurda algumas pessoas talvez confundam riqueza rendimento alguns mercadores beneficiavam desse comércio sinistro países todo impérios frequentemente tipo afirmações feitas intuito óbvio sujar possível ocidente associando enriquecimento imoralidade desse comércio cuja existência áfrica resto milenar portanto anterior contacto direto europeus comércio atlântico iniciado partir finais século xv ativistas querem usar escravatura arma arremesso político serem exigidas reparações apesar ajuda externa países pobres dura décadas ter tido grade efeitos número escravos áfrica brasil esmagador relativamente número estados unidos américa magnitude diferença cerca milhões meio escravos levados áfrica continente americano brasil recebeu milhões comparação mil recebidos américa norte logo pode ter sido escravatura responsável sucesso económico uma nações insucesso outras contrário trabalho coautores leticia arroyo abad guilherme lambais cito livro mostram portugal brasil tornaram pobres devido escravatura resto importante extrair ouro brasil tanto prejudicou portugal percebe entende declínio portugal começou duas décadas terramoto ante guerras napoleónicas toda afirmações faço livro baseadas estudos científicos cito logo trata opinião mostro base dado estatísticas efetivamente declínio termos absolutos relativos começa cerca duas décadas informação hoje discuto detalhe capítulo livro mostra sementes problema vinham trás desde início desse século indicadores aponta diz respeito altura portuguese meados século xix ficámos baixos diz indicador diretamente relacionado pobreza consequentemente baixa escolaridade mostro livro século xix economia bateu fundo portuguese passaram ter estatura física claramente baixa outros países europa república afirma vícios passado mantiveram contribuindo ainda atraso portugal durante república prometeu pouco fez bem contrário segundo escreve então possível final ante contas públicas estarem estabilizadas país contas públicas estabilizadas pode país quaisquer perspetivas crescimento convergência caracterizou fase final primeira república compreender dia simple mesma situação caracterizou governos antónio costa contas certas qualquer capacidade implementar reformas fizessem país avançar contrário tentativa impor turmas mistas primária descalabro porque mundo rural desconfiava intenções republicanos livro cito estudos mostram fator importante impediu famílias enviar filhos escola si motivos crescimento económico estado novo devemse apostas industrialização alfabetização camadas jovens integração económica europa através efta dúvida alguns fatores fundamentais explicou várias vezes índices justificam viverse ditadura apesar disso sido atacado chame fascista acusação absurda livro explica instrumentalização frequentemente feita termo fascismo assim motivações parte faz abril diz portugal retomou bons números década porquê portugal parou convergir década partir abril motivos evidentes prec reforma agrária nacionalizações fugas capital excessiva intervenção estado certos setores economia nada disto ambiente favorável crescimento económico tendo sido necessárias intervenções fmi partir meados ano graças reformas então aconteceram convergência retomada outra vez travada partir final século xx atualmente caminhar tornarmos país pobre união europeia acredita portugal democracia plenum livro cito estudos internacionais mostram note país existe partido dominante décadas poder durante períodos curtos excecionais além disso infelizmente censura portugal viva boa saúde evidentemente censura prévia lápis azul estado novo ante censura século xxi menos violenta subtil pessoas sabem represálias carreiras profissionais existem autocensuramse acaso pessoas empregos portugal frequentemente veemência criticam forma independente gravidade passa país muitas críticas aparecem redes sociais feitas forma anónima pedi alguns académicos mediáticos esquerda moderada trabalham portugal normalmente dava bem blurb contracapa livro três recusaramse inventando desculpas compreendo motivos querem assumir receiam turba gostam manter popularidade menos manter paz vidas pessoais ganham dinheiro escrever jornais aborrecido perder benesses ter chatices colegas universidades trabalham vendemse pouco penso cegueira ideológica porque deve evidente qualquer pessoa livro trata assuntos acima divisões políticas corriqueiras espuma podiam ter coragem enfrentar tribalismo enfim país existe sente muitas vezes precisa seguir lógica dominante convém incomodado suma represálias existem dia censura tendo poucos integridade necessária enfrentar verdades estabelecidas pouco nenhum fundamento científico possam ter acredita baixar impostos possa ajudar país crescer carga esforço fiscal país alto especialmente relativamente qualidade oferta serviços públicos saúde educação estado degradar afirma baixar impostos iria gerar crescimento explicar onde iria cortar despesa forma legal deteriorar ainda serviços públicos credível investimento adicional compensasse perda receitas fiscais ênfase impostos partidos direita il pode valer votos proposta séria reforma país criação riqueza estado social qualidade ninguém criação riqueza podem baixarse impostos preciso meter carroça frente bois essencial discutir quais reformas possam criar riqueza segunda grande polémica livro diz fundos europeus ouro vinha brasil diz contribuem atraso país porquê mostro livro atraso explicase más políticas públicas passadas presentes levam baixa produtividade economia más políticas públicas têm si explicadas políticos fazem escolhas desastrosas míopes viradas presente fogem diabo cruz reformas prazo desenvolveriam país porque eleitores escolhem melhores políticos defendam caminho diferente argumento livro existe problema cultural profundo portuguese preguiçosos natureza outros povos existe contexto histórico interage causa contemporâneas cria mistura fatores particularmente tóxica fatores contemporâneos importantes ótica fundos europeus distorcem economia processo político portugal têm efeitos particularmente negativos comparação alguns outros países primeiro porque portugal país recebeu destes fundos relação tamanho economia segundo porque portugal chegaram contexto instituições fracas capital humano particularmente baixo contraste aconteceu partir início século xxi europa leste ambiente cultural criado atmosfera pós abril tornou portugal país esquerda estatista congéneres europeus explicação cultural raiz histórica profunda simplesmente resultado história segunda metade século xx particular ambiente sociocultural transição democracia causou ter sido verdadeira revolução contrário aconteceu espanha explico detalhes livro portugal capital humano instituições suficientemente fortes possível aplicação eficiente fundos europeus melhor acabarem então futuro admite crise alemanha possa obrigar ue repensar distribuição fundos livro considero alguns cenários incluindo fundos europeus infantilizam país portugal adulto ano receber mesada mãe europa acabar fundos benefícios grandes população principalmente prazo enquanto custos estariam concentrados hoje beneficia logo últimos têm incentivo fazer barulho manter tudo natural ainda míope egoísta solução vir internamente única decisão responsável pacto regime maiores partidos acordassem rejeitar fundos europeus infelizmente parece provável aproveito notar outros países europa incluindo vários países europa leste receberam fundos europeus convergiram ainda enquanto claro efeito líquido fundos fundos si podem boa explicação atraso precisam interagir natureza instituições precisamos compreender porque instituições portuguesas tão fracas reformam livro explica porquê acha aposta economia liberal falta vontade mudar país reflete algo profundo apenas maus políticos estarem poder país paciente queixa muda comportamento exigindo políticas públicas diferentes oposição podium alternativa apresenta reformas viáveis credíveis porque enquanto durarem fundos europeus fazêlo parece menos urgente realidade fim contas paciente queixase confortável quer aceitar cura sequer facto óbvio doente ignorância atrevida exército comentadores debitam disparates influenciar opinião pública tudo cairia castelo cartas fim fundos acha então deve fórmula deixarmos países pobres união europeia estado portugal disfuncional fiscalmente regressivo incapaz apoiar criação riqueza privada contrário capturado interesses privados reformas sérias apenas promessas vazias nunca acabando exemplos lei instituições aplicação efetiva sendo exemplos cresap menac lei branqueamento capitais código conduta governo entidade transparência verificação declarações interesses nunca acabam exemplos múltiplas entidades pessoas falam corrupção termo vago professores polícias geralmente corruptos portugal acontece muitas partes globo partes europa leste altas esferas estado outra conversa tudo resultado causa têm profundidade histórica explico livro interagem causa contemporâneas origem externa nomeadamente fundos europeus fácil apontar políticas alternativas melhores iriam certamente gerar crescimento convergência equilíbrio atualmente existe politicamente viáveis justiça exemplo funciona mal conhecimento geral especialmente tribunais administrativos fiscais nuno garoupa ano avisa quais reformas necessárias ignorado país bloqueado vejo saída credível encruzilhada país encontra milhões portuguese limiar pobreza sente vontade tentar fazer parte solução poucas exceções governantes portugal dignificam cargo ocupam académico verdade contrário tantos políticos apenas dizem académicos esconder ambições incompetência qualquer interesse carreira política prezo liberdade independência dizer penso sobre temas estando preso qualquer partido quer diga interessado apresentar diagnóstico sobre porque coisas ter papel ativo direto mudar sendo resto pessimista relativamente possibilidade tal mudança acontecer próximos tempo portugal falhar economia democracia possível compreender presente planear futuro primeiro conhecer passado escrevi livro causa atraso português inimigos acusamme querer reescrever história acham insulto realidade uso novos dado métodos científicos mostram interpretação tradicional muitos aspetos falsa logo incomoda nada digam reescrever história fazer contar verdade analisando história objetividade livrandoa propaganda primeira edição livro felizmente sucesso tendo esgotado rapidamente apesar tiragem grande disponível segunda edição livro vai ter sessão lançamento livraria buchholz lisboa dia janeiro h presença xb</t>
+          <t>httpswwwtempoptnoticiasactualidadeondeestaagrandequantidadedeplasticoqueerecicladonaeuropasurpreendaseambientehtmlhttpswwwtempoptnoticiasactualidadeondeestaagrandequantidadedeplasticoqueerecicladonaeuropasurpreendaseambientehtml acordo novo estudo cerca metade resíduos plástico europa exportados vários países muitos europeus pensam reciclados velho continente grande percentagem plástico europeu enviada diferentes países distantes vietname acaba natureza segundo estudo cerca metade resíduos plástico europa exportados vários países ásia equipa investigação universidade utrecht investigou destino grande parte plástico europeuhttpswwwtempopteuropahtm imagem rua aterro cheia plásticos país ásia httpspreviewredditofqnqdfcjpgwidthformatpjpgautowebpsddeaabfeababccfec reciclagem europeia plásticos apesar regulamentação rigorosa ue matéria reciclagem plásticos pouca supervisão resíduos plástico enviados ue exemplo vietname grande percentagem plástico europeu exportado pode reciclado eliminado natureza conclusão nova investigação liderada kaustubh thapa universidade utrecht publicada circular economy and sustainability xb gráfico logarítmico mostra exportações europeias resíduos plástico países sudeste asiático últimos ano acordo dado europa fonte eurostathttpspreviewredditzlfqrzxsdfcjpgwidthformatpjpgautowebpsdedcebefcdebfdcb observámos pessoas cozinhar comer viver interior instalação reciclagem rodeadas fumos nocivos plástico derretido crianças brincavam neste ambiente sufocante afirma thapa investigador principal acordo investigação todos dia despejados milhões litros águas residuais tóxicas cursos água cidade embora tipo comércio resíduos lucrativo alguns transferência responsabilidade gestão resíduos produtores aldeias causa danos pessoas comunidades ambiente afirma thapa políticas realidades contrastantes negociações onu tratado internacional sobre plásticos atualmente curso nova investigação thapa mostra contraste notável políticas vietnamitas europeias realidade centros reciclagem sul global consumidores europeus fazer esforços separar reciclagem podemos ver claramente esforços grande medida vão afirma thapa acrescenta concentrarse aumentar taxas reciclagem ue abordar sistematicamente danos humanos ambientais associados longo toda cadeia valor ético circular sustentável investigadores perdem esperança acreditam externalização resíduos plásticos reciclagem possível forma sustentável novo acordo verde europeu plano ação economia circular conversações curso nações unidas sobre tratado global sobre plásticos juridicamente vinculativo podem ignorar conclusões medida consumimos cada vez conseguinte geramos resíduos comércio resíduos reciclagem deve abordado nível sistemático conclui thapa referência notícia kaustubh thapa et al towards just circular economy transition the case of european plastic waste trade to vietnam recycling circular economy and sustainability doi sw li ue proíbe exportação resíduos plásticoshttpspteuronewscomueproibeexportacaoderesiduosplasticos resíduos plástico reciclável deixam poder exportados países desenvolvimento partir janeiro plástico reciclável poder exportado países desenvolvimento nova regras europeias determinam apenas plásticos recicláveis podem exportados países ocde organização cooperação desenvolvimento económico comissário europeu responsável ambiente oceanos pescas afirma trata marco importante luta contra poluição</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>06-01-2024</t>
+          <t>29-01-2024</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Qual foi aquele brinquedo que sempre quiseram receber no natal mas nunca tiveram ?</t>
+          <t>Murça apoia natalidade com três mil euros por bebé</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>quinta pinypon sempre quis dár águinha ás vacas polas toda beber</t>
+          <t>xb jornal notícias janeiro httpspreviewredditvwbxfncecjpgwidthformatpjpgautowebpsaefcedafaaebbc</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>17-12-2024</t>
+          <t>24-01-2024</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superiores transferem suspeito de abuso sexual, que faz novas vítimas </t>
+          <t>Nuno Palma: “Portugal e o Brasil tornaram-se mais pobres devido à escravatura”</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>httpsactualidadereligiosaptblogsuperiorestransferemsuspeitodeabusosexualquefaznovasvitimashttpsactualidadereligiosaptblogsuperiorestransferemsuspeitodeabusosexualquefaznovasvitimas vez padre delfim nome fictício sofria perturbação psiquiátrica outras coisas levava ter conversas pouco apropriadas menores ia falar crianças catequese além outras pancas dizialhes manterem sempre mãos cima secretárias insinuando mãos vista porque masturbar comissão independente veio lembrar bem tipo conversa sugestões insinuações natureza sexual configura abuso sexual menores perturbados assunto pais crianças queixaramse vigário fim doi ano vigário abriu finalmente investigação vigário apurou comportamento padre delfim grave devia continuar funções menos devia presença crianças transmitiu informação bispo abriu processo recusouse retirar sacerdote funções enquanto processo concluído comportamento padre delfim manteve agravou porque sabendo investigação passou acusar crianças quererem prejudicar tanto crianças catequistas paróquia medo padre delfim tornasse violento menos ocasião agrediu outra funcionária paróquia final desse ano toda comunidade paróquia suspirou alívio porque soube padre delfim ia regressar paróquia contudo ficaram surpreendidos descobrir vez afastado ministério contacto crianças padre delfim afinal sido mudado outra paróquia souberam então padre delfim pedido transferência voluntária diocese permitido perguntaram possível padre delfim mudar assim paróquia processo aberto foilhes dito departamento autoriza transferências paróquias departamento conduzir processo duas entidades distintas comunicam si cabe diocese zelar superiores interesses crianças foilhes dito presunção inocência padre delfim valia testemunhos incontáveis crianças diversas turmas vários catequistas outros funcionários paróquia assim permitiu padre delfim continuar prejudicar crianças abusando sexualmente enquanto diocese nada faz proteger felizmente história verdade melhor passou igreja afinal padre delfim professora ensino secundário paróquias duas escolas distintas lisboa miúdos catequese alunos dessas mesmas escolas bem reais diocese poi bem ministério educação evidentemente surgiu relatório comissão independente toda classe política rasgou vestes rangeu dentes importantes clérigos chamados justificar pecados igreja assembleia república recomendação comissão independente estado crie órgão semelhante analisar questão abusos sociedade portuguesa geral pg ficou gaveta vários ano igreja ter tornado política oficial afastamento funções qualquer clérigo credivelmente acusado ter cometido abusos processo concluído ministério educação outros continuum agrilhoada passado poucos têm dedicado tanta atenção seguir questão abusos sexuais igreja feito repetidos apelos maior transparência parte igreja saio desta bolha dou conta outras organizações portugal principalmente públicos lidam questão fico vergonha</t>
+          <t>httpssolsapoptnunopalmaportugaleobrasiltornaramsemaispobresdevidoaescravaturahttpssolsapoptnunopalmaportugaleobrasiltornaramsemaispobresdevidoaescravatura nuno palma explica novo livro causa atraso portugal ouro brasil marquês pombal fundos comunitários principais responsáveis salazar dinamizou país poucos livro podemos concluir atraso portugal começou século xviii devido efeitos económicos políticos ouro brasil fez exemplo deixado investir indústria diz marquês pombal talvez pior político sempre país reconhece nenhum mérito recuperação lisboa após terramoto exemplo defenda marquês pombal quis modernizar universidade coimbra livro explico efeitos diretos terramoto têm sido exagerados contrário muitas vezes diz pouco destrutivo país mostro livro dado estatísticas concretas número habitantes lisboa morreram deixaram cidade correspondeu pouco duas décadas meia capital voltaria ter mesma população rendimento nacional pessoa reagiu terramoto grande parte população país vivia centro norte pouco afetados terramoto ajudou pombal centralizar poder político pessoa viria ter consequências sérias país prazo poi legado político desastroso reformas universidade coimbra apenas tantos outros exemplos ideias parecendo boa papel nunca implementadas forma eficaz explico justifico porquê detalhe livro convencido marquês pombal expulsou jesuítas porque contra interesses brasil diz destruir rede escolas jesuítas pombal condenou portugal ignorância livro mostro assim apoiandome sempre estudos históricos científicos alguns quais recentes primeira metade século xviii portugal ainda atrasado nível educativo final desse século pode surpreender poi quase toda escolas país fechadas pombal qualquer alternativa posta terreno substituição destruído possível compreender porque portugal entrou século xx analfabetos porque nível capital humano particular literacia financeira país ainda hoje tão baixo conhecer contexto defende ouro brasil serviu aumentar consumo tendo servido modernizar país acabando concluir funcionou maldição recursos porquê ouro brasil aumentou consumo riqueza país temporariamente prazo condenounos pobres sido explico detalhe livro ouro condenou indústria portuguesa abandono distorceu instituições políticas forma negativa futuro país outra constatação polémica diz respeito escravatura poi defende portugal beneficiou mesma assim diz portugal brasil países rico mundo vezes ouvimos dizer riqueza portugal outros países ocidentais conseguida graças escravatura ideia absurda algumas pessoas talvez confundam riqueza rendimento alguns mercadores beneficiavam desse comércio sinistro países todo impérios frequentemente tipo afirmações feitas intuito óbvio sujar possível ocidente associando enriquecimento imoralidade desse comércio cuja existência áfrica resto milenar portanto anterior contacto direto europeus comércio atlântico iniciado partir finais século xv ativistas querem usar escravatura arma arremesso político serem exigidas reparações apesar ajuda externa países pobres dura décadas ter tido grade efeitos número escravos áfrica brasil esmagador relativamente número estados unidos américa magnitude diferença cerca milhões meio escravos levados áfrica continente americano brasil recebeu milhões comparação mil recebidos américa norte logo pode ter sido escravatura responsável sucesso económico uma nações insucesso outras contrário trabalho coautores leticia arroyo abad guilherme lambais cito livro mostram portugal brasil tornaram pobres devido escravatura resto importante extrair ouro brasil tanto prejudicou portugal percebe entende declínio portugal começou duas décadas terramoto ante guerras napoleónicas toda afirmações faço livro baseadas estudos científicos cito logo trata opinião mostro base dado estatísticas efetivamente declínio termos absolutos relativos começa cerca duas décadas informação hoje discuto detalhe capítulo livro mostra sementes problema vinham trás desde início desse século indicadores aponta diz respeito altura portuguese meados século xix ficámos baixos diz indicador diretamente relacionado pobreza consequentemente baixa escolaridade mostro livro século xix economia bateu fundo portuguese passaram ter estatura física claramente baixa outros países europa república afirma vícios passado mantiveram contribuindo ainda atraso portugal durante república prometeu pouco fez bem contrário segundo escreve então possível final ante contas públicas estarem estabilizadas país contas públicas estabilizadas pode país quaisquer perspetivas crescimento convergência caracterizou fase final primeira república compreender dia simple mesma situação caracterizou governos antónio costa contas certas qualquer capacidade implementar reformas fizessem país avançar contrário tentativa impor turmas mistas primária descalabro porque mundo rural desconfiava intenções republicanos livro cito estudos mostram fator importante impediu famílias enviar filhos escola si motivos crescimento económico estado novo devemse apostas industrialização alfabetização camadas jovens integração económica europa através efta dúvida alguns fatores fundamentais explicou várias vezes índices justificam viverse ditadura apesar disso sido atacado chame fascista acusação absurda livro explica instrumentalização frequentemente feita termo fascismo assim motivações parte faz abril diz portugal retomou bons números década porquê portugal parou convergir década partir abril motivos evidentes prec reforma agrária nacionalizações fugas capital excessiva intervenção estado certos setores economia nada disto ambiente favorável crescimento económico tendo sido necessárias intervenções fmi partir meados ano graças reformas então aconteceram convergência retomada outra vez travada partir final século xx atualmente caminhar tornarmos país pobre união europeia acredita portugal democracia plenum livro cito estudos internacionais mostram note país existe partido dominante décadas poder durante períodos curtos excecionais além disso infelizmente censura portugal viva boa saúde evidentemente censura prévia lápis azul estado novo ante censura século xxi menos violenta subtil pessoas sabem represálias carreiras profissionais existem autocensuramse acaso pessoas empregos portugal frequentemente veemência criticam forma independente gravidade passa país muitas críticas aparecem redes sociais feitas forma anónima pedi alguns académicos mediáticos esquerda moderada trabalham portugal normalmente dava bem blurb contracapa livro três recusaramse inventando desculpas compreendo motivos querem assumir receiam turba gostam manter popularidade menos manter paz vidas pessoais ganham dinheiro escrever jornais aborrecido perder benesses ter chatices colegas universidades trabalham vendemse pouco penso cegueira ideológica porque deve evidente qualquer pessoa livro trata assuntos acima divisões políticas corriqueiras espuma podiam ter coragem enfrentar tribalismo enfim país existe sente muitas vezes precisa seguir lógica dominante convém incomodado suma represálias existem dia censura tendo poucos integridade necessária enfrentar verdades estabelecidas pouco nenhum fundamento científico possam ter acredita baixar impostos possa ajudar país crescer carga esforço fiscal país alto especialmente relativamente qualidade oferta serviços públicos saúde educação estado degradar afirma baixar impostos iria gerar crescimento explicar onde iria cortar despesa forma legal deteriorar ainda serviços públicos credível investimento adicional compensasse perda receitas fiscais ênfase impostos partidos direita il pode valer votos proposta séria reforma país criação riqueza estado social qualidade ninguém criação riqueza podem baixarse impostos preciso meter carroça frente bois essencial discutir quais reformas possam criar riqueza segunda grande polémica livro diz fundos europeus ouro vinha brasil diz contribuem atraso país porquê mostro livro atraso explicase más políticas públicas passadas presentes levam baixa produtividade economia más políticas públicas têm si explicadas políticos fazem escolhas desastrosas míopes viradas presente fogem diabo cruz reformas prazo desenvolveriam país porque eleitores escolhem melhores políticos defendam caminho diferente argumento livro existe problema cultural profundo portuguese preguiçosos natureza outros povos existe contexto histórico interage causa contemporâneas cria mistura fatores particularmente tóxica fatores contemporâneos importantes ótica fundos europeus distorcem economia processo político portugal têm efeitos particularmente negativos comparação alguns outros países primeiro porque portugal país recebeu destes fundos relação tamanho economia segundo porque portugal chegaram contexto instituições fracas capital humano particularmente baixo contraste aconteceu partir início século xxi europa leste ambiente cultural criado atmosfera pós abril tornou portugal país esquerda estatista congéneres europeus explicação cultural raiz histórica profunda simplesmente resultado história segunda metade século xx particular ambiente sociocultural transição democracia causou ter sido verdadeira revolução contrário aconteceu espanha explico detalhes livro portugal capital humano instituições suficientemente fortes possível aplicação eficiente fundos europeus melhor acabarem então futuro admite crise alemanha possa obrigar ue repensar distribuição fundos livro considero alguns cenários incluindo fundos europeus infantilizam país portugal adulto ano receber mesada mãe europa acabar fundos benefícios grandes população principalmente prazo enquanto custos estariam concentrados hoje beneficia logo últimos têm incentivo fazer barulho manter tudo natural ainda míope egoísta solução vir internamente única decisão responsável pacto regime maiores partidos acordassem rejeitar fundos europeus infelizmente parece provável aproveito notar outros países europa incluindo vários países europa leste receberam fundos europeus convergiram ainda enquanto claro efeito líquido fundos fundos si podem boa explicação atraso precisam interagir natureza instituições precisamos compreender porque instituições portuguesas tão fracas reformam livro explica porquê acha aposta economia liberal falta vontade mudar país reflete algo profundo apenas maus políticos estarem poder país paciente queixa muda comportamento exigindo políticas públicas diferentes oposição podium alternativa apresenta reformas viáveis credíveis porque enquanto durarem fundos europeus fazêlo parece menos urgente realidade fim contas paciente queixase confortável quer aceitar cura sequer facto óbvio doente ignorância atrevida exército comentadores debitam disparates influenciar opinião pública tudo cairia castelo cartas fim fundos acha então deve fórmula deixarmos países pobres união europeia estado portugal disfuncional fiscalmente regressivo incapaz apoiar criação riqueza privada contrário capturado interesses privados reformas sérias apenas promessas vazias nunca acabando exemplos lei instituições aplicação efetiva sendo exemplos cresap menac lei branqueamento capitais código conduta governo entidade transparência verificação declarações interesses nunca acabam exemplos múltiplas entidades pessoas falam corrupção termo vago professores polícias geralmente corruptos portugal acontece muitas partes globo partes europa leste altas esferas estado outra conversa tudo resultado causa têm profundidade histórica explico livro interagem causa contemporâneas origem externa nomeadamente fundos europeus fácil apontar políticas alternativas melhores iriam certamente gerar crescimento convergência equilíbrio atualmente existe politicamente viáveis justiça exemplo funciona mal conhecimento geral especialmente tribunais administrativos fiscais nuno garoupa ano avisa quais reformas necessárias ignorado país bloqueado vejo saída credível encruzilhada país encontra milhões portuguese limiar pobreza sente vontade tentar fazer parte solução poucas exceções governantes portugal dignificam cargo ocupam académico verdade contrário tantos políticos apenas dizem académicos esconder ambições incompetência qualquer interesse carreira política prezo liberdade independência dizer penso sobre temas estando preso qualquer partido quer diga interessado apresentar diagnóstico sobre porque coisas ter papel ativo direto mudar sendo resto pessimista relativamente possibilidade tal mudança acontecer próximos tempo portugal falhar economia democracia possível compreender presente planear futuro primeiro conhecer passado escrevi livro causa atraso português inimigos acusamme querer reescrever história acham insulto realidade uso novos dado métodos científicos mostram interpretação tradicional muitos aspetos falsa logo incomoda nada digam reescrever história fazer contar verdade analisando história objetividade livrandoa propaganda primeira edição livro felizmente sucesso tendo esgotado rapidamente apesar tiragem grande disponível segunda edição livro vai ter sessão lançamento livraria buchholz lisboa dia janeiro h presença xb</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>06-01-2024</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Deve Portugal criar um imposto sobre as grandes fortunas?</t>
+          <t>Qual foi aquele brinquedo que sempre quiseram receber no natal mas nunca tiveram ?</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>apenas sobre dinheiro sobre outros ben tai ações terrenos imobiliário outros ben podem servir refúgio tai joias obras arte partir valores sim valor taxon menos view pollhttpswwwredditcompollfpty</t>
+          <t>quinta pinypon sempre quis dár águinha ás vacas polas toda beber</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>25-09-2024</t>
+          <t>17-12-2024</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Devem os telemóveis ser proibidos nas escolas do ensino obrigatório? Se sim, até que idade?</t>
+          <t xml:space="preserve">Superiores transferem suspeito de abuso sexual, que faz novas vítimas </t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>defenda proibição uso telemóveis estudantes escolas assunto anda discutido sociedade portuguesa vossa opinião view pollhttpswwwredditcompollfigdc</t>
+          <t>httpsactualidadereligiosaptblogsuperiorestransferemsuspeitodeabusosexualquefaznovasvitimashttpsactualidadereligiosaptblogsuperiorestransferemsuspeitodeabusosexualquefaznovasvitimas vez padre delfim nome fictício sofria perturbação psiquiátrica outras coisas levava ter conversas pouco apropriadas menores ia falar crianças catequese além outras pancas dizialhes manterem sempre mãos cima secretárias insinuando mãos vista porque masturbar comissão independente veio lembrar bem tipo conversa sugestões insinuações natureza sexual configura abuso sexual menores perturbados assunto pais crianças queixaramse vigário fim doi ano vigário abriu finalmente investigação vigário apurou comportamento padre delfim grave devia continuar funções menos devia presença crianças transmitiu informação bispo abriu processo recusouse retirar sacerdote funções enquanto processo concluído comportamento padre delfim manteve agravou porque sabendo investigação passou acusar crianças quererem prejudicar tanto crianças catequistas paróquia medo padre delfim tornasse violento menos ocasião agrediu outra funcionária paróquia final desse ano toda comunidade paróquia suspirou alívio porque soube padre delfim ia regressar paróquia contudo ficaram surpreendidos descobrir vez afastado ministério contacto crianças padre delfim afinal sido mudado outra paróquia souberam então padre delfim pedido transferência voluntária diocese permitido perguntaram possível padre delfim mudar assim paróquia processo aberto foilhes dito departamento autoriza transferências paróquias departamento conduzir processo duas entidades distintas comunicam si cabe diocese zelar superiores interesses crianças foilhes dito presunção inocência padre delfim valia testemunhos incontáveis crianças diversas turmas vários catequistas outros funcionários paróquia assim permitiu padre delfim continuar prejudicar crianças abusando sexualmente enquanto diocese nada faz proteger felizmente história verdade melhor passou igreja afinal padre delfim professora ensino secundário paróquias duas escolas distintas lisboa miúdos catequese alunos dessas mesmas escolas bem reais diocese poi bem ministério educação evidentemente surgiu relatório comissão independente toda classe política rasgou vestes rangeu dentes importantes clérigos chamados justificar pecados igreja assembleia república recomendação comissão independente estado crie órgão semelhante analisar questão abusos sociedade portuguesa geral pg ficou gaveta vários ano igreja ter tornado política oficial afastamento funções qualquer clérigo credivelmente acusado ter cometido abusos processo concluído ministério educação outros continuum agrilhoada passado poucos têm dedicado tanta atenção seguir questão abusos sexuais igreja feito repetidos apelos maior transparência parte igreja saio desta bolha dou conta outras organizações portugal principalmente públicos lidam questão fico vergonha</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>16-09-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Alecrim, Alecrim dourado</t>
+          <t>Deve Portugal criar um imposto sobre as grandes fortunas?</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>alecrim alecrim dourado nasceu campo semeado alecrim alecrim dourado nasceu campo semeado amor disse assim flor campo alecrim amor disse assim flor campo alecrim</t>
+          <t>apenas sobre dinheiro sobre outros ben tai ações terrenos imobiliário outros ben podem servir refúgio tai joias obras arte partir valores sim valor taxon menos view pollhttpswwwredditcompollfpty</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>25-08-2024</t>
+          <t>25-09-2024</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A resposta aos surtos de raiva intensa</t>
+          <t>Devem os telemóveis ser proibidos nas escolas do ensino obrigatório? Se sim, até que idade?</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>encontrei seguinte questão reddit lidam surtos raiva intensa gostaria pessoa calma vezes dou mim perder cabeça comportarme animal resposta ante deixemme dizervos qualquer humano pacato monstro potencial cada via éne fatores contextuais comportamentais hormonais bioquímicos patamar partir conseguimos suportar determinado evento externo tornamos agressivos combater perceber crucial pessoas mudem dentro melhorem convivência social posto importa aqui compreender natureza parte problema gene vão determinar comportamento passemos bateria sessões reeducação preparação convivência social saudável si bastante outros fatores bioquímicos fortes vão fazer papel bastidores dificilmente vamos conseguir suportar determinado nível pressão agressão externas agora vamos adicionar aqui problemas relacionados trauma crescimento agressões autoinfligidas infligidas terceiros resultado menor tolerância eventuais ameaças exteriores comportamento provem danos crescimento afetam parte psicológica bioquímica último menos importante devemos ter consideração contexto social conjunto pressões externas expostos via conduta social vigente bem interações impositivas encarregados educação demais familiares amigo conhecidos maior menor medida possam influenciar desenvolvimento psicológico cognitivo ponto moldar maneira reagimos potenciais ameaças externas reparem usei aqui denominador comum termo ameaças externas fator estimula reação exagerada quero dizer catapulta reação exagerada sempre vista olhos todos ameaça sentido maioria pessoas atribui facto acontece agente reage extrapoladamente determinado evento vêo ameaça real razão situação espoleta nele comportamento reprovável socialmente terminar falta adicionar tema fator alimentação últimos estudos científicos vêm demonstrando intestino causa grande parte comportamento alimentação saudável rica proteínas fibras vitaminas sais minerais par noite sono bem dormida podem fazer verdadeiros milagres desenvolvimento pessoal suma devemos julgar situações limite bitaola bommau termos consciência abordagem certa podemos levar pessoas procurar ajuda médica especialidade contribuir sociedade pacífica perdendo vista ainda assim sociedade pacífica objetivo irrealista inalcançável</t>
+          <t>defenda proibição uso telemóveis estudantes escolas assunto anda discutido sociedade portuguesa vossa opinião view pollhttpswwwredditcompollfigdc</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>27-07-2024</t>
+          <t>16-09-2024</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Nokia🗿&gt;&gt;&gt;&gt;</t>
+          <t>Alecrim, Alecrim dourado</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>verão acabou vou trocar iphone nokia igual avô quiserem falar comigo liguem mandam sm juntemse á causa</t>
+          <t>alecrim alecrim dourado nasceu campo semeado alecrim alecrim dourado nasceu campo semeado amor disse assim flor campo alecrim amor disse assim flor campo alecrim</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
+          <t>25-08-2024</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Um quarto dos jovens dividem quarto. Os outros três quartos estão no airbnb.</t>
+          <t>A resposta aos surtos de raiva intensa</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>httpswwwinstagramcompcsrksbzigshmtrnbnnhmwdlmxpnbw</t>
+          <t>encontrei seguinte questão reddit lidam surtos raiva intensa gostaria pessoa calma vezes dou mim perder cabeça comportarme animal resposta ante deixemme dizervos qualquer humano pacato monstro potencial cada via éne fatores contextuais comportamentais hormonais bioquímicos patamar partir conseguimos suportar determinado evento externo tornamos agressivos combater perceber crucial pessoas mudem dentro melhorem convivência social posto importa aqui compreender natureza parte problema gene vão determinar comportamento passemos bateria sessões reeducação preparação convivência social saudável si bastante outros fatores bioquímicos fortes vão fazer papel bastidores dificilmente vamos conseguir suportar determinado nível pressão agressão externas agora vamos adicionar aqui problemas relacionados trauma crescimento agressões autoinfligidas infligidas terceiros resultado menor tolerância eventuais ameaças exteriores comportamento provem danos crescimento afetam parte psicológica bioquímica último menos importante devemos ter consideração contexto social conjunto pressões externas expostos via conduta social vigente bem interações impositivas encarregados educação demais familiares amigo conhecidos maior menor medida possam influenciar desenvolvimento psicológico cognitivo ponto moldar maneira reagimos potenciais ameaças externas reparem usei aqui denominador comum termo ameaças externas fator estimula reação exagerada quero dizer catapulta reação exagerada sempre vista olhos todos ameaça sentido maioria pessoas atribui facto acontece agente reage extrapoladamente determinado evento vêo ameaça real razão situação espoleta nele comportamento reprovável socialmente terminar falta adicionar tema fator alimentação últimos estudos científicos vêm demonstrando intestino causa grande parte comportamento alimentação saudável rica proteínas fibras vitaminas sais minerais par noite sono bem dormida podem fazer verdadeiros milagres desenvolvimento pessoal suma devemos julgar situações limite bitaola bommau termos consciência abordagem certa podemos levar pessoas procurar ajuda médica especialidade contribuir sociedade pacífica perdendo vista ainda assim sociedade pacífica objetivo irrealista inalcançável</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>13-04-2024</t>
+          <t>27-07-2024</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Engenheiro da Microsoft evita possível ataque informático global sem querer</t>
+          <t>Nokia🗿&gt;&gt;&gt;&gt;</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>httpssicnoticiasptmundoengenheirodamicrosoftevitapossivelataqueinformaticoglobalsemquererbdfe</t>
+          <t>verão acabou vou trocar iphone nokia igual avô quiserem falar comigo liguem mandam sm juntemse á causa</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>08-05-2024</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Crianças têm cada vez mais dificuldades para brincar</t>
+          <t>Um quarto dos jovens dividem quarto. Os outros três quartos estão no airbnb.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>xb jornal notícias abril httpspreviewredditrmfcjlrtcjpgwidthformatpjpgautowebpsffedbdecac</t>
+          <t>httpswwwinstagramcompcsrksbzigshmtrnbnnhmwdlmxpnbw</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>13-04-2024</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Para os vossos pais, vocês fazem bem alguma tarefa doméstica?</t>
+          <t>Engenheiro da Microsoft evita possível ataque informático global sem querer</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>aparentemente faço nada bem pendurar uma meias secar penduro elástico devia ter pendurado parte dedos penduro parte dedos devia ter pendurado elástico fazem bem alguma tarefa doméstica</t>
+          <t>httpssicnoticiasptmundoengenheirodamicrosoftevitapossivelataqueinformaticoglobalsemquererbdfe</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>08-04-2024</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Algumas compritas, uma conta de € 165,34 em alimentos - aproveitando algumas promoções</t>
+          <t>Crianças têm cada vez mais dificuldades para brincar</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditnjsidduhcjpgwidthformatpjpgautowebpsecacfdaebabafaed xb httpspreviewredditletxhfduhcjpgwidthformatpjpgautowebpsbddabfeefdcbebfde quilos frango total cerca kcal alimentos</t>
+          <t>xb jornal notícias abril httpspreviewredditrmfcjlrtcjpgwidthformatpjpgautowebpsffedbdecac</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>10-02-2024</t>
+          <t>08-04-2024</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Tribunal declara extinta medida de coação de Sócrates</t>
+          <t>Para os vossos pais, vocês fazem bem alguma tarefa doméstica?</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalhetribunaldeclaraextintamedidadecoacaodesocrateshttpswwwcmjornalptportugaldetalhetribunaldeclaraextintamedidadecoacaodesocrates</t>
+          <t>aparentemente faço nada bem pendurar uma meias secar penduro elástico devia ter pendurado parte dedos penduro parte dedos devia ter pendurado elástico fazem bem alguma tarefa doméstica</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>29-03-2024</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inês Teotónio Pereira escreveu crónica sobre como obrigou o filho a participar num campo de férias. Foi denunciada e a CPCJ quis investigar </t>
+          <t>Algumas compritas, uma conta de € 165,34 em alimentos - aproveitando algumas promoções</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>httpsobservadorptespeciaisinesteotoniopereiraescreveucronicasobrecomoobrigouofilhoaparticiparnumcampodeferiasfoidenunciadaeacpcjquisinvestigarhttpsobservadorptespeciaisinesteotoniopereiraescreveucronicasobrecomoobrigouofilhoaparticiparnumcampodeferiasfoidenunciadaeacpcjquisinvestigar</t>
+          <t>xb httpspreviewredditnjsidduhcjpgwidthformatpjpgautowebpsecacfdaebabafaed xb httpspreviewredditletxhfduhcjpgwidthformatpjpgautowebpsbddabfeefdcbebfde quilos frango total cerca kcal alimentos</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>10-02-2024</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Iwao Hakamada passou 46 anos no corredor da morte e só agora foi considerado inocente</t>
+          <t>Por que Natal e Ano Novo são as datas mais depressivas e ansiosas para tanta gente? Especialistas explicam</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>httpssapoptatualidadeartigosiwaohakamadapassouanosnocorredordamorteesoagorafoiconsideradoinocente iwao hakamada considerado inocente assassínio patrão família após novo julgamento começou março após ano disputas legais</t>
+          <t>httpswwwjornalcienciacomporquenataleanonovosaoasdatasmaisdepressivaseansiosasparatantagenteespecialistasexplicamhttpswwwjornalcienciacomporquenataleanonovosaoasdatasmaisdepressivaseansiosasparatantagenteespecialistasexplicam alguns familiares amigo depressão viam tudo negro desta época nesta época pioraram pouco sempre mau humor outro manifestar inveja ambiente alegria felicidade típicos natal ano novo</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>27-09-2024</t>
+          <t>26-12-2024</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Deixar de fumar</t>
+          <t>Tribunal declara extinta medida de coação de Sócrates</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>boa então deixar fumar ate correr bem queria saber vou ter vontade fumar semana duas dia</t>
+          <t>httpswwwcmjornalptportugaldetalhetribunaldeclaraextintamedidadecoacaodesocrateshttpswwwcmjornalptportugaldetalhetribunaldeclaraextintamedidadecoacaodesocrates</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>06-08-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Português dá uma guitarrada na volta á França</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr"/>
+          <t xml:space="preserve">Inês Teotónio Pereira escreveu crónica sobre como obrigou o filho a participar num campo de férias. Foi denunciada e a CPCJ quis investigar </t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>httpsobservadorptespeciaisinesteotoniopereiraescreveucronicasobrecomoobrigouofilhoaparticiparnumcampodeferiasfoidenunciadaeacpcjquisinvestigarhttpsobservadorptespeciaisinesteotoniopereiraescreveucronicasobrecomoobrigouofilhoaparticiparnumcampodeferiasfoidenunciadaeacpcjquisinvestigar</t>
+        </is>
+      </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>19-07-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Julian Assange libertado e a caminho de casa depois de chegar a acordo com a Justiça dos EUA </t>
+          <t>Iwao Hakamada passou 46 anos no corredor da morte e só agora foi considerado inocente</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>httpspteuronewscomjulianassangelibertadoeacaminhodecasahttpspteuronewscomjulianassangelibertadoeacaminhodecasa fundador wikileaks deixou reino unido prisão alta segurança onde passou últimos cinco ano acordo justiça norteamericana fundador wikileaks julian assange homem livre assange deixou reino unido entrou avião caminho ilhas marianas protetorado norteamericano onde presente juíz após acordo justiça norteamericana assange aceitou declararse culpado acusação divulgar segredos defesa estados unidos troca recebe pena prisão cinco ano cumpridos reino unido deve voltar trás grade assange recorrido supremo tribunal britânico ordem extradição estados unidos audiência marianas assange deverá ir austrália país onde natural</t>
+          <t>httpssapoptatualidadeartigosiwaohakamadapassouanosnocorredordamorteesoagorafoiconsideradoinocente iwao hakamada considerado inocente assassínio patrão família após novo julgamento começou março após ano disputas legais</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>25-06-2024</t>
+          <t>27-09-2024</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Aprender a odiar na escola, também me tentaram ensinar. Não aprendi</t>
+          <t>Deixar de fumar</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>noto alguns brasileiros todos espero apenas pequena minoria aprenderam odiar portugal escola certamente ensinaramlhes portugal culpado alguns male brasil famoso ouro brasileiro pago coroa portuguesa imposto ouro descoberto outras coisas género provavelmente afirmar identidade nacional comigo ocorreu alguns professores tentaram ensinarme versão história identidade portuguesa afirmava contra espanha tentaram ensinarme detestar espanha espanhóis talvez evitar iberismo atração hipótese união espanha portugal talvez complexo inferioridade portugal pequeno pobre aprendi continuo simpatizar espanha embora goste atual governo simpatizo particularmente galiza parece parecida minho algumas outras regiões portugal tarde aprendi desconfiar aprendido sobre história escola demasiados enviesamentos algumas coisas manifestamente erradas</t>
+          <t>boa então deixar fumar ate correr bem queria saber vou ter vontade fumar semana duas dia</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>20-06-2024</t>
+          <t>06-08-2024</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Marcelo já promulgou diploma sobre migrações devido a “situação urgentíssima</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>httpsecosapoptmarcelopromulgadiplomasobremigracoesdevidoasituacaourgentissima</t>
-        </is>
-      </c>
+          <t>Português dá uma guitarrada na volta á França</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
       <c r="C311" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>04-06-2024</t>
+          <t>19-07-2024</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Fernando Pimenta garante a terceira medalha de ouro na Taça do Mundo</t>
+          <t xml:space="preserve">Julian Assange libertado e a caminho de casa depois de chegar a acordo com a Justiça dos EUA </t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>httpswwwjnptfernandopimentagaranteaterceiramedalhadeouronatacadomundohttpswwwjnptfernandopimentagaranteaterceiramedalhadeouronatacadomundo canoísta português fernando pimenta arrecadou domingo terceira medalha ouro taça mundo velocidade poznan após triunfar k ter feito k sábado k porque fernando pimenta popular</t>
+          <t>httpspteuronewscomjulianassangelibertadoeacaminhodecasahttpspteuronewscomjulianassangelibertadoeacaminhodecasa fundador wikileaks deixou reino unido prisão alta segurança onde passou últimos cinco ano acordo justiça norteamericana fundador wikileaks julian assange homem livre assange deixou reino unido entrou avião caminho ilhas marianas protetorado norteamericano onde presente juíz após acordo justiça norteamericana assange aceitou declararse culpado acusação divulgar segredos defesa estados unidos troca recebe pena prisão cinco ano cumpridos reino unido deve voltar trás grade assange recorrido supremo tribunal britânico ordem extradição estados unidos audiência marianas assange deverá ir austrália país onde natural</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -6667,1299 +6667,1299 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>26-05-2024</t>
+          <t>25-06-2024</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Há alguma página na internet com as festas e romarias populares de Portugal?</t>
+          <t>Aprender a odiar na escola, também me tentaram ensinar. Não aprendi</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>procurei encontrei nenhuma satisfatória</t>
+          <t>noto alguns brasileiros todos espero apenas pequena minoria aprenderam odiar portugal escola certamente ensinaramlhes portugal culpado alguns male brasil famoso ouro brasileiro pago coroa portuguesa imposto ouro descoberto outras coisas género provavelmente afirmar identidade nacional comigo ocorreu alguns professores tentaram ensinarme versão história identidade portuguesa afirmava contra espanha tentaram ensinarme detestar espanha espanhóis talvez evitar iberismo atração hipótese união espanha portugal talvez complexo inferioridade portugal pequeno pobre aprendi continuo simpatizar espanha embora goste atual governo simpatizo particularmente galiza parece parecida minho algumas outras regiões portugal tarde aprendi desconfiar aprendido sobre história escola demasiados enviesamentos algumas coisas manifestamente erradas</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>09-05-2024</t>
+          <t>20-06-2024</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Que legado deixou Mário Soaees na vossa memória dele?</t>
+          <t>Marcelo já promulgou diploma sobre migrações devido a “situação urgentíssima</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>boa tarde recentemente comecei ler portugal amordaçado mário soares fiquei opinião positiva além poder considerado fundadores república vejo nele homem inteligente culto tendo dado aulas duas universidades francesas tendo seguido curso história direito contudo andado procura discursos final vida parece passar impressão alguém desgastado tempo dizia coisa coisa visitou sócrates cadeia apenas pretendo saber memória guardam positiva negativa melhor ainda legado deixou país</t>
+          <t>httpsecosapoptmarcelopromulgadiplomasobremigracoesdevidoasituacaourgentissima</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>23-03-2024</t>
+          <t>04-06-2024</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Quantas pessoas estão a fazer a PrEP?</t>
+          <t>Fernando Pimenta garante a terceira medalha de ouro na Taça do Mundo</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>tentar perceber donde vem aumento dst dado públicos</t>
+          <t>httpswwwjnptfernandopimentagaranteaterceiramedalhadeouronatacadomundohttpswwwjnptfernandopimentagaranteaterceiramedalhadeouronatacadomundo canoísta português fernando pimenta arrecadou domingo terceira medalha ouro taça mundo velocidade poznan após triunfar k ter feito k sábado k porque fernando pimenta popular</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>26-05-2024</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Quem acham que será o próximo presidente da República?</t>
+          <t>Há alguma página na internet com as festas e romarias populares de Portugal?</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>eleições presidenciais aproximaremse surge especulação sobre assumirá cargo presidente república portuguesa acham próximo ocupar papel política portuguesa quais vossas opiniões previsões sobre candidatos</t>
+          <t>procurei encontrei nenhuma satisfatória</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>15-03-2024</t>
+          <t>09-05-2024</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Guimarães: Chama-se Zeus, pesa 2 toneladas e é o melhor exemplar de sempre de Raça Minhota</t>
+          <t>Que legado deixou Mário Soaees na vossa memória dele?</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>httpsominhoptguimaraeschamasezeuspesatoneladaseeomelhorexemplardesemprederacaminhotahttpsominhoptguimaraeschamasezeuspesatoneladaseeomelhorexemplardesemprederacaminhota zeus cinco ano duas toneladas metro centímetros altura criado quinta souto ronfe guimarães boi castrado melhor exemplar sempre história raça minhota consagração chegou último fim semana feira anual trofa através apacra httpsapacrapt associação portuguesa criadores bovinos raça minhota tutela raça autóctone situada douro minho vias extinção verdadeiro campeão desde registos hoje melhor congratulase carlos sousa proprietário quinta souto declarações minho critérios genealógicos morfológicos joão sobreiro secretário técnico apacra confirmou jornal facto zeus reúne toda condições melhor animal castrado raça minhota atualmente sempre porque apesar muitos registos termos registos fotográficos memória pessoas melhor exemplar castrado apareceu momento receber tal reconhecimento série parâmetros morfológicos genealógicos cumprida primeiro filho pai mãe raça minhota obedecer critérios genealógicos fatores morfológicos além condição física bem tratado tudo conta considerado melhor exemplar apareceu hoje aponta joão sobreiro xb</t>
+          <t>boa tarde recentemente comecei ler portugal amordaçado mário soares fiquei opinião positiva além poder considerado fundadores república vejo nele homem inteligente culto tendo dado aulas duas universidades francesas tendo seguido curso história direito contudo andado procura discursos final vida parece passar impressão alguém desgastado tempo dizia coisa coisa visitou sócrates cadeia apenas pretendo saber memória guardam positiva negativa melhor ainda legado deixou país</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>23-03-2024</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Por que é que há bancos a bloquear as contas dos clientes?</t>
+          <t>Quantas pessoas estão a fazer a PrEP?</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>httpsrrsapoptartigoexplicadorrenascencaporqueequehabancosabloquearascontasdosclienteshttpsrrsapoptartigoexplicadorrenascencaporqueequehabancosabloquearascontasdosclientes decorre lei criada combater branqueamento capitais financiamento terrorismo lei estabelece atualização periódica dado clientes bancários aconteça máximo cada cinco ano bancos bloquear contas clientes banco portugal recebeu reclamações sobre matéria janeiro julho explicador renascença indica causa acontecer bloqueio conta bancária pode acontecer vários motivos relacionado dado pessoais clientes bancários atualizados podem ter consequência suspensão conta bem bloqueio acesso aplicações homebanking fundo acontecer bancos bloquear contas falta atualização dado clientes consequências várias desde logo deixa possível realizar levantamentos dinheiro terminais multibanco pagamentos contas outras operações fica conta bloqueada fica impedido acrescentar retirar titulares conta desbloquear acessos indo balcão próximo banco proceder atualização presencial dado pessoais clientes sabem têm atualizar dado normalmente através contacto feito próprio banco regra ocorre via eletrónica através email através aplicação homebanking dado clientes devem atualizar garantem banco cliente sempre contactável morada número telefone endereço email ainda comprovativos salários pensões domiciliar conta bancária contudo aqui clientes bancários têm razão queixa pouco claras regras relativas forma contactar clientes procedam atualização toda situações desconhecimento lei desculpa fizer arrisca ver conta bloqueada acordo números banco portugal relativos ano passado revelados jornal públicohttpswwwpublicopteconomianoticiabancosestaobloquearcontasbancariasfaltaactualizacaodadosrefhpcxmanchetedestaques situação deu origem queixas clientes bancários junto regulador sete meses entanto número real pessoas afetadas deverá bastante superior regras claras legal legal obrigatório ainda lacuna forma comunicar clientes assim porque decorre lei criada combater branqueamento capitais financiamento terrorismo lei estabelece atualização periódica dado clientes bancários aconteça máximo cada cinco ano pode problema sobretudo tendo conta problema afeta sobretudo reside habitualmente portugal caso emigrantes outro lado acordo jornal público idosos acabam afetados neste caso consequência baixa literacia financeira desconhecimento regras xb</t>
+          <t>tentar perceber donde vem aumento dst dado públicos</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>09-02-2024</t>
+          <t>21-03-2024</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Músicas humorísticas - Rua Sésamo - Tenho orgulho em ser uma vaca</t>
+          <t>Quem acham que será o próximo presidente da República?</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>httpswwwyoutubecomwatchvxogdlnqfshttpswwwyoutubecomwatchvxogdlnqfs música devia conhecida tão má fica boa músicas humorísticas pouco conhecidas quim barreiros similares bastantes conhecidas</t>
+          <t>eleições presidenciais aproximaremse surge especulação sobre assumirá cargo presidente república portuguesa acham próximo ocupar papel política portuguesa quais vossas opiniões previsões sobre candidatos</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>05-02-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Última vez no Alto Minho.</t>
+          <t>Guimarães: Chama-se Zeus, pesa 2 toneladas e é o melhor exemplar de sempre de Raça Minhota</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>fim semana aniversário avó vou ir alto minho aka distrito viana castelo região origem família vai última vez estarei lá gostava dizer melhor dita região gerês espigueiros quim barreiros bola berlim zé natario trajes ourivesaria granito lugares vãome dar saudades voltar ver ponte barca arcos valdevez vila origem família caminha vila favorita todo portugal espero minho continue ter beleza sempre todos oportunidade ver</t>
+          <t>httpsominhoptguimaraeschamasezeuspesatoneladaseeomelhorexemplardesemprederacaminhotahttpsominhoptguimaraeschamasezeuspesatoneladaseeomelhorexemplardesemprederacaminhota zeus cinco ano duas toneladas metro centímetros altura criado quinta souto ronfe guimarães boi castrado melhor exemplar sempre história raça minhota consagração chegou último fim semana feira anual trofa através apacra httpsapacrapt associação portuguesa criadores bovinos raça minhota tutela raça autóctone situada douro minho vias extinção verdadeiro campeão desde registos hoje melhor congratulase carlos sousa proprietário quinta souto declarações minho critérios genealógicos morfológicos joão sobreiro secretário técnico apacra confirmou jornal facto zeus reúne toda condições melhor animal castrado raça minhota atualmente sempre porque apesar muitos registos termos registos fotográficos memória pessoas melhor exemplar castrado apareceu momento receber tal reconhecimento série parâmetros morfológicos genealógicos cumprida primeiro filho pai mãe raça minhota obedecer critérios genealógicos fatores morfológicos além condição física bem tratado tudo conta considerado melhor exemplar apareceu hoje aponta joão sobreiro xb</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>01-02-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Estudantes perdem bolsa se viverem com avós ou tios - Irmãos mais velhos também podem ditar perda de bolsa</t>
+          <t>Por que é que há bancos a bloquear as contas dos clientes?</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>xb jornal notícias janeiro httpspreviewreddituyghrlecjpgwidthformatpjpgautowebpsaedffddadebbfb jornal notícias janeiro httpspreviewredditdjbxrlecjpgwidthformatpjpgautowebpsceebaecabdeb</t>
+          <t>httpsrrsapoptartigoexplicadorrenascencaporqueequehabancosabloquearascontasdosclienteshttpsrrsapoptartigoexplicadorrenascencaporqueequehabancosabloquearascontasdosclientes decorre lei criada combater branqueamento capitais financiamento terrorismo lei estabelece atualização periódica dado clientes bancários aconteça máximo cada cinco ano bancos bloquear contas clientes banco portugal recebeu reclamações sobre matéria janeiro julho explicador renascença indica causa acontecer bloqueio conta bancária pode acontecer vários motivos relacionado dado pessoais clientes bancários atualizados podem ter consequência suspensão conta bem bloqueio acesso aplicações homebanking fundo acontecer bancos bloquear contas falta atualização dado clientes consequências várias desde logo deixa possível realizar levantamentos dinheiro terminais multibanco pagamentos contas outras operações fica conta bloqueada fica impedido acrescentar retirar titulares conta desbloquear acessos indo balcão próximo banco proceder atualização presencial dado pessoais clientes sabem têm atualizar dado normalmente através contacto feito próprio banco regra ocorre via eletrónica através email através aplicação homebanking dado clientes devem atualizar garantem banco cliente sempre contactável morada número telefone endereço email ainda comprovativos salários pensões domiciliar conta bancária contudo aqui clientes bancários têm razão queixa pouco claras regras relativas forma contactar clientes procedam atualização toda situações desconhecimento lei desculpa fizer arrisca ver conta bloqueada acordo números banco portugal relativos ano passado revelados jornal públicohttpswwwpublicopteconomianoticiabancosestaobloquearcontasbancariasfaltaactualizacaodadosrefhpcxmanchetedestaques situação deu origem queixas clientes bancários junto regulador sete meses entanto número real pessoas afetadas deverá bastante superior regras claras legal legal obrigatório ainda lacuna forma comunicar clientes assim porque decorre lei criada combater branqueamento capitais financiamento terrorismo lei estabelece atualização periódica dado clientes bancários aconteça máximo cada cinco ano pode problema sobretudo tendo conta problema afeta sobretudo reside habitualmente portugal caso emigrantes outro lado acordo jornal público idosos acabam afetados neste caso consequência baixa literacia financeira desconhecimento regras xb</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>25-01-2024</t>
+          <t>09-02-2024</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Que partidos defendem a regulação do turismo?</t>
+          <t>Músicas humorísticas - Rua Sésamo - Tenho orgulho em ser uma vaca</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ontem ver negócios semana presidente cip dava liberalização turismo portugal bom exemplo fez bem país honestamente achei péssimo gosto dizer tal coisa meio crise habitação devida grande parte boom turístico negócios envolvidos representando indústria turismo fiquei surpreendido os discordo turismo massas regras aproximam eleições legislativas lanço debate partidos atualmente defendem turismo regulado invés selva hoje selva fundos investimento imobiliário compram quarteirões inteiros bairros lisboetas transformar alojamento turístico hotéis outros tipos vários cruzeiros gigantescos atracam diariamente simultâneo alfama etc creio resignadamente aceitar tipo indústria turismo motor economia nacional</t>
+          <t>httpswwwyoutubecomwatchvxogdlnqfshttpswwwyoutubecomwatchvxogdlnqfs música devia conhecida tão má fica boa músicas humorísticas pouco conhecidas quim barreiros similares bastantes conhecidas</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>11-01-2024</t>
+          <t>05-02-2024</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Quais as vossas músicas de Natal favoritas?</t>
+          <t>Última vez no Alto Minho.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>andrea bocelli gloria in excelsis deo httpswwwyoutubecomwatchvhtnceg gosto nesta versão httpswwwyoutubecomwatchvhtnceghttpswwwyoutubecomwatchvhtnceg desta outra alemão httpswwwyoutubecomwatchvpsedqggjby muitas outras versões gosto muitas outras canções natal andrea bocelli adeste fideleshttpswwwyoutubecomwatchvokyzenogc los peces en el ríohttpswwwyoutubecomwatchvlqetxlditek conheci primeiro nesta curiosa versão russahttpswwwyoutubecomwatchvrxrolyhk mil versões desta música popular países língua espanhola entrai pastores entraihttpswwwyoutubecomwatchvceqmeufsza villancico piensa la mulahttpswwwyoutubecomwatchvsljwjoto moonlight nighthttpswwwyoutubecomwatchvaaochwnpgo ucraniana</t>
+          <t>fim semana aniversário avó vou ir alto minho aka distrito viana castelo região origem família vai última vez estarei lá gostava dizer melhor dita região gerês espigueiros quim barreiros bola berlim zé natario trajes ourivesaria granito lugares vãome dar saudades voltar ver ponte barca arcos valdevez vila origem família caminha vila favorita todo portugal espero minho continue ter beleza sempre todos oportunidade ver</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>23-12-2024</t>
+          <t>01-02-2024</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>AD e Chega aprovam projetos: estrangeiros irregulares sem acesso gratuito ao SNS - Concordam ou não com esta medida?</t>
+          <t>Estudantes perdem bolsa se viverem com avós ou tios - Irmãos mais velhos também podem ditar perda de bolsa</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>httpswwwjnptadechegaaprovamprojetosestrangeirosirregularessemacessogratuitoaosnshttpswwwjnptadechegaaprovamprojetosestrangeirosirregularessemacessogratuitoaosns projetos lei doi partidos ad chega sobre acesso sn estrangeiros residentes aprovados quintafeira parlamento três bancadas votos contra p pcp be livre il baixando nona comissão diploma chega sobre regulação acesso sn estrangeiros residentes primeiro aprovado graças psd cdspp agora debatido especialidade limitar acesso propõe alterar lei base saúde estatuto serviço nacional saúde documento lêse nacionais países pertencentes união europeia residentes considerados beneficiários sn têm direito acesso sn mediante pagamento serviços usufruídos ad pretende retirar lista beneficiários sn migrantes situação legalizada exceção cuidados urgentes vitais concordam aprovação desta medida view pollhttpswwwredditcompollhifgcf</t>
+          <t>xb jornal notícias janeiro httpspreviewreddituyghrlecjpgwidthformatpjpgautowebpsaedffddadebbfb jornal notícias janeiro httpspreviewredditdjbxrlecjpgwidthformatpjpgautowebpsceebaecabdeb</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>20-12-2024</t>
+          <t>25-01-2024</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>quem?</t>
+          <t>Que partidos defendem a regulação do turismo?</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>httpsconversablogspotcomquemhtmlhttpsconversablogspotcomquemhtml httpspreviewredditpbejqiofmgejpgwidthformatpjpgautowebpsaedbddfacfeeaacbbb imagem onde vemos trabalhadores trabalharam recuperaração catedral notre dame lembroume poema brecht perguntas operário lê construiu tebas sete porta livros vem nome reismas real transportaram pedras babilónia tantas vezes destruídaquem outras tantas reconstruiu casas lima dourada moravam obreiros dia ficou pronta muralha chinapara onde pedreiros grande rom cheia arcos triunfo ergueusobre triunfaram césares tão cantada bizâncio palácios habitantes legendária atlântida noite mar engoliu viu afogados gritar escravos jovem alexandre conquistou índias sozinho césar venceu gauleses sequer cozinheiro serviço armada afundou filipe espanha chorou ninguém frederico ii ganhou guerra sete ano ganhou cada página vitória cozinhava festins cada década grande homem pagava despesas tantas histórias quantas perguntas acrescento duas linhas brecht escreveu poemamas traduziu</t>
+          <t>ontem ver negócios semana presidente cip dava liberalização turismo portugal bom exemplo fez bem país honestamente achei péssimo gosto dizer tal coisa meio crise habitação devida grande parte boom turístico negócios envolvidos representando indústria turismo fiquei surpreendido os discordo turismo massas regras aproximam eleições legislativas lanço debate partidos atualmente defendem turismo regulado invés selva hoje selva fundos investimento imobiliário compram quarteirões inteiros bairros lisboetas transformar alojamento turístico hotéis outros tipos vários cruzeiros gigantescos atracam diariamente simultâneo alfama etc creio resignadamente aceitar tipo indústria turismo motor economia nacional</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>02-12-2024</t>
+          <t>11-01-2024</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Moradia Ocupada</t>
+          <t>Quais as vossas músicas de Natal favoritas?</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>boa dia ver moradia condomínio privado luxo toda casas nova nunca habitadas exceção acontece moradia ocupada supostamente ilegalmente segundo agente imobiliário moradia alugada alguma coisa acontece pessoas lá vivem deixaram pagar renda potencial comprador moradias vou pagar condomínio vez área comum bastante grande jardim árvores tudo exige manutenção portanto alguém pago tal imagino ocupas interessados pagar renda pagam compro posso fazer precaver caso algum problema maior ocupas posso ignorar ocupas viver descansado</t>
+          <t>andrea bocelli gloria in excelsis deo httpswwwyoutubecomwatchvhtnceg gosto nesta versão httpswwwyoutubecomwatchvhtnceghttpswwwyoutubecomwatchvhtnceg desta outra alemão httpswwwyoutubecomwatchvpsedqggjby muitas outras versões gosto muitas outras canções natal andrea bocelli adeste fideleshttpswwwyoutubecomwatchvokyzenogc los peces en el ríohttpswwwyoutubecomwatchvlqetxlditek conheci primeiro nesta curiosa versão russahttpswwwyoutubecomwatchvrxrolyhk mil versões desta música popular países língua espanhola entrai pastores entraihttpswwwyoutubecomwatchvceqmeufsza villancico piensa la mulahttpswwwyoutubecomwatchvsljwjoto moonlight nighthttpswwwyoutubecomwatchvaaochwnpgo ucraniana</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>29-11-2024</t>
+          <t>23-12-2024</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>NATO: o cabos da Internet cortados, já foram arranjados?</t>
+          <t>AD e Chega aprovam projetos: estrangeiros irregulares sem acesso gratuito ao SNS - Concordam ou não com esta medida?</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>parece rússia cortou alguns cabos internet ligavam finlândia alemanha</t>
+          <t>httpswwwjnptadechegaaprovamprojetosestrangeirosirregularessemacessogratuitoaosnshttpswwwjnptadechegaaprovamprojetosestrangeirosirregularessemacessogratuitoaosns projetos lei doi partidos ad chega sobre acesso sn estrangeiros residentes aprovados quintafeira parlamento três bancadas votos contra p pcp be livre il baixando nona comissão diploma chega sobre regulação acesso sn estrangeiros residentes primeiro aprovado graças psd cdspp agora debatido especialidade limitar acesso propõe alterar lei base saúde estatuto serviço nacional saúde documento lêse nacionais países pertencentes união europeia residentes considerados beneficiários sn têm direito acesso sn mediante pagamento serviços usufruídos ad pretende retirar lista beneficiários sn migrantes situação legalizada exceção cuidados urgentes vitais concordam aprovação desta medida view pollhttpswwwredditcompollhifgcf</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>18-11-2024</t>
+          <t>20-12-2024</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como é possível não haver um trabalho ou se ha é preciso experiência </t>
+          <t>quem?</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ando me procura trabalho candidatarme etc nada qualquer cena servia genuinamente rapaz ainda novo ja obras etc n encontro merda nenhuma unico requisito part time ate empregado doméstico fazia alguem ai ajuda aonde consigo arranjar alguma coisa uma dicas onde procurar</t>
+          <t>httpsconversablogspotcomquemhtmlhttpsconversablogspotcomquemhtml httpspreviewredditpbejqiofmgejpgwidthformatpjpgautowebpsaedbddfacfeeaacbbb imagem onde vemos trabalhadores trabalharam recuperaração catedral notre dame lembroume poema brecht perguntas operário lê construiu tebas sete porta livros vem nome reismas real transportaram pedras babilónia tantas vezes destruídaquem outras tantas reconstruiu casas lima dourada moravam obreiros dia ficou pronta muralha chinapara onde pedreiros grande rom cheia arcos triunfo ergueusobre triunfaram césares tão cantada bizâncio palácios habitantes legendária atlântida noite mar engoliu viu afogados gritar escravos jovem alexandre conquistou índias sozinho césar venceu gauleses sequer cozinheiro serviço armada afundou filipe espanha chorou ninguém frederico ii ganhou guerra sete ano ganhou cada página vitória cozinhava festins cada década grande homem pagava despesas tantas histórias quantas perguntas acrescento duas linhas brecht escreveu poemamas traduziu</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>02-12-2024</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Resultados da sondagem sobre a satisfação com a vida sexual colocada neste sub</t>
+          <t>Moradia Ocupada</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>total votos votos homens hetero total apenas votos mulheres votos lgbt total poucos votos mulheres satisfeitosas azul insatisfeitosas laranjahttpspreviewredditxvvgyhtdpngwidthformatpngautowebpsabfbfbabadbc estudo feito nível nacional grupo investigação sexualidade género faculdade psicologia ciências educação universidade porto cuja síntese resultados pode consultada infografia questionário shapehttpsnoticiasupptfpceupwpcontentuploadssitesshapesetpdf concluíram pessoas insatisfeitas vida sexual descriminaram homens mulheres heterossexuais lgbt</t>
+          <t>boa dia ver moradia condomínio privado luxo toda casas nova nunca habitadas exceção acontece moradia ocupada supostamente ilegalmente segundo agente imobiliário moradia alugada alguma coisa acontece pessoas lá vivem deixaram pagar renda potencial comprador moradias vou pagar condomínio vez área comum bastante grande jardim árvores tudo exige manutenção portanto alguém pago tal imagino ocupas interessados pagar renda pagam compro posso fazer precaver caso algum problema maior ocupas posso ignorar ocupas viver descansado</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>08-10-2024</t>
+          <t>29-11-2024</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Estudo revela que cerca de metade dos portugueses está insatisfeito com a vida sexual - Sondagem</t>
+          <t>NATO: o cabos da Internet cortados, já foram arranjados?</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>httpswwwcmtvptatualidadedetalheestudorevelaquecercademetadedosportuguesesestainsatisfeitocomavidasexualhttpswwwcmtvptatualidadedetalheestudorevelaquecercademetadedosportuguesesestainsatisfeitocomavidasexual questionário sobre saúde práticas sexuais revelou sábado metade portuguese sente insatisfeita vida sexo diz respeito inquiridos lgbt discriminados orientação sexual declarações lusa responsável aplicação questionário avaliação práticas experiências saúde sexual shape criado organização mundial saúde pedro nobre explicou estudo integrou participantes amostra representativa engloba toda características variáveis socioeconómicas população portuguesa segundo professor faculdade psicologia ciências educação universidade porto coordena grupo investigação sexualidade género daquela faculdade aplicou shape objetivo agora criar portugal observatório saúde sexual permita avaliar evolução indicadores saúde sexual comportamentos sexuais população portuguesa ajudar desenvolver implementar políticas públicas promovam saúde direitos sexuais toda pessoas perceber amostra sente insatisfeita vida sexual surpreendente preciso pensar razão acontece porque muita dessa insatisfação ligada sofrimento problemas sexuais referiu docente segundo shape cerca metade pessoas participaram estudo mostrouse insatisfeita vida sexual sendo relatou ter dificuldades sexuais causam sofrimento significativo problemas sexuais reportados dificuldades ejaculação homens orgasmo mulheres seguido dor sexual mulheres baixo desejo sexual disfunção erétil sendo menos frequentes dificuldades excitação mulher ejaculação prematura homens estudo abrangeu questões sobre saúde sexual comportamentos sexuais população portuguesa incluindo biografia sexual práticas sexuais violência sexual discriminação identidade direitos sexuais dificuldades sexuais outros revelou ainda pessoas identifica heterossexual lésbica gay bissexual lgb cisgénero população lgbt pessoas afirmam terem sido discriminadas base orientação sexual destas apontou ter sido discriminada ultimo ano preocupante porque mostra apesar toda legislação ainda grande trabalho fazer pedro nobre preocupante perceber pessoas afirmam terem sido discriminadas profissionais saúde deviam primeiros linha apoio ajuda pessoas shape revelou ainda maioria pessoas inicia atividade sexual outra pessoa ano média ano respeita práticas sexuais pessoas relataram nunca ter tido qualquer experiência sexual outra pessoa pessoas nunca fizeram sexo oral nunca receberam sexo oral nunca masturbou termos frequência resultados indicam quatro semanas anteriores participação estudo pessoas qualquer atividade sexual atividade sexual apenas pessoa pessoas atividade sexual quatro semanas anteriores questionário média relações sexuais pouco vez semana sendo resposta frequente apenas vez mês estudo recolheu dado sobre violência sexual estimam população forçada ameaçada outra pessoa fazer algo sexual queria sendo coagida ter relações primeira experiência sexual outra pessoa mulheres apontam resultados três vezes vitimizadas homens passo pessoas lgbt seis vezes vitimizadas população héterocisgénero nota síntese resultados pode consultada infografia questionário shapehttpsnoticiasupptfpceupwpcontentuploadssitesshapesetpdf satisfeitos vossa vida sexual posso colocar opções view pollhttpswwwredditcompollftifj</t>
+          <t>parece rússia cortou alguns cabos internet ligavam finlândia alemanha</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>18-11-2024</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Já alguém fez a viagem Norte a Sul pelas estradas nacionais?</t>
+          <t xml:space="preserve">Como é possível não haver um trabalho ou se ha é preciso experiência </t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>boa tarde todos pensar fazer viagem braga portimão faro carro interior usar autoestradas alguém aqui fez percurso parecido norte algarve estrada nacional usaram nacional apenas google map evitar portagens experiência cansativo fez bem gostava saber vossa viagem têm alguma dica partilhar obrigado</t>
+          <t>ando me procura trabalho candidatarme etc nada qualquer cena servia genuinamente rapaz ainda novo ja obras etc n encontro merda nenhuma unico requisito part time ate empregado doméstico fazia alguem ai ajuda aonde consigo arranjar alguma coisa uma dicas onde procurar</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>27-08-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acho que errei como moderador </t>
+          <t>Resultados da sondagem sobre a satisfação com a vida sexual colocada neste sub</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>post httpswwwredditcomrportugalcommentsegumyljoscagameiroasmulheresqueiamparaacamacom devia ter permitido uso termos pejorativos tai puta incel vaca etc usados forma generica serem dirigidos pessoa concreto sub pretende espaço aberto praticamente todos assuntos opiniões preciso opiniões expressas forma educada respeito mutuo liberdade implica responsabilidade educação assim pode ter espaço livre onde interlocutores sintam bem debate qualidade erro ter permitido uso termos pejorativos vale sub menos utilizadores bons post comentários muitos utilizadores post comentários mau gosto</t>
+          <t>total votos votos homens hetero total apenas votos mulheres votos lgbt total poucos votos mulheres satisfeitosas azul insatisfeitosas laranjahttpspreviewredditxvvgyhtdpngwidthformatpngautowebpsabfbfbabadbc estudo feito nível nacional grupo investigação sexualidade género faculdade psicologia ciências educação universidade porto cuja síntese resultados pode consultada infografia questionário shapehttpsnoticiasupptfpceupwpcontentuploadssitesshapesetpdf concluíram pessoas insatisfeitas vida sexual descriminaram homens mulheres heterossexuais lgbt</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>02-08-2024</t>
+          <t>08-10-2024</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Macron recusa-se a nomear candidata da esquerda como primeira-ministra em França</t>
+          <t>Estudo revela que cerca de metade dos portugueses está insatisfeito com a vida sexual - Sondagem</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>httpssapoptatualidadeartigosmacronrecusaseanomearcandidatadaesquerdacomoprimeiraministraemfrancahttpssapoptatualidadeartigosmacronrecusaseanomearcandidatadaesquerdacomoprimeiraministraemfranca</t>
+          <t>httpswwwcmtvptatualidadedetalheestudorevelaquecercademetadedosportuguesesestainsatisfeitocomavidasexualhttpswwwcmtvptatualidadedetalheestudorevelaquecercademetadedosportuguesesestainsatisfeitocomavidasexual questionário sobre saúde práticas sexuais revelou sábado metade portuguese sente insatisfeita vida sexo diz respeito inquiridos lgbt discriminados orientação sexual declarações lusa responsável aplicação questionário avaliação práticas experiências saúde sexual shape criado organização mundial saúde pedro nobre explicou estudo integrou participantes amostra representativa engloba toda características variáveis socioeconómicas população portuguesa segundo professor faculdade psicologia ciências educação universidade porto coordena grupo investigação sexualidade género daquela faculdade aplicou shape objetivo agora criar portugal observatório saúde sexual permita avaliar evolução indicadores saúde sexual comportamentos sexuais população portuguesa ajudar desenvolver implementar políticas públicas promovam saúde direitos sexuais toda pessoas perceber amostra sente insatisfeita vida sexual surpreendente preciso pensar razão acontece porque muita dessa insatisfação ligada sofrimento problemas sexuais referiu docente segundo shape cerca metade pessoas participaram estudo mostrouse insatisfeita vida sexual sendo relatou ter dificuldades sexuais causam sofrimento significativo problemas sexuais reportados dificuldades ejaculação homens orgasmo mulheres seguido dor sexual mulheres baixo desejo sexual disfunção erétil sendo menos frequentes dificuldades excitação mulher ejaculação prematura homens estudo abrangeu questões sobre saúde sexual comportamentos sexuais população portuguesa incluindo biografia sexual práticas sexuais violência sexual discriminação identidade direitos sexuais dificuldades sexuais outros revelou ainda pessoas identifica heterossexual lésbica gay bissexual lgb cisgénero população lgbt pessoas afirmam terem sido discriminadas base orientação sexual destas apontou ter sido discriminada ultimo ano preocupante porque mostra apesar toda legislação ainda grande trabalho fazer pedro nobre preocupante perceber pessoas afirmam terem sido discriminadas profissionais saúde deviam primeiros linha apoio ajuda pessoas shape revelou ainda maioria pessoas inicia atividade sexual outra pessoa ano média ano respeita práticas sexuais pessoas relataram nunca ter tido qualquer experiência sexual outra pessoa pessoas nunca fizeram sexo oral nunca receberam sexo oral nunca masturbou termos frequência resultados indicam quatro semanas anteriores participação estudo pessoas qualquer atividade sexual atividade sexual apenas pessoa pessoas atividade sexual quatro semanas anteriores questionário média relações sexuais pouco vez semana sendo resposta frequente apenas vez mês estudo recolheu dado sobre violência sexual estimam população forçada ameaçada outra pessoa fazer algo sexual queria sendo coagida ter relações primeira experiência sexual outra pessoa mulheres apontam resultados três vezes vitimizadas homens passo pessoas lgbt seis vezes vitimizadas população héterocisgénero nota síntese resultados pode consultada infografia questionário shapehttpsnoticiasupptfpceupwpcontentuploadssitesshapesetpdf satisfeitos vossa vida sexual posso colocar opções view pollhttpswwwredditcompollftifj</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>24-07-2024</t>
+          <t>01-10-2024</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Quanto custa pôr um dente novo/ dente falso?</t>
+          <t>Já alguém fez a viagem Norte a Sul pelas estradas nacionais?</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>gostava saber quanto custa colocar novo dente pra saber antemão bastantes cáries neste momento seguro médis cobre próteses existe outro seguro próteses ir serviço privado</t>
+          <t>boa tarde todos pensar fazer viagem braga portimão faro carro interior usar autoestradas alguém aqui fez percurso parecido norte algarve estrada nacional usaram nacional apenas google map evitar portagens experiência cansativo fez bem gostava saber vossa viagem têm alguma dica partilhar obrigado</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>07-07-2024</t>
+          <t>27-08-2024</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Carta Aberta a Luís Montenegro a respeito de incêndios (de João Adrião)</t>
+          <t xml:space="preserve">Acho que errei como moderador </t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>httpsobservadorptopiniaocartaabertaaluismontenegroarespeitodeincendioshttpsobservadorptopiniaocartaabertaaluismontenegroarespeitodeincendios acreditar vontade mudar faço apelo menos dispenda bocadinho precioso tempo pensar aqui escrevi porque fogos catastróficos evitáveis exmo sr primeiro ministro dr luís montenegro dirijome si trágico aniversário pedrógão saber partilha desejo sr presidente república discurso passado dia tragédias nunca ter consciência contrário altura desajeitadamente pr chamou imprevisível tai tragédias continuam ter tudo previsivelmente repetirem ouvi palavras mação leve mal padecem equívocos comuns nesta temática último ano bom ano sim claro daí fruto caminho percorrido últimos ano positivo vai grande distância tipo salta cimo prédio passa queda livre andar pode dizer tudo correr bem mal chega chão previsivelmente ano após maior limpeza mato últimas décadas mil hectare limpos fogo ano calmos nesta matéria mal chegará frente sr primeiro ministro falou mação terra fustigada fogo tudo queimou restava obstante procurar notícias ano anteriores aperceberseia gabado premiado trabalho feito lá sim muita coisa fez nesse intervalo após ano terrível viu lá enquanto tipo vai andar parece tudo bem quer dizer sido nada feito tal afirmou exemplo chega percebe contradição dizer fazer culpar incendiários tudo resto bem bandido efetivamente feito melhorar sistema contudo daqueles casos tornamos vítimas próprio sucesso quanto melhor funciona sistema exclusão fogo programa eleitoral mencionar uso fogo ferramenta mostrava consciência pode caminho ano após ano contribui ampliar tragédia futura permitame metaforização explicar casa onde mangueira gás rota fuga paisagem mato cresce livremente muitas vezes ouvimos chamar barril pólvora perante situação fazemos evitar todo custo faísca aqui apelo agora cidadãos diminuirem risco trabalhamos tal trabalho feito evitar ignição vexa bem disse outro dia virão inevitável poi encararmos problema lado errado tudo falha caro rui rocha reparações justas vale pouco caçar falhas porque meio caos inevitáveis desastre inevitavelmente vai ocorrer devíamos fazer abrir janela gás sair gás mato abrir janela cortar mato brincadeira cara inconsequente limpezas infraestruturas moda socialista invenção costa sim nível paisagem cerca mil hectare ano contas própria agif aí sr primeiro ministro tudo igual bem trabalhado sensibilizar pessoas casa ligar interruptores podem fazer faísca prender malucos criminosos riscarem fósforos negligentes deixem cair objeto chão mal casa cheia gás coisa outra porque abra janela fácil claro tarefa pouca visibilidade resultados prazo custos economia sozinha pode justificar áreas despovoadas etc etc trabalho evitaria desgraças futuras contas feitas estado além justiça pagarem todos proteção todos gota água custo fogo controlado mil hectare un milhões euro aplicálos bem ano passado sugeri neste ensaio jornal forma repetir leitores convido dar vista olhoshttpsobservadorptespeciaisporquevamostermaispedrogaos deixeme terminar dizendo surpreendido positiva nestes poucos meses governo escrevi aqui duvidando opções fragilidade via nelas afinal errado porque mostrado força capacidade superar adversidades força acreditar vontade mudar faço apelo menos dispenda bocadinho precioso tempo pensar aqui escrevi porque fogos catastróficos evitáveis desde ali pedrógão figueiró vinhos grande incêndio destruiu aldeias ceifou vidas humanas animais casas etc ouvimos sempre fim fica tudo mesma mim todos portuguese fartos disto desejo maior sucesso melhor outros fazer diferente porque fazendo sempre mesma coisa resultado pode diferente melhores cumprimentos lisboa junho</t>
+          <t>post httpswwwredditcomrportugalcommentsegumyljoscagameiroasmulheresqueiamparaacamacom devia ter permitido uso termos pejorativos tai puta incel vaca etc usados forma generica serem dirigidos pessoa concreto sub pretende espaço aberto praticamente todos assuntos opiniões preciso opiniões expressas forma educada respeito mutuo liberdade implica responsabilidade educação assim pode ter espaço livre onde interlocutores sintam bem debate qualidade erro ter permitido uso termos pejorativos vale sub menos utilizadores bons post comentários muitos utilizadores post comentários mau gosto</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>17-06-2024</t>
+          <t>02-08-2024</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Soldados na Primeira Guerra Mundial</t>
+          <t>Macron recusa-se a nomear candidata da esquerda como primeira-ministra em França</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>olá todos gostava perguntar sabem possível descobrirmos onde lutou algum soldado específico durante primeira guerra mundial avô avô lutou nesse período ainda voltado morreu pouco tempo devido gas transmitiu menos sabemos onde lutou zona porto sabem onde posso procurar obrigada</t>
+          <t>httpssapoptatualidadeartigosmacronrecusaseanomearcandidatadaesquerdacomoprimeiraministraemfrancahttpssapoptatualidadeartigosmacronrecusaseanomearcandidatadaesquerdacomoprimeiraministraemfranca</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>13-05-2024</t>
+          <t>24-07-2024</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Evolução da despesa publica nas legislaturas à direita é maior.</t>
+          <t>Quanto custa pôr um dente novo/ dente falso?</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>declarações rtp relacionam directamente legislaturas direita aumento despesa publica portugal apesar massivas privatizações feitas cavaco silva durão barroso passos coelho josé real professor catedrático faculdade economia universidade coimbra httpscesucptptcespessoasinvestigadorasesjosereis</t>
+          <t>gostava saber quanto custa colocar novo dente pra saber antemão bastantes cáries neste momento seguro médis cobre próteses existe outro seguro próteses ir serviço privado</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>09-04-2024</t>
+          <t>07-07-2024</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Combate à corrupção - Consensos possíveis</t>
+          <t>Carta Aberta a Luís Montenegro a respeito de incêndios (de João Adrião)</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>xb jornal dee notícias abril httpspreviewredditxybxdcngscjpgwidthformatpjpgautowebpsbeedfdcdfecacefdeb</t>
+          <t>httpsobservadorptopiniaocartaabertaaluismontenegroarespeitodeincendioshttpsobservadorptopiniaocartaabertaaluismontenegroarespeitodeincendios acreditar vontade mudar faço apelo menos dispenda bocadinho precioso tempo pensar aqui escrevi porque fogos catastróficos evitáveis exmo sr primeiro ministro dr luís montenegro dirijome si trágico aniversário pedrógão saber partilha desejo sr presidente república discurso passado dia tragédias nunca ter consciência contrário altura desajeitadamente pr chamou imprevisível tai tragédias continuam ter tudo previsivelmente repetirem ouvi palavras mação leve mal padecem equívocos comuns nesta temática último ano bom ano sim claro daí fruto caminho percorrido últimos ano positivo vai grande distância tipo salta cimo prédio passa queda livre andar pode dizer tudo correr bem mal chega chão previsivelmente ano após maior limpeza mato últimas décadas mil hectare limpos fogo ano calmos nesta matéria mal chegará frente sr primeiro ministro falou mação terra fustigada fogo tudo queimou restava obstante procurar notícias ano anteriores aperceberseia gabado premiado trabalho feito lá sim muita coisa fez nesse intervalo após ano terrível viu lá enquanto tipo vai andar parece tudo bem quer dizer sido nada feito tal afirmou exemplo chega percebe contradição dizer fazer culpar incendiários tudo resto bem bandido efetivamente feito melhorar sistema contudo daqueles casos tornamos vítimas próprio sucesso quanto melhor funciona sistema exclusão fogo programa eleitoral mencionar uso fogo ferramenta mostrava consciência pode caminho ano após ano contribui ampliar tragédia futura permitame metaforização explicar casa onde mangueira gás rota fuga paisagem mato cresce livremente muitas vezes ouvimos chamar barril pólvora perante situação fazemos evitar todo custo faísca aqui apelo agora cidadãos diminuirem risco trabalhamos tal trabalho feito evitar ignição vexa bem disse outro dia virão inevitável poi encararmos problema lado errado tudo falha caro rui rocha reparações justas vale pouco caçar falhas porque meio caos inevitáveis desastre inevitavelmente vai ocorrer devíamos fazer abrir janela gás sair gás mato abrir janela cortar mato brincadeira cara inconsequente limpezas infraestruturas moda socialista invenção costa sim nível paisagem cerca mil hectare ano contas própria agif aí sr primeiro ministro tudo igual bem trabalhado sensibilizar pessoas casa ligar interruptores podem fazer faísca prender malucos criminosos riscarem fósforos negligentes deixem cair objeto chão mal casa cheia gás coisa outra porque abra janela fácil claro tarefa pouca visibilidade resultados prazo custos economia sozinha pode justificar áreas despovoadas etc etc trabalho evitaria desgraças futuras contas feitas estado além justiça pagarem todos proteção todos gota água custo fogo controlado mil hectare un milhões euro aplicálos bem ano passado sugeri neste ensaio jornal forma repetir leitores convido dar vista olhoshttpsobservadorptespeciaisporquevamostermaispedrogaos deixeme terminar dizendo surpreendido positiva nestes poucos meses governo escrevi aqui duvidando opções fragilidade via nelas afinal errado porque mostrado força capacidade superar adversidades força acreditar vontade mudar faço apelo menos dispenda bocadinho precioso tempo pensar aqui escrevi porque fogos catastróficos evitáveis desde ali pedrógão figueiró vinhos grande incêndio destruiu aldeias ceifou vidas humanas animais casas etc ouvimos sempre fim fica tudo mesma mim todos portuguese fartos disto desejo maior sucesso melhor outros fazer diferente porque fazendo sempre mesma coisa resultado pode diferente melhores cumprimentos lisboa junho</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>04-04-2024</t>
+          <t>17-06-2024</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>PR4 MTG - Rota do Carvão</t>
+          <t>Soldados na Primeira Guerra Mundial</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>pr mtg rota carvão percurso desafiante deslumbrantes paisagens serra estrela manteigas guarda pr circular km h difícil nível iv httpssapatrilhasptpttrilhoprmtgrotadocarvao pr mtg rota carvãohttpspreviewredditxhkefeqhqpcjpgwidthformatpjpgautowebpsfbdbbbecbabdfabe</t>
+          <t>olá todos gostava perguntar sabem possível descobrirmos onde lutou algum soldado específico durante primeira guerra mundial avô avô lutou nesse período ainda voltado morreu pouco tempo devido gas transmitiu menos sabemos onde lutou zona porto sabem onde posso procurar obrigada</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>13-05-2024</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Morreu Nuno Júdice, apareceu sem a esperar talvez</t>
+          <t>Evolução da despesa publica nas legislaturas à direita é maior.</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>nunca coisas simple aparecem esperamos simple amor evidente sorrisos encontra curso previsível vida porém distraímos calendário acaso passos empurrou caminho habitual então coisas outras nada espera transforma desvio olhar mão demora ombro forçando aproximação lábios</t>
+          <t>declarações rtp relacionam directamente legislaturas direita aumento despesa publica portugal apesar massivas privatizações feitas cavaco silva durão barroso passos coelho josé real professor catedrático faculdade economia universidade coimbra httpscesucptptcespessoasinvestigadorasesjosereis</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>17-03-2024</t>
+          <t>09-04-2024</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Procura-se um amigo</t>
+          <t>Combate à corrupção - Consensos possíveis</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>precisa homem basta humano basta ter sentimentos basta ter coração precisa saber falar calar sobretudo saber ouvir gostar poesia madrugada pássaro sol lua canto ventos canções brisa deve ter amor grande amor alguém então sentir falta ter amor deve amar próximo respeitar dor passantes levam consigo deve guardar segredo sacrificar nbsp preciso primeira mão imprescindível segunda mão pode ter sido enganado poi todos amigo enganados preciso puro todo impuro deve vulgar deve ter ideal medo perdêlo caso assim deve sentir grande vácuo deixa ter ressonâncias humanas principal objetivo deve amigo deve sentir pena pessoa tristes compreender imenso vazio solitários deve gostar crianças lastimar puderam nascer nbsp procurase amigo gostar mesmos gostos comova chamado amigo saiba conversar coisas simple orvalhos grandes chuvas recordações infância precisase amigo enlouquecer contar viu belo triste durante dia anseios realizações sonhos realidade deve gostar ruas desertas poças água caminhos molhados beira estrada mato chuva deitar capim nbsp precisase amigo diga vale pena viver porque vida bela porque amigo precisase amigo parar chorar viver debruçado passado busca memórias perdidas bata ombros sorrindo chorando chame amigo terse consciência ainda vive nbsp nbsp autor desconhecido</t>
+          <t>xb jornal dee notícias abril httpspreviewredditxybxdcngscjpgwidthformatpjpgautowebpsbeedfdcdfecacefdeb</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>21-02-2024</t>
+          <t>04-04-2024</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Pessoal com AC em casa</t>
+          <t>PR4 MTG - Rota do Carvão</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>bom dia todos neste momento reconstruir casa pensado colocar ac forma climatização tratase moradia t cerca m trabalha casa dado haverá necessidade climatização durante todo dia questão ac casa quanto gastam sensivelmente climatização mensalmente sim sei contas nao assim tão lineares porque cada casa casa apenas ter ideia esperar obrigado todos</t>
+          <t>pr mtg rota carvão percurso desafiante deslumbrantes paisagens serra estrela manteigas guarda pr circular km h difícil nível iv httpssapatrilhasptpttrilhoprmtgrotadocarvao pr mtg rota carvãohttpspreviewredditxhkefeqhqpcjpgwidthformatpjpgautowebpsfbdbbbecbabdfabe</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>11-01-2024</t>
+          <t>21-03-2024</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>E-sim e a roubalheira habitual</t>
+          <t>Morreu Nuno Júdice, apareceu sem a esperar talvez</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>apple watch suporte esim liguei operadora perguntar forma poderia ter esim número usar relógio assim podium ir correr fazer outras actividades andar telefone atrás mim phone música receber chamadas chega bem aqui tudo bem esbarrei preçário tipico portugal pagamos tudo peso outro pedir cartão custa pagar mês ter acesso número pago pouco ilimitado todos meses relógio obviamente fiz nada vou fazer preços alguma solução barata noutra operadora algum provider esim online menos apenas internet ir ouvir música</t>
+          <t>nunca coisas simple aparecem esperamos simple amor evidente sorrisos encontra curso previsível vida porém distraímos calendário acaso passos empurrou caminho habitual então coisas outras nada espera transforma desvio olhar mão demora ombro forçando aproximação lábios</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>17-03-2024</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Acidente com trator mata homem em Chaves</t>
+          <t>Procura-se um amigo</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditazikvlqacjpgwidthformatpjpgautowebpsfeccccfbfeeffdaca</t>
+          <t>precisa homem basta humano basta ter sentimentos basta ter coração precisa saber falar calar sobretudo saber ouvir gostar poesia madrugada pássaro sol lua canto ventos canções brisa deve ter amor grande amor alguém então sentir falta ter amor deve amar próximo respeitar dor passantes levam consigo deve guardar segredo sacrificar nbsp preciso primeira mão imprescindível segunda mão pode ter sido enganado poi todos amigo enganados preciso puro todo impuro deve vulgar deve ter ideal medo perdêlo caso assim deve sentir grande vácuo deixa ter ressonâncias humanas principal objetivo deve amigo deve sentir pena pessoa tristes compreender imenso vazio solitários deve gostar crianças lastimar puderam nascer nbsp procurase amigo gostar mesmos gostos comova chamado amigo saiba conversar coisas simple orvalhos grandes chuvas recordações infância precisase amigo enlouquecer contar viu belo triste durante dia anseios realizações sonhos realidade deve gostar ruas desertas poças água caminhos molhados beira estrada mato chuva deitar capim nbsp precisase amigo diga vale pena viver porque vida bela porque amigo precisase amigo parar chorar viver debruçado passado busca memórias perdidas bata ombros sorrindo chorando chame amigo terse consciência ainda vive nbsp nbsp autor desconhecido</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>03-01-2024</t>
+          <t>21-02-2024</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t xml:space="preserve">Website Grátis </t>
+          <t>Pessoal com AC em casa</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>olá pessoal criar website grátis expandir portfólio faço tudo zero nada template peço poder divulgar trabalho final precisarem site souberem alguém precise falem comigo</t>
+          <t>bom dia todos neste momento reconstruir casa pensado colocar ac forma climatização tratase moradia t cerca m trabalha casa dado haverá necessidade climatização durante todo dia questão ac casa quanto gastam sensivelmente climatização mensalmente sim sei contas nao assim tão lineares porque cada casa casa apenas ter ideia esperar obrigado todos</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>11-01-2024</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t xml:space="preserve">Professores: 90% vão atingir topo da carreira até julho de 2027 </t>
+          <t>E-sim e a roubalheira habitual</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>httpsjornaleconomicosapoptnoticiasprofessoresvaoatingirtopodacarreiraatejulhodehttpsjornaleconomicosapoptnoticiasprofessoresvaoatingirtopodacarreiraatejulhode</t>
+          <t>apple watch suporte esim liguei operadora perguntar forma poderia ter esim número usar relógio assim podium ir correr fazer outras actividades andar telefone atrás mim phone música receber chamadas chega bem aqui tudo bem esbarrei preçário tipico portugal pagamos tudo peso outro pedir cartão custa pagar mês ter acesso número pago pouco ilimitado todos meses relógio obviamente fiz nada vou fazer preços alguma solução barata noutra operadora algum provider esim online menos apenas internet ir ouvir música</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>08-01-2024</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Tribunal de Coimbra absolve DJ e condena dois amigos por violação de jovem</t>
+          <t>Acidente com trator mata homem em Chaves</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>httpsobservadorpttribunaldecoimbraabsolvedjecondenadoisamigosporviolacaodejovem</t>
+          <t>xb httpspreviewredditazikvlqacjpgwidthformatpjpgautowebpsfeccccfbfeeffdaca</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>03-01-2024</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Fds tuga</t>
+          <t>Comprei cerveja Budweiser</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>malta tantas maneiras pensar diferentes batem tanto crânio tudo nada cagassem mazé tudo vivessem safoda sempre preocupados argumentar pensar discutir tudo vida so doi dia chavalos bora algarve casa amigo mm vibe jogar uno comer amendoins fumar un nites un bogas bora praia apanhar uma ondas bora bater gandas punhetas malta bué stressada sempre chateados tudo importam stressam assuntos nexo batam ganda punheta celebrem vida caralho</t>
+          <t>nunca valia ter comprado superbock</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>16-10-2024</t>
+          <t>27-12-2024</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Vendiam vinho contrafeito a 15 mil euros a garrafa</t>
+          <t xml:space="preserve">Website Grátis </t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>httpswwwjnptvendiamvinhocontrafeitoamileurosagarrafahttpswwwjnptvendiamvinhocontrafeitoamileurosagarrafa polícias francesa italiana suíça desmantelaram rede contrafação vendia vinho barato luxo chegando cobrar mil euro garrafa vinho expedido através aeroporto italiano consumidores todo mundo seis pessoas detidas paris turim milão</t>
+          <t>olá pessoal criar website grátis expandir portfólio faço tudo zero nada template peço poder divulgar trabalho final precisarem site souberem alguém precise falem comigo</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>16-10-2024</t>
+          <t>08-12-2024</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Detido triplo homicida da Penha de França. Familiares colaboraram com PJ</t>
+          <t xml:space="preserve">Professores: 90% vão atingir topo da carreira até julho de 2027 </t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocompaisdetidotriplohomicidadapenhadefrancafamiliarescolaboraramcompj</t>
+          <t>httpsjornaleconomicosapoptnoticiasprofessoresvaoatingirtopodacarreiraatejulhodehttpsjornaleconomicosapoptnoticiasprofessoresvaoatingirtopodacarreiraatejulhode</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>09-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Bom dia, bom dia e booom diaaaaa 🫶🏻</t>
+          <t>Tribunal de Coimbra absolve DJ e condena dois amigos por violação de jovem</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>venho meio comunicar faleci maior intensa profunda genuína energia alegria desejo excelente booom diaaaaaa manter vossos alentos reforço lembrança hoje quarta feira apenas doi dia adiante aí estará porta desejado merecido fim semanaaa relembrovos igual forma ultima semana setembro verão faltam meses natal ano acabaaaaar motivo acordarem vossos preciosos sonos aconselho vivamente levantar rabiosques cama agradecer ano vida quarta feira incrível terem sempre oportunidade receber melhores bons dia aqui vez agradeço vossa encarecida simpática atenção têm quê cumprimentos breve todos</t>
+          <t>httpsobservadorpttribunaldecoimbraabsolvedjecondenadoisamigosporviolacaodejovem</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>25-09-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Homenageia aqui um gigante desconhecido</t>
+          <t>Fds tuga</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>pessoas fizeram obras carreiras notáveis desconhecidas grande público muitas vezes pessoas área obra lembreime disto falar instrutora ginásio onde ando jogadora futebol licenciada educação física conhecia aurélio pereirahttpswwwwikisportingcomindexphptitleaurcaliopereira gigante mundo futebol português captou formou maior parte grandes talentos futebol português últimos ano sporting provavelmente seguido caminho beleneses dificilmente hoje grandes futebol português conhecia manuel sérgiohttpsptwikipediaorgwikimanuelscargio pensador importantíssimo motricidade humana noutras áreas gigantes praticamente desconhecidos apesar serem importantíssimos física edward wittenhttpsptwikipediaorgwikiedwardwitten muitos outros música max martinhttpsptwikipediaorgwikimaxmartin provavelmente músico maior sucesso últimas décadas praticamente desconhecido grande público httpswwwyoutubecomwatchvwoiijgmckhttpswwwyoutubecomwatchvwoiijgmck ocorre noutros áreas gigantes desconhecidos conheces</t>
+          <t>malta tantas maneiras pensar diferentes batem tanto crânio tudo nada cagassem mazé tudo vivessem safoda sempre preocupados argumentar pensar discutir tudo vida so doi dia chavalos bora algarve casa amigo mm vibe jogar uno comer amendoins fumar un nites un bogas bora praia apanhar uma ondas bora bater gandas punhetas malta bué stressada sempre chateados tudo importam stressam assuntos nexo batam ganda punheta celebrem vida caralho</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>23-09-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Infarmed manda retirar do mercado um lote do medicamento Lorazepam</t>
+          <t>Vendiam vinho contrafeito a 15 mil euros a garrafa</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocompaisinfarmedmandaretirardomercadoumlotedomedicamentolorazepamhttpswwwnoticiasaominutocompaisinfarmedmandaretirardomercadoumlotedomedicamentolorazepam autoridade nacional medicamento infarmed ordenou suspensão imediata lote medicamento lorazepam indicado tratamento ansiedade devido deteção resultado irregular estudo estabilidadea autoridade nacional medicamento</t>
+          <t>httpswwwjnptvendiamvinhocontrafeitoamileurosagarrafahttpswwwjnptvendiamvinhocontrafeitoamileurosagarrafa polícias francesa italiana suíça desmantelaram rede contrafação vendia vinho barato luxo chegando cobrar mil euro garrafa vinho expedido através aeroporto italiano consumidores todo mundo seis pessoas detidas paris turim milão</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>13-09-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Para quem anda a dizer que este sismo de 5.3/5.4/5.9 que tivemos hoje foi o maior desde há X décadas...</t>
+          <t>Detido triplo homicida da Penha de França. Familiares colaboraram com PJ</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>httpswwwjornaldenegociospteconomiaeducacaodetalhesismodemagnitudederichterabalaopaiacutesacthttpswwwjornaldenegociospteconomiaeducacaodetalhesismodemagnitudederichterabalaopaiacutesact fica aqui parem espalhar desinformação drama pânico idiotas httpswwwnoticiasaominutocompaisportugalacordouatremerestefoiosismomaisfortedosultimosanos idiotas httpswwwrtpptnoticiaspaissismodestamadrugadafoiodemaiormagnitudedosultimosanosv etc</t>
+          <t>httpswwwnoticiasaominutocompaisdetidotriplohomicidadapenhadefrancafamiliarescolaboraramcompj</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>26-08-2024</t>
+          <t>09-10-2024</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Livros spicy</t>
+          <t>Bom dia, bom dia e booom diaaaaa 🫶🏻</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>hoje ler un comentários post percebi precisava fazer nestas férias dar livro spicy arrojado sexualmente mulher estimular bocado coisas acham têm sugestões un ano dei livros sombras correu bem edit erro ortográfico</t>
+          <t>venho meio comunicar faleci maior intensa profunda genuína energia alegria desejo excelente booom diaaaaaa manter vossos alentos reforço lembrança hoje quarta feira apenas doi dia adiante aí estará porta desejado merecido fim semanaaa relembrovos igual forma ultima semana setembro verão faltam meses natal ano acabaaaaar motivo acordarem vossos preciosos sonos aconselho vivamente levantar rabiosques cama agradecer ano vida quarta feira incrível terem sempre oportunidade receber melhores bons dia aqui vez agradeço vossa encarecida simpática atenção têm quê cumprimentos breve todos</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>10-08-2024</t>
+          <t>25-09-2024</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Se pudessem voltar atras no tempo e escolher um ano especifico, qual ano seria? E porque razão seria?</t>
+          <t>Homenageia aqui um gigante desconhecido</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>grande abraço</t>
+          <t>pessoas fizeram obras carreiras notáveis desconhecidas grande público muitas vezes pessoas área obra lembreime disto falar instrutora ginásio onde ando jogadora futebol licenciada educação física conhecia aurélio pereirahttpswwwwikisportingcomindexphptitleaurcaliopereira gigante mundo futebol português captou formou maior parte grandes talentos futebol português últimos ano sporting provavelmente seguido caminho beleneses dificilmente hoje grandes futebol português conhecia manuel sérgiohttpsptwikipediaorgwikimanuelscargio pensador importantíssimo motricidade humana noutras áreas gigantes praticamente desconhecidos apesar serem importantíssimos física edward wittenhttpsptwikipediaorgwikiedwardwitten muitos outros música max martinhttpsptwikipediaorgwikimaxmartin provavelmente músico maior sucesso últimas décadas praticamente desconhecido grande público httpswwwyoutubecomwatchvwoiijgmckhttpswwwyoutubecomwatchvwoiijgmck ocorre noutros áreas gigantes desconhecidos conheces</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>20-06-2024</t>
+          <t>23-09-2024</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Porque iria a Rússia atacar a NATO?</t>
+          <t>Infarmed manda retirar do mercado um lote do medicamento Lorazepam</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>questiono irá necessidade luta direta situação escale todos países nato pequenos chamados soldados lutar ucrânia enquanto bombas enviadas alemanha frança rússia chateada armas ucrânia faria rússia pequenos países nato falo países bálticos putin quer preocupação porque oiço constantes ameaças medium</t>
+          <t>httpswwwnoticiasaominutocompaisinfarmedmandaretirardomercadoumlotedomedicamentolorazepamhttpswwwnoticiasaominutocompaisinfarmedmandaretirardomercadoumlotedomedicamentolorazepam autoridade nacional medicamento infarmed ordenou suspensão imediata lote medicamento lorazepam indicado tratamento ansiedade devido deteção resultado irregular estudo estabilidadea autoridade nacional medicamento</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>13-09-2024</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t xml:space="preserve">2004: o ano em que Portugal todo se uniu! </t>
+          <t>Para quem anda a dizer que este sismo de 5.3/5.4/5.9 que tivemos hoje foi o maior desde há X décadas...</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ano passado nunca fez tanta falta scolari agora acho scolari conseguio patriota governantes precisamos tanto unir prol gloriosa nação euro selecção portuguesa rumo finalhttpswwwyoutubecomwatchvdyzkufm</t>
+          <t>httpswwwjornaldenegociospteconomiaeducacaodetalhesismodemagnitudederichterabalaopaiacutesacthttpswwwjornaldenegociospteconomiaeducacaodetalhesismodemagnitudederichterabalaopaiacutesact fica aqui parem espalhar desinformação drama pânico idiotas httpswwwnoticiasaominutocompaisportugalacordouatremerestefoiosismomaisfortedosultimosanos idiotas httpswwwrtpptnoticiaspaissismodestamadrugadafoiodemaiormagnitudedosultimosanosv etc</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>28-05-2024</t>
+          <t>26-08-2024</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>É oficial: Reino Unido proíbe venda de tabaco a quem nasceu depois de 2009 - Acham que devíamos fazer o mesmo em Portugal?</t>
+          <t>Livros spicy</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>httpswwwnitptfitsaudeeoficialreinounidoproibevendadetabacoquemnasceudepoisdehttpswwwnitptfitsaudeeoficialreinounidoproibevendadetabacoquemnasceudepoisde lei entra vigor abril próximo ano objetivo criar primeira geração livre fumo partir abril venda tabaco vaporizadores nasceu janeiro pessoas têm hoje ano passa crime reino unido decisão aprovada parlamento terçafeira abril pretende criar primeira geração livre fumo anunciou victoria atkin secretária estado saúde assistência social medida visa demonizar pessoas fumam impedilas comprar tabaco afetará forma alguma direitos prerrogativas fumadores atuais afirmou significa apenas dá próxima geração liberdade viver vidas longas saudáveis produtivas acrescentou ainda implementação lei economia vai tornarse produtiva ajudar construir sn proporciona cuidados rápidos simple justos vamos quase duplicar financiamento serviços locais cessação tabagismo acrescentou podemos substituir geração viciada nicotina outra viciada vaporizadores podem danificar pulmões jovens enquanto ainda desenvolvimento intensificar pressão longo prazo sobre serviço nacional saúde prejudicar concentração escola legislação dará poderes tomar medidas contra sabores embalagens próximas miúdos mudar forma máquinas exibidas lojas concluiu governante responsáveis regras comerciais vão ficar encarregues garantir cumprimento nova legislação poderem aplicar multas retalhistas façam venda forma ilegal montante angariado coimas utilizado financiar nova medidas aplicação lei xb view pollhttpswwwredditcompollcyycl</t>
+          <t>hoje ler un comentários post percebi precisava fazer nestas férias dar livro spicy arrojado sexualmente mulher estimular bocado coisas acham têm sugestões un ano dei livros sombras correu bem edit erro ortográfico</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>18-04-2024</t>
+          <t>10-08-2024</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Lutas ilegais de galos em Loures, 13 detidos.</t>
+          <t>Se pudessem voltar atras no tempo e escolher um ano especifico, qual ano seria? E porque razão seria?</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>httpswwwinstagramcomreelciyqmtoxsigshmxjocxbzgzazgzzg</t>
+          <t>grande abraço</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>16-03-2024</t>
+          <t>20-06-2024</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>30 mil livros da Biblioteca Joanina vão ser digitalizados este ano</t>
+          <t>Porque iria a Rússia atacar a NATO?</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>httpsnewincoimbranitptculturamillivrosdabibliotecajoaninavaoserdigitalizadosesteanohttpsnewincoimbranitptculturamillivrosdabibliotecajoaninavaoserdigitalizadosesteano projeto desenvolvido universidade coimbra autoridade literária sharjah processo arranca março partir março começa novo projeto digitalização livros presentes biblioteca joanina universidade coimbra irá construir biblioteca joanina digital deverá ter disponíveis cerca mil exemplares incluindo obras centenárias guardadas piso nobre biblioteca tudo forma gratuita longo seis ano objetivo avançar progressivamente digitalização mil livros fazem parte catálogo doi milhões obras fasepiloto arranca março primeira coleção digitalizada publicações sobre médio oriente conhecida biblioteca sultan bin muhammad alqasimi todos livros presentes têm valor incalculável incluem imensas obras renome além primeira vez muitas irão presentes ambiente digital tal primeira tradução portuguesa teoria marés isaac newton apesar estarem toda disponíveis nesta plataforma pode encontrar portal património digital europeana projeto desenvolvido parceria autoridade literária sharjah sba contribui financiamento cerca oito milhões euro protocolo assinado passada quartafeira dia fevereiro reitor universidade coimbra amílcar falcão presidente sba ahmed bin rakkad al ameri conhece biblioteca joanina espaços fazem parte enorme história coimbra bibliotecas ricas antigas europa construída memória rei d joão v fã locais mágicos carregue galeria conhecer tesouros quase escondidos coimbra</t>
+          <t>questiono irá necessidade luta direta situação escale todos países nato pequenos chamados soldados lutar ucrânia enquanto bombas enviadas alemanha frança rússia chateada armas ucrânia faria rússia pequenos países nato falo países bálticos putin quer preocupação porque oiço constantes ameaças medium</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Neto de Sapateiro - AMA</t>
+          <t xml:space="preserve">2004: o ano em que Portugal todo se uniu! </t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>neto sapateiro hoje político façam questões irei tentar responder todos cordialmente</t>
+          <t>ano passado nunca fez tanta falta scolari agora acho scolari conseguio patriota governantes precisamos tanto unir prol gloriosa nação euro selecção portuguesa rumo finalhttpswwwyoutubecomwatchvdyzkufm</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>20-01-2024</t>
+          <t>28-05-2024</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Renomear este subreddit para desinformação e ódio pt 2</t>
+          <t>É oficial: Reino Unido proíbe venda de tabaco a quem nasceu depois de 2009 - Acham que devíamos fazer o mesmo em Portugal?</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>engraçado preciso criar subreddit secundário todos querem espalhar msg ódio desinformação vistos subreddit censura apela censura certos grupos pessoas ideais acham nome cativante assim pessoas iriam saber tavam entrar</t>
+          <t>httpswwwnitptfitsaudeeoficialreinounidoproibevendadetabacoquemnasceudepoisdehttpswwwnitptfitsaudeeoficialreinounidoproibevendadetabacoquemnasceudepoisde lei entra vigor abril próximo ano objetivo criar primeira geração livre fumo partir abril venda tabaco vaporizadores nasceu janeiro pessoas têm hoje ano passa crime reino unido decisão aprovada parlamento terçafeira abril pretende criar primeira geração livre fumo anunciou victoria atkin secretária estado saúde assistência social medida visa demonizar pessoas fumam impedilas comprar tabaco afetará forma alguma direitos prerrogativas fumadores atuais afirmou significa apenas dá próxima geração liberdade viver vidas longas saudáveis produtivas acrescentou ainda implementação lei economia vai tornarse produtiva ajudar construir sn proporciona cuidados rápidos simple justos vamos quase duplicar financiamento serviços locais cessação tabagismo acrescentou podemos substituir geração viciada nicotina outra viciada vaporizadores podem danificar pulmões jovens enquanto ainda desenvolvimento intensificar pressão longo prazo sobre serviço nacional saúde prejudicar concentração escola legislação dará poderes tomar medidas contra sabores embalagens próximas miúdos mudar forma máquinas exibidas lojas concluiu governante responsáveis regras comerciais vão ficar encarregues garantir cumprimento nova legislação poderem aplicar multas retalhistas façam venda forma ilegal montante angariado coimas utilizado financiar nova medidas aplicação lei xb view pollhttpswwwredditcompollcyycl</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>14-01-2024</t>
+          <t>18-04-2024</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Sarkozy vai passar um ano em prisão domiciliária com pulseira electrónica</t>
+          <t>Lutas ilegais de galos em Loures, 13 detidos.</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>httpswwwpublicoptmundonoticiajusticafrancesamantemcondenacaoantigopresidentenicolassarkozycorrupcao</t>
+          <t>httpswwwinstagramcomreelciyqmtoxsigshmxjocxbzgzazgzzg</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>18-12-2024</t>
+          <t>16-03-2024</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Quem é considerado como mau na história mas na realidade não era mau?</t>
+          <t>30 mil livros da Biblioteca Joanina vão ser digitalizados este ano</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>causa desta pergunta bloqueado casualpt coragem faça pergunta lá</t>
+          <t>httpsnewincoimbranitptculturamillivrosdabibliotecajoaninavaoserdigitalizadosesteanohttpsnewincoimbranitptculturamillivrosdabibliotecajoaninavaoserdigitalizadosesteano projeto desenvolvido universidade coimbra autoridade literária sharjah processo arranca março partir março começa novo projeto digitalização livros presentes biblioteca joanina universidade coimbra irá construir biblioteca joanina digital deverá ter disponíveis cerca mil exemplares incluindo obras centenárias guardadas piso nobre biblioteca tudo forma gratuita longo seis ano objetivo avançar progressivamente digitalização mil livros fazem parte catálogo doi milhões obras fasepiloto arranca março primeira coleção digitalizada publicações sobre médio oriente conhecida biblioteca sultan bin muhammad alqasimi todos livros presentes têm valor incalculável incluem imensas obras renome além primeira vez muitas irão presentes ambiente digital tal primeira tradução portuguesa teoria marés isaac newton apesar estarem toda disponíveis nesta plataforma pode encontrar portal património digital europeana projeto desenvolvido parceria autoridade literária sharjah sba contribui financiamento cerca oito milhões euro protocolo assinado passada quartafeira dia fevereiro reitor universidade coimbra amílcar falcão presidente sba ahmed bin rakkad al ameri conhece biblioteca joanina espaços fazem parte enorme história coimbra bibliotecas ricas antigas europa construída memória rei d joão v fã locais mágicos carregue galeria conhecer tesouros quase escondidos coimbra</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>23-02-2024</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Mais de 150 denúncias de assédio no meio artístico</t>
+          <t>Neto de Sapateiro - AMA</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalhemaisdedenunciasdeassedionomeioartisticohttpswwwcmjornalptportugaldetalhemaisdedenunciasdeassedionomeioartistico</t>
+          <t>neto sapateiro hoje político façam questões irei tentar responder todos cordialmente</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>02-12-2024</t>
+          <t>20-01-2024</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Vigaristas e charlatões com sucesso</t>
+          <t>Renomear este subreddit para desinformação e ódio pt 2</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>vários sócrates política vale avezedo sucesso relativo preso joe berardo luis filipe vieira ricardo salgado outros banqueiros acabaram descobertos atualmente desprezados quase toda gente alguns continuem ter sucesso medicina considero manuel pinto coelho prática médica mínimo questionável lembro nenhum brasil conheço vários fazem sucesso muitos ano lair ribeiro medicina edir macedo fundador iurd rodrigo silva apresenta arqueólogo diz muitas tolices etc portugal devem continuar existir ídolos pés barro agora pareceme difícil saber</t>
+          <t>engraçado preciso criar subreddit secundário todos querem espalhar msg ódio desinformação vistos subreddit censura apela censura certos grupos pessoas ideais acham nome cativante assim pessoas iriam saber tavam entrar</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>22-11-2024</t>
+          <t>14-01-2024</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Portugal vai contribuir com 283 mil euros anuais contra a fome</t>
+          <t>Sarkozy vai passar um ano em prisão domiciliária com pulseira electrónica</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptpoliticadetalheportugalvaicontribuircommildolaresanuaiscontraafomehttpswwwcmjornalptpoliticadetalheportugalvaicontribuircommildolaresanuaiscontraafome</t>
+          <t>httpswwwpublicoptmundonoticiajusticafrancesamantemcondenacaoantigopresidentenicolassarkozycorrupcao</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>19-11-2024</t>
+          <t>18-12-2024</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Tribunal condena arguido violento e cadastrado a frequentar aulas de ioga e inscrever-se num clube de atletismo</t>
+          <t>Quem é considerado como mau na história mas na realidade não era mau?</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiastribunalcondenaarguidoviolentoecadastradoafrequentaraulasdeiogaeinscreversenumclubedeatletismooriginserpauto</t>
+          <t>causa desta pergunta bloqueado casualpt coragem faça pergunta lá</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>19-11-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pessoal como é que tratam os médicos? É obrigatório chamar de Doutor? </t>
+          <t>Mais de 150 denúncias de assédio no meio artístico</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>chamam sempre doutor apercebi fiz acabo esquecer sempre fiz caiu bem parece ficaram ainda chateados sei porquê chamar doutor talvez cai pior porque adolescente abaixo idade mínima ótimo ouvir vossas opiniões dou bênçãos qualquer doutor aqui</t>
+          <t>httpswwwcmjornalptportugaldetalhemaisdedenunciasdeassedionomeioartisticohttpswwwcmjornalptportugaldetalhemaisdedenunciasdeassedionomeioartistico</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>17-11-2024</t>
+          <t>02-12-2024</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Novo inédito.</t>
+          <t>Vigaristas e charlatões com sucesso</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>left alone</t>
+          <t>vários sócrates política vale avezedo sucesso relativo preso joe berardo luis filipe vieira ricardo salgado outros banqueiros acabaram descobertos atualmente desprezados quase toda gente alguns continuem ter sucesso medicina considero manuel pinto coelho prática médica mínimo questionável lembro nenhum brasil conheço vários fazem sucesso muitos ano lair ribeiro medicina edir macedo fundador iurd rodrigo silva apresenta arqueólogo diz muitas tolices etc portugal devem continuar existir ídolos pés barro agora pareceme difícil saber</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>12-11-2024</t>
+          <t>22-11-2024</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Pense duas vezes antes de voltar a acender incenso</t>
+          <t>Portugal vai contribuir com 283 mil euros anuais contra a fome</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>httpswwwnoticiasaominutocomlifestylepenseduasvezesantesdevoltaraacenderincenso</t>
+          <t>httpswwwcmjornalptpoliticadetalheportugalvaicontribuircommildolaresanuaiscontraafomehttpswwwcmjornalptpoliticadetalheportugalvaicontribuircommildolaresanuaiscontraafome</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>11-11-2024</t>
+          <t>19-11-2024</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Restauração de móveis em Portugal</t>
+          <t>Tribunal condena arguido violento e cadastrado a frequentar aulas de ioga e inscrever-se num clube de atletismo</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>olá todos recentemente dediqueime restauração móveis queria partilhar aprender outras pessoas sobre assunto aqui reddit havia nenhum grupo partilhas criei grupo apareçam lá rrestauromoveispthttpswwwredditcomrrestauromoveispt</t>
+          <t>httpsexecutivedigestsapoptnoticiastribunalcondenaarguidoviolentoecadastradoafrequentaraulasdeiogaeinscreversenumclubedeatletismooriginserpauto</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>19-11-2024</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Jovem que matou o pai à facada é considerado inimputável: "A qualquer momento pode sair"</t>
+          <t xml:space="preserve">Pessoal como é que tratam os médicos? É obrigatório chamar de Doutor? </t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>httpssicptprogramascasafelizvideosvideojovemquematouopaiafacadaeconsideradoinimputavelaqualquermomentopodesairdf</t>
+          <t>chamam sempre doutor apercebi fiz acabo esquecer sempre fiz caiu bem parece ficaram ainda chateados sei porquê chamar doutor talvez cai pior porque adolescente abaixo idade mínima ótimo ouvir vossas opiniões dou bênçãos qualquer doutor aqui</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>17-11-2024</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Recordar Lisboa em 1989/1990</t>
+          <t>Novo inédito.</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>andava pesquisar sobre lisboa encontrei estahttpsarquivosrtpptprogramasbairrospopularesdelisboa série programas sobre cada bairros históricos lisboa realizados bairros populares alfama mouraria etc degradados ainda havia bairros barracas pleno centro curraleira casal ventoso etc menos cidade essencialmente lisboeta portuguesa dessem escolher acho dúvidas lisboa preferia viver</t>
+          <t>left alone</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>21-10-2024</t>
+          <t>12-11-2024</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Ajuda - Universidade de Aveiro</t>
+          <t>Pense duas vezes antes de voltar a acender incenso</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>olá todos necessitamos ajuda grupo alunos universidade aveiro realizar prova conceito sobre profissão nadadorsalvador projecto final licenciatura gostaríamos ouvir diretamente todos nadadoressalvadores aqui presentes entender melhor trabalho desafios diários nadadorsalvador poderia partilhar experiências respondendo seguintes perguntas caso existam perguntas queira responder pode simplesmente fazer skip perguntas servirão analisar vossa situação geral problemas possam ter prova conceito pode ajudar resolução mesmos forma melhorar segurança praia portuguesas pode ainda ajudarnos partilhando post caso perfira pode preencher google form ingles mesmas perguntas httpsformsgletpyeetsiwxcfu desde agradecemos participação todo input importante rotina atividades dia dia típico nadadorsalvador quais principais responsabilidades tarefas recursos equipamentos tipos equipamentos recursos disposição realizar trabalho sente falta gostaria ter algum tipo equipamento tecnologia melhorar atividade desafios frustrações quais maiores desafios enfrenta profissão existe alguma frustração recorrente trabalho lida comunicação trabalho equipa funciona comunicação membros equipa nadadoressalvadores utilizam algum sistema tecnologia específica manterem conectados organização gestão estruturada organização nadadoressalvadores ex área vigiar turnos etc gerida estrutura emergências procedimentos quais casos comuns requerem atenção quais casos emergência enfrentou pode descrever procedimento padrão comum caso afogamento préafogamento lida stress situações emergências</t>
+          <t>httpswwwnoticiasaominutocomlifestylepenseduasvezesantesdevoltaraacenderincenso</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>20-10-2024</t>
+          <t>11-11-2024</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Homem apanhado a estrangular a mulher em quarto de hotel na Nazaré</t>
+          <t>Restauração de móveis em Portugal</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>httpswwwcmtvptatualidadedetalhehomemapanhadoaestrangularamulheremquartodehotelnanazare autoridades receberam pedido socorro via comunicado psp explica recebeu pedido auxílio via relativa situação violência doméstica casal imediato ativada equipa serviço chegada local funcionário espaço informou tudo ouvido interior quarto polícias depararamse suspeito cima vítima apertarlhe pescoço taparlhe boca homem imediato manietado algemado</t>
+          <t>olá todos recentemente dediqueime restauração móveis queria partilhar aprender outras pessoas sobre assunto aqui reddit havia nenhum grupo partilhas criei grupo apareçam lá rrestauromoveispthttpswwwredditcomrrestauromoveispt</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -7967,79 +7967,79 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>17-10-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Ministério Público pede suspensão Benfica das competições desportivas</t>
+          <t>Jovem que matou o pai à facada é considerado inimputável: "A qualquer momento pode sair"</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>httpsmaisfuteboliolptbenficaluisfilipevieiraministeriopublicoquersuspenderbenficadascompeticoesdesportivashttpsmaisfuteboliolptbenficaluisfilipevieiraministeriopublicoquersuspenderbenficadascompeticoesdesportivas</t>
+          <t>httpssicptprogramascasafelizvideosvideojovemquematouopaiafacadaeconsideradoinimputavelaqualquermomentopodesairdf</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>15-10-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Datting Apps.</t>
+          <t>Recordar Lisboa em 1989/1990</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>curiosidade julgamentos associados geração vinte vinte cinco quantos nunca sequer chegaram instalar dating app nunca chegaram ver feed daquilo nenhum objectivo específico pergunta tentar perceber dating digital tornou prisão obrigação ainda muita vida lá redes</t>
+          <t>andava pesquisar sobre lisboa encontrei estahttpsarquivosrtpptprogramasbairrospopularesdelisboa série programas sobre cada bairros históricos lisboa realizados bairros populares alfama mouraria etc degradados ainda havia bairros barracas pleno centro curraleira casal ventoso etc menos cidade essencialmente lisboeta portuguesa dessem escolher acho dúvidas lisboa preferia viver</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Lisboa é o Melhor Destino Culinário da Europa</t>
+          <t>Ajuda - Universidade de Aveiro</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>httpswwwvoltaaomundoptlisboaeomelhordestinoculinariodaeuropadestinoshttpswwwvoltaaomundoptlisboaeomelhordestinoculinariodaeuropadestinos</t>
+          <t>olá todos necessitamos ajuda grupo alunos universidade aveiro realizar prova conceito sobre profissão nadadorsalvador projecto final licenciatura gostaríamos ouvir diretamente todos nadadoressalvadores aqui presentes entender melhor trabalho desafios diários nadadorsalvador poderia partilhar experiências respondendo seguintes perguntas caso existam perguntas queira responder pode simplesmente fazer skip perguntas servirão analisar vossa situação geral problemas possam ter prova conceito pode ajudar resolução mesmos forma melhorar segurança praia portuguesas pode ainda ajudarnos partilhando post caso perfira pode preencher google form ingles mesmas perguntas httpsformsgletpyeetsiwxcfu desde agradecemos participação todo input importante rotina atividades dia dia típico nadadorsalvador quais principais responsabilidades tarefas recursos equipamentos tipos equipamentos recursos disposição realizar trabalho sente falta gostaria ter algum tipo equipamento tecnologia melhorar atividade desafios frustrações quais maiores desafios enfrenta profissão existe alguma frustração recorrente trabalho lida comunicação trabalho equipa funciona comunicação membros equipa nadadoressalvadores utilizam algum sistema tecnologia específica manterem conectados organização gestão estruturada organização nadadoressalvadores ex área vigiar turnos etc gerida estrutura emergências procedimentos quais casos comuns requerem atenção quais casos emergência enfrentou pode descrever procedimento padrão comum caso afogamento préafogamento lida stress situações emergências</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>08-10-2024</t>
+          <t>20-10-2024</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>subs, de preferência pequenos, que achem interessantes</t>
+          <t>Homem apanhado a estrangular a mulher em quarto de hotel na Nazaré</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>portuguese ainda melhor conheço alguns apesar serem pequenos acho interessantes provavelmente apenas interessantes muitas poucas pessoas sãono mim alguns exemplos httpswwwredditcomrhappinesshttpswwwredditcomrhappiness sobre felicidade faz felizes principalmente post estudos científicos sobre tema httpswwwredditcomrdonkeysaremetalhttpswwwredditcomrdonkeysaremetal alguns poucos vídeos alguns engraçados httpswwwredditcomraskapriesthttpswwwredditcomraskapriest nome explica algumas perguntas interessantes httpswwwredditcomrmirandeshttpswwwredditcomrmirandes sub mirândes httpswwwredditcomrsustentabilidadepthttpswwwredditcomrsustentabilidadept httpswwwredditcomrcollapsesciencehttpswwwredditcomrcollapsescience</t>
+          <t>httpswwwcmtvptatualidadedetalhehomemapanhadoaestrangularamulheremquartodehotelnanazare autoridades receberam pedido socorro via comunicado psp explica recebeu pedido auxílio via relativa situação violência doméstica casal imediato ativada equipa serviço chegada local funcionário espaço informou tudo ouvido interior quarto polícias depararamse suspeito cima vítima apertarlhe pescoço taparlhe boca homem imediato manietado algemado</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -8047,159 +8047,159 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>17-09-2024</t>
+          <t>17-10-2024</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Concordam com a detenção e eventual condenação do fundador do telegram?</t>
+          <t>Ministério Público pede suspensão Benfica das competições desportivas</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>origem desta detenção falta moderação telegram utilização desta plataforma permite comunicações secretas fin criminosos precisamente porque comunicação utilizadores pode feita forma secreta concordam eventual condenação donos telegram causa deste usado muitas outras comunicações fin criminosos view pollhttpswwwredditcompollfvwv</t>
+          <t>httpsmaisfuteboliolptbenficaluisfilipevieiraministeriopublicoquersuspenderbenficadascompeticoesdesportivashttpsmaisfuteboliolptbenficaluisfilipevieiraministeriopublicoquersuspenderbenficadascompeticoesdesportivas</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>29-08-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Se eu tiver um podre de um político, qual é a melhor forma de divulgar isso à Comunicação Social sem que consigam ligar a mim?</t>
+          <t>Datting Apps.</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>httpswwwredditcomrportugalcommentsetifpseeutiverumpodredeumpolíticoqualéautmsourceshareutmmediumwebxutmnamewebxcssutmtermutmcontentsharebuttonhttpswwwredditcomrportugalcommentsetifpseeutiverumpodredeumpolíticoqualéautmsourceshareutmmediumwebxutmnamewebxcssutmtermutmcontentsharebutton post apagado sub original</t>
+          <t>curiosidade julgamentos associados geração vinte vinte cinco quantos nunca sequer chegaram instalar dating app nunca chegaram ver feed daquilo nenhum objectivo específico pergunta tentar perceber dating digital tornou prisão obrigação ainda muita vida lá redes</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>15-08-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>À procura de trabalho remoto</t>
+          <t>Lisboa é o Melhor Destino Culinário da Europa</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>olá todos setembro vou começar segundo ano mestrado obriga fazer dissertação estágio deste modo posso trabalhar menos horários regulares presencialmente vivo família objetivo apenas começar ganhar alguma independência financeira algum tempo descobri site freelancercom tido sorte novata pensei talvez pudesse fazer transcrições documentos traduções inglês português viceversa gostava alguém experiente nesta área pudesse dar dicas conseguir pequenos trabalhos deste tipo onde devo procurar existem outros site direcionados fin</t>
+          <t>httpswwwvoltaaomundoptlisboaeomelhordestinoculinariodaeuropadestinoshttpswwwvoltaaomundoptlisboaeomelhordestinoculinariodaeuropadestinos</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>01-08-2024</t>
+          <t>08-10-2024</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Mayra Santos faz história ao nadar entre a Madeira e as Desertas</t>
+          <t>subs, de preferência pequenos, que achem interessantes</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>httpswwwjnptmayrasantosfazhistoriaaonadarentreamadeiraeasdesertas nadadora águas livres mayra santos terçafeira primeira fazer percurso madeira ilha deserta grande trajeto ida volta interrupções cerca horas atleta lusobrasileira partiu cais santa cruz ilha madeira horas hoje rumo deserta grande percurso ida volta ronda quilómetros tendo terminado distância poucos minutos ante horas</t>
+          <t>portuguese ainda melhor conheço alguns apesar serem pequenos acho interessantes provavelmente apenas interessantes muitas poucas pessoas sãono mim alguns exemplos httpswwwredditcomrhappinesshttpswwwredditcomrhappiness sobre felicidade faz felizes principalmente post estudos científicos sobre tema httpswwwredditcomrdonkeysaremetalhttpswwwredditcomrdonkeysaremetal alguns poucos vídeos alguns engraçados httpswwwredditcomraskapriesthttpswwwredditcomraskapriest nome explica algumas perguntas interessantes httpswwwredditcomrmirandeshttpswwwredditcomrmirandes sub mirândes httpswwwredditcomrsustentabilidadepthttpswwwredditcomrsustentabilidadept httpswwwredditcomrcollapsesciencehttpswwwredditcomrcollapsescience</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>31-07-2024</t>
+          <t>17-09-2024</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Petição pela Proibição da prática de contenção física a idosos</t>
+          <t>Concordam com a detenção e eventual condenação do fundador do telegram?</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>assinaram petição pessoas httpspeticaopublicacommobilepviewaspxpipthttpspeticaopublicacommobilepviewaspxpipt devidamente estudado comprovado dano utilização contenções físicas provoca idosos falamos questões aparecimento úlceras pressão atrofia muscular lesões articulares questões emocionais comportamentais cognitivas facto utilização contenções físicas idosos atenta contra direitos liberdade integridade física dignidade necessário urgente aproximar utilização zero portugal recorrente encontrarmos idosos imobilizados instituições saúde estruturas residenciais pessoa idosa facto forma violência banalizouse tal forma sociedade infelizmente muitos assumiram aplicação necessária deixaram questionarse relativamente alternativas disponíveis muitos países europa exemplo reino unido suécia prática conter fisicamente idosos sujeita regulamentação apertada utilização caiu valores perto zero consequência existisse aumento número quedas acidentes relacionados retirada dispositivos médicos espanha fazemos fronteira preparase tornar ano</t>
+          <t>origem desta detenção falta moderação telegram utilização desta plataforma permite comunicações secretas fin criminosos precisamente porque comunicação utilizadores pode feita forma secreta concordam eventual condenação donos telegram causa deste usado muitas outras comunicações fin criminosos view pollhttpswwwredditcompollfvwv</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>05-07-2024</t>
+          <t>29-08-2024</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Ganhar 0,08 € por comentários no reddit</t>
+          <t>Se eu tiver um podre de um político, qual é a melhor forma de divulgar isso à Comunicação Social sem que consigam ligar a mim?</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>lido aqui eutanásiahttpswwwredditcomrportugalcommentsbuqujqeutancasia post reconhecido autor themitfords httpswwwredditcomuserthemitfords tendo sido gerado ia apenas fazer dinheiro passa filtros reddit moderação sub caso provável comentários serem apagados vou copiálos aqui httpspreviewreddityrekfwmpscpngwidthformatpngautowebpsefedbdbfbfbebbd troll avençados partidários bot fácil ter conversa pés cabeça</t>
+          <t>httpswwwredditcomrportugalcommentsetifpseeutiverumpodredeumpolíticoqualéautmsourceshareutmmediumwebxutmnamewebxcssutmtermutmcontentsharebuttonhttpswwwredditcomrportugalcommentsetifpseeutiverumpodredeumpolíticoqualéautmsourceshareutmmediumwebxutmnamewebxcssutmtermutmcontentsharebutton post apagado sub original</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>15-08-2024</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Testemunho de ex-PCP sobre o 25 de Novembro</t>
+          <t>À procura de trabalho remoto</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>httpswwwyoutubecomwatchvxzupbfixdetshttpswwwyoutubecomwatchvxzupbfixdets acreditam importância novembro fica aqui testemunho exdirigente partido comunista português zita seabra novembro tentativa golpe falhou felizmente falhanço deve lembrado celebrado</t>
+          <t>olá todos setembro vou começar segundo ano mestrado obriga fazer dissertação estágio deste modo posso trabalhar menos horários regulares presencialmente vivo família objetivo apenas começar ganhar alguma independência financeira algum tempo descobri site freelancercom tido sorte novata pensei talvez pudesse fazer transcrições documentos traduções inglês português viceversa gostava alguém experiente nesta área pudesse dar dicas conseguir pequenos trabalhos deste tipo onde devo procurar existem outros site direcionados fin</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>01-08-2024</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>IPO apela à dádiva de plaquetas para doentes oncológicos</t>
+          <t>Mayra Santos faz história ao nadar entre a Madeira e as Desertas</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewreddituqhlhsircjpgwidthformatpjpgautowebpsdcbccaf</t>
+          <t>httpswwwjnptmayrasantosfazhistoriaaonadarentreamadeiraeasdesertas nadadora águas livres mayra santos terçafeira primeira fazer percurso madeira ilha deserta grande trajeto ida volta interrupções cerca horas atleta lusobrasileira partiu cais santa cruz ilha madeira horas hoje rumo deserta grande percurso ida volta ronda quilómetros tendo terminado distância poucos minutos ante horas</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -8207,559 +8207,559 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>31-07-2024</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Dos partidos mais votados qual é o que menos gostam, mais repudiam?</t>
+          <t>Petição pela Proibição da prática de contenção física a idosos</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>posso colocar opções limitome partidos votados últimas eleições legislativas view pollhttpswwwredditcompollaycwyp</t>
+          <t>assinaram petição pessoas httpspeticaopublicacommobilepviewaspxpipthttpspeticaopublicacommobilepviewaspxpipt devidamente estudado comprovado dano utilização contenções físicas provoca idosos falamos questões aparecimento úlceras pressão atrofia muscular lesões articulares questões emocionais comportamentais cognitivas facto utilização contenções físicas idosos atenta contra direitos liberdade integridade física dignidade necessário urgente aproximar utilização zero portugal recorrente encontrarmos idosos imobilizados instituições saúde estruturas residenciais pessoa idosa facto forma violência banalizouse tal forma sociedade infelizmente muitos assumiram aplicação necessária deixaram questionarse relativamente alternativas disponíveis muitos países europa exemplo reino unido suécia prática conter fisicamente idosos sujeita regulamentação apertada utilização caiu valores perto zero consequência existisse aumento número quedas acidentes relacionados retirada dispositivos médicos espanha fazemos fronteira preparase tornar ano</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>23-02-2024</t>
+          <t>05-07-2024</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Concessão da Fertagus prolongada sem Oriente e sem resolver sobrelotações</t>
+          <t>Ganhar 0,08 € por comentários no reddit</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>httpslisboaparapessoasptfertagusconcessaoprolongamentohttpslisboaparapessoasptfertagusconcessaoprolongamento</t>
+          <t>lido aqui eutanásiahttpswwwredditcomrportugalcommentsbuqujqeutancasia post reconhecido autor themitfords httpswwwredditcomuserthemitfords tendo sido gerado ia apenas fazer dinheiro passa filtros reddit moderação sub caso provável comentários serem apagados vou copiálos aqui httpspreviewreddityrekfwmpscpngwidthformatpngautowebpsefedbdbfbfbebbd troll avençados partidários bot fácil ter conversa pés cabeça</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>15-02-2024</t>
+          <t>03-04-2024</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Quantos de vocês fazem facilmente o recibo verde e IRS sozinhos?</t>
+          <t>Testemunho de ex-PCP sobre o 25 de Novembro</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>passo recibo verde irei começar gostava ter noção seguinte todos arranjaram contabilista cada altura ano necessária tal difícil fazer sozinhos mim neste momento demasiado caro ronda sei emitir recibos abril descrever toda quantias tai sentiram muita dificuldade fazer tudo sozinhos tempo aprender ante</t>
+          <t>httpswwwyoutubecomwatchvxzupbfixdetshttpswwwyoutubecomwatchvxzupbfixdets acreditam importância novembro fica aqui testemunho exdirigente partido comunista português zita seabra novembro tentativa golpe falhou felizmente falhanço deve lembrado celebrado</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>13-12-2024</t>
+          <t>28-03-2024</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Mastro não levanta</t>
+          <t>IPO apela à dádiva de plaquetas para doentes oncológicos</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>boa caros aconteceu estarem hora h mastro ter dificuldade ficar pé ficar pé inicio acabar murchar resolveram ano aparentemente saudável deixarme bocado preocupado moça começar estranhar várias tentativas falhadas ansiedade nervosismo sozinho normalmente problemas agradeço qualquer ajuda obrigado</t>
+          <t>xb jornal notícias março httpspreviewreddituqhlhsircjpgwidthformatpjpgautowebpsdcbccaf</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>09-12-2024</t>
+          <t>28-03-2024</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Senhorio recebeu ordem de penhora</t>
+          <t>Dos partidos mais votados qual é o que menos gostam, mais repudiam?</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>olá pessoas dilema recebi carta aviso recepção endereçada mim vivo rés chão ordem penhora valor bem avultado campo executado nome senhorio vive lógico falamos logo senhorio disse caso faturas passadas nome á ano absolvido pedir entrar portal finanças ir determinada página confirmar inclino colocar valor pago renda entender verdadeiro objetivo esposa medo passar dívida assim alguém sabe alguma informação possa útil obrigado</t>
+          <t>posso colocar opções limitome partidos votados últimas eleições legislativas view pollhttpswwwredditcompollaycwyp</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>21-11-2024</t>
+          <t>23-02-2024</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acidente de Trânsito </t>
+          <t>Concessão da Fertagus prolongada sem Oriente e sem resolver sobrelotações</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>acidente trânsito auto aparece descrito bati viatura aconteceu contrário altura nervoso escrevi gnr ditou achei depoimento dúbio receio questionálo poi parecia chateado ter ligado gnr ter resolvido mim ano carta sabia deveria resolver outro senhor cidadão alemão carro rent car fez rotunda toda reparei nisso saí via esquerda ainda conseguiu bater indo via versões complementamse auto aparece viatura embateu outro altura achei apelar certa neutralidade hipóteses reclamar junto gnr seguradora diz pode fazer nada</t>
+          <t>httpslisboaparapessoasptfertagusconcessaoprolongamentohttpslisboaparapessoasptfertagusconcessaoprolongamento</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>20-11-2024</t>
+          <t>15-02-2024</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t xml:space="preserve">"o menino de sua mãe" </t>
+          <t>Quantos de vocês fazem facilmente o recibo verde e IRS sozinhos?</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>joão villaret diz fernando pessoa menino mãe httpswwwyoutubecomwatchvgogtgfym</t>
+          <t>passo recibo verde irei começar gostava ter noção seguinte todos arranjaram contabilista cada altura ano necessária tal difícil fazer sozinhos mim neste momento demasiado caro ronda sei emitir recibos abril descrever toda quantias tai sentiram muita dificuldade fazer tudo sozinhos tempo aprender ante</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>16-11-2024</t>
+          <t>13-12-2024</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Jogo do Orçamento 2025. Se fosse primeiro-ministro, o que faria de diferente? </t>
+          <t>Mastro não levanta</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>httpsobservadorptinterativoojogodoorcamentosefosseprimeiroministrooquefariadediferentehttpsobservadorptinterativoojogodoorcamentosefosseprimeiroministrooquefariadediferente</t>
+          <t>boa caros aconteceu estarem hora h mastro ter dificuldade ficar pé ficar pé inicio acabar murchar resolveram ano aparentemente saudável deixarme bocado preocupado moça começar estranhar várias tentativas falhadas ansiedade nervosismo sozinho normalmente problemas agradeço qualquer ajuda obrigado</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>09-12-2024</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Putin diz que Brasil, China e Índia poderiam mediar negociações de paz</t>
+          <t>Senhorio recebeu ordem de penhora</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>httpsvejaabrilcombrmundoputindizquebrasilchinaeindiapoderiammediarnegociacoesdepazhttpsvejaabrilcombrmundoputindizquebrasilchinaeindiapoderiammediarnegociacoesdepaz</t>
+          <t>olá pessoas dilema recebi carta aviso recepção endereçada mim vivo rés chão ordem penhora valor bem avultado campo executado nome senhorio vive lógico falamos logo senhorio disse caso faturas passadas nome á ano absolvido pedir entrar portal finanças ir determinada página confirmar inclino colocar valor pago renda entender verdadeiro objetivo esposa medo passar dívida assim alguém sabe alguma informação possa útil obrigado</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>06-09-2024</t>
+          <t>21-11-2024</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>O valor do dinheiro</t>
+          <t xml:space="preserve">Acidente de Trânsito </t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>olá todos gostava perguntar sabem podemos ter ideia real sobre valor dinheiro altura ano conversores online quanto exemplo conto moeda atual contudo conto significava nessa altura corresponde valor euro significa hoje questão deriva conversa avó disse herança outro familiar nove conto permitiam comprar grande quinta considerado rico entanto conversões disponíveis consigo todo perceber quanto valor dia hoje obrigada todos lerem ajuda</t>
+          <t>acidente trânsito auto aparece descrito bati viatura aconteceu contrário altura nervoso escrevi gnr ditou achei depoimento dúbio receio questionálo poi parecia chateado ter ligado gnr ter resolvido mim ano carta sabia deveria resolver outro senhor cidadão alemão carro rent car fez rotunda toda reparei nisso saí via esquerda ainda conseguiu bater indo via versões complementamse auto aparece viatura embateu outro altura achei apelar certa neutralidade hipóteses reclamar junto gnr seguradora diz pode fazer nada</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>19-08-2024</t>
+          <t>20-11-2024</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Voo cancelado pela Tap</t>
+          <t xml:space="preserve">"o menino de sua mãe" </t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>alguém sabe onde posso solicitar reembolso tap terem cancelado voo duas horas ante partida havia cartaz qr code casos porta balcão empresa aeroporto correria acabei olhar posso fazer processo sozinha necessário procurar advogado agência especializada obrigada</t>
+          <t>joão villaret diz fernando pessoa menino mãe httpswwwyoutubecomwatchvgogtgfym</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>02-07-2024</t>
+          <t>16-11-2024</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Mais de 1300 portugueses estão presos no estrangeiro</t>
+          <t xml:space="preserve">O Jogo do Orçamento 2025. Se fosse primeiro-ministro, o que faria de diferente? </t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>jornal notícias maio httpspreviewredditilhtizonddjpgwidthformatpjpgautowebpsfeddeabddbdfaedbcb contam portuguese dupla nacionalidade</t>
+          <t>httpsobservadorptinterativoojogodoorcamentosefosseprimeiroministrooquefariadediferentehttpsobservadorptinterativoojogodoorcamentosefosseprimeiroministrooquefariadediferente</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>29-05-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Previsões demográficas para 2060 e 2100 em comparação com a situação atual.</t>
+          <t>Putin diz que Brasil, China e Índia poderiam mediar negociações de paz</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>atualmente população menos ano esperava mudança maior população ano atualmente população ano atualmente fonte httpswwwpopulationpyramidnetportugal httpswwwpopulationpyramidnetportugal httpswwwpopulationpyramidnetportugal</t>
+          <t>httpsvejaabrilcombrmundoputindizquebrasilchinaeindiapoderiammediarnegociacoesdepazhttpsvejaabrilcombrmundoputindizquebrasilchinaeindiapoderiammediarnegociacoesdepaz</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>12-05-2024</t>
+          <t>06-09-2024</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[Ajuda] Divulgação</t>
+          <t>O valor do dinheiro</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>forma resumida queria ajudar esposa projeto loja online divulgando trabalho qualquer forma quero desrespeitar regras comunidade long story short imigrantes durante pandemia esposa desenvolveu gosto costura trabalhos manuais nisto ganhou gosto paixão criação acessórios crianças relacionado acessórios meninas laços bonés arcos cabelo aí vai acontece apesar dedicar alma paixão ainda conseguiu ter tal projeção esperada noto dia dia apesar desistir convicções ficando desanimada ter vendas esperava ter quero fiquem ideia errada pessoa tou aqui pedir comprem trabalhos apenas queria voltar vêla novamente feliz senão pedir gostaria página ainda desenvolvimento vissem trabalhos lá encontram redes sociais onde coloca todos modelos feito hoje facebook tiktok instagram comprando nada deixarem comentário like página acredito voltaria trazer sorriso volta link página magia artehttpsdfcmyshopifycom tiktokhttpswwwtiktokcomamagiadaarte obrigado eusébio</t>
+          <t>olá todos gostava perguntar sabem podemos ter ideia real sobre valor dinheiro altura ano conversores online quanto exemplo conto moeda atual contudo conto significava nessa altura corresponde valor euro significa hoje questão deriva conversa avó disse herança outro familiar nove conto permitiam comprar grande quinta considerado rico entanto conversões disponíveis consigo todo perceber quanto valor dia hoje obrigada todos lerem ajuda</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>02-05-2024</t>
+          <t>19-08-2024</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Falhar não é o fim</t>
+          <t>Voo cancelado pela Tap</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>httpshsacaduracabralblogspotcomfalharnaoeofimhtmlhttpshsacaduracabralblogspotcomfalharnaoeofimhtml tecido vida fios sucesso entrelaçamse muitas vezes falha verdade inegável cuidado habilidades acumulemos vezes falhamos entanto essencial reconhecer falhar fim caminho capítulo livro experiência sociedade muitas vezes estigmatiza fracasso pintandoo marca incompetência inadequação entanto através fracassos construímos resiliência capacidade adaptação sabedoria cada tropeço cada obstáculo superado ensinanos lições valiosas poderíamos aprender outra forma grandes empreendedores artistas cientistas líderes mundo alcançaram sucesso enfrentar falhas longo caminho diferencia pessoas ausência falhas sim capacidade aprender crescer enquanto alguns deixam abater adversidade outros abraçamna oportunidade reinventar refinar estratégias continuar avançando direção objetivos falhar fim sim parte inevitável essencial caminho sucesso oportunidade reavaliar aprender fortalecer seguir frente ainda determinação então ventos vida soprarem contra ondas adversidade ameaçarem afundar barco lembremonos cada falha apenas página virada próximo capítulo pode começo grande vitória publicada helena sacadura cabral httpswwwbloggercomprofile xb</t>
+          <t>alguém sabe onde posso solicitar reembolso tap terem cancelado voo duas horas ante partida havia cartaz qr code casos porta balcão empresa aeroporto correria acabei olhar posso fazer processo sozinha necessário procurar advogado agência especializada obrigada</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>01-05-2024</t>
+          <t>02-07-2024</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Clínica de reabilitação/desintoxicação para meu Pai em Portugal</t>
+          <t>Mais de 1300 portugueses estão presos no estrangeiro</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>procurando clínica reabilitação internar pai sido dependente álcool muitos ano devido álcool perdeu emprego afetou família gostaria ajudálo alguém conhece clínica internamento portugal lisboa preferência poderia informar sobre preço tratamento</t>
+          <t>jornal notícias maio httpspreviewredditilhtizonddjpgwidthformatpjpgautowebpsfeddeabddbdfaedbcb contam portuguese dupla nacionalidade</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>21-04-2024</t>
+          <t>29-05-2024</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Medina financiou queda da dívida pública com dinheiro das pensões futuras</t>
+          <t>Previsões demográficas para 2060 e 2100 em comparação com a situação atual.</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>httpsecosapoptmedinafinanciouquedadadividapublicacomdinheirodaspensoesfuturashttpsecosapoptmedinafinanciouquedadadividapublicacomdinheirodaspensoesfuturas forte investimento obrigações tesouro cga fefss baixou dívida pública elevou rating portugal suscita dúvidas sobre impacto futuro pensionistas ás trunfo fernando medina baixar rácio dívida pública nível histórico pib dinheiro pensões futuras portuguese através fundo estabilização financeira segurança social fefss caixa geral aposentações cga investidos mil milhões euro aquisição títulos dívida república nomeadamente obrigações tesouro recordese segundo últimos dado banco portugal stock dívida pública registou quedahttpsbpstatbportugalptdadosseriesmodegraphicsvidseries mil milhões face valores atirandohttpsbpstatbportugalptdadosseriesmodegraphicsvidseries dívida cerca mil milhões euro dezembro ano passado valor baixo desde junho segundo contashttpsecosapoptespeciaisfundodasegurancasocialvalorizaemebateconcorrencia eco fefss fundo criado salvaguardar cumprimento responsabilidades sistema previdencial entrar modo deficitário detinha final ano passado mil milhões euro investidos obrigações tesouro face conta aquisição mil milhões euro obrigações tesouro correspondeu montante subscrições líquidas diferença compras somatório vendas amortizações mil milhões euro acordo informação tutela xb</t>
+          <t>atualmente população menos ano esperava mudança maior população ano atualmente população ano atualmente fonte httpswwwpopulationpyramidnetportugal httpswwwpopulationpyramidnetportugal httpswwwpopulationpyramidnetportugal</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>18-04-2024</t>
+          <t>12-05-2024</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Crescimento da população muçulmana em Portugal</t>
+          <t>[Ajuda] Divulgação</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>hoje continente am lisboa depareime casal muçulmano mulher completamente tapada cima baixo viam olhos mal homem típica barba islâmica comprida invés escura hábito maioria muçulmanos castanho claro tender ruivo lev crer poderão muçulmanos região cáucaso começo ficar pouco preocupado crescimento exponencial população muçulmana portugal aqui comunidade adaptada cultura portuguesa sobretudo descendente indianos muçulmanos estabelecido moçambique durante período colonial português agora próprio imã maior mesquita lisboa disse chegaram relatos radicalização temo passar portugal aconteceu espanha frança bélgica reino unido resultados trágicos conhecemos novo governo deixar cativo esquerdas unidas tão feministas certas situações silenciosas sobre tratamento mulheres islão contudo penso governo liderado maçon convicto amigo grupo bilderberg nada fará agravará situação vamos ver esperar pior aconteça</t>
+          <t>forma resumida queria ajudar esposa projeto loja online divulgando trabalho qualquer forma quero desrespeitar regras comunidade long story short imigrantes durante pandemia esposa desenvolveu gosto costura trabalhos manuais nisto ganhou gosto paixão criação acessórios crianças relacionado acessórios meninas laços bonés arcos cabelo aí vai acontece apesar dedicar alma paixão ainda conseguiu ter tal projeção esperada noto dia dia apesar desistir convicções ficando desanimada ter vendas esperava ter quero fiquem ideia errada pessoa tou aqui pedir comprem trabalhos apenas queria voltar vêla novamente feliz senão pedir gostaria página ainda desenvolvimento vissem trabalhos lá encontram redes sociais onde coloca todos modelos feito hoje facebook tiktok instagram comprando nada deixarem comentário like página acredito voltaria trazer sorriso volta link página magia artehttpsdfcmyshopifycom tiktokhttpswwwtiktokcomamagiadaarte obrigado eusébio</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>02-05-2024</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Supermercados - Trabalhadores pedem descanso aos domingos e feriados - sondagem - Concordam?</t>
+          <t>Falhar não é o fim</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewreddittpymuffrcjpgwidthformatpjpgautowebpsabbbbbafbbcbfeacfd view pollhttpswwwredditcompollbpydjp</t>
+          <t>httpshsacaduracabralblogspotcomfalharnaoeofimhtmlhttpshsacaduracabralblogspotcomfalharnaoeofimhtml tecido vida fios sucesso entrelaçamse muitas vezes falha verdade inegável cuidado habilidades acumulemos vezes falhamos entanto essencial reconhecer falhar fim caminho capítulo livro experiência sociedade muitas vezes estigmatiza fracasso pintandoo marca incompetência inadequação entanto através fracassos construímos resiliência capacidade adaptação sabedoria cada tropeço cada obstáculo superado ensinanos lições valiosas poderíamos aprender outra forma grandes empreendedores artistas cientistas líderes mundo alcançaram sucesso enfrentar falhas longo caminho diferencia pessoas ausência falhas sim capacidade aprender crescer enquanto alguns deixam abater adversidade outros abraçamna oportunidade reinventar refinar estratégias continuar avançando direção objetivos falhar fim sim parte inevitável essencial caminho sucesso oportunidade reavaliar aprender fortalecer seguir frente ainda determinação então ventos vida soprarem contra ondas adversidade ameaçarem afundar barco lembremonos cada falha apenas página virada próximo capítulo pode começo grande vitória publicada helena sacadura cabral httpswwwbloggercomprofile xb</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>01-05-2024</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Prisão para ex-dirigentes por maus-tratos a idosos no Lar do Comércio</t>
+          <t>Clínica de reabilitação/desintoxicação para meu Pai em Portugal</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditqgfwexhvpcjpgwidthformatpjpgautowebpsadccbffcfdcff</t>
+          <t>procurando clínica reabilitação internar pai sido dependente álcool muitos ano devido álcool perdeu emprego afetou família gostaria ajudálo alguém conhece clínica internamento portugal lisboa preferência poderia informar sobre preço tratamento</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>21-04-2024</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Oito denúncia de abusos sexuais no desporto chegam ao Ministério Público</t>
+          <t>Medina financiou queda da dívida pública com dinheiro das pensões futuras</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>xb jornal notícias março httpspreviewredditbprondfqqmcjpgwidthformatpjpgautowebpsaeacbcbbbccabece</t>
+          <t>httpsecosapoptmedinafinanciouquedadadividapublicacomdinheirodaspensoesfuturashttpsecosapoptmedinafinanciouquedadadividapublicacomdinheirodaspensoesfuturas forte investimento obrigações tesouro cga fefss baixou dívida pública elevou rating portugal suscita dúvidas sobre impacto futuro pensionistas ás trunfo fernando medina baixar rácio dívida pública nível histórico pib dinheiro pensões futuras portuguese através fundo estabilização financeira segurança social fefss caixa geral aposentações cga investidos mil milhões euro aquisição títulos dívida república nomeadamente obrigações tesouro recordese segundo últimos dado banco portugal stock dívida pública registou quedahttpsbpstatbportugalptdadosseriesmodegraphicsvidseries mil milhões face valores atirandohttpsbpstatbportugalptdadosseriesmodegraphicsvidseries dívida cerca mil milhões euro dezembro ano passado valor baixo desde junho segundo contashttpsecosapoptespeciaisfundodasegurancasocialvalorizaemebateconcorrencia eco fefss fundo criado salvaguardar cumprimento responsabilidades sistema previdencial entrar modo deficitário detinha final ano passado mil milhões euro investidos obrigações tesouro face conta aquisição mil milhões euro obrigações tesouro correspondeu montante subscrições líquidas diferença compras somatório vendas amortizações mil milhões euro acordo informação tutela xb</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>18-04-2024</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Tinder e outras aplicações de encontros acusadas de promover uso compulsivo</t>
+          <t>Crescimento da população muçulmana em Portugal</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>httpsexecutivedigestsapoptnoticiastindereoutrasaplicacoesdeencontrosacusadasdepromoverusocompulsivohttpsexecutivedigestsapoptnoticiastindereoutrasaplicacoesdeencontrosacusadasdepromoverusocompulsivo match group proprietária tinder hinge outras aplicações encontros alvo processo judicial acusa empresa incentivar uso compulsivo destas plataformas gerar lucros tinder hinge outras aplicações encontros repletos recursos viciantes incentivam uso compulsivo pode lerse ação judicial divulgada quartafeira associated press ap ação apresentada tribunal federal distrito norte califórnia dia namorados refere match apresenta intencionalmente plataformas namoro recursos semelhantes jogos prendem utilizadores ciclo perpétuo pagar jogar priorizando lucro vez promessas ajuda utilizadores encontrarem relacionamentos política acordo processo transforma utilizadores viciados compram assinaturas cada vez caras aceder recursos especiais prometem romance encontros modelo negócios match depende geração retornos meio monopolização atenção utilizadores match garantiu sucesso mercado fomentar vício aplicações encontros gera assinaturas caras uso perpétuo pode lerse processo ação movida seis utilizadores aplicações encontros procura estatuto ação coletiva representantes match sede dallas texas responderam imediatamente pedido comentário ap embora concentre adultos processo surge momento empresas tecnologia enfrentam escrutínio cada vez maior sobre características viciantes prejudicam saúde mental jovens meta empresamãe facebook instagram exemplo enfrenta ação judicial movida dezenas estados norteamericanos acusam contribuir crise saúde mental jovens desenvolver funcionalidades instagram facebook viciam crianças plataformas aplicações match acordo processo contra empresa aplicam recursos reconhecidos manipulação dopamina transformar utilizadores jogadores presos busca recompensas psicológicas match torna ilusória propósito xb</t>
+          <t>hoje continente am lisboa depareime casal muçulmano mulher completamente tapada cima baixo viam olhos mal homem típica barba islâmica comprida invés escura hábito maioria muçulmanos castanho claro tender ruivo lev crer poderão muçulmanos região cáucaso começo ficar pouco preocupado crescimento exponencial população muçulmana portugal aqui comunidade adaptada cultura portuguesa sobretudo descendente indianos muçulmanos estabelecido moçambique durante período colonial português agora próprio imã maior mesquita lisboa disse chegaram relatos radicalização temo passar portugal aconteceu espanha frança bélgica reino unido resultados trágicos conhecemos novo governo deixar cativo esquerdas unidas tão feministas certas situações silenciosas sobre tratamento mulheres islão contudo penso governo liderado maçon convicto amigo grupo bilderberg nada fará agravará situação vamos ver esperar pior aconteça</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>15-02-2024</t>
+          <t>30-03-2024</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Insultos, termos pejorativos, calúnias, difamações, spam</t>
+          <t>Supermercados - Trabalhadores pedem descanso aos domingos e feriados - sondagem - Concordam?</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>coisas liberdade opinião neste sub liberdade opinião educação respeito mútuo podem ter opiniões negativas sobre podem insultar usar termos pejorativos sobre partido fazer spam abordando repetidamente coisas verdade tema abordado recentemente sub estarmos internet lei deixa existir podem fazer incentivos violência prática outras ilegalidades sub aberto debate variados assuntos aceitando diferentes opiniões debate saudável educado</t>
+          <t>xb jornal notícias março httpspreviewreddittpymuffrcjpgwidthformatpjpgautowebpsabbbbbafbbcbfeacfd view pollhttpswwwredditcompollbpydjp</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>14-01-2024</t>
+          <t>28-03-2024</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Falta 30 respostas de pais - Precisa-se de Ajuda</t>
+          <t>Prisão para ex-dirigentes por maus-tratos a idosos no Lar do Comércio</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>fazer estudo demora cerca minutos respondido sobre benefícios psicossociais pais filhos praticarem desporto faltame respostas poder acabar tese ten filho pratica desporto favor responde link questionário httpsformsglecvhweugqjumztxihhttpsformsglecvhweugqjumztxihfbclidiwzxhbgnhzwcmtaaarhmnomogoviqmagwopxnbsmvoshrqfomyauujeutrqkhnfiaemnoyjurnytgvtkig puderes partilhar grupos pais tenhas ficava agradecida</t>
+          <t>xb jornal notícias março httpspreviewredditqgfwexhvpcjpgwidthformatpjpgautowebpsadccbffcfdcff</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>23-12-2024</t>
+          <t>22-03-2024</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[RANT] Estou indignado com aquela avaliação dos países mais bonitos</t>
+          <t>Oito denúncia de abusos sexuais no desporto chegam ao Ministério Público</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>anda circular aqui ranking sabe países bonito mundo link httpswwwredditcomrnordicyoushpomgeprc portugal posição tão elevada surge indignação poi noção mundo passa cabeça pesquisem exemplo imagens cazaquistão paisagem escolham outro país aleatoriamente preferirem pesquisem youtube russia nature scenic ponto encontrarão paisagens tirar fôlego nunca sequer mencionadas lindas dimensões variadas dia dia nunca expostos diversidade topográfica surgem vários problemas primeiro facto portugal ter pouca variedade ache portugal maioria bonito concordo muita diversidade visto área país relativamente pequena base nisto estados unidos américa ganham tudo têm oferecer visualmente algumas paisagens repetitivas parecidas têm quantidade opinião melhor qualidade quiserem ver vídeo minutos sobre paisagens eua httpsyoutubexaxfsoikxisismigpxpgwupr segundo problema subjetividade critérios usados avaliar beleza país arquitetura paisagens naturais dimensão paisagem claro site mencionam uso inquéritos globais excelente então basicamente ranking feito base conhecimento pessoas pessoas conhecerem certos lugares bonito podem mencionar devia chamarse países bonito pessoas conhecem terceiro problema ranking elaborado tendo conta ranking melhores países melhores países aventuras sei rant totalmente insignificante mim países mereciam nesta lista</t>
+          <t>xb jornal notícias março httpspreviewredditbprondfqqmcjpgwidthformatpjpgautowebpsaeacbcbbbccabece</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>19-12-2024</t>
+          <t>06-03-2024</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Deve o governo português tomar posição em relação aos confrontos em Moçambique derivados da manipulação dos resultados eleitorais? E os partidos políticos?</t>
+          <t>Tinder e outras aplicações de encontros acusadas de promover uso compulsivo</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>curioso partidos políticos tomam posição relação passa faixa gaza relação eleições venezuela relação fraude eleições moçambique relação mortes provocadas repressão manifestações contra fraude vê quase nenhuma reação mediática partidária pode imagens morte jornalista moçambicano mano shottashttpsdelitodeopiniaoblogssapoptamortedojornalistamocambicanomano mudem apatia portuguese relação passa moçambique</t>
+          <t>httpsexecutivedigestsapoptnoticiastindereoutrasaplicacoesdeencontrosacusadasdepromoverusocompulsivohttpsexecutivedigestsapoptnoticiastindereoutrasaplicacoesdeencontrosacusadasdepromoverusocompulsivo match group proprietária tinder hinge outras aplicações encontros alvo processo judicial acusa empresa incentivar uso compulsivo destas plataformas gerar lucros tinder hinge outras aplicações encontros repletos recursos viciantes incentivam uso compulsivo pode lerse ação judicial divulgada quartafeira associated press ap ação apresentada tribunal federal distrito norte califórnia dia namorados refere match apresenta intencionalmente plataformas namoro recursos semelhantes jogos prendem utilizadores ciclo perpétuo pagar jogar priorizando lucro vez promessas ajuda utilizadores encontrarem relacionamentos política acordo processo transforma utilizadores viciados compram assinaturas cada vez caras aceder recursos especiais prometem romance encontros modelo negócios match depende geração retornos meio monopolização atenção utilizadores match garantiu sucesso mercado fomentar vício aplicações encontros gera assinaturas caras uso perpétuo pode lerse processo ação movida seis utilizadores aplicações encontros procura estatuto ação coletiva representantes match sede dallas texas responderam imediatamente pedido comentário ap embora concentre adultos processo surge momento empresas tecnologia enfrentam escrutínio cada vez maior sobre características viciantes prejudicam saúde mental jovens meta empresamãe facebook instagram exemplo enfrenta ação judicial movida dezenas estados norteamericanos acusam contribuir crise saúde mental jovens desenvolver funcionalidades instagram facebook viciam crianças plataformas aplicações match acordo processo contra empresa aplicam recursos reconhecidos manipulação dopamina transformar utilizadores jogadores presos busca recompensas psicológicas match torna ilusória propósito xb</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>17-12-2024</t>
+          <t>15-02-2024</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Devemos contar tudo, mesmo tudo ao nosso marido ou mulher?</t>
+          <t>Insultos, termos pejorativos, calúnias, difamações, spam</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>coisas devem ficar acham</t>
+          <t>coisas liberdade opinião neste sub liberdade opinião educação respeito mútuo podem ter opiniões negativas sobre podem insultar usar termos pejorativos sobre partido fazer spam abordando repetidamente coisas verdade tema abordado recentemente sub estarmos internet lei deixa existir podem fazer incentivos violência prática outras ilegalidades sub aberto debate variados assuntos aceitando diferentes opiniões debate saudável educado</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>03-12-2024</t>
+          <t>14-01-2024</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Seixal: Pela Defesa da Biodiversidade no Pinhal das Freiras, Contra o Projeto em zona protegida rede natura 2000</t>
+          <t>Falta 30 respostas de pais - Precisa-se de Ajuda</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>httpspeticaopublicacompviewaspxpipthttpspeticaopublicacompviewaspxpipt</t>
+          <t>fazer estudo demora cerca minutos respondido sobre benefícios psicossociais pais filhos praticarem desporto faltame respostas poder acabar tese ten filho pratica desporto favor responde link questionário httpsformsglecvhweugqjumztxihhttpsformsglecvhweugqjumztxihfbclidiwzxhbgnhzwcmtaaarhmnomogoviqmagwopxnbsmvoshrqfomyauujeutrqkhnfiaemnoyjurnytgvtkig puderes partilhar grupos pais tenhas ficava agradecida</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -8767,459 +8767,459 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>02-12-2024</t>
+          <t>23-12-2024</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Quais as cidades e vilas portuguesas com iluminações de Natal mais bonitas?</t>
+          <t>[RANT] Estou indignado com aquela avaliação dos países mais bonitos</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>gosto ver gostaria visitar ano passado vigo recomendo vivamente</t>
+          <t>anda circular aqui ranking sabe países bonito mundo link httpswwwredditcomrnordicyoushpomgeprc portugal posição tão elevada surge indignação poi noção mundo passa cabeça pesquisem exemplo imagens cazaquistão paisagem escolham outro país aleatoriamente preferirem pesquisem youtube russia nature scenic ponto encontrarão paisagens tirar fôlego nunca sequer mencionadas lindas dimensões variadas dia dia nunca expostos diversidade topográfica surgem vários problemas primeiro facto portugal ter pouca variedade ache portugal maioria bonito concordo muita diversidade visto área país relativamente pequena base nisto estados unidos américa ganham tudo têm oferecer visualmente algumas paisagens repetitivas parecidas têm quantidade opinião melhor qualidade quiserem ver vídeo minutos sobre paisagens eua httpsyoutubexaxfsoikxisismigpxpgwupr segundo problema subjetividade critérios usados avaliar beleza país arquitetura paisagens naturais dimensão paisagem claro site mencionam uso inquéritos globais excelente então basicamente ranking feito base conhecimento pessoas pessoas conhecerem certos lugares bonito podem mencionar devia chamarse países bonito pessoas conhecem terceiro problema ranking elaborado tendo conta ranking melhores países melhores países aventuras sei rant totalmente insignificante mim países mereciam nesta lista</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>26-11-2024</t>
+          <t>19-12-2024</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Bruna &amp; Liliana</t>
+          <t>Deve o governo português tomar posição em relação aos confrontos em Moçambique derivados da manipulação dos resultados eleitorais? E os partidos políticos?</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>alguem lembra meninas</t>
+          <t>curioso partidos políticos tomam posição relação passa faixa gaza relação eleições venezuela relação fraude eleições moçambique relação mortes provocadas repressão manifestações contra fraude vê quase nenhuma reação mediática partidária pode imagens morte jornalista moçambicano mano shottashttpsdelitodeopiniaoblogssapoptamortedojornalistamocambicanomano mudem apatia portuguese relação passa moçambique</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>18-11-2024</t>
+          <t>17-12-2024</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urgente: Melhores Veterinários Oncologistas </t>
+          <t>Devemos contar tudo, mesmo tudo ao nosso marido ou mulher?</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>olá malta lágrimas escrevo favor alguém recomendações veterinários oncologistas preferência especializados gatos favor ajudemme desde obrigada agradeço dêem respostas negativistas zona lisboa vou qualquer zona país</t>
+          <t>coisas devem ficar acham</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>15-11-2024</t>
+          <t>03-12-2024</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Qual o melhor sítio para seguir os resultados das eleições americanas?</t>
+          <t>Seixal: Pela Defesa da Biodiversidade no Pinhal das Freiras, Contra o Projeto em zona protegida rede natura 2000</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>internet tv</t>
+          <t>httpspeticaopublicacompviewaspxpipthttpspeticaopublicacompviewaspxpipt</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>02-12-2024</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>As preocupações dos homens e as preocupações das mulheres</t>
+          <t>Quais as cidades e vilas portuguesas com iluminações de Natal mais bonitas?</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>correio manhã novembro httpspreviewredditldxjgvcwucydjpgwidthformatpjpgautowebpsbfafbbcfeeecabdcff edit data</t>
+          <t>gosto ver gostaria visitar ano passado vigo recomendo vivamente</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>01-11-2024</t>
+          <t>26-11-2024</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Sou um estudante universitário com grandes probabilidades de não conseguir acabar o curso e ter de desistir. O que fazer quando se desiste da universidade?</t>
+          <t>Bruna &amp; Liliana</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ante perguntem sim gosto estudo penso capaz trabalhar arduamente acordo exigências universidade estudar difícil mim pequena hipótese ter tdah acho provável apenas preguiçoso qualquer modo devo fazer desistir universidade posso encontrar oportunidades formas melhorar vida ter diploma universitário obrigado</t>
+          <t>alguem lembra meninas</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>15-10-2024</t>
+          <t>18-11-2024</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Primeiro ano de faculdade, com dificuldades, incapaz de desenvolver bons hábitos de estudo, disciplina e esforço e acreditando que vou chumbar e ter de desistir (e nem sequer estou numa universidade de topo).</t>
+          <t xml:space="preserve">Urgente: Melhores Veterinários Oncologistas </t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ontem engano pedi pessoas contassem histórias sucesso pessoas preguiçosas razão porque preguiçoso preguiçoso acredita pode mudar dificuldades ensino secundário estudar concentrado distracções impossível mim piores alunos turma agora entrei faculdade politécnico lisboa queria dizer faculdade demasiado arriscado curso agora médias baixas ter dificuldades imagina universidade topo preciso pensar estudar triplo costumávamos estudar escola algumas pessoas capazes fazer corretamente verdade pessoas chumbam primeiro ano fazemno novo chumbar aprendendo erros vejo fazer pior chumbar duas vezes máximo abandonar faculdade trabalhar pais avisaram dizendo acontecer duro passarás resto vida pensar fizeste quero miséria trabalhar emprego salário mínimo quero viver vida miserável maturidade disciplina mudar hábitos evitar mau final sei fazer gostava ter tido preparação fase vida</t>
+          <t>olá malta lágrimas escrevo favor alguém recomendações veterinários oncologistas preferência especializados gatos favor ajudemme desde obrigada agradeço dêem respostas negativistas zona lisboa vou qualquer zona país</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>14-10-2024</t>
+          <t>15-11-2024</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t xml:space="preserve">Segurança alimentar </t>
+          <t>Qual o melhor sítio para seguir os resultados das eleições americanas?</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>gostaria deixar aqui un link pessoas saberem sobre segurança alimentar assunto deveria levado forma ligeira poi surto pode causar mortes exemplo manter ph refrigeração adequados certos alimentos vegetais alho carnes peixes etc pode levar desenvolvimento vários microorganismos coli enterohemorrágica toxinas têm poder causar diarreia sanguinolenta botulismo consequências graf incluindo paralisia morte podem ler baixo httpswwwasaegovptsegurancaalimentarriscosbiologicosclostridiumbotuliniumaspxhttpswwwasaegovptsegurancaalimentarriscosbiologicosclostridiumbotuliniumaspx muitos surtos portugal ocorreram alimentos caseiros vendidos público chouriços mal preparados cuidado onde comem vossos alimentos pode ter acontecido nada vez nada feito prevenir contaminação pode acontecer cuidado casa cortam alho fazem azeites infusão alho azeite infusão pimenta phtemperatura adequado podem crescer microorganismos passar tempo ficarem número suficiente causar doença vem sequência uma discussões ontem várias pessoas diziam problema refrigerar manter certas condições alimentos preparados faz diferença sim r especialmente crianças idosos terem sistemas imunitários enfraquecidos podem desenvolver bactérias próprio intestino comer levar sintomas graf</t>
+          <t>internet tv</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>13-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conteúdo televisivo </t>
+          <t>As preocupações dos homens e as preocupações das mulheres</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>gostaria saber decide decide conteúdo vai ar degredo cada vez pior tv queria saber nome background dessas pessoas donde vem chegaram ocupar funções sincero imagino pessoas vivendo microcosmo hermético realidade</t>
+          <t>correio manhã novembro httpspreviewredditldxjgvcwucydjpgwidthformatpjpgautowebpsbfafbbcfeeecabdcff edit data</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>02-10-2024</t>
+          <t>01-11-2024</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Pessoal, não sou formado em medicina. Mais alguém tem problemas em comunicar com os médicos devido a isto?</t>
+          <t>Sou um estudante universitário com grandes probabilidades de não conseguir acabar o curso e ter de desistir. O que fazer quando se desiste da universidade?</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>peço desculpa médicos vezes sinto dificuldade comunicar médicos tirar dúvidas esclarecer coisas alguns pacientes sentem forma falar naturalmente atabalhoada ainda pior sinto alguns médicos gostam questionados mim então tornase difícil chegar relacionamento suficiente fácil razoável noto dificuldades público privado principalmente serviço privado saúde decidir maleita decidir especialidade escolher outras coisas semelhantes cargo etc privado coisas específicas público pode perder tempo pesquisar</t>
+          <t>ante perguntem sim gosto estudo penso capaz trabalhar arduamente acordo exigências universidade estudar difícil mim pequena hipótese ter tdah acho provável apenas preguiçoso qualquer modo devo fazer desistir universidade posso encontrar oportunidades formas melhorar vida ter diploma universitário obrigado</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>29-09-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Madeira ardida</t>
+          <t>Primeiro ano de faculdade, com dificuldades, incapaz de desenvolver bons hábitos de estudo, disciplina e esforço e acreditando que vou chumbar e ter de desistir (e nem sequer estou numa universidade de topo).</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>existe economia paralela venda madeira ardida haverá realmente interesse incêndios tento procurar resposta nunca encontro algo concreto encontrei notícia chega quereres acabar venda madeira ardida</t>
+          <t>ontem engano pedi pessoas contassem histórias sucesso pessoas preguiçosas razão porque preguiçoso preguiçoso acredita pode mudar dificuldades ensino secundário estudar concentrado distracções impossível mim piores alunos turma agora entrei faculdade politécnico lisboa queria dizer faculdade demasiado arriscado curso agora médias baixas ter dificuldades imagina universidade topo preciso pensar estudar triplo costumávamos estudar escola algumas pessoas capazes fazer corretamente verdade pessoas chumbam primeiro ano fazemno novo chumbar aprendendo erros vejo fazer pior chumbar duas vezes máximo abandonar faculdade trabalhar pais avisaram dizendo acontecer duro passarás resto vida pensar fizeste quero miséria trabalhar emprego salário mínimo quero viver vida miserável maturidade disciplina mudar hábitos evitar mau final sei fazer gostava ter tido preparação fase vida</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>16-09-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Mais alguns interessados em cinema?</t>
+          <t xml:space="preserve">Segurança alimentar </t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>começado processo cinefilia cerca ano infelizmente nunca encontrei grupo relativo filmes online presencial gostava evoluir cinéfilo conhecer pessoas interessantes partilhem gostos comum sei alguém interessado pensei bem nisto olha alguem ai informações sobre grupos secretos agradeço</t>
+          <t>gostaria deixar aqui un link pessoas saberem sobre segurança alimentar assunto deveria levado forma ligeira poi surto pode causar mortes exemplo manter ph refrigeração adequados certos alimentos vegetais alho carnes peixes etc pode levar desenvolvimento vários microorganismos coli enterohemorrágica toxinas têm poder causar diarreia sanguinolenta botulismo consequências graf incluindo paralisia morte podem ler baixo httpswwwasaegovptsegurancaalimentarriscosbiologicosclostridiumbotuliniumaspxhttpswwwasaegovptsegurancaalimentarriscosbiologicosclostridiumbotuliniumaspx muitos surtos portugal ocorreram alimentos caseiros vendidos público chouriços mal preparados cuidado onde comem vossos alimentos pode ter acontecido nada vez nada feito prevenir contaminação pode acontecer cuidado casa cortam alho fazem azeites infusão alho azeite infusão pimenta phtemperatura adequado podem crescer microorganismos passar tempo ficarem número suficiente causar doença vem sequência uma discussões ontem várias pessoas diziam problema refrigerar manter certas condições alimentos preparados faz diferença sim r especialmente crianças idosos terem sistemas imunitários enfraquecidos podem desenvolver bactérias próprio intestino comer levar sintomas graf</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>06-09-2024</t>
+          <t>13-10-2024</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Moda dos anos 60</t>
+          <t xml:space="preserve">Conteúdo televisivo </t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ver filme chamado harper paul newman lauren bacall reparei filme mulheres ano usavam sutiãs davam formato pontiagudo seios moda estranha</t>
+          <t>gostaria saber decide decide conteúdo vai ar degredo cada vez pior tv queria saber nome background dessas pessoas donde vem chegaram ocupar funções sincero imagino pessoas vivendo microcosmo hermético realidade</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>05-09-2024</t>
+          <t>02-10-2024</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Seguros de saúde que não excluem doenças pré-existentes</t>
+          <t>Pessoal, não sou formado em medicina. Mais alguém tem problemas em comunicar com os médicos devido a isto?</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>doença autoimune único seguro saúde conheço exclui doenças préexistentes mgen entanto aceitam famílias seguro barato aceitável ainda valor elevado mim vez vou ter pagar sozinho alguém conhece algum seguro exclua doenças portugal</t>
+          <t>peço desculpa médicos vezes sinto dificuldade comunicar médicos tirar dúvidas esclarecer coisas alguns pacientes sentem forma falar naturalmente atabalhoada ainda pior sinto alguns médicos gostam questionados mim então tornase difícil chegar relacionamento suficiente fácil razoável noto dificuldades público privado principalmente serviço privado saúde decidir maleita decidir especialidade escolher outras coisas semelhantes cargo etc privado coisas específicas público pode perder tempo pesquisar</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>16-08-2024</t>
+          <t>29-09-2024</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Japão sofre pior dia desde 1987, criptomoedas perdem €250 mil milhões e Europa 'no vermelho': a segunda-feira negra das bolsas mundiais</t>
+          <t>Madeira ardida</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>httpsexpressopteconomiaecomercadosjapaosofrepiordiadesdecriptomoedasperdemmilmilhoeseeuropanovermelhoasegundafeiranegradasbolsasmundiaisdaf</t>
+          <t>existe economia paralela venda madeira ardida haverá realmente interesse incêndios tento procurar resposta nunca encontro algo concreto encontrei notícia chega quereres acabar venda madeira ardida</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>06-08-2024</t>
+          <t>16-09-2024</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Que desportos acompanham regularmente (além do futebol)?</t>
+          <t>Mais alguns interessados em cinema?</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>acompanho ciclismo ténis menor grau fórmula</t>
+          <t>começado processo cinefilia cerca ano infelizmente nunca encontrei grupo relativo filmes online presencial gostava evoluir cinéfilo conhecer pessoas interessantes partilhem gostos comum sei alguém interessado pensei bem nisto olha alguem ai informações sobre grupos secretos agradeço</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>08-07-2024</t>
+          <t>06-09-2024</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eleições francesas, Frente Nacional perto da maioria absoluta </t>
+          <t>Moda dos anos 60</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>revoltas rua provavelmente ajudarão fn conseguir maioria absoluta poi coisas lev franceses votar fn agitação reinante sociedade francesa implicações vitória fn europa incluindo portugal mundo trump poder usa fn frança consequências</t>
+          <t>ver filme chamado harper paul newman lauren bacall reparei filme mulheres ano usavam sutiãs davam formato pontiagudo seios moda estranha</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>30-06-2024</t>
+          <t>05-09-2024</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Canção infantil antiga (passagem do século)... "Dom Afonso Henriques matou sua mulher"</t>
+          <t>Seguros de saúde que não excluem doenças pré-existentes</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>então lembro música dom afonso henriques matou mulher cortou bocadinhos mexeu colher lá cima cheirava gás dona chica dançava chiktachiktass penso continuum recordo procurei net encontro nada pergunto vários amigo ninguém lembra música destas perguntei cantava porque contato música daquelas faziamos roda estavamos lá bater palmas un outros alguém lembra disto continuava música penso fim havia princesa desmaiava cantava aí escola primária</t>
+          <t>doença autoimune único seguro saúde conheço exclui doenças préexistentes mgen entanto aceitam famílias seguro barato aceitável ainda valor elevado mim vez vou ter pagar sozinho alguém conhece algum seguro exclua doenças portugal</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>16-06-2024</t>
+          <t>16-08-2024</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>A minha alimentação durante o dia de anteontem - Kcal e macronutrientes</t>
+          <t>Japão sofre pior dia desde 1987, criptomoedas perdem €250 mil milhões e Europa 'no vermelho': a segunda-feira negra das bolsas mundiais</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ter feito umpost mostrava tabela alimentação anteontemhttpswwwredditcomrportugalcommentscofcaminhaalimentacacaoduranteodiadeontemkcale seguindo sugestão feita pondipathttpswwwredditcomuserpondipatsubmitted fiz nova tabela onde incluí macronutrientes revi todos dado inserido tabela anterior encontrei alguns pequenos erros corrigi httpspreviewredditdaaqtvcpngwidthformatpngautowebpsdabdedbbbfa usei site indicado fundo ver macronutrientes alimentos caso segundo calculadora proteínas httpsptcalcuworldcomnutricaoproteinashttpsptcalcuworldcomnutricaoproteinas devia consumir grama proteínas dia naquele dia consumi apenas ideal sendo destas proteínas origem animal segundo qumhttpswwwredditcomuserqum nutricionista amabilidade comentar post anterior devia ter pouco proteína origem animal menos entendi dieta muita gordura sei muita gordura originária azeite virgem extra frutos secos sardinha tudo gorduras saudáveis sintome bem homem estatura média vou ginásio vezes semana consumo calórico cada sessão ginásio média kcal considerei atividade física moderada calculadora proteínas</t>
+          <t>httpsexpressopteconomiaecomercadosjapaosofrepiordiadesdecriptomoedasperdemmilmilhoeseeuropanovermelhoasegundafeiranegradasbolsasmundiaisdaf</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>17-04-2024</t>
+          <t>06-08-2024</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Boa Páscoa!</t>
+          <t>Que desportos acompanham regularmente (além do futebol)?</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>hoje dia onde voltamos juntar família pais avós preparam quase tudo primo vemos duas vezes ano namorado tia sofia ano novo projeto sobrinho vai dar nada irmã cala caça ovos recentes membros família belo chibo espero todos desfrutem boa páscoa junto família</t>
+          <t>acompanho ciclismo ténis menor grau fórmula</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>31-03-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Livros para um adolescente que não sabe ler.</t>
+          <t xml:space="preserve">Eleições francesas, Frente Nacional perto da maioria absoluta </t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>sei ler porque muita dificuldade ler textos difícil explicar sei ler porque percebo palavras quero saber existe algum livro pessoas semialfabetizadas gosto coisas interessantes preferência livros cujas histórias passem dia hoje</t>
+          <t>revoltas rua provavelmente ajudarão fn conseguir maioria absoluta poi coisas lev franceses votar fn agitação reinante sociedade francesa implicações vitória fn europa incluindo portugal mundo trump poder usa fn frança consequências</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>30-03-2024</t>
+          <t>30-06-2024</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Um Santa de Feliz Páscoa para todos</t>
+          <t>Canção infantil antiga (passagem do século)... "Dom Afonso Henriques matou sua mulher"</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>cristãos toda pessoas boa vontade fé deve motivo união alegria felicidade ajudarmos un outros xb</t>
+          <t>então lembro música dom afonso henriques matou mulher cortou bocadinhos mexeu colher lá cima cheirava gás dona chica dançava chiktachiktass penso continuum recordo procurei net encontro nada pergunto vários amigo ninguém lembra música destas perguntei cantava porque contato música daquelas faziamos roda estavamos lá bater palmas un outros alguém lembra disto continuava música penso fim havia princesa desmaiava cantava aí escola primária</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>29-03-2024</t>
+          <t>16-06-2024</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Política Jogo Sujo</t>
+          <t>A minha alimentação durante o dia de anteontem - Kcal e macronutrientes</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>boa redditors política jogo sujo apreciem aqui declarações paula httpscnnportugaliolptvideospanadmiteacordoscomadepsmastemexigenciasfbecfeebdahttpscnnportugaliolptvideospanadmiteacordoscomadepsmastemexigenciasfbecfeebda ver minuto seguir httpswwwyoutubecomwatchvqmkexoowhttpswwwyoutubecomwatchvqmkexoow ver minuto fim xb poi vai polígrafo creio</t>
+          <t>ter feito umpost mostrava tabela alimentação anteontemhttpswwwredditcomrportugalcommentscofcaminhaalimentacacaoduranteodiadeontemkcale seguindo sugestão feita pondipathttpswwwredditcomuserpondipatsubmitted fiz nova tabela onde incluí macronutrientes revi todos dado inserido tabela anterior encontrei alguns pequenos erros corrigi httpspreviewredditdaaqtvcpngwidthformatpngautowebpsdabdedbbbfa usei site indicado fundo ver macronutrientes alimentos caso segundo calculadora proteínas httpsptcalcuworldcomnutricaoproteinashttpsptcalcuworldcomnutricaoproteinas devia consumir grama proteínas dia naquele dia consumi apenas ideal sendo destas proteínas origem animal segundo qumhttpswwwredditcomuserqum nutricionista amabilidade comentar post anterior devia ter pouco proteína origem animal menos entendi dieta muita gordura sei muita gordura originária azeite virgem extra frutos secos sardinha tudo gorduras saudáveis sintome bem homem estatura média vou ginásio vezes semana consumo calórico cada sessão ginásio média kcal considerei atividade física moderada calculadora proteínas</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -9227,239 +9227,239 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>20-03-2024</t>
+          <t>17-04-2024</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Vais votar?</t>
+          <t>Boa Páscoa!</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>outros analisaram abstenção inflacionada porque muitos emigraram ainda inscritos lista recenseamento eleitoral imigrantes maioria inscritos votam pouco porque conhecem mal sistema eleitoral partidário português portuguese vivem portugal têm participação eleitoral maior parece números abstenção daqui vai votar vai abster view pollhttpswwwredditcompollbit</t>
+          <t>hoje dia onde voltamos juntar família pais avós preparam quase tudo primo vemos duas vezes ano namorado tia sofia ano novo projeto sobrinho vai dar nada irmã cala caça ovos recentes membros família belo chibo espero todos desfrutem boa páscoa junto família</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>31-03-2024</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SOZINHOS E POR CONTA PRÓPRIA</t>
+          <t>Livros para um adolescente que não sabe ler.</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>posto médicos sn conta risco esperem apoio direita centro esquerda reivindicações pressionem sindicatos muitas vezes mergulhados inúteis dissídios menos pensem toda classe rema sentido menos nunca entrou abandonou sn possivelmente toda razão digase faz apenas complemento afinado diapasão passará olimpicamente dessa dita luta un quantos desmoronamento sistema motivo regozijo claro estáse defender primeiro lugar licitamente direitos condições dignas trabalho profissão selectiva morosa altamente especializada maior missão responsabilidade social plenum sacrifícios constante actualização nesse aspecto dispendiosa desta forma permanecendo actividade pública melhorando desempenho diaadia pugnase sn sempre sistema socialmente justo entrar elitismos facto médicos classe qualquer poi medicina sempre primeira ciência enquanto vida primeiro ben pm pouco importa assim proxenetismo político passará comprar dignidade médica haverá venda barata fito ofuscar rotundo falhanço governação previsível privados conseguem agora resolver manter su abertos garantir médicos família todo português comum resto folclore alimentará próspero negócio saúde tal verdadeiro bluff ameaça peregrina importar médicos alguns quais língua falam entenda assim governo almejada paz social pode descomplicar restante legislatura doi calcanhares aquiles deve foco classe médica representantes sindicais questão su assenta fundamentalmente sobre horas extra médicos família aumento listas utentes pode cedências negociatas temas comuns toda classe solucionar podem procrastinadas questões específicas diversas carreiras medicina hospitalar mgf saúde pública tal acordo prévio nova grelha salarial sistema progressão pode qualquer outro tipo diálogo classe deve firme horas extraordinárias lista utentes toda formas legais luta devem ponderadas mantidas poi pm arrisca vitória cansaço reivindica tempo forma mendaciosa tentará intoxicar opinião pública derrotado desiste lutar deveria ponderarse ainda demissão solidária toda direcções equipas serviços departamentos escalada desta guerra agudizar pedido exoneração todos médicos sn bomba atómica afundaria vez gentuça termo porque dá respeito pode respeitado declaração final interesses fique claro seguramente muitos quase final ciclo poderíamos un meros outsider tudo realidade bastantes deram conta havia vida além medicina alguns ano fazíamos parte profissão respeitada carreira progredimos eventualmente muitos auferem hoje salário anterior tabela maioria actuais médicos manterse triste cenário nunca alcançarão sequer topo carreira movenos certo ver lenta agonia sistema trabalhámos dedicámos vida dignidade profissão posta causa facto próprios familiares podermos futuros utentes sn ruínas onde impere mediocridade escumalha incompetentes vendidos conseguiu transformar deixem embalar conto vigário mentiras ofendem inteligentes dão esperança ignorantes vimos pm diz escreve escreve pode ter finalidade papel áspero dixit</t>
+          <t>sei ler porque muita dificuldade ler textos difícil explicar sei ler porque percebo palavras quero saber existe algum livro pessoas semialfabetizadas gosto coisas interessantes preferência livros cujas histórias passem dia hoje</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>01-03-2024</t>
+          <t>30-03-2024</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>"A deficiência não é uma doença, é uma condição"</t>
+          <t>Um Santa de Feliz Páscoa para todos</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>httpswwwjnptadeficiencianaoeumadoencaeumacondicaohttpswwwjnptadeficiencianaoeumadoencaeumacondicao instituição porto assinalar ano marcando percursos vida josé rui ana catarina desde tempo criança associação porto paralisia cerebral appc surgiu esforço preocupações grupo pais apoio alguns técnicos procuravam responder crescente número casos crianças paralisia cerebral zona norte país caminho feito custo medos passam ano desde fundação instituição conhecer vida josé rui ano ana catarina entraram ainda crianças appc paralisia cerebral doença cura regride condição vida xb</t>
+          <t>cristãos toda pessoas boa vontade fé deve motivo união alegria felicidade ajudarmos un outros xb</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>29-02-2024</t>
+          <t>29-03-2024</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Noticiarios 1 - Continua a vergonha das tvs a usar abusos de miudos para ganhar audiências</t>
+          <t>Política Jogo Sujo</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>respeitam nada menos respeitem protejam crianças</t>
+          <t>boa redditors política jogo sujo apreciem aqui declarações paula httpscnnportugaliolptvideospanadmiteacordoscomadepsmastemexigenciasfbecfeebdahttpscnnportugaliolptvideospanadmiteacordoscomadepsmastemexigenciasfbecfeebda ver minuto seguir httpswwwyoutubecomwatchvqmkexoowhttpswwwyoutubecomwatchvqmkexoow ver minuto fim xb poi vai polígrafo creio</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>26-01-2024</t>
+          <t>20-03-2024</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>É ou não é - Os jovens e a politica</t>
+          <t>Vais votar?</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>programa começou bem representar jovens buscar jotinhas repetir cartilhas definiram usaram colagem partidos disse divisão publico privado importante foco cidadão sondagem grande margem erro viuse jovens votam direita chega il aqui começou fixação partidos durante boa parte programa falouse partidos política participação sociedade jovens reduzir puxar partido outro corrida tal apoia clube ganhar campeonato partidos buraco negro participação cívica nenhuma partícula luz consegue escapar</t>
+          <t>outros analisaram abstenção inflacionada porque muitos emigraram ainda inscritos lista recenseamento eleitoral imigrantes maioria inscritos votam pouco porque conhecem mal sistema eleitoral partidário português portuguese vivem portugal têm participação eleitoral maior parece números abstenção daqui vai votar vai abster view pollhttpswwwredditcompollbit</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>23-01-2024</t>
+          <t>07-03-2024</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Carros da Tesla sem bateria amontoam-se junto aos Superchargers no frio extremo de Chicago</t>
+          <t>SOZINHOS E POR CONTA PRÓPRIA</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>httpspplwaresapoptmotorescarrosdateslasembateriaamontoamsejuntoaossuperchargersnofrioextremodechicagohttpspplwaresapoptmotorescarrosdateslasembateriaamontoamsejuntoaossuperchargersnofrioextremodechicago segredo frio efeito negativo carros elétricos especial preparados cenário apesar modelos tesla estarem supostamente salvaguardados parece carros bateria amontoamse junto supercharger frio extremo chicago todo situação normal relatos problemas carros tesla acumulamse zona chicago eua conseguem carregar estações supercharger cidade afetada onda frio extremo sabese carros têm problemas situações destas independentemente serem elétricos movidos motores combustão interna últimos comum falharem arranque motor elétricos veem autonomia velocidade carregamento afetados negativamente chicago enfrenta onda frio atualmente situação tal forma extremum temperatura c parecia c devido vento temperaturas limite responsabilizadas problemas estações tesla supercharger toda cidade lev vários carros tesla ficado presos bateria incapazes tempo carregar supercharger proprietários relatam conseguem começar carregar veículos após serem ligados carregadores vários recorreram reboque veículos levados centro serviço local tesla alguns especialistas sugerem problema causado proprietários tesla précondicionam baterias ante colocarem carga tesla recomenda passo dado especialmente condições frias afetam chicago ainda assim précondicionamento bateria feito automaticamente escolher estação supercharger sistema navegação carro dado lógico todos carros marca falhar todos condutores esquecer preparar baterias problema parece outro assim parece possível próprios supercharger falhar devido frio extremo região tesla agora ainda comentou situação xb</t>
+          <t>posto médicos sn conta risco esperem apoio direita centro esquerda reivindicações pressionem sindicatos muitas vezes mergulhados inúteis dissídios menos pensem toda classe rema sentido menos nunca entrou abandonou sn possivelmente toda razão digase faz apenas complemento afinado diapasão passará olimpicamente dessa dita luta un quantos desmoronamento sistema motivo regozijo claro estáse defender primeiro lugar licitamente direitos condições dignas trabalho profissão selectiva morosa altamente especializada maior missão responsabilidade social plenum sacrifícios constante actualização nesse aspecto dispendiosa desta forma permanecendo actividade pública melhorando desempenho diaadia pugnase sn sempre sistema socialmente justo entrar elitismos facto médicos classe qualquer poi medicina sempre primeira ciência enquanto vida primeiro ben pm pouco importa assim proxenetismo político passará comprar dignidade médica haverá venda barata fito ofuscar rotundo falhanço governação previsível privados conseguem agora resolver manter su abertos garantir médicos família todo português comum resto folclore alimentará próspero negócio saúde tal verdadeiro bluff ameaça peregrina importar médicos alguns quais língua falam entenda assim governo almejada paz social pode descomplicar restante legislatura doi calcanhares aquiles deve foco classe médica representantes sindicais questão su assenta fundamentalmente sobre horas extra médicos família aumento listas utentes pode cedências negociatas temas comuns toda classe solucionar podem procrastinadas questões específicas diversas carreiras medicina hospitalar mgf saúde pública tal acordo prévio nova grelha salarial sistema progressão pode qualquer outro tipo diálogo classe deve firme horas extraordinárias lista utentes toda formas legais luta devem ponderadas mantidas poi pm arrisca vitória cansaço reivindica tempo forma mendaciosa tentará intoxicar opinião pública derrotado desiste lutar deveria ponderarse ainda demissão solidária toda direcções equipas serviços departamentos escalada desta guerra agudizar pedido exoneração todos médicos sn bomba atómica afundaria vez gentuça termo porque dá respeito pode respeitado declaração final interesses fique claro seguramente muitos quase final ciclo poderíamos un meros outsider tudo realidade bastantes deram conta havia vida além medicina alguns ano fazíamos parte profissão respeitada carreira progredimos eventualmente muitos auferem hoje salário anterior tabela maioria actuais médicos manterse triste cenário nunca alcançarão sequer topo carreira movenos certo ver lenta agonia sistema trabalhámos dedicámos vida dignidade profissão posta causa facto próprios familiares podermos futuros utentes sn ruínas onde impere mediocridade escumalha incompetentes vendidos conseguiu transformar deixem embalar conto vigário mentiras ofendem inteligentes dão esperança ignorantes vimos pm diz escreve escreve pode ter finalidade papel áspero dixit</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>18-01-2024</t>
+          <t>01-03-2024</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Nomes neutros - para quê?</t>
+          <t>"A deficiência não é uma doença, é uma condição"</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>acompanhado pouco noticias bocado apanhado surpresa soube aprovação obrigatoriedade género cartão cidadão sendo ainda falado pronomes diferentes outras medidas aqui httpssicnoticiasptpaisnomesneutrosenaobinariedadenaoeumamodanaoeumacoisadeagorafeaehttpssicnoticiasptpaisnomesneutrosenaobinariedadenaoeumamodanaoeumacoisadeagorafeae conhecimento assunto contexto americano sabia aqui algo equivalente questão objetivo muda exatamente vida destas pessoas ter género especificado cc segundo pessoa noticia link acima capricho honesto exatamente parece poi vejo beneficio nenhum alem satisfação pessoal digo utilização referidos pronomes pareceme algo desnecessário desperdício tempo parlamento discutir assunto concordando gostava menos saber quais motivações edição infelizmente sempre leve extremos nada espera meia dúzia comentários melhor construídos deu pensar alguma coisa fico contente ver upvotes considero sinal posição moderada d apesar algumas pessoas acharem doi lados questão</t>
+          <t>httpswwwjnptadeficiencianaoeumadoencaeumacondicaohttpswwwjnptadeficiencianaoeumadoencaeumacondicao instituição porto assinalar ano marcando percursos vida josé rui ana catarina desde tempo criança associação porto paralisia cerebral appc surgiu esforço preocupações grupo pais apoio alguns técnicos procuravam responder crescente número casos crianças paralisia cerebral zona norte país caminho feito custo medos passam ano desde fundação instituição conhecer vida josé rui ano ana catarina entraram ainda crianças appc paralisia cerebral doença cura regride condição vida xb</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>29-02-2024</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>“Epidemia de saúde pública”: Espanha propõe etiquetas de saúde nos smartphones</t>
+          <t>Noticiarios 1 - Continua a vergonha das tvs a usar abusos de miudos para ganhar audiências</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>httpspplwaresapoptsmartphonestabletsepidemiadesaudepublicaespanhapropoeetiquetasdesaudenossmartphones vizinhos lado deve demorar algum partido propor nesmo cá</t>
+          <t>respeitam nada menos respeitem protejam crianças</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>10-12-2024</t>
+          <t>26-01-2024</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esses desumidificadores baratos funcionam mesmo? </t>
+          <t>É ou não é - Os jovens e a politica</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>renovam situação x ano menos</t>
+          <t>programa começou bem representar jovens buscar jotinhas repetir cartilhas definiram usaram colagem partidos disse divisão publico privado importante foco cidadão sondagem grande margem erro viuse jovens votam direita chega il aqui começou fixação partidos durante boa parte programa falouse partidos política participação sociedade jovens reduzir puxar partido outro corrida tal apoia clube ganhar campeonato partidos buraco negro participação cívica nenhuma partícula luz consegue escapar</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>04-12-2024</t>
+          <t>23-01-2024</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Há pessoas que me conhcem do Reddit e ás vezes pôem esta música a noite inteira em frente á janela do meu quarto</t>
+          <t>Carros da Tesla sem bateria amontoam-se junto aos Superchargers no frio extremo de Chicago</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>curto som noite inteira loop bué irritante vou testar un tampões ouvidos novos hoje</t>
+          <t>httpspplwaresapoptmotorescarrosdateslasembateriaamontoamsejuntoaossuperchargersnofrioextremodechicagohttpspplwaresapoptmotorescarrosdateslasembateriaamontoamsejuntoaossuperchargersnofrioextremodechicago segredo frio efeito negativo carros elétricos especial preparados cenário apesar modelos tesla estarem supostamente salvaguardados parece carros bateria amontoamse junto supercharger frio extremo chicago todo situação normal relatos problemas carros tesla acumulamse zona chicago eua conseguem carregar estações supercharger cidade afetada onda frio extremo sabese carros têm problemas situações destas independentemente serem elétricos movidos motores combustão interna últimos comum falharem arranque motor elétricos veem autonomia velocidade carregamento afetados negativamente chicago enfrenta onda frio atualmente situação tal forma extremum temperatura c parecia c devido vento temperaturas limite responsabilizadas problemas estações tesla supercharger toda cidade lev vários carros tesla ficado presos bateria incapazes tempo carregar supercharger proprietários relatam conseguem começar carregar veículos após serem ligados carregadores vários recorreram reboque veículos levados centro serviço local tesla alguns especialistas sugerem problema causado proprietários tesla précondicionam baterias ante colocarem carga tesla recomenda passo dado especialmente condições frias afetam chicago ainda assim précondicionamento bateria feito automaticamente escolher estação supercharger sistema navegação carro dado lógico todos carros marca falhar todos condutores esquecer preparar baterias problema parece outro assim parece possível próprios supercharger falhar devido frio extremo região tesla agora ainda comentou situação xb</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>29-11-2024</t>
+          <t>18-01-2024</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Procuro: Música Bicicleta Vermelha </t>
+          <t>Nomes neutros - para quê?</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>olá gostava saber onde posso encontrar comprar cd bandas garagem tavira various lá música nunca esqueço chamase bicicleta vermelha pó cabeça encontro lugar nenhum link disco stock httpswwwdiscogscomreleasevariousbandasdegaragemtavira</t>
+          <t>acompanhado pouco noticias bocado apanhado surpresa soube aprovação obrigatoriedade género cartão cidadão sendo ainda falado pronomes diferentes outras medidas aqui httpssicnoticiasptpaisnomesneutrosenaobinariedadenaoeumamodanaoeumacoisadeagorafeaehttpssicnoticiasptpaisnomesneutrosenaobinariedadenaoeumamodanaoeumacoisadeagorafeae conhecimento assunto contexto americano sabia aqui algo equivalente questão objetivo muda exatamente vida destas pessoas ter género especificado cc segundo pessoa noticia link acima capricho honesto exatamente parece poi vejo beneficio nenhum alem satisfação pessoal digo utilização referidos pronomes pareceme algo desnecessário desperdício tempo parlamento discutir assunto concordando gostava menos saber quais motivações edição infelizmente sempre leve extremos nada espera meia dúzia comentários melhor construídos deu pensar alguma coisa fico contente ver upvotes considero sinal posição moderada d apesar algumas pessoas acharem doi lados questão</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>23-11-2024</t>
+          <t>08-01-2024</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Qual é para ti o melhor jornal diário de Portugal?</t>
+          <t>“Epidemia de saúde pública”: Espanha propõe etiquetas de saúde nos smartphones</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>sobram poucos poucos xb view pollhttpswwwredditcompollguhys</t>
+          <t>httpspplwaresapoptsmartphonestabletsepidemiadesaudepublicaespanhapropoeetiquetasdesaudenossmartphones vizinhos lado deve demorar algum partido propor nesmo cá</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -9467,379 +9467,379 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>18-11-2024</t>
+          <t>10-12-2024</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Presidente da Câmara de Loures defende despejo "sem dó nem piedade" de participantes em distúrbios - concordam ou não?</t>
+          <t xml:space="preserve">Esses desumidificadores baratos funcionam mesmo? </t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>httpswwwdnptpresidentedacamaradelouresdefendedespejosemdonempiedadedeparticipantesemdisturbioshttpswwwdnptpresidentedacamaradelouresdefendedespejosemdonempiedadedeparticipantesemdisturbios reunião pública câmara municipal loures aprovada recomendação chega faz menção morte odair moniz atos vandalismo desacatos vários bairros área metropolitana lisboa propõe ordem despejo imediato provada participação incidentes concordam proposta view pollhttpswwwredditcompollgfzwd</t>
+          <t>renovam situação x ano menos</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>30-10-2024</t>
+          <t>04-12-2024</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Ainda leem blogs ?</t>
+          <t>Há pessoas que me conhcem do Reddit e ás vezes pôem esta música a noite inteira em frente á janela do meu quarto</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>tempo blog populares seguidos comunidade internet gostaria saber ainda leem continuam escrever neles sim agradeço falem pouco sobre deixem vossas recomendações obrigado</t>
+          <t>curto som noite inteira loop bué irritante vou testar un tampões ouvidos novos hoje</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>29-11-2024</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Quando podem os polícias usar armas de fogo?</t>
+          <t xml:space="preserve">Procuro: Música Bicicleta Vermelha </t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>httpswwwjnptquandopodemospoliciasusararmasdefogo</t>
+          <t>olá gostava saber onde posso encontrar comprar cd bandas garagem tavira various lá música nunca esqueço chamase bicicleta vermelha pó cabeça encontro lugar nenhum link disco stock httpswwwdiscogscomreleasevariousbandasdegaragemtavira</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>23-11-2024</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>CasualPT</t>
+          <t>Qual é para ti o melhor jornal diário de Portugal?</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>consigo fazer post nessa comunidade tente envie mensagens moderadores porque acontece alguém queria fazer série post têm ver comunidade assim consigo post sempre removidos ficam espera aprovação parte moderadores nada</t>
+          <t>sobram poucos poucos xb view pollhttpswwwredditcompollguhys</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>18-11-2024</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Talibãs limitam cada vez mais a liberdade das mulheres </t>
+          <t>Presidente da Câmara de Loures defende despejo "sem dó nem piedade" de participantes em distúrbios - concordam ou não?</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>httpswwwdnptmerylstreepdizqueumesquilotemmaisdireitosdoqueumaraparigaafegahttpswwwdnptmerylstreepdizqueumesquilotemmaisdireitosdoqueumaraparigaafega cá portugal onde toda gente liberdade tudo alguma coisa ainda continuum chamar extremum partidos nada têm extremum perigo confundir mera esquerda mera direita real extremum radical</t>
+          <t>httpswwwdnptpresidentedacamaradelouresdefendedespejosemdonempiedadedeparticipantesemdisturbioshttpswwwdnptpresidentedacamaradelouresdefendedespejosemdonempiedadedeparticipantesemdisturbios reunião pública câmara municipal loures aprovada recomendação chega faz menção morte odair moniz atos vandalismo desacatos vários bairros área metropolitana lisboa propõe ordem despejo imediato provada participação incidentes concordam proposta view pollhttpswwwredditcompollgfzwd</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>24-09-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Portugal está menos atrativo para profissionais qualificados</t>
+          <t>Ainda leem blogs ?</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>httpsecosapoptportugalestamenosatrativoparaprofissionaisqualificadoshttpsecosapoptportugalestamenosatrativoparaprofissionaisqualificados conhecida edição deste ano ranking mundial talento portugal desce oito posições atratividade duas investimento desenvolvimento consegue subir seis lugares competênciasjá conhecida edição deste ano ranking mundial talento portugal desce oito posições atratividade duas investimento desenvolvimento consegue subir seis lugares competências portugal perdeu atratividade diz respeitos trabalhadores qualificados edição deste ano ranking talento mundial escola negócios suíça imd ocupa posição países neste indicador correspondente deslize oito lugares atratividade vindo registar maior queda portugal ocupar posição ter estado lugar explica escola nota enviada redações fuga talentos país assistido milhares jovens qualificados emigrarem motivos explica quebra aponta imd países analisados suíça consegue medalha ouro atratividade talento consolidando liderança completar pódio doi repetentes irlanda segundo lugar semelhança última edição país baixos mantendose terceiro lugar</t>
+          <t>tempo blog populares seguidos comunidade internet gostaria saber ainda leem continuam escrever neles sim agradeço falem pouco sobre deixem vossas recomendações obrigado</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>20-09-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Como é que o Primeiro Ministro vai perseguir firmemente os incendiários e puni-los severamente se somos um estado de direito?</t>
+          <t>Quando podem os polícias usar armas de fogo?</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>estado direito poder executivo legislativo separados poder judicial ministério público tribunais supostamente independentes poder executivo legislativo apenas demagogia calor momento algo</t>
+          <t>httpswwwjnptquandopodemospoliciasusararmasdefogo</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>17-09-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>A reforma pode-se pedir mais tarde (a partir dos 80 anos) ?</t>
+          <t>CasualPT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>irei poder pedir reforma devido iniciar atividade trabalho so tarde agradeço todos apoio</t>
+          <t>consigo fazer post nessa comunidade tente envie mensagens moderadores porque acontece alguém queria fazer série post têm ver comunidade assim consigo post sempre removidos ficam espera aprovação parte moderadores nada</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>24-08-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Como ultrapassar ressentimento?</t>
+          <t xml:space="preserve"> Talibãs limitam cada vez mais a liberdade das mulheres </t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>edit obrigado todos vossas opiniões refleti sobre assunto fimdesemana sei caminho devo percorrer mudar atitude perante vida corrigir falhas levaram comportamento tão baixo nada característico acredito redenção honesto responsável comigo sei vou conseguir exnamorada alvo gestos ler post quero saibas extremamente arrependido maior mal possas ter feito certeza devote ter feito algum mal durante relação nunca intencional merecias fiz espero tenhas sinceramente vida feliz vez obrigado todos felizes boa tade malta desculpem gigantesco post preciso ajuda cerca ano cortei relações pessoas gostava ex back story conhecemonos praticamente namorar terminou comigo vezes primeira ainda poucos meses mensagem natal arrependeuse voltou atrás ficamos un meses deu desculpa queria ter filhos coisa queria término msg fiquei cauteloso nunca falou sobre ante aliás falava queria ir então ficamos amigo sempre continuei ter sentimentos passado un ano dia saímos junto fazer compras dizme ante entrar supermercado queria ter filhos davam trabalho os fiquei comichão atrás orelha então motivo termos terminado dizer talvez tivessemos hipóteses novamente então melhor financeiramente acabado comprar casa stress altura namorávamos mandei email dizer ainda sentimentos queria voltar nunca respondeu email entendi situação tentei seguir frente pensava situação delicada termos trabalhocasa pensei então quisesse focar nisso continuamos amigo ajudei imenso situação mudança casa corria risco ficar rua felizmente tudo correu bem ano atrás tudo ter levado inúmeras situações faz post facebook novo namorado fazer cruzeiro veneza coisas queria ter feito disse altura nunca fizemos deixoume rastos fiquei extremamente magoado aqui começa parte agi mal deixeime levar fúria comecei importunála mensagens email saber então motivo querer voltar após muita insistência lá disse ter dito cara queria ter filhos pq caros bem disselhe nessa chamada nunca queria ver mandar chave casa pedilhe altura guardar caso precisasse passado mês ainda mandado chave voltei falar durante conversa disse coisa insisti altura deveria disse ficado comigo poi sabia ia conseguir vender casa conseguiu ajudeia compra nova nesse telefonema ainda frágil dizia amava disposto esperar terminar atual namorado namoro distância espanhol voltarmos obviamente ideia estúpida fim dia aguentava ficava sempre pensar nisto então pedi novamente chave bloqueeia tudo filo forma pouco violenta berros passado alguns meses vem aqui reddit fazer post httpswwwredditcomrcasualptcommentsrjxprecisodeumapalavraamigadesabafohttpswwwredditcomrcasualptcommentsrjxprecisodeumapalavraamigadesabafo fiquei ainda pior dizer bem procura outras pessoas dizer sozinha namorado enfim ontem passado quase ano disto ainda sentiame ressentido cheio rancor penso justiça casa deixei livro autora deu altura publicação janela lado tal raiva sentia detalhes podium ter dito aqui tb quero dizer tb gajo fez tudo certo relacionamento afinal primeiro sempre pedi falasse fizesse algo errado reagi mal estupidamente única coisa quero superar ir vida frente gostava carinho hoje deixame triste ódio ambo sentimos outro alguém passado precisava saber pouco velho tb vivo sozinho amigo possa desabafar sei devia pensar nisto consigo</t>
+          <t>httpswwwdnptmerylstreepdizqueumesquilotemmaisdireitosdoqueumaraparigaafegahttpswwwdnptmerylstreepdizqueumesquilotemmaisdireitosdoqueumaraparigaafega cá portugal onde toda gente liberdade tudo alguma coisa ainda continuum chamar extremum partidos nada têm extremum perigo confundir mera esquerda mera direita real extremum radical</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>20-07-2024</t>
+          <t>24-09-2024</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Idosos em Portugal menos deprimidos que gerações mais novas, conclui estudo do INSA</t>
+          <t>Portugal está menos atrativo para profissionais qualificados</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>httpswwwrtpptnoticiaspaisidososemportugalmenosdeprimidosquegeracoesmaisnovasconcluiestudodoinsaa</t>
+          <t>httpsecosapoptportugalestamenosatrativoparaprofissionaisqualificadoshttpsecosapoptportugalestamenosatrativoparaprofissionaisqualificados conhecida edição deste ano ranking mundial talento portugal desce oito posições atratividade duas investimento desenvolvimento consegue subir seis lugares competênciasjá conhecida edição deste ano ranking mundial talento portugal desce oito posições atratividade duas investimento desenvolvimento consegue subir seis lugares competências portugal perdeu atratividade diz respeitos trabalhadores qualificados edição deste ano ranking talento mundial escola negócios suíça imd ocupa posição países neste indicador correspondente deslize oito lugares atratividade vindo registar maior queda portugal ocupar posição ter estado lugar explica escola nota enviada redações fuga talentos país assistido milhares jovens qualificados emigrarem motivos explica quebra aponta imd países analisados suíça consegue medalha ouro atratividade talento consolidando liderança completar pódio doi repetentes irlanda segundo lugar semelhança última edição país baixos mantendose terceiro lugar</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>09-07-2024</t>
+          <t>20-09-2024</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>O verdadeiro amigo da onça</t>
+          <t>Como é que o Primeiro Ministro vai perseguir firmemente os incendiários e puni-los severamente se somos um estado de direito?</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>httpswwwyoutubecomwatchvuycwlgyinmhttpswwwyoutubecomwatchvuycwlgyinm encontrei gostei resolvi partilhar</t>
+          <t>estado direito poder executivo legislativo separados poder judicial ministério público tribunais supostamente independentes poder executivo legislativo apenas demagogia calor momento algo</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>17-05-2024</t>
+          <t>17-09-2024</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Server Discord Porto</t>
+          <t>A reforma pode-se pedir mais tarde (a partir dos 80 anos) ?</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>bom dia criar servidor discord convívios cidade porto objetivo reunirmos compartilhar dicas locais organizar encontros promover boa amizades moras porto ten interesse conhecer pessoas região vem fazer parte clica aqui juntares httpsdiscordggrhmtpmrmqhttpsdiscordggrhmtpmrmq esperamos conhecerte breve</t>
+          <t>irei poder pedir reforma devido iniciar atividade trabalho so tarde agradeço todos apoio</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>09-05-2024</t>
+          <t>24-08-2024</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t xml:space="preserve">pequeno desabafo e duvidas sobre universidades privadas </t>
+          <t>Como ultrapassar ressentimento?</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>bem resumindo medium secundário lá grande coisa ano apareceume vitiligo afetou bastante autoestima vida geral sei coisas piores altura soube lidar os fez faltasse bastantes aulas consequentemente perdesse imensa matéria agora ano milagrosamente melhoria significativa vitiligo parece ganhei força vontade enorme consegui subir notas ano apenas medium problema peso ano anteriores dáme mero arquitetura marketing opções ensino superior arquitetura amo marketing safety net andei ler arquitetura portugal valorizada lá marketing porque sei sinto marketing menos arriscado consciente entrar universidade publica questão fundo gostava saber verdade medias baixas dá entrar universidades privadas caso lisboa agradeço respostas desde</t>
+          <t>edit obrigado todos vossas opiniões refleti sobre assunto fimdesemana sei caminho devo percorrer mudar atitude perante vida corrigir falhas levaram comportamento tão baixo nada característico acredito redenção honesto responsável comigo sei vou conseguir exnamorada alvo gestos ler post quero saibas extremamente arrependido maior mal possas ter feito certeza devote ter feito algum mal durante relação nunca intencional merecias fiz espero tenhas sinceramente vida feliz vez obrigado todos felizes boa tade malta desculpem gigantesco post preciso ajuda cerca ano cortei relações pessoas gostava ex back story conhecemonos praticamente namorar terminou comigo vezes primeira ainda poucos meses mensagem natal arrependeuse voltou atrás ficamos un meses deu desculpa queria ter filhos coisa queria término msg fiquei cauteloso nunca falou sobre ante aliás falava queria ir então ficamos amigo sempre continuei ter sentimentos passado un ano dia saímos junto fazer compras dizme ante entrar supermercado queria ter filhos davam trabalho os fiquei comichão atrás orelha então motivo termos terminado dizer talvez tivessemos hipóteses novamente então melhor financeiramente acabado comprar casa stress altura namorávamos mandei email dizer ainda sentimentos queria voltar nunca respondeu email entendi situação tentei seguir frente pensava situação delicada termos trabalhocasa pensei então quisesse focar nisso continuamos amigo ajudei imenso situação mudança casa corria risco ficar rua felizmente tudo correu bem ano atrás tudo ter levado inúmeras situações faz post facebook novo namorado fazer cruzeiro veneza coisas queria ter feito disse altura nunca fizemos deixoume rastos fiquei extremamente magoado aqui começa parte agi mal deixeime levar fúria comecei importunála mensagens email saber então motivo querer voltar após muita insistência lá disse ter dito cara queria ter filhos pq caros bem disselhe nessa chamada nunca queria ver mandar chave casa pedilhe altura guardar caso precisasse passado mês ainda mandado chave voltei falar durante conversa disse coisa insisti altura deveria disse ficado comigo poi sabia ia conseguir vender casa conseguiu ajudeia compra nova nesse telefonema ainda frágil dizia amava disposto esperar terminar atual namorado namoro distância espanhol voltarmos obviamente ideia estúpida fim dia aguentava ficava sempre pensar nisto então pedi novamente chave bloqueeia tudo filo forma pouco violenta berros passado alguns meses vem aqui reddit fazer post httpswwwredditcomrcasualptcommentsrjxprecisodeumapalavraamigadesabafohttpswwwredditcomrcasualptcommentsrjxprecisodeumapalavraamigadesabafo fiquei ainda pior dizer bem procura outras pessoas dizer sozinha namorado enfim ontem passado quase ano disto ainda sentiame ressentido cheio rancor penso justiça casa deixei livro autora deu altura publicação janela lado tal raiva sentia detalhes podium ter dito aqui tb quero dizer tb gajo fez tudo certo relacionamento afinal primeiro sempre pedi falasse fizesse algo errado reagi mal estupidamente única coisa quero superar ir vida frente gostava carinho hoje deixame triste ódio ambo sentimos outro alguém passado precisava saber pouco velho tb vivo sozinho amigo possa desabafar sei devia pensar nisto consigo</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>20-07-2024</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Escola em Lisboa barra calções curtos e decotes excessivos. Regulamento fala em “dignidade” - concordam ou não? - sondagem</t>
+          <t>Idosos em Portugal menos deprimidos que gerações mais novas, conclui estudo do INSA</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptsociedadedetalheescolabarracalcoescurtosedecotesexcessivoshttpswwwcmjornalptsociedadedetalheescolabarracalcoescurtosedecotesexcessivos direção pede vestuário adequado sob impedimento realização exames direção escola secundária pedro nunes lisboa definiu regras vestuário alunos prevaricar arriscase ficar impedido realizar exames ano email enviado encarregados educação escola informa alunos devem escola vestuário adequado implica trazer roupa praia nomeadamente calções banho chinelos calções demasiado curtos camisolas excessivo decote inclusivamente situação exame recomendase vestuário adequado sob impedimento realização regulamento interno escola vigor estipula alunos devem apresentarse vestuário revele adequado função idade dignidade espaço especificidade atividades escolares muitas raparigas chegam vir praticamente espécie top tapar peito calções abaixo cintura sala aula adequado top tapam apenas peito pouco outras pessoas podem sentir cómodas outros alunos podem sentir incomodados referiu diretora escola maria rosário andorinha declarações público sublinhando associação pais concorda advertências concordam regulamento vestuário view pollhttpswwwredditcompollcbnih</t>
+          <t>httpswwwrtpptnoticiaspaisidososemportugalmenosdeprimidosquegeracoesmaisnovasconcluiestudodoinsaa</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>23-04-2024</t>
+          <t>09-07-2024</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parabéns </t>
+          <t>O verdadeiro amigo da onça</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>boa noite venho parabenizar aqui sub criou viva liberdade</t>
+          <t>httpswwwyoutubecomwatchvuycwlgyinmhttpswwwyoutubecomwatchvuycwlgyinm encontrei gostei resolvi partilhar</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>17-05-2024</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Sobre Pedro Arroja e Paulo Rangel não é preciso dizer mais que isto...</t>
+          <t>Server Discord Porto</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>httpsportadalojablogspotcomsobrepedroarrojaepaulorangelnaoehtmlhttpsportadalojablogspotcomsobrepedroarrojaepaulorangelnaoehtml artigo hoje francisco teixeira mota público água mole pedra durahttpsbloggergoogleusercontentcomimgbrvzxlavvxsejvtxzhvwzlpqngapspackuknhssecqeytcfzfdyculdpnnlgcrybjfeabcdgyxrtmnbblephfwgehnjoxxmrulwlleubfovppmtwlfxcofgyvrojirponiqciicfyjxcumixketscjyhqgspjpg confrangedor certos juízes ainda entenderam jurisprudência pacífica tedh continuam confundir direitos condenar eito ajuizar direito xb</t>
+          <t>bom dia criar servidor discord convívios cidade porto objetivo reunirmos compartilhar dicas locais organizar encontros promover boa amizades moras porto ten interesse conhecer pessoas região vem fazer parte clica aqui juntares httpsdiscordggrhmtpmrmqhttpsdiscordggrhmtpmrmq esperamos conhecerte breve</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>03-04-2024</t>
+          <t>09-05-2024</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Onde comprar madeira</t>
+          <t xml:space="preserve">pequeno desabafo e duvidas sobre universidades privadas </t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>quero começar fazer un projetos diy madeira estantes mesa apoio caixas vasos etc leroy merlin achei caro pinho maciço queria usar madeira fraca algumas recomendações preços lá normais</t>
+          <t>bem resumindo medium secundário lá grande coisa ano apareceume vitiligo afetou bastante autoestima vida geral sei coisas piores altura soube lidar os fez faltasse bastantes aulas consequentemente perdesse imensa matéria agora ano milagrosamente melhoria significativa vitiligo parece ganhei força vontade enorme consegui subir notas ano apenas medium problema peso ano anteriores dáme mero arquitetura marketing opções ensino superior arquitetura amo marketing safety net andei ler arquitetura portugal valorizada lá marketing porque sei sinto marketing menos arriscado consciente entrar universidade publica questão fundo gostava saber verdade medias baixas dá entrar universidades privadas caso lisboa agradeço respostas desde</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>O discurso de ódio, a liberdade de opinião e as tentativas de instrumentalização do sub para propaganda</t>
+          <t>Escola em Lisboa barra calções curtos e decotes excessivos. Regulamento fala em “dignidade” - concordam ou não? - sondagem</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>muitos post gosto muitas opiniões discordo liberdade opinião serve precisamente opiniões discordo muitos post comentários reportados muitos terem opiniões negativas relação determinados grupos core políticas ninguém obrigado ter boa opinião opinião negativa discurso ódio exemplo alguém disser homens propensos cometer crime violentos mulheres discurso ódio misandria neste caso afirmação pode confirmada refutada vale afirmação contrária discurso ódio misoginia neste caso afirmação pode confirmada refutada parece nenhuma destas afirmações deva partida censuradaeliminada devem ambas permitidas possa apurar verdade embora apenas nenhuma possa verdadeira neste caso conhecimento primeira afirmação correta acho ambas devem permitidas parece admissível tentativas instrumentalização sub tendo bandeira liberdade pensamento fin propaganda política ideológica normalmente tenta fazer recorre colocação sistemática post torno tema pequenas variações spam menos bem disfarçado evitar tolher liberdade expressão dificuldades aprendiz moderador ainda sabe bem lidar crescimento deste ainda pequeno sub outra dificuldade falta tempo</t>
+          <t>httpswwwcmjornalptsociedadedetalheescolabarracalcoescurtosedecotesexcessivoshttpswwwcmjornalptsociedadedetalheescolabarracalcoescurtosedecotesexcessivos direção pede vestuário adequado sob impedimento realização exames direção escola secundária pedro nunes lisboa definiu regras vestuário alunos prevaricar arriscase ficar impedido realizar exames ano email enviado encarregados educação escola informa alunos devem escola vestuário adequado implica trazer roupa praia nomeadamente calções banho chinelos calções demasiado curtos camisolas excessivo decote inclusivamente situação exame recomendase vestuário adequado sob impedimento realização regulamento interno escola vigor estipula alunos devem apresentarse vestuário revele adequado função idade dignidade espaço especificidade atividades escolares muitas raparigas chegam vir praticamente espécie top tapar peito calções abaixo cintura sala aula adequado top tapam apenas peito pouco outras pessoas podem sentir cómodas outros alunos podem sentir incomodados referiu diretora escola maria rosário andorinha declarações público sublinhando associação pais concorda advertências concordam regulamento vestuário view pollhttpswwwredditcompollcbnih</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>22-03-2024</t>
+          <t>23-04-2024</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>As nossas leituras, livros, contos, artigos, revistas, etc</t>
+          <t xml:space="preserve">Parabéns </t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>partilhem aqui vossas opiniões sobre vossas leituras livros conto artigos revistas etc fizerem algum spoiler ocultemno senão termos apagar comentário post ficará decisão contrário afixado</t>
+          <t>boa noite venho parabenizar aqui sub criou viva liberdade</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -9847,99 +9847,99 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>07-04-2024</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Alguém me poderia aconselhar como guardar investimentos? Ou seja, hábitos que vos ajudam e/ ou sítios  para guardar.</t>
+          <t>Sobre Pedro Arroja e Paulo Rangel não é preciso dizer mais que isto...</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>escrevo aqui perguntar hábitos ajudam sítios onde guardam vosso investimento ninguém perto ensine ajude situação facto pais un nabos toca finanças sequer deixaram dinheiro mim poupanças neste momento dá poupar existe coisas urgentes sempre pagar exemplo saúde trabalho etc</t>
+          <t>httpsportadalojablogspotcomsobrepedroarrojaepaulorangelnaoehtmlhttpsportadalojablogspotcomsobrepedroarrojaepaulorangelnaoehtml artigo hoje francisco teixeira mota público água mole pedra durahttpsbloggergoogleusercontentcomimgbrvzxlavvxsejvtxzhvwzlpqngapspackuknhssecqeytcfzfdyculdpnnlgcrybjfeabcdgyxrtmnbblephfwgehnjoxxmrulwlleubfovppmtwlfxcofgyvrojirponiqciicfyjxcumixketscjyhqgspjpg confrangedor certos juízes ainda entenderam jurisprudência pacífica tedh continuam confundir direitos condenar eito ajuizar direito xb</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>19-03-2024</t>
+          <t>03-04-2024</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Resultados da sondagem feita neste sub aos homens e mulheres sobre o grau de satisfação com a vida sexual</t>
+          <t>Onde comprar madeira</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>homenshttpswwwredditcomrportugalcommentsbenocvparaoshomensqualcaoteugraudesatisfacacao respostas quase disseram atualmente vida sexual mulhereshttpswwwredditcomrportugalcommentsbennskparaasmulheresqualcaoteugraudesatisfacacao respostas disseram atualmente vida sexual quase respostas totais supostamente mulheres noutras sondagens respostas mulheres andam volta suponho alguns homens responderam nesta sondagem provavelmente sempre quase sempre opção terem vida sexual provavelmente curiosidade verem andamento votações algumas mulheres podem ter feito inquérito homens menos afetam menos resultados dessa sondagem resultados percentagem verde homens rosa mulheres xb httpspreviewredditgbxwpcjpgwidthformatpjpgautowebpsfcbbcafebcfca média respostas mulheres dá homens dá</t>
+          <t>quero começar fazer un projetos diy madeira estantes mesa apoio caixas vasos etc leroy merlin achei caro pinho maciço queria usar madeira fraca algumas recomendações preços lá normais</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>28-03-2024</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Lei da Eutanásia: "Não oferece condições favoraveis à vida e não garante livre vontade do doente"</t>
+          <t>O discurso de ódio, a liberdade de opinião e as tentativas de instrumentalização do sub para propaganda</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>lei eutanásia oferece condições favoraveis vida garante livre vontade doente cnn portugal iolpthttpscnnportugaliolptvideosleidaeutanasianaooferececondicoesfavoraveisavidaenaogarantelivrevontadedodoentefecfeebd provedora justiça quer tribunal constitucional reconheça lei eutanasia inconstitucional maria lúcia amaral recebeu elogios iniciativa xb</t>
+          <t>muitos post gosto muitas opiniões discordo liberdade opinião serve precisamente opiniões discordo muitos post comentários reportados muitos terem opiniões negativas relação determinados grupos core políticas ninguém obrigado ter boa opinião opinião negativa discurso ódio exemplo alguém disser homens propensos cometer crime violentos mulheres discurso ódio misandria neste caso afirmação pode confirmada refutada vale afirmação contrária discurso ódio misoginia neste caso afirmação pode confirmada refutada parece nenhuma destas afirmações deva partida censuradaeliminada devem ambas permitidas possa apurar verdade embora apenas nenhuma possa verdadeira neste caso conhecimento primeira afirmação correta acho ambas devem permitidas parece admissível tentativas instrumentalização sub tendo bandeira liberdade pensamento fin propaganda política ideológica normalmente tenta fazer recorre colocação sistemática post torno tema pequenas variações spam menos bem disfarçado evitar tolher liberdade expressão dificuldades aprendiz moderador ainda sabe bem lidar crescimento deste ainda pequeno sub outra dificuldade falta tempo</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>14-03-2024</t>
+          <t>22-03-2024</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Lucros da CP: 'Milagre' de 9,2 milhões de euros precisou de 'injecções' do Estado de 2,3 mil milhões de euros</t>
+          <t>As nossas leituras, livros, contos, artigos, revistas, etc</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>diz perguntar ofende enganase alguém perguntar senhor sério candidato primeiroministro ministro</t>
+          <t>partilhem aqui vossas opiniões sobre vossas leituras livros conto artigos revistas etc fizerem algum spoiler ocultemno senão termos apagar comentário post ficará decisão contrário afixado</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>15-02-2024</t>
+          <t>21-03-2024</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Numa campanha o que é mais importante?</t>
+          <t>Alguém me poderia aconselhar como guardar investimentos? Ou seja, hábitos que vos ajudam e/ ou sítios  para guardar.</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>acompanhar subida descidas sondagens especular sobre resultados promessas medidas curto prazo aumentar pensões x etc explicar visão modelo social económico sectores deve apostar medidas fundo importantes inverter empobrecimento últimas décadas campanha debate comentários percentagem tempo dispende cada destes temas</t>
+          <t>escrevo aqui perguntar hábitos ajudam sítios onde guardam vosso investimento ninguém perto ensine ajude situação facto pais un nabos toca finanças sequer deixaram dinheiro mim poupanças neste momento dá poupar existe coisas urgentes sempre pagar exemplo saúde trabalho etc</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -9947,59 +9947,59 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>04-02-2024</t>
+          <t>19-03-2024</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Entre impostos e taxas, quem é que ainda consegue comprar casa? Afinal não são estrangeiros, e há quem compre a pronto</t>
+          <t>Resultados da sondagem feita neste sub aos homens e mulheres sobre o grau de satisfação com a vida sexual</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>httpssapoptatualidadeartigosentreimpostosetaxasquemequeaindaconseguecomprarcasaafinalnaosaoestrangeirosehaquemcompreaprontohttpssapoptatualidadeartigosentreimpostosetaxasquemequeaindaconseguecomprarcasaafinalnaosaoestrangeirosehaquemcompreapronto mar quer através recurso crédito quer pronto pagamento sim ainda existe verdade comprar casa portugal sempre fácil valor total grande parte diz respeito impostos estado condições vida baixos salários incluídos ajudam consiga amealhar suficiente menos objetivo comprar primeira habitação espera rebente bolha imobiliária parece subida preços habitação surpresa segue tendência últimos ano contudo preço casa diz respeito casa propriamente dita sim impostos taxas estado grande impacto fiscal cada tipo imposto preço final compra gonçalo nascimento rodrigues consultor finanças imobiliárias autor blog out of the boxhttpsoutoftheboxpt ajuda perceber causa preço final venda casa imposto dividido imt imposto municipal sobre transações imi imposto municipal sobre imóveis imposto selo iva construção irc imposto sobre rendimento pessoas coletivas promotor imobiliário pagar maisvalias começa explicar sapo valor considerável sendo todos impostos contribuem aumento preços iva construção significativo aponta artigohttpsoutoftheboxptimpostoscompracasa out of the box gonçalo nascimento rodrigues faz contas exemplo simple compra casa mil euro portugal continental habitação própria permanente assumase ainda contração crédito habitação representando ltv rácio financiamento garantia créditos habitação linha média registada mercado pode lerse feitas contas considerando vários impostos imt imposto selo imi iva construção irc fiscalidade inerente venda casa nova preço venda iva pago construção representa maior fatia impostos pagos seguido imt irc lucro líquido promotor representaria preço venda casa fim explicado então fazer reverter situação consultor finanças imobiliárias resposta óbvia baixar impostos considerar objetivo quer atingir vai baixar impostos exclusivamente porque acha fiscalidade determinado segmento determinado mercado investimento elevado objetivo estratégico adianta assim objetivo permitir aumento oferta construção nova interessante diminuir substancialmente taxon iva construção habitação nova objetivo permitir aquisição habitação própria permanente primeira jovens jovens famílias provavelmente melhor rever tabelas imt exemplo portanto depende remata compra casa portugal considerando toda contas questão impõe apenas afinal ainda consegue comprar casa gonçalo nascimento rodrigues aponta genericamente compra casas portugal portuguese famílias portuguesas recurso crédito habitação todavia pormenor considerar portugal pequeno grande habitação heterogénea diferente compra casas santa maria feira compra casas loulé locais partida grandes centros urbanos onde pessoas recorrem crédito efeito cidades média dimensão zona interior país recorrese menos crédito justifica média maior parte portuguese recorrer crédito comprar habitação própria permanente casas vendidas portugal têm crédito associado cerca volume vendas habitação portugal crédito refere resto números comprovam situação instituições financeiras residentes portugal realizaram doi milhões novos contratos crédito milhões pessoas total mil milhões euro todos indicadores cresceram relativamente segundo informação banco portugalhttpsbpstatbportugalptconteudosnoticias bdp diz respeito compra casa mil pessoas contraíram crédito habitação duas mil acordo dado duas cada três moravam região norte área metropolitana lisboa trabalhavam maioritariamente conta outrem nível escolaridade superior quanto idade crédito habitação concedido contratualizado pessoas idade ano novo crédito habitação concedido pessoas idade ano apenas montante crédito habitação concedido obtido pessoas reformadas portugal total crédito habitação concedido pessoas reformadas metade concedido pessoas nacionalidade estrangeira maioritariamente brasil eua ainda frisado bdp vez considerando apenas região algarve total crédito habitação concedido pessoas reformadas concedido pessoas nacionalidade estrangeira maioritariamente originárias eua reino unido suécia ainda pagamentos pronto pense toda gente recorre créditos portugal embora varie zona zona conforme poder compra famílias verdade ainda avance logo valor necessário filipe garcia one house coimbrahttpsonehousecoimbrapt explica sapo existe compre casas pronto ano fizemos negócios total apenas família estrangeira outros sete oito pronto pagamento falar mercado médio médioalto mil euro realidade cá coimbra avança empresário ano mercado imobiliário realidade custou perceber início one house demorámos doi três ano perceber dinâmica coimbra facto sui generis contudo filipe diz explicação aqui coimbra mercado maioritariamente serviços pessoas médicos advogados professores claro empresas empresários comparação resto residual pessoas razão outra estarem ligados setor público terem trabalhos estáveis perderam poder compra pessoas famílias poder compra imóveis zonaschave querem vender zona valorizadas então conseguem ter dinâmica compra venda forte vendem alto compram alto circunscritos querem determinadas zona mercado explica acrescenta outro pormenor sempre pessoas portuguesas comprar coimbra sentir vêm pessoas distrito comprar cidade daqui conhecem bem zona dinâmica troca sempre zona outra sempre aqui dentro concelho gonçalo nascimento rodrigues confirma tendência acrescenta existem zona onde tal verifica destaque açores exemplo ilha s miguel igual maioritariamente locais compram casas recurso dinheiro próprio recorrem menos crédito causa venda casa antiga permite dinheiro seguinte sempre diz consultor depende historial primeira compra casa feita recurso crédito abater crédito toma decisão compra casa porque precisa outro tipo casa maior outras condições passando tempo casas vão ficando cada vez caras pessoas pouparam efeito vão continuar precisar recorrer crédito muitas vezes acontece explica estrangeiros ficam casas toda achar estrangeiros conseguem comprar casas portugal portuguese consultor finanças imobiliárias ideia errada populista enviesada ideologia política determinada franja mercado quer passar números ine mostram cerca transações portugal volume vendas habitação portugal absorvido portuguese famílias portuguesas estatístico volta dar nota gonçalo nascimento rodrigues ressalva mercado estrangeiro franja mercado tipicamente maiores concentrações termos localização questão volume vendas habitação portugal feito área metropolitana lisboa porto algarve existe concentração acentuada volume vendas existe concentração termos localizações compras estrangeiros passa ideia errada mercado inflacionado estrangeiros vêm comprar verdade evidencia porém verdade mercado crescimento devido várias razões sucedendo cronologicamente tempo contribuíram aumento preços pouca oferta primeira fase facto peso significativo compra estrangeiros nomeadamente via golden visa fundamentalmente compradores chinese concentrado nesse período realmente possível verificar significada cerca transações portugal começa enumerar partir golden visa começaram gradualmente perder importância mercado chega altura consegue estimar correspondem apenas cerca mercado consequentemente surgiram outros compradores estrangeiros vieram cá residir preciso desmistificar questão vêm estrangeiros poder compra residir portugal nota praticamente metade estrangeiros vivem portugal brasileiros esmagadora maioria concentrada área metropolitana lisboa muitos têm recursos financeiros andar comprar casas centenas milhares euro muitos arrendam casas adianta gonçalo nascimento rodrigues assim procura significativa secou oferta arrendamento faz aumentar rendas efeito compra habitação classe média médiabaixa recentemente durante pandemia compra habitação estrangeiros peso significativo aliada dinâmica acentuada turismo portugal vinha desde devido todos benefícios fiscais introduzidos programas desenvolvimento produto alojamento local nesta última fase ciclo fase covid permitiu pessoas acumular poupança porque gastaram menos adiciona período largo moratórias crédito habitação permitiu pessoas juntar dinheiro acima conjuntura monetária convidativa aquisição ativos reais financiamento crédito permitiu tomassem decisões compra outro tipo casas noutras localizações espaço caras frisa assim chegamos ponto ideia estrangeiros vêm cá comprar casas portuguese deveriam comprar completamente errada falaciosa conclui então jovens toda dificuldades toca preços certo existem fortes barreiras entrada mercado imobiliário doi patamares tipo pessoas agora sofrer mercado têm casa têm crédito via aumento prestações querem entrar conseguem porque preços caros enumera consultor solução têm problemas face prestações têm poupar dinheiro obviamente lógico adequado aumentarlhes poder compra via aumento rendimentos aumenta rendimentos aumentando ordenados diminuindose fiscalidade junto famílias baixando irs evidencia outro lado relativamente primeira habitação podem desenvolvidos determinados conjuntos mecanismos signifique interferência direta pricing mercado via aumento oferta substancial zona específicas onde claro exista preponderância procura primeira habitação através desenvolvimento programas específicos apoio primeira aquisição nomeadamente vão recorrer crédito poderia componente crédito eventualmente garantida estado reino unido vem exemplo existem programas contemplam ajuda mercado britânico desenvolveu tipo apoio parte hipoteca garantida estado imaginese vou comprar casa mil euro vou recorrer crédito desses parte garantida estado pago prestações sobre sobre parte menor explica ainda outro dado considerar algo documentado portugal altamente documentado reino unido ajuda familiares reino unido existe figura bank of mum and dad coisa interessante porção significativa mercado compra ajuda pais ano cá desenvolvido programa específico reino unido obviar maior dificuldade acesso mercado habitação faixa população recurso ajuda têm mãe pai recursos financeiros ajudem compra adianta bolha imobiliária prestes rebentar esperança vir conseguir comprar casa surge últimos tempo conceito bolha imobiliária futuro pode assim tão fácil imediato conseguir dizer mercado bolha imobiliária têm acontecer três coisas preços têm subir forma acentuada dinâmica territorial alargada dessa subida preços podem circunscritos cidade pequena região evidência estatística subida preços fundamentalmente alimentada dívida explica gonçalo nascimento rodrigues portugal três premissas começaram verificar desde início pandemia final verificam porque existia dinâmica territorial aumento preços circunscrita lisboa porto algarve havia nenhuma evidência estatística aumentada aumento crédito prática aumento crédito verificou forma acentuada contribuiu aumento preços dinâmica territorial bastante alargada porém consultor finanças imobiliárias aumento subida taxas juro forma natural mercado contrabalançar risco existência bolha imobiliária tendência menor contração crédito creio bolha imobiliária pode eventualmente têm surgir fatores externos façam rebentar existem muitas bolhas imobiliárias identificadas mundo muitos ano nunca rebentaram nota alguns fatores externos podem contribuir nomeadamente recessão económica acentuada alargada tempo qualquer evento crise crédito começámos ver catadupa bancos dificuldades financeiras terem salvo menos capacidade conceder crédito economia gera obviamente evento crédito reflexos prazo eventual rebentamento bolha imobiliária neste momento vejo outro conclui xb</t>
+          <t>homenshttpswwwredditcomrportugalcommentsbenocvparaoshomensqualcaoteugraudesatisfacacao respostas quase disseram atualmente vida sexual mulhereshttpswwwredditcomrportugalcommentsbennskparaasmulheresqualcaoteugraudesatisfacacao respostas disseram atualmente vida sexual quase respostas totais supostamente mulheres noutras sondagens respostas mulheres andam volta suponho alguns homens responderam nesta sondagem provavelmente sempre quase sempre opção terem vida sexual provavelmente curiosidade verem andamento votações algumas mulheres podem ter feito inquérito homens menos afetam menos resultados dessa sondagem resultados percentagem verde homens rosa mulheres xb httpspreviewredditgbxwpcjpgwidthformatpjpgautowebpsfcbbcafebcfca média respostas mulheres dá homens dá</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>24-01-2024</t>
+          <t>18-03-2024</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Para ouvir no Natal</t>
+          <t>Lei da Eutanásia: "Não oferece condições favoraveis à vida e não garante livre vontade do doente"</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>httpswwwyoutubecomwatchvewjqodyzmqhttpswwwyoutubecomwatchvewjqodyzmq</t>
+          <t>lei eutanásia oferece condições favoraveis vida garante livre vontade doente cnn portugal iolpthttpscnnportugaliolptvideosleidaeutanasianaooferececondicoesfavoraveisavidaenaogarantelivrevontadedodoentefecfeebd provedora justiça quer tribunal constitucional reconheça lei eutanasia inconstitucional maria lúcia amaral recebeu elogios iniciativa xb</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>25-12-2024</t>
+          <t>14-03-2024</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>It's a wonderful life (1946) de Frank Capra</t>
+          <t>Lucros da CP: 'Milagre' de 9,2 milhões de euros precisou de 'injecções' do Estado de 2,3 mil milhões de euros</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>gosto ver filmes antigos vi filme ano passado desde aí mim passou filme natal recomendo vivamente ainda viu final emocionante menos mim it wonderful life hd scene in color httpswwwyoutubecomwatchvzusnycu neste canal youtube pareceme têm filme completo</t>
+          <t>diz perguntar ofende enganase alguém perguntar senhor sério candidato primeiroministro ministro</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -10007,279 +10007,279 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>24-12-2024</t>
+          <t>15-02-2024</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Homens que andam no Tinder</t>
+          <t>Numa campanha o que é mais importante?</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>notam durante ano pandemia havia mulheres utilizar tinder neste momento</t>
+          <t>acompanhar subida descidas sondagens especular sobre resultados promessas medidas curto prazo aumentar pensões x etc explicar visão modelo social económico sectores deve apostar medidas fundo importantes inverter empobrecimento últimas décadas campanha debate comentários percentagem tempo dispende cada destes temas</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>19-12-2024</t>
+          <t>04-02-2024</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>GNR paga indemnização a militar ferido a tiro 22 anos após ocorrência</t>
+          <t>Entre impostos e taxas, quem é que ainda consegue comprar casa? Afinal não são estrangeiros, e há quem compre a pronto</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptportugaldetalhegnrpagaindemnizacaoamilitarferidoatiroanosaposocorrenciahttpswwwcmjornalptportugaldetalhegnrpagaindemnizacaoamilitarferidoatiroanosaposocorrencia</t>
+          <t>httpssapoptatualidadeartigosentreimpostosetaxasquemequeaindaconseguecomprarcasaafinalnaosaoestrangeirosehaquemcompreaprontohttpssapoptatualidadeartigosentreimpostosetaxasquemequeaindaconseguecomprarcasaafinalnaosaoestrangeirosehaquemcompreapronto mar quer através recurso crédito quer pronto pagamento sim ainda existe verdade comprar casa portugal sempre fácil valor total grande parte diz respeito impostos estado condições vida baixos salários incluídos ajudam consiga amealhar suficiente menos objetivo comprar primeira habitação espera rebente bolha imobiliária parece subida preços habitação surpresa segue tendência últimos ano contudo preço casa diz respeito casa propriamente dita sim impostos taxas estado grande impacto fiscal cada tipo imposto preço final compra gonçalo nascimento rodrigues consultor finanças imobiliárias autor blog out of the boxhttpsoutoftheboxpt ajuda perceber causa preço final venda casa imposto dividido imt imposto municipal sobre transações imi imposto municipal sobre imóveis imposto selo iva construção irc imposto sobre rendimento pessoas coletivas promotor imobiliário pagar maisvalias começa explicar sapo valor considerável sendo todos impostos contribuem aumento preços iva construção significativo aponta artigohttpsoutoftheboxptimpostoscompracasa out of the box gonçalo nascimento rodrigues faz contas exemplo simple compra casa mil euro portugal continental habitação própria permanente assumase ainda contração crédito habitação representando ltv rácio financiamento garantia créditos habitação linha média registada mercado pode lerse feitas contas considerando vários impostos imt imposto selo imi iva construção irc fiscalidade inerente venda casa nova preço venda iva pago construção representa maior fatia impostos pagos seguido imt irc lucro líquido promotor representaria preço venda casa fim explicado então fazer reverter situação consultor finanças imobiliárias resposta óbvia baixar impostos considerar objetivo quer atingir vai baixar impostos exclusivamente porque acha fiscalidade determinado segmento determinado mercado investimento elevado objetivo estratégico adianta assim objetivo permitir aumento oferta construção nova interessante diminuir substancialmente taxon iva construção habitação nova objetivo permitir aquisição habitação própria permanente primeira jovens jovens famílias provavelmente melhor rever tabelas imt exemplo portanto depende remata compra casa portugal considerando toda contas questão impõe apenas afinal ainda consegue comprar casa gonçalo nascimento rodrigues aponta genericamente compra casas portugal portuguese famílias portuguesas recurso crédito habitação todavia pormenor considerar portugal pequeno grande habitação heterogénea diferente compra casas santa maria feira compra casas loulé locais partida grandes centros urbanos onde pessoas recorrem crédito efeito cidades média dimensão zona interior país recorrese menos crédito justifica média maior parte portuguese recorrer crédito comprar habitação própria permanente casas vendidas portugal têm crédito associado cerca volume vendas habitação portugal crédito refere resto números comprovam situação instituições financeiras residentes portugal realizaram doi milhões novos contratos crédito milhões pessoas total mil milhões euro todos indicadores cresceram relativamente segundo informação banco portugalhttpsbpstatbportugalptconteudosnoticias bdp diz respeito compra casa mil pessoas contraíram crédito habitação duas mil acordo dado duas cada três moravam região norte área metropolitana lisboa trabalhavam maioritariamente conta outrem nível escolaridade superior quanto idade crédito habitação concedido contratualizado pessoas idade ano novo crédito habitação concedido pessoas idade ano apenas montante crédito habitação concedido obtido pessoas reformadas portugal total crédito habitação concedido pessoas reformadas metade concedido pessoas nacionalidade estrangeira maioritariamente brasil eua ainda frisado bdp vez considerando apenas região algarve total crédito habitação concedido pessoas reformadas concedido pessoas nacionalidade estrangeira maioritariamente originárias eua reino unido suécia ainda pagamentos pronto pense toda gente recorre créditos portugal embora varie zona zona conforme poder compra famílias verdade ainda avance logo valor necessário filipe garcia one house coimbrahttpsonehousecoimbrapt explica sapo existe compre casas pronto ano fizemos negócios total apenas família estrangeira outros sete oito pronto pagamento falar mercado médio médioalto mil euro realidade cá coimbra avança empresário ano mercado imobiliário realidade custou perceber início one house demorámos doi três ano perceber dinâmica coimbra facto sui generis contudo filipe diz explicação aqui coimbra mercado maioritariamente serviços pessoas médicos advogados professores claro empresas empresários comparação resto residual pessoas razão outra estarem ligados setor público terem trabalhos estáveis perderam poder compra pessoas famílias poder compra imóveis zonaschave querem vender zona valorizadas então conseguem ter dinâmica compra venda forte vendem alto compram alto circunscritos querem determinadas zona mercado explica acrescenta outro pormenor sempre pessoas portuguesas comprar coimbra sentir vêm pessoas distrito comprar cidade daqui conhecem bem zona dinâmica troca sempre zona outra sempre aqui dentro concelho gonçalo nascimento rodrigues confirma tendência acrescenta existem zona onde tal verifica destaque açores exemplo ilha s miguel igual maioritariamente locais compram casas recurso dinheiro próprio recorrem menos crédito causa venda casa antiga permite dinheiro seguinte sempre diz consultor depende historial primeira compra casa feita recurso crédito abater crédito toma decisão compra casa porque precisa outro tipo casa maior outras condições passando tempo casas vão ficando cada vez caras pessoas pouparam efeito vão continuar precisar recorrer crédito muitas vezes acontece explica estrangeiros ficam casas toda achar estrangeiros conseguem comprar casas portugal portuguese consultor finanças imobiliárias ideia errada populista enviesada ideologia política determinada franja mercado quer passar números ine mostram cerca transações portugal volume vendas habitação portugal absorvido portuguese famílias portuguesas estatístico volta dar nota gonçalo nascimento rodrigues ressalva mercado estrangeiro franja mercado tipicamente maiores concentrações termos localização questão volume vendas habitação portugal feito área metropolitana lisboa porto algarve existe concentração acentuada volume vendas existe concentração termos localizações compras estrangeiros passa ideia errada mercado inflacionado estrangeiros vêm comprar verdade evidencia porém verdade mercado crescimento devido várias razões sucedendo cronologicamente tempo contribuíram aumento preços pouca oferta primeira fase facto peso significativo compra estrangeiros nomeadamente via golden visa fundamentalmente compradores chinese concentrado nesse período realmente possível verificar significada cerca transações portugal começa enumerar partir golden visa começaram gradualmente perder importância mercado chega altura consegue estimar correspondem apenas cerca mercado consequentemente surgiram outros compradores estrangeiros vieram cá residir preciso desmistificar questão vêm estrangeiros poder compra residir portugal nota praticamente metade estrangeiros vivem portugal brasileiros esmagadora maioria concentrada área metropolitana lisboa muitos têm recursos financeiros andar comprar casas centenas milhares euro muitos arrendam casas adianta gonçalo nascimento rodrigues assim procura significativa secou oferta arrendamento faz aumentar rendas efeito compra habitação classe média médiabaixa recentemente durante pandemia compra habitação estrangeiros peso significativo aliada dinâmica acentuada turismo portugal vinha desde devido todos benefícios fiscais introduzidos programas desenvolvimento produto alojamento local nesta última fase ciclo fase covid permitiu pessoas acumular poupança porque gastaram menos adiciona período largo moratórias crédito habitação permitiu pessoas juntar dinheiro acima conjuntura monetária convidativa aquisição ativos reais financiamento crédito permitiu tomassem decisões compra outro tipo casas noutras localizações espaço caras frisa assim chegamos ponto ideia estrangeiros vêm cá comprar casas portuguese deveriam comprar completamente errada falaciosa conclui então jovens toda dificuldades toca preços certo existem fortes barreiras entrada mercado imobiliário doi patamares tipo pessoas agora sofrer mercado têm casa têm crédito via aumento prestações querem entrar conseguem porque preços caros enumera consultor solução têm problemas face prestações têm poupar dinheiro obviamente lógico adequado aumentarlhes poder compra via aumento rendimentos aumenta rendimentos aumentando ordenados diminuindose fiscalidade junto famílias baixando irs evidencia outro lado relativamente primeira habitação podem desenvolvidos determinados conjuntos mecanismos signifique interferência direta pricing mercado via aumento oferta substancial zona específicas onde claro exista preponderância procura primeira habitação através desenvolvimento programas específicos apoio primeira aquisição nomeadamente vão recorrer crédito poderia componente crédito eventualmente garantida estado reino unido vem exemplo existem programas contemplam ajuda mercado britânico desenvolveu tipo apoio parte hipoteca garantida estado imaginese vou comprar casa mil euro vou recorrer crédito desses parte garantida estado pago prestações sobre sobre parte menor explica ainda outro dado considerar algo documentado portugal altamente documentado reino unido ajuda familiares reino unido existe figura bank of mum and dad coisa interessante porção significativa mercado compra ajuda pais ano cá desenvolvido programa específico reino unido obviar maior dificuldade acesso mercado habitação faixa população recurso ajuda têm mãe pai recursos financeiros ajudem compra adianta bolha imobiliária prestes rebentar esperança vir conseguir comprar casa surge últimos tempo conceito bolha imobiliária futuro pode assim tão fácil imediato conseguir dizer mercado bolha imobiliária têm acontecer três coisas preços têm subir forma acentuada dinâmica territorial alargada dessa subida preços podem circunscritos cidade pequena região evidência estatística subida preços fundamentalmente alimentada dívida explica gonçalo nascimento rodrigues portugal três premissas começaram verificar desde início pandemia final verificam porque existia dinâmica territorial aumento preços circunscrita lisboa porto algarve havia nenhuma evidência estatística aumentada aumento crédito prática aumento crédito verificou forma acentuada contribuiu aumento preços dinâmica territorial bastante alargada porém consultor finanças imobiliárias aumento subida taxas juro forma natural mercado contrabalançar risco existência bolha imobiliária tendência menor contração crédito creio bolha imobiliária pode eventualmente têm surgir fatores externos façam rebentar existem muitas bolhas imobiliárias identificadas mundo muitos ano nunca rebentaram nota alguns fatores externos podem contribuir nomeadamente recessão económica acentuada alargada tempo qualquer evento crise crédito começámos ver catadupa bancos dificuldades financeiras terem salvo menos capacidade conceder crédito economia gera obviamente evento crédito reflexos prazo eventual rebentamento bolha imobiliária neste momento vejo outro conclui xb</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>18-12-2024</t>
+          <t>24-01-2024</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t xml:space="preserve">PC componentes, como proceder? </t>
+          <t>Para ouvir no Natal</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ultima quartafeira fiz encomenda disseram chegaria proximo dia quinta máximo dia entrega segunda entretanto chegou quinta contactei informaram viria sexta fim semana passou apareceu ontem entrega feita ctt expresso espanha tentar contactar area apoio respondem nada mim á pc componentes aparentemente suporte parte pc componentes otimo agradeço comunicação resolver caso preciso encomenda breve possivel procedo garantir encomenda ainda semana posso pedir dinheiro volta comprar noutra loja</t>
+          <t>httpswwwyoutubecomwatchvewjqodyzmqhttpswwwyoutubecomwatchvewjqodyzmq</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>10-12-2024</t>
+          <t>25-12-2024</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Estou a vender um carro será tentativa de burla?</t>
+          <t>It's a wonderful life (1946) de Frank Capra</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>carro venda pessoa disse dava outros porque quer ficar disse condições irmos registo fazer mudança nome hora senhor cabo verdiano disseme trabalha segunda sexta sai h horario incompatível registos preenche assina papel compra venda dáme cópia cartão cidadão dinheiro registo ir lá mudar nome quiser tentativa enganar nalguma coisa sei pessoa lev papel diz vai lá podem passarse medes nunca ir nesta situação sendo contrário poderei alguma enganada</t>
+          <t>gosto ver filmes antigos vi filme ano passado desde aí mim passou filme natal recomendo vivamente ainda viu final emocionante menos mim it wonderful life hd scene in color httpswwwyoutubecomwatchvzusnycu neste canal youtube pareceme têm filme completo</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>06-12-2024</t>
+          <t>24-12-2024</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Juízes com direito a massagens e ioga grátis</t>
+          <t>Homens que andam no Tinder</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>httpswwwcmjornalptsociedadedetalhejuizescomdireitoamassagenseiogagratisoriginserpauto</t>
+          <t>notam durante ano pandemia havia mulheres utilizar tinder neste momento</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>19-11-2024</t>
+          <t>19-12-2024</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Cáritas de Braga constrói centro de acolhimento de emergência</t>
+          <t>GNR paga indemnização a militar ferido a tiro 22 anos após ocorrência</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>httpsrrsapoptnoticiareligiaocaritasdebragaconstroicentrodeacolhimentodeemergencia</t>
+          <t>httpswwwcmjornalptportugaldetalhegnrpagaindemnizacaoamilitarferidoatiroanosaposocorrenciahttpswwwcmjornalptportugaldetalhegnrpagaindemnizacaoamilitarferidoatiroanosaposocorrencia</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>19-11-2024</t>
+          <t>18-12-2024</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Earworm musical - ajuda por favor</t>
+          <t xml:space="preserve">PC componentes, como proceder? </t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>malta preciso vossa ajuda sei hipótese remota cá vai aula educação musical ano professora música altura passou música bateu comigo infelizmente porque passaram algumas décadas recordo banda sei conjunto criançasadolescentes coro infantil talvez cd levou altura música som roxette sleeping in my car portanto imaginem refrão desta música seguinte letra corrida vamos ganhar partida conquistar lugar sol sonhar oh yeah</t>
+          <t>ultima quartafeira fiz encomenda disseram chegaria proximo dia quinta máximo dia entrega segunda entretanto chegou quinta contactei informaram viria sexta fim semana passou apareceu ontem entrega feita ctt expresso espanha tentar contactar area apoio respondem nada mim á pc componentes aparentemente suporte parte pc componentes otimo agradeço comunicação resolver caso preciso encomenda breve possivel procedo garantir encomenda ainda semana posso pedir dinheiro volta comprar noutra loja</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>18-11-2024</t>
+          <t>10-12-2024</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>A história do gigante de Manjacaze. Este português foi o homem mais alto do mundo</t>
+          <t>Estou a vender um carro será tentativa de burla?</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>httpssearchapplinkhttpsaffwwwnitptfculturaflivrosfahistoriadogigantedemanjacazeesteportuguesfoiohomemmaisaltodomundoutmcampaignagautmsourceagsadlcshfxfgsfmf</t>
+          <t>carro venda pessoa disse dava outros porque quer ficar disse condições irmos registo fazer mudança nome hora senhor cabo verdiano disseme trabalha segunda sexta sai h horario incompatível registos preenche assina papel compra venda dáme cópia cartão cidadão dinheiro registo ir lá mudar nome quiser tentativa enganar nalguma coisa sei pessoa lev papel diz vai lá podem passarse medes nunca ir nesta situação sendo contrário poderei alguma enganada</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>15-11-2024</t>
+          <t>06-12-2024</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Impressão de fotografias</t>
+          <t>Juízes com direito a massagens e ioga grátis</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>sei vivemos digital gosto ter fotografias especiais formato impresso nada natal passado família ver fotografias antigas ppassarem mão mão dito impresso naquelas máquinas automáticas fnac pingo doce etc gostava saber conhecem alguma forma económica fazer un ano existia site enviavam ficheiros passado algum tempo receniamos fotos correio ficava bastante conta uk presumo brexit coisa deixado possível conhecem algo género</t>
+          <t>httpswwwcmjornalptsociedadedetalhejuizescomdireitoamassagenseiogagratisoriginserpauto</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>19-11-2024</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Bullying fiscal</t>
+          <t>Cáritas de Braga constrói centro de acolhimento de emergência</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>httpsdelitodeopiniaoblogssapoptbullyingfiscalhttpsdelitodeopiniaoblogssapoptbullyingfiscal un dia ouvi entrevista rádio observador entrevista carlos mota santoshttpsobservadorptprogramasclubedossomosdosmenoseficientesnosprocessosjudiciais ceo motaengil tema abordado deixo aqui excerto disse termos noção portugal hoje comparado países união europeia segundo país menos eficiente termos resolução processos judiciais administrativos primeira instância média duração processos dia dobro espanha realidade itália chipre malta têm processos demorados processo portugal vez tribunais administrativos primeira instância quer dizer quer dizer cerca pib mil milhões euro números cativos nestes processos riqueza criada país utilizada nada jogo parados receita pode utilizada autoridade tributária fin estado verba pode usada empresas</t>
+          <t>httpsrrsapoptnoticiareligiaocaritasdebragaconstroicentrodeacolhimentodeemergencia</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>19-11-2024</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Sms de possivel fraude de remetente com nome "Infofisco"</t>
+          <t>Earworm musical - ajuda por favor</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>boa tardes recebi sm intuito possivel fraude pessoa denominação infofisco acho estranho mensagem porque pago sempre impostos contribuições nunca problemas fisco nunca multas pagamentos falta sm parece facto fraudulenta visto nada irregular acordo consultas financeiras fiz alguem aqui reddit recebeu mensagem algo parecido existe alguma forma reportar tipo sm autoridades</t>
+          <t>malta preciso vossa ajuda sei hipótese remota cá vai aula educação musical ano professora música altura passou música bateu comigo infelizmente porque passaram algumas décadas recordo banda sei conjunto criançasadolescentes coro infantil talvez cd levou altura música som roxette sleeping in my car portanto imaginem refrão desta música seguinte letra corrida vamos ganhar partida conquistar lugar sol sonhar oh yeah</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>22-10-2024</t>
+          <t>18-11-2024</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Recomendações de melhores médicos para prevenir colesterol e doenças crónicas?</t>
+          <t>A história do gigante de Manjacaze. Este português foi o homem mais alto do mundo</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>colesterol diabetes condições cardíacas ter especial atenção dada situação clínica completamente últimas médicos sabem andam fazer vi demasiados desses existem espera maioria pessoas sabe porque vai frequentemente médico</t>
+          <t>httpssearchapplinkhttpsaffwwwnitptfculturaflivrosfahistoriadogigantedemanjacazeesteportuguesfoiohomemmaisaltodomundoutmcampaignagautmsourceagsadlcshfxfgsfmf</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>22-10-2024</t>
+          <t>15-11-2024</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Parlamento quer mais homossexuais, ciganos e afrodescendentes nas forças de segurança - sondagem</t>
+          <t>Impressão de fotografias</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>httpswwwjnptparlamentoquermaishomossexuaisciganoseafrodescendentesnagnrenapsphttpswwwjnptparlamentoquermaishomossexuaisciganoseafrodescendentesnagnrenapsp assembleia república recomendou governo crie campanhas recrutamento forças segurança dirigidas pessoas pertençam comunidades específicas ideia segundo resolução aumentar diversidade incluindo pessoas lgbt migrantes afrodescendentes comunidades ciganas concordam proposta acham deviam limitar campanhas atrair candidatos deviam criar quota minorias view pollhttpswwwredditcompollgjgt</t>
+          <t>sei vivemos digital gosto ter fotografias especiais formato impresso nada natal passado família ver fotografias antigas ppassarem mão mão dito impresso naquelas máquinas automáticas fnac pingo doce etc gostava saber conhecem alguma forma económica fazer un ano existia site enviavam ficheiros passado algum tempo receniamos fotos correio ficava bastante conta uk presumo brexit coisa deixado possível conhecem algo género</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>How General Sir Mike Jackson stopped WWIII: Late army chief refused to follow American superior's order - and saved thousands of lives</t>
+          <t>Bullying fiscal</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>httpswwwdailymailcouknewsarticlegeneralsirmikejacksonstoppedwwrefusedorderhtmlhttpswwwdailymailcouknewsarticlegeneralsirmikejacksonstoppedwwrefusedorderhtml legendary british military chief general sir mike jackson stopped world war three from exploded after he refused to follow his american superior order in kosovo gen sir mike the former head of the british army died at the age of following an illustrious career that saw him command uk force during usled invasion of iraqhttpswwwdailymailcouknewsiraqindexhtml in but it wa during the celebrated officer time in kosovo in which saw him taking crucial decision that helped prevent the conflict from exploding into allout war between natohttpswwwdailymailcouknewsnatoindexhtml and russiahttpswwwdailymailcouknewsrussiaukraineconflictindexhtml he famously refused an order from his u commander to intercept russian force when they entered kosovo without nato agreement in move credited with saving thousand of life im not going to start the third world war you sir mike dubbed true soldier soldier and the prince of darkness is reported to have told his american bos general wesley clark xb</t>
+          <t>httpsdelitodeopiniaoblogssapoptbullyingfiscalhttpsdelitodeopiniaoblogssapoptbullyingfiscal un dia ouvi entrevista rádio observador entrevista carlos mota santoshttpsobservadorptprogramasclubedossomosdosmenoseficientesnosprocessosjudiciais ceo motaengil tema abordado deixo aqui excerto disse termos noção portugal hoje comparado países união europeia segundo país menos eficiente termos resolução processos judiciais administrativos primeira instância média duração processos dia dobro espanha realidade itália chipre malta têm processos demorados processo portugal vez tribunais administrativos primeira instância quer dizer quer dizer cerca pib mil milhões euro números cativos nestes processos riqueza criada país utilizada nada jogo parados receita pode utilizada autoridade tributária fin estado verba pode usada empresas</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -10287,419 +10287,419 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>16-10-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>No pódio da culpa se a aprovação do orçamento falhar o povo coloca a AD o PS e o Presidente da Republica.</t>
+          <t>Sms de possivel fraude de remetente com nome "Infofisco"</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>montenegro recusa fazer birra povo culpao oe falharhttpszapaeiouptmontenegrorecusaestarafazerbirramasopovoculpaoseooefalhar sondagem intercampus correio manhãhttpswwwcmjornalptpoliticadetalheportuguesesapontamdedoaogovernoseorcamentodoestadochumbarrefhpoutrasnoticias divulgada terçafeira conclui culpa governo p culpa partido socialista culpa marcelo rebelo sousa</t>
+          <t>boa tardes recebi sm intuito possivel fraude pessoa denominação infofisco acho estranho mensagem porque pago sempre impostos contribuições nunca problemas fisco nunca multas pagamentos falta sm parece facto fraudulenta visto nada irregular acordo consultas financeiras fiz alguem aqui reddit recebeu mensagem algo parecido existe alguma forma reportar tipo sm autoridades</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>15-10-2024</t>
+          <t>22-10-2024</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>O melhor ovo é…</t>
+          <t>Recomendações de melhores médicos para prevenir colesterol e doenças crónicas?</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>view pollhttpswwwredditcompollgp</t>
+          <t>colesterol diabetes condições cardíacas ter especial atenção dada situação clínica completamente últimas médicos sabem andam fazer vi demasiados desses existem espera maioria pessoas sabe porque vai frequentemente médico</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>15-10-2024</t>
+          <t>22-10-2024</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Onde encontrar produtos para pele atópica baratos?</t>
+          <t>Parlamento quer mais homossexuais, ciganos e afrodescendentes nas forças de segurança - sondagem</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>conheço várias famílias pobres têm filhos problema obrigado</t>
+          <t>httpswwwjnptparlamentoquermaishomossexuaisciganoseafrodescendentesnagnrenapsphttpswwwjnptparlamentoquermaishomossexuaisciganoseafrodescendentesnagnrenapsp assembleia república recomendou governo crie campanhas recrutamento forças segurança dirigidas pessoas pertençam comunidades específicas ideia segundo resolução aumentar diversidade incluindo pessoas lgbt migrantes afrodescendentes comunidades ciganas concordam proposta acham deviam limitar campanhas atrair candidatos deviam criar quota minorias view pollhttpswwwredditcompollgjgt</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>09-10-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Programa The Floor - curiosidade</t>
+          <t>How General Sir Mike Jackson stopped WWIII: Late army chief refused to follow American superior's order - and saved thousands of lives</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>olá cá casa acompanhado programa the floor rtp achamos engraçado formato diferente simple deixa expetativa ver vai chegar fim podem favoritos continuam eliminados etc surgido curiosidade todos programas concorrentes têm sempre mesma roupa supostamente cada programa realizado semana diferente porque palmeirim apresenta cada programa dessa forma os assim então têm sempre mesma roupa manter personagem facilmente identificar concorrente pensam acham tudo gravado único dia fazem teatrinho tal fazer conta nova semana nada importante curiosidade vai mantendo vamos ver próximos programas têm outra roupa sim então porque dia gravaram x episódios noutro dia x episódios assim podiam ter disfarçado melhor levar roupa cada episódio então faziam conta supostamente passado semana bjs abraços</t>
+          <t>httpswwwdailymailcouknewsarticlegeneralsirmikejacksonstoppedwwrefusedorderhtmlhttpswwwdailymailcouknewsarticlegeneralsirmikejacksonstoppedwwrefusedorderhtml legendary british military chief general sir mike jackson stopped world war three from exploded after he refused to follow his american superior order in kosovo gen sir mike the former head of the british army died at the age of following an illustrious career that saw him command uk force during usled invasion of iraqhttpswwwdailymailcouknewsiraqindexhtml in but it wa during the celebrated officer time in kosovo in which saw him taking crucial decision that helped prevent the conflict from exploding into allout war between natohttpswwwdailymailcouknewsnatoindexhtml and russiahttpswwwdailymailcouknewsrussiaukraineconflictindexhtml he famously refused an order from his u commander to intercept russian force when they entered kosovo without nato agreement in move credited with saving thousand of life im not going to start the third world war you sir mike dubbed true soldier soldier and the prince of darkness is reported to have told his american bos general wesley clark xb</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>06-10-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Não há nada para comer aqui em casa</t>
+          <t>No pódio da culpa se a aprovação do orçamento falhar o povo coloca a AD o PS e o Presidente da Republica.</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>pensar compram comer horas</t>
+          <t>montenegro recusa fazer birra povo culpao oe falharhttpszapaeiouptmontenegrorecusaestarafazerbirramasopovoculpaoseooefalhar sondagem intercampus correio manhãhttpswwwcmjornalptpoliticadetalheportuguesesapontamdedoaogovernoseorcamentodoestadochumbarrefhpoutrasnoticias divulgada terçafeira conclui culpa governo p culpa partido socialista culpa marcelo rebelo sousa</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>04-10-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>A Lebre e a Tartaruga</t>
+          <t>O melhor ovo é…</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>vez lebre vaidosa gostava gabar velocidade constantemente zombava outros animais especialmente lenta tartaruga suportava pacientemente provocações certo dia cansada humilhações tartaruga desafiou lebre corrida lebre segura venceria qualquer esforço aceitou desafio desdém todos animais floresta reuniram assistir corrida curiosos ver desfecho daquela competição inusitada corrida começou lebre disparou frente rapidez fulminante enquanto tartaruga fiel ritmo avançava lentamente perceber frente lebre decidiu descansar sombra árvore convencida tartaruga jamais alcançaria enquanto lebre dormia profundamente tartaruga parar determinação inabalável continuou caminho passo passo lebre acordou percebeu espanto tartaruga próxima linha chegada impulso desespero lebre correu rápido pôde tarde demais tartaruga cruzou linha chegada calma venceu corrida animais floresta aplaudiram feito extraordinário enquanto lebre envergonhada aprendeu valiosa lição perseverança humildade valem velocidade arrogância moral história devagar vai longe confiança excessiva pode obstáculo determinação constante caminho verdadeiro sucesso</t>
+          <t>view pollhttpswwwredditcompollgp</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>03-10-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Quantos cafés tomam por dia?</t>
+          <t>Onde encontrar produtos para pele atópica baratos?</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>café bebida popular portugal view pollhttpswwwredditcompollfnfik</t>
+          <t>conheço várias famílias pobres têm filhos problema obrigado</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>23-09-2024</t>
+          <t>09-10-2024</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Que deve fazer Portugal em relação a Olivença?</t>
+          <t>Programa The Floor - curiosidade</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>exigir devolução olivença espanha fazer acordo espanha entrega definitiva olivença porquê escolhem opção escolhem view pollhttpswwwredditcompollfkyph</t>
+          <t>olá cá casa acompanhado programa the floor rtp achamos engraçado formato diferente simple deixa expetativa ver vai chegar fim podem favoritos continuam eliminados etc surgido curiosidade todos programas concorrentes têm sempre mesma roupa supostamente cada programa realizado semana diferente porque palmeirim apresenta cada programa dessa forma os assim então têm sempre mesma roupa manter personagem facilmente identificar concorrente pensam acham tudo gravado único dia fazem teatrinho tal fazer conta nova semana nada importante curiosidade vai mantendo vamos ver próximos programas têm outra roupa sim então porque dia gravaram x episódios noutro dia x episódios assim podiam ter disfarçado melhor levar roupa cada episódio então faziam conta supostamente passado semana bjs abraços</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>19-09-2024</t>
+          <t>06-10-2024</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Gostaria de me informar sobre o preço de congelamento de tumores benignos (crioablação); caso alguém saiba…</t>
+          <t>Não há nada para comer aqui em casa</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>edit finalidade destruição tumor congelar tumores vamos dar exemplo fibroadenoma alguém sabe custo ouvi custos americanos volta mil custos portuguese encontro nada internet sobre agradeço li algures poderá ficar mínimo mil hoje voltei confirmar info sendo coberto seguros certeza</t>
+          <t>pensar compram comer horas</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>12-09-2024</t>
+          <t>04-10-2024</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>É possível aceder ao registo criminal de outra pessoa?</t>
+          <t>A Lebre e a Tartaruga</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>boa forma aceder registo criminal outra pessoa ficar saber alguma outra maneira outra pessoa cometeu algum crime passado obrigada</t>
+          <t>vez lebre vaidosa gostava gabar velocidade constantemente zombava outros animais especialmente lenta tartaruga suportava pacientemente provocações certo dia cansada humilhações tartaruga desafiou lebre corrida lebre segura venceria qualquer esforço aceitou desafio desdém todos animais floresta reuniram assistir corrida curiosos ver desfecho daquela competição inusitada corrida começou lebre disparou frente rapidez fulminante enquanto tartaruga fiel ritmo avançava lentamente perceber frente lebre decidiu descansar sombra árvore convencida tartaruga jamais alcançaria enquanto lebre dormia profundamente tartaruga parar determinação inabalável continuou caminho passo passo lebre acordou percebeu espanto tartaruga próxima linha chegada impulso desespero lebre correu rápido pôde tarde demais tartaruga cruzou linha chegada calma venceu corrida animais floresta aplaudiram feito extraordinário enquanto lebre envergonhada aprendeu valiosa lição perseverança humildade valem velocidade arrogância moral história devagar vai longe confiança excessiva pode obstáculo determinação constante caminho verdadeiro sucesso</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>12-09-2024</t>
+          <t>03-10-2024</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t xml:space="preserve">O que uma pessoa que ainda não está a trabalhar ou estudar pode fazer para ocupar o tempo fora de casa? </t>
+          <t>Quantos cafés tomam por dia?</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>basicamente pessoa passar tempo instituição doentes psiquiátricos sofre bullying abuso sexual outros pacientes sendo administração intervem quer sair trabalho ficar casa boa opção problemas familiares quê poderia fazer ocupar tempo enquanto arranja trabalho algo possa fazer durante várias horas ficar dia todo casa</t>
+          <t>café bebida popular portugal view pollhttpswwwredditcompollfnfik</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>11-09-2024</t>
+          <t>23-09-2024</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Discussão importante: qual o vosso peixe favorito? (Salmão, petinga, etc)</t>
+          <t>Que deve fazer Portugal em relação a Olivença?</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>acho super importante saber vosso gosto gastronómico beijos luz</t>
+          <t>exigir devolução olivença espanha fazer acordo espanha entrega definitiva olivença porquê escolhem opção escolhem view pollhttpswwwredditcompollfkyph</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>02-09-2024</t>
+          <t>19-09-2024</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t xml:space="preserve">Desejo-vos antecipadamente um feliz Natal.  </t>
+          <t>Gostaria de me informar sobre o preço de congelamento de tumores benignos (crioablação); caso alguém saiba…</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>porque alguém começar começo feliz natal cheio prendas boa saúde paz amor senhor obrigado</t>
+          <t>edit finalidade destruição tumor congelar tumores vamos dar exemplo fibroadenoma alguém sabe custo ouvi custos americanos volta mil custos portuguese encontro nada internet sobre agradeço li algures poderá ficar mínimo mil hoje voltei confirmar info sendo coberto seguros certeza</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>26-08-2024</t>
+          <t>12-09-2024</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Tremor de Terra</t>
+          <t>É possível aceder ao registo criminal de outra pessoa?</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>alguém acabou sentir tremor terra dormir prédio abanou tal maneira cadelas acordamos logo minimamente forte nunca sentido assim</t>
+          <t>boa forma aceder registo criminal outra pessoa ficar saber alguma outra maneira outra pessoa cometeu algum crime passado obrigada</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>26-08-2024</t>
+          <t>12-09-2024</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Gaviãozinho de Cima - Chouto, 2023</t>
+          <t xml:space="preserve">O que uma pessoa que ainda não está a trabalhar ou estudar pode fazer para ocupar o tempo fora de casa? </t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>avô pastor</t>
+          <t>basicamente pessoa passar tempo instituição doentes psiquiátricos sofre bullying abuso sexual outros pacientes sendo administração intervem quer sair trabalho ficar casa boa opção problemas familiares quê poderia fazer ocupar tempo enquanto arranja trabalho algo possa fazer durante várias horas ficar dia todo casa</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>05-08-2024</t>
+          <t>11-09-2024</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Regiões da Europa [inquérito Portugal]</t>
+          <t>Discussão importante: qual o vosso peixe favorito? (Salmão, petinga, etc)</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>amantes geografia europa tema totalmente consensual varia perspetiva cada país regiões europa x país faz parte região ex consideram hungria europa central europa leste curioso saber perspetiva portuguesa portanto fiz inquérito quiser perder minuto respondêlo daqui semana trago resultado partilhar aqui noutros sub estrangeiros costumo ver perspetivas outros países acho nunca fizeram cá pode traga cenas género link httpsformsglezxednasvzfberhttpsformsglezxednasvzfber httpspreviewredditqejhhpayggdpngwidthformatpngautowebpscdfffbaafcb</t>
+          <t>acho super importante saber vosso gosto gastronómico beijos luz</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>03-08-2024</t>
+          <t>02-09-2024</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Qual a melhor forma de limpar moedas que estão a ficar com uma cor escura ou têm outras impurezas?</t>
+          <t xml:space="preserve">Desejo-vos antecipadamente um feliz Natal.  </t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>basicamente total título vez vi tv programa onde limpavam moedas antigas escuras ficavam parecer nova tempo esquecime produtos usavam procedimentos alguém sabe obrigado</t>
+          <t>porque alguém começar começo feliz natal cheio prendas boa saúde paz amor senhor obrigado</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>03-08-2024</t>
+          <t>26-08-2024</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Alguém sabe ?</t>
+          <t>Tremor de Terra</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>sabe ferramenta usada</t>
+          <t>alguém acabou sentir tremor terra dormir prédio abanou tal maneira cadelas acordamos logo minimamente forte nunca sentido assim</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>16-07-2024</t>
+          <t>26-08-2024</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Putin planeia "atos violentos de sabotagem" em toda a Europa</t>
+          <t>Gaviãozinho de Cima - Chouto, 2023</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ante dizerem ladrar morde espera morda estarem finos</t>
+          <t>avô pastor</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>10-07-2024</t>
+          <t>05-08-2024</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Scam</t>
+          <t>Regiões da Europa [inquérito Portugal]</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>pena ter conta cgd ponto final parece suspeito nota</t>
+          <t>amantes geografia europa tema totalmente consensual varia perspetiva cada país regiões europa x país faz parte região ex consideram hungria europa central europa leste curioso saber perspetiva portuguesa portanto fiz inquérito quiser perder minuto respondêlo daqui semana trago resultado partilhar aqui noutros sub estrangeiros costumo ver perspetivas outros países acho nunca fizeram cá pode traga cenas género link httpsformsglezxednasvzfberhttpsformsglezxednasvzfber httpspreviewredditqejhhpayggdpngwidthformatpngautowebpscdfffbaafcb</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>10-07-2024</t>
+          <t>03-08-2024</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Como é que é fazer os exames nacionais depois do primeiro ano de universidade?</t>
+          <t>Qual a melhor forma de limpar moedas que estão a ficar com uma cor escura ou têm outras impurezas?</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>pensar entrar universidade boa fazer primeiro ano nessa universidade repetir exame nacional entrar universidade melhor boa ideia</t>
+          <t>basicamente total título vez vi tv programa onde limpavam moedas antigas escuras ficavam parecer nova tempo esquecime produtos usavam procedimentos alguém sabe obrigado</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -10707,419 +10707,419 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>26-06-2024</t>
+          <t>03-08-2024</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t xml:space="preserve">É mau se eu não gosto de ler livros? </t>
+          <t>Alguém sabe ?</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>filho mãe lê muitos livros vejoa sempre ler ken follett jeffrey archer outros livros leitores ávidos infelizmente herdei hábito acho maioria rapazes hoje dia gostam videojogos desporto gosto ver euro jogar nintendo assim recentemente vi vídeo benefícios leitura cérebro saber fez sentir bem porque sinto perdi oportunidade pessoas inteligentes benefícios incluem escrever melhores textos vocabulário maior aumento inteligência geral mim benefício importante capaz ler textos longos algo poucas pessoas conseguem fazer importante faculdade escola quer trabalhador sucesso diria ainda importante matemática biologia física gostava poder ler dia sintome pouco envergonhado porque nunca visto ler porque capacidade ler textos longos parar aqui alguém faça sentir melhor gostava sinceramente única pessoa frustrada aproveitar benefícios literatura</t>
+          <t>sabe ferramenta usada</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>21-06-2024</t>
+          <t>16-07-2024</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>O que fazer com medicamentos para doar?</t>
+          <t>Putin planeia "atos violentos de sabotagem" em toda a Europa</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>boa queria saber posso fazer jogar lixo medicamentos podem necessários alguém específico caixas nova alprazolam xanax validade cerca ano partir agora poderiam ajudar farmácias recolhem centros ajuda psiquiátrica centro saúde centros apoio á comunidade obrigada</t>
+          <t>ante dizerem ladrar morde espera morda estarem finos</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>20-06-2024</t>
+          <t>10-07-2024</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Trabalho artístico está a aumentar entre as crianças</t>
+          <t>Scam</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>httpswwwjnpttrabalhoartisticoestaaaumentarentreascriancas solicitações maioritariamente atores músicos pressão mediática preocupa especialistas apesar trabalho menores idade escolar proibido portugal número comunicações participação crianças atividades culturais artísticas publicitárias pedidas comissões proteção crianças jovens cpcj têm vindo aumentar sobretudo idades precoces cinco ano</t>
+          <t>pena ter conta cgd ponto final parece suspeito nota</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>12-06-2024</t>
+          <t>10-07-2024</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Guantánamo israelense": médico denuncia condições desumanas de detenção de prisioneiros palestinos</t>
+          <t>Como é que é fazer os exames nacionais depois do primeiro ano de universidade?</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>httpswwwrfifrbrmundoguantcanamoisraelensemcadicodenunciacondicacbesdesumanasdedetencacaodeprisioneirospalestinos prisioneiros olhos vendados nu vestidos fraldas amarrados camas operados anestesia existe guantánamo estilo israelense entrevista rádio pública france info médico israelense relatum sob anonimato condições detenção palestinos base militar sde teiman localizada deserto negev sul israel doi meses ongs direitos humanos israelenses denunciam condições detenção sde teiman localizada quilômetros faixa gaza algumas organizações comparam base militar israel campo prisioneiros administrado governo americano cuba onde enviados acusados envolvimento terrorismo após ataques setembro estados unidos nesta segundafeira entrevista rádio france info médico pôde visitar instalações sde teiman conta viu detidos tratados ali seres humanos diz cirurgião israelense entrou base militar hora pedido exército atender paciente gravemente ferido arma fogo descobriu estrutura separada doi espaços presídio hospital campanha pacientes têm nome dispostos duas filas detentos todos amarrados permanecem deitados camas podem mover têm olhos vendados nu usam fraldas descreve clara violação convenção genebra código ética organização mundial saúde tortura física psicológica denuncia cirurgião israelense</t>
+          <t>pensar entrar universidade boa fazer primeiro ano nessa universidade repetir exame nacional entrar universidade melhor boa ideia</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>04-06-2024</t>
+          <t>26-06-2024</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Ex repentino</t>
+          <t xml:space="preserve">É mau se eu não gosto de ler livros? </t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>boa pessoal relação ano onde dividiamos casa relação começou descambar ter descoberto traição acompanhando tempo poi parou logo outras falhas entretanto terminei poi apanhei treinar mesma gaja ginásio privado ambo treinador consegui lidar fiz sentia momento separados á meses nestes meses continuou falar comigo julguem porque amo poi mesmos amigo fingir tinhamos acabado afins desde semana passada diz firmemente acabou achei estranha mudança repentina bastante previsível porque perguntasse alguém falar sinceramente nunca conseguiu ontem descobri fala anda outra sei provas saber tipo pessoa sei vale nada consigo evitar sofrer porque amo agora desta descoberta arrasada irei lidar assumir relação vez dar meses superar continuou alimentar esperança agora decidiu seguir vida ja alguém passou fim namoro outra pessoa assumiu logo outra nao sei fazer lidar superar</t>
+          <t>filho mãe lê muitos livros vejoa sempre ler ken follett jeffrey archer outros livros leitores ávidos infelizmente herdei hábito acho maioria rapazes hoje dia gostam videojogos desporto gosto ver euro jogar nintendo assim recentemente vi vídeo benefícios leitura cérebro saber fez sentir bem porque sinto perdi oportunidade pessoas inteligentes benefícios incluem escrever melhores textos vocabulário maior aumento inteligência geral mim benefício importante capaz ler textos longos algo poucas pessoas conseguem fazer importante faculdade escola quer trabalhador sucesso diria ainda importante matemática biologia física gostava poder ler dia sintome pouco envergonhado porque nunca visto ler porque capacidade ler textos longos parar aqui alguém faça sentir melhor gostava sinceramente única pessoa frustrada aproveitar benefícios literatura</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>03-06-2024</t>
+          <t>21-06-2024</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Consumo de carne e peixe (seafood) por pessoa por ano nos países da União Europeia</t>
+          <t>O que fazer com medicamentos para doar?</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>httpspreviewredditcmlrwwmrdjpgwidthformatpjpgautowebpscbfecdccbebaeceef fontes httpsenwikipediaorgwikilistofcountriesbyseafoodconsumptionhttpsenwikipediaorgwikilistofcountriesbyseafoodconsumption httpsenwikipediaorgwikilistofcountriesbymeatconsumptionhttpsenwikipediaorgwikilistofcountriesbymeatconsumption un comilões</t>
+          <t>boa queria saber posso fazer jogar lixo medicamentos podem necessários alguém específico caixas nova alprazolam xanax validade cerca ano partir agora poderiam ajudar farmácias recolhem centros ajuda psiquiátrica centro saúde centros apoio á comunidade obrigada</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>31-05-2024</t>
+          <t>20-06-2024</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Porque é que não se fala do bullying que sofrem as crianças gordas?</t>
+          <t>Trabalho artístico está a aumentar entre as crianças</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>segundo li tempo sofre bullying escolas imigrantes homossexuais outras minorias obesos infelizmente muitas crianças gostam fazer bullying qualquer potencial vitima sintam fraca pode alvo crianças muitas vezes crueis muitos casos pais apercebem disso porque sofrimento crianças gordas escolas incomoda ninguem bullying sobre gordos lev aumentem casos anorexia ninguem família gordo</t>
+          <t>httpswwwjnpttrabalhoartisticoestaaaumentarentreascriancas solicitações maioritariamente atores músicos pressão mediática preocupa especialistas apesar trabalho menores idade escolar proibido portugal número comunicações participação crianças atividades culturais artísticas publicitárias pedidas comissões proteção crianças jovens cpcj têm vindo aumentar sobretudo idades precoces cinco ano</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>14-05-2024</t>
+          <t>12-06-2024</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>De que município(s) provém as vossas famílias?</t>
+          <t>Guantánamo israelense": médico denuncia condições desumanas de detenção de prisioneiros palestinos</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>embora nascido lisboa família originária concelho arcos valdevez ponte barca</t>
+          <t>httpswwwrfifrbrmundoguantcanamoisraelensemcadicodenunciacondicacbesdesumanasdedetencacaodeprisioneirospalestinos prisioneiros olhos vendados nu vestidos fraldas amarrados camas operados anestesia existe guantánamo estilo israelense entrevista rádio pública france info médico israelense relatum sob anonimato condições detenção palestinos base militar sde teiman localizada deserto negev sul israel doi meses ongs direitos humanos israelenses denunciam condições detenção sde teiman localizada quilômetros faixa gaza algumas organizações comparam base militar israel campo prisioneiros administrado governo americano cuba onde enviados acusados envolvimento terrorismo após ataques setembro estados unidos nesta segundafeira entrevista rádio france info médico pôde visitar instalações sde teiman conta viu detidos tratados ali seres humanos diz cirurgião israelense entrou base militar hora pedido exército atender paciente gravemente ferido arma fogo descobriu estrutura separada doi espaços presídio hospital campanha pacientes têm nome dispostos duas filas detentos todos amarrados permanecem deitados camas podem mover têm olhos vendados nu usam fraldas descreve clara violação convenção genebra código ética organização mundial saúde tortura física psicológica denuncia cirurgião israelense</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>12-05-2024</t>
+          <t>04-06-2024</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>A angolana traidora</t>
+          <t>Ex repentino</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>voluntariado ajudar famílias pobres vou conhecendo muitas pessoas uma boa outras más toda raças etnias duas famílias origem angolana vieram pedir ajuda moram apartamento irmãs irmãs irmãs porque cultura angolana primo considerados irmãos ambas separadas filhos outra família dorme quarto outra outro terceiro quarto vive outra família relações parentesco angolana duas vieram pedirnos ajuda pagam cada euro quarto pagaram euro durante un tempo familiar enganouas disselhes custo quarto imigraram angola cá vindo morar apartamento pagava aluguer senhorio euro quarto ficava diferença poi conheciam senhorio obviamente situação durou muitos meses poi acabaram conhecer senhorio falar queixarse valor aluguer quarto perceber enganadas familiar vigarista expulsa casa senhorio destas duas famílias mulher empregada outra ainda procura emprego crianças inscritas escola decidimos ajudar alimentos roupa mobília incluindo camas colchões poi dormir chão louça mulher ainda desempregada conseguir arranjar emprego angolana traidora mudarse local ajudado chegou durante alguns meses conseguir emprego avisado outra familiar feitio complicado assim esperava comportamento tão vil</t>
+          <t>boa pessoal relação ano onde dividiamos casa relação começou descambar ter descoberto traição acompanhando tempo poi parou logo outras falhas entretanto terminei poi apanhei treinar mesma gaja ginásio privado ambo treinador consegui lidar fiz sentia momento separados á meses nestes meses continuou falar comigo julguem porque amo poi mesmos amigo fingir tinhamos acabado afins desde semana passada diz firmemente acabou achei estranha mudança repentina bastante previsível porque perguntasse alguém falar sinceramente nunca conseguiu ontem descobri fala anda outra sei provas saber tipo pessoa sei vale nada consigo evitar sofrer porque amo agora desta descoberta arrasada irei lidar assumir relação vez dar meses superar continuou alimentar esperança agora decidiu seguir vida ja alguém passou fim namoro outra pessoa assumiu logo outra nao sei fazer lidar superar</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>03-06-2024</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Conversar?</t>
+          <t>Consumo de carne e peixe (seafood) por pessoa por ano nos países da União Europeia</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>alguém quiser falar so mandar mensagem</t>
+          <t>httpspreviewredditcmlrwwmrdjpgwidthformatpjpgautowebpscbfecdccbebaeceef fontes httpsenwikipediaorgwikilistofcountriesbyseafoodconsumptionhttpsenwikipediaorgwikilistofcountriesbyseafoodconsumption httpsenwikipediaorgwikilistofcountriesbymeatconsumptionhttpsenwikipediaorgwikilistofcountriesbymeatconsumption un comilões</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>31-05-2024</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Biocenose do Porto - Servidor Discord</t>
+          <t>Porque é que não se fala do bullying que sofrem as crianças gordas?</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>bom dia criar servidor discord convivio cidade porto objetivo reunirmos compartilhar dicas locais organizar encontros promover boa amizades moras porto interessado conectareste pessoas locais vêm fazer parte clique aqui juntar httpsdiscordggrhmtpmrmqhttpsdiscordggrhmtpmrmq esperamos conhecer breve</t>
+          <t>segundo li tempo sofre bullying escolas imigrantes homossexuais outras minorias obesos infelizmente muitas crianças gostam fazer bullying qualquer potencial vitima sintam fraca pode alvo crianças muitas vezes crueis muitos casos pais apercebem disso porque sofrimento crianças gordas escolas incomoda ninguem bullying sobre gordos lev aumentem casos anorexia ninguem família gordo</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>06-05-2024</t>
+          <t>14-05-2024</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Negócio e Empreendedorismo</t>
+          <t>De que município(s) provém as vossas famílias?</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>jovem ambição empreender começar negócio zero gostaria conectar pessoas construíram negócios sucesso poder dar conselhos insight bem algumas orientações realmente apreciaria porque preciso disso</t>
+          <t>embora nascido lisboa família originária concelho arcos valdevez ponte barca</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>22-04-2024</t>
+          <t>12-05-2024</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Quem nos valerá quando a máquina controlar o gatilho?</t>
+          <t>A angolana traidora</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>xb jornal notícias abril httpspreviewredditnjiwmgdwcjpgwidthformatpjpgautowebpsadcfdfdadbdacbd</t>
+          <t>voluntariado ajudar famílias pobres vou conhecendo muitas pessoas uma boa outras más toda raças etnias duas famílias origem angolana vieram pedir ajuda moram apartamento irmãs irmãs irmãs porque cultura angolana primo considerados irmãos ambas separadas filhos outra família dorme quarto outra outro terceiro quarto vive outra família relações parentesco angolana duas vieram pedirnos ajuda pagam cada euro quarto pagaram euro durante un tempo familiar enganouas disselhes custo quarto imigraram angola cá vindo morar apartamento pagava aluguer senhorio euro quarto ficava diferença poi conheciam senhorio obviamente situação durou muitos meses poi acabaram conhecer senhorio falar queixarse valor aluguer quarto perceber enganadas familiar vigarista expulsa casa senhorio destas duas famílias mulher empregada outra ainda procura emprego crianças inscritas escola decidimos ajudar alimentos roupa mobília incluindo camas colchões poi dormir chão louça mulher ainda desempregada conseguir arranjar emprego angolana traidora mudarse local ajudado chegou durante alguns meses conseguir emprego avisado outra familiar feitio complicado assim esperava comportamento tão vil</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>22-04-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como evitar diabetes, hipertensão, colesterol, etc.? </t>
+          <t>Conversar?</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>bom dia malta gostaria saber evitar toda doenças aparecem usualmente velhice indiquei colesterol diabetes usualmente hipertensão tambem etc posso dar luxo tomar medicamentos fazem pernas inchadas</t>
+          <t>alguém quiser falar so mandar mensagem</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>21-04-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>E pur si muove!</t>
+          <t>Biocenose do Porto - Servidor Discord</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>httpscortafitasblogssapoptepursimuovehttpscortafitasblogssapoptepursimuove joão távora leitura faço história portugal primeira metade séc xx fico ideia clara salazar limitou governar centro onde empurram sempre ventos história entendimento chamado centro política simplesmente pensamento dominante determinada época luta política actores lideranças sectárias promoção determinado modelo ideias espaço centro definido maioria politicasociológica regime suportam determinada época quero dizer simplificando estado novo correspondeu durante duas décadas expectativas grande maioria população portuguesa estado novo promoveu catolicismo limitouse surfar religiosidade grande maioria portuguese puritano grande maioria desses portuguese grande medida repressão exagerada aconteceu leste europa estado novo simplesmente espelho expectativas portuguese tempo revolucionários república acolheram aclamaram vista felicidade prosperidade económica esperança vida melhor ponto partida baixo determinou aquiescência popular àquele regime autoritário fundo fundo estado novo tempo auge politicamente correcto experiência rua concede coincide perfil portuguese grande maioria pouco ideológica menos ainda sectária acredito pouco sucesso movimentações partidárias pretendem mudar força ortopedicamente centro político portuguese quero dizer educadores povo partidos políticos comunicação social têm genericamente pouco sucesso intenções intui exemplo tempo covid tentei explicar dia destes almoço amigo reacionários digamos assim sucesso vencia naquela mesa tese epidemia covid sido conspiração governos ocidentais maquiavelicamente subjugar talvez através vacinas cariz duvidoso povo ignaro talvez motivados interesses obscuros grandes laboratórios contra argumentava independentemente avaliação verdadeiro grau severidade crise sanitária governos medidas si implementadas limitaram corresponder expectativas populações dentro condicionamentos económicos culturais vejase aconteceu boris johnson cuja displicência inicial escândalos finais liquidaram politicamente medidas implementadas governos menos repressivas persecutórias liberais antiliberais incluindo campanhas vacinação abraçadas desejadas exigidas grande centrão político cada país grande critério científico outro resto quanto resultados diferentes estratégias bem sabemos estatísticas bem torturadas darão cada pretenda serve dizer acho vale pena batalharse ideias cada defende tentar influenciar centrão politicamente correcto oprime cada época sendo certo ingénuo quererse mudar direcção vento mãos história provanos saciedade mudamse tempo mudamse vontades tento explicar exemplo dado primeiro parágrafo ventos mudam afrontando irrelevância vontade cada sempre melhor entendase centro movese desde pareça moderno cada geração xb</t>
+          <t>bom dia criar servidor discord convivio cidade porto objetivo reunirmos compartilhar dicas locais organizar encontros promover boa amizades moras porto interessado conectareste pessoas locais vêm fazer parte clique aqui juntar httpsdiscordggrhmtpmrmqhttpsdiscordggrhmtpmrmq esperamos conhecer breve</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>18-04-2024</t>
+          <t>06-05-2024</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Contudo, no final do dia, quem errou foi o Expresso. Por ter sido ingénuo a acreditar nas palavras do primeiro-ministro de Portugal. Mais uma vez, peço desculpa aos nossos leitores. Não voltará a acontecer.</t>
+          <t>Negócio e Empreendedorismo</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>jornal prestigiado portugal acreditou palavra primeiro ministro durante dia repetese desde décadas democracias ocidentais trocar governo mente gosta outro mente vai gostar vez repetese teatro esperança totalmente irracional fazendo mesma coisa milagre produza diferentes resultados</t>
+          <t>jovem ambição empreender começar negócio zero gostaria conectar pessoas construíram negócios sucesso poder dar conselhos insight bem algumas orientações realmente apreciaria porque preciso disso</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>13-04-2024</t>
+          <t>22-04-2024</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Portugueinglês</t>
+          <t>Quem nos valerá quando a máquina controlar o gatilho?</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>lido agorinha boa constantemente receber mensagens bastante vagas consultoras pequenas sobre projetos quais pensam encaixe sugerir marcar call trabalho consultora big primeiro pensamento nunca vai valer pena entreter tipo propostas sei porque nunca entretive nenhuma alguém passado situação consegue partilhar fazer bem ignorar pode ouro pote thx edit deixar funfact brincadeira toda conversa marcada range salarial acima salario nbsp escrever português menos estilo porque vê cada vez parolices stayaway covid boa constantemente receber mensagens bastante vagas consultoras pequenas sobre projetos quais pensam encaixe sugerir marcar entrevista trabalho consultora grandes primeiro pensamento nunca vai valer pena dar corda tipo propostas sei porque nunca alimentei nenhuma alguém passado situação consegue partilhar fazer bem ignorar pode ouro pote obrigado nota deixar curiosidade brincadeira toda conversa marcada intervalo salarial acima salario</t>
+          <t>xb jornal notícias abril httpspreviewredditnjiwmgdwcjpgwidthformatpjpgautowebpsadcfdfdadbdacbd</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>28-03-2024</t>
+          <t>22-04-2024</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Os filmes, séries, documentários, vídeos, etc, que vemos</t>
+          <t xml:space="preserve">Como evitar diabetes, hipertensão, colesterol, etc.? </t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>partilhem aqui vossas opiniões sobre filmes séries documentários etc vêm fizerem algum spoiler ocultemno senão fizerem apagar comentário post ficará ver afixado</t>
+          <t>bom dia malta gostaria saber evitar toda doenças aparecem usualmente velhice indiquei colesterol diabetes usualmente hipertensão tambem etc posso dar luxo tomar medicamentos fazem pernas inchadas</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>21-03-2024</t>
+          <t>21-04-2024</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>https://cnnportugal.iol.pt/bancos/banca/lucros-da-banca-disparam-mas-so-ha-descidas-timidas-nas-comissoes-cobradas-e-um-excelente-exemplo-de-ausencia-de-consciencia-social/20240318/65f49adfd34e87e0c08aca8c</t>
+          <t>E pur si muove!</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>motivações ter dividas amortizar máximo possivel ch livrarme destas instituições prioridade máxima</t>
+          <t>httpscortafitasblogssapoptepursimuovehttpscortafitasblogssapoptepursimuove joão távora leitura faço história portugal primeira metade séc xx fico ideia clara salazar limitou governar centro onde empurram sempre ventos história entendimento chamado centro política simplesmente pensamento dominante determinada época luta política actores lideranças sectárias promoção determinado modelo ideias espaço centro definido maioria politicasociológica regime suportam determinada época quero dizer simplificando estado novo correspondeu durante duas décadas expectativas grande maioria população portuguesa estado novo promoveu catolicismo limitouse surfar religiosidade grande maioria portuguese puritano grande maioria desses portuguese grande medida repressão exagerada aconteceu leste europa estado novo simplesmente espelho expectativas portuguese tempo revolucionários república acolheram aclamaram vista felicidade prosperidade económica esperança vida melhor ponto partida baixo determinou aquiescência popular àquele regime autoritário fundo fundo estado novo tempo auge politicamente correcto experiência rua concede coincide perfil portuguese grande maioria pouco ideológica menos ainda sectária acredito pouco sucesso movimentações partidárias pretendem mudar força ortopedicamente centro político portuguese quero dizer educadores povo partidos políticos comunicação social têm genericamente pouco sucesso intenções intui exemplo tempo covid tentei explicar dia destes almoço amigo reacionários digamos assim sucesso vencia naquela mesa tese epidemia covid sido conspiração governos ocidentais maquiavelicamente subjugar talvez através vacinas cariz duvidoso povo ignaro talvez motivados interesses obscuros grandes laboratórios contra argumentava independentemente avaliação verdadeiro grau severidade crise sanitária governos medidas si implementadas limitaram corresponder expectativas populações dentro condicionamentos económicos culturais vejase aconteceu boris johnson cuja displicência inicial escândalos finais liquidaram politicamente medidas implementadas governos menos repressivas persecutórias liberais antiliberais incluindo campanhas vacinação abraçadas desejadas exigidas grande centrão político cada país grande critério científico outro resto quanto resultados diferentes estratégias bem sabemos estatísticas bem torturadas darão cada pretenda serve dizer acho vale pena batalharse ideias cada defende tentar influenciar centrão politicamente correcto oprime cada época sendo certo ingénuo quererse mudar direcção vento mãos história provanos saciedade mudamse tempo mudamse vontades tento explicar exemplo dado primeiro parágrafo ventos mudam afrontando irrelevância vontade cada sempre melhor entendase centro movese desde pareça moderno cada geração xb</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>18-03-2024</t>
+          <t>18-04-2024</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>O Júlio das couves e o porquê dos partidos de poder terem muitos militantes corruptos</t>
+          <t>Contudo, no final do dia, quem errou foi o Expresso. Por ter sido ingénuo a acreditar nas palavras do primeiro-ministro de Portugal. Mais uma vez, peço desculpa aos nossos leitores. Não voltará a acontecer.</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>nome alterado resto verdadeiro menos assim contam lá terra pequenamédia cidade interior júlio couves sei ainda vivo longo historial aldrabices calotes corrupção criado monte dívidas passado tudo nome mulher tendo ante divorciado sempre viveram junto ainda cima acha achava vigarices fazia sinal inteligência contava algumas tom bravata amigo poi júlio alturas abril achou portugal ía comunista governado partido comunista português ladrão ideologia apenas ganância inscreverse pcp ainda conseguiu nomeado cargo público durante auge poder pcp tornou evidente pcp iria dominar país concelho junta freguesia redondezas júlio couves tornou ativo tóxico qualquer partido deixou vida política continuou vida empregado pequena empresa onde dizer verdade nunca constou roubasse nada posição pudesse fazer pequenas grandes vigarices partidos poder atraem muitos júlios couves entram partidos pensar partidos podem oferecer importarem oferecem honestamente desonestamente</t>
+          <t>jornal prestigiado portugal acreditou palavra primeiro ministro durante dia repetese desde décadas democracias ocidentais trocar governo mente gosta outro mente vai gostar vez repetese teatro esperança totalmente irracional fazendo mesma coisa milagre produza diferentes resultados</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>14-03-2024</t>
+          <t>13-04-2024</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estudo sobre a satisfação dos eleitores </t>
+          <t>Portugueinglês</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>estudantes ano licenciatura psicologia faculdade psicologia universidade lisboa âmbito unidade curricular estatística aplicada psicologia realizar estudo sobre satisfação relação resultados últimas eleições foco diferentes faixas etárias pedimos colaboração solicitamos partilhe estudo familiares idade avançada casa ano cima questionário breve duração minutos respostas essenciais compreendermos diversas perspetivas eleições garantimos confidencialidade informações utilização exclusiva fin académicos participação anónima voluntária pode decidir desistir qualquer momento necessidade justificar decisão agradecemos antecipadamente colaboração httpsdocsgooglecomformsdefaipqlsepcfevlweuylmmkdeypokalntiruyrkxakzyyaviewformhttpsdocsgooglecomformsdefaipqlsepcfevlweuylmmkdeypokalntiruyrkxakzyyaviewform</t>
+          <t>lido agorinha boa constantemente receber mensagens bastante vagas consultoras pequenas sobre projetos quais pensam encaixe sugerir marcar call trabalho consultora big primeiro pensamento nunca vai valer pena entreter tipo propostas sei porque nunca entretive nenhuma alguém passado situação consegue partilhar fazer bem ignorar pode ouro pote thx edit deixar funfact brincadeira toda conversa marcada range salarial acima salario nbsp escrever português menos estilo porque vê cada vez parolices stayaway covid boa constantemente receber mensagens bastante vagas consultoras pequenas sobre projetos quais pensam encaixe sugerir marcar entrevista trabalho consultora grandes primeiro pensamento nunca vai valer pena dar corda tipo propostas sei porque nunca alimentei nenhuma alguém passado situação consegue partilhar fazer bem ignorar pode ouro pote obrigado nota deixar curiosidade brincadeira toda conversa marcada intervalo salarial acima salario</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -11127,79 +11127,79 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>13-03-2024</t>
+          <t>28-03-2024</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Pulseira geolocalizadora</t>
+          <t>Os filmes, séries, documentários, vídeos, etc, que vemos</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>preciso pulseira geolocalizadora familiar demência pulseira cinto etc preciso algo traga permanentemente permita saber onde caso perder recomendam</t>
+          <t>partilhem aqui vossas opiniões sobre filmes séries documentários etc vêm fizerem algum spoiler ocultemno senão fizerem apagar comentário post ficará ver afixado</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>11-03-2024</t>
+          <t>21-03-2024</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t xml:space="preserve">Regular Imigração Não É Xenofobia </t>
+          <t>https://cnnportugal.iol.pt/bancos/banca/lucros-da-banca-disparam-mas-so-ha-descidas-timidas-nas-comissoes-cobradas-e-um-excelente-exemplo-de-ausencia-de-consciencia-social/20240318/65f49adfd34e87e0c08aca8c</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>xenofobo presidente fundação manuel santos</t>
+          <t>motivações ter dividas amortizar máximo possivel ch livrarme destas instituições prioridade máxima</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>18-03-2024</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Recomendação de livros sobre o Estado Novo</t>
+          <t>O Júlio das couves e o porquê dos partidos de poder terem muitos militantes corruptos</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>boa sei bem subreddit publicar pareceume fazer sentido então português expatriado desde jovem sei sobre história país agora procura recomendações livros sobre estado novo calhar abordando últimos ish ano portugal contenham algum contexto histórico sobre surgiu acabou obrigado</t>
+          <t>nome alterado resto verdadeiro menos assim contam lá terra pequenamédia cidade interior júlio couves sei ainda vivo longo historial aldrabices calotes corrupção criado monte dívidas passado tudo nome mulher tendo ante divorciado sempre viveram junto ainda cima acha achava vigarices fazia sinal inteligência contava algumas tom bravata amigo poi júlio alturas abril achou portugal ía comunista governado partido comunista português ladrão ideologia apenas ganância inscreverse pcp ainda conseguiu nomeado cargo público durante auge poder pcp tornou evidente pcp iria dominar país concelho junta freguesia redondezas júlio couves tornou ativo tóxico qualquer partido deixou vida política continuou vida empregado pequena empresa onde dizer verdade nunca constou roubasse nada posição pudesse fazer pequenas grandes vigarices partidos poder atraem muitos júlios couves entram partidos pensar partidos podem oferecer importarem oferecem honestamente desonestamente</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>26-02-2024</t>
+          <t>14-03-2024</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Como saber se o azeite que está a comprar é realmente bom (não basta dizer extra virgem)</t>
+          <t xml:space="preserve">Estudo sobre a satisfação dos eleitores </t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>saber azeite comprar realmente bom basta dizer extra virgem tvi notícias iolpthttpstviiolptnoticiasescolherazeitecomprarazeitecomosaberseoazeitequeestaacomprarerealmentebomnaobastadizerextravirgemdbdeafafb</t>
+          <t>estudantes ano licenciatura psicologia faculdade psicologia universidade lisboa âmbito unidade curricular estatística aplicada psicologia realizar estudo sobre satisfação relação resultados últimas eleições foco diferentes faixas etárias pedimos colaboração solicitamos partilhe estudo familiares idade avançada casa ano cima questionário breve duração minutos respostas essenciais compreendermos diversas perspetivas eleições garantimos confidencialidade informações utilização exclusiva fin académicos participação anónima voluntária pode decidir desistir qualquer momento necessidade justificar decisão agradecemos antecipadamente colaboração httpsdocsgooglecomformsdefaipqlsepcfevlweuylmmkdeypokalntiruyrkxakzyyaviewformhttpsdocsgooglecomformsdefaipqlsepcfevlweuylmmkdeypokalntiruyrkxakzyyaviewform</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -11207,107 +11207,127 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>24-02-2024</t>
+          <t>13-03-2024</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>A prova indirecta</t>
+          <t>Pulseira geolocalizadora</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ultima decisão caso sócrates colectivo juízes disse corrupção coloca escrito natural feito conversas deixar rastro provas corruptor burro faria contrato condições corrupção julgamentos baseiam prova indirecta algo ter acontecido desafia lógica racionalidade porque aconteceu fizermos deixem gastem dinheiro perseguir corrupção declarem lei selva oficial portugal vêse juizes ivo rosa comentários ai podese pagar metade preço mercado receber mihões euro explicação tudo absolvido falta provas menos exista documento escuta diz doute negócio dásme mil euro nbsp roubo duma televisão precisos documentos alguém assalta loja duas ruas frente policia apanhame correr televisão mão nenhum juiz absolve falta prova documentai</t>
+          <t>preciso pulseira geolocalizadora familiar demência pulseira cinto etc preciso algo traga permanentemente permita saber onde caso perder recomendam</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>15-02-2024</t>
+          <t>11-03-2024</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Tens muito, algum ou pouco interesse na vida política? - sondagem ao sub</t>
+          <t xml:space="preserve">Regular Imigração Não É Xenofobia </t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>obviamente resultados vão representativos generalidade população sub tido bastantes post sobre política view pollhttpswwwredditcompollapzv</t>
+          <t>xenofobo presidente fundação manuel santos</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>12-02-2024</t>
+          <t>06-03-2024</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Teste políticos - de que partido estás mais próximo?</t>
+          <t>Recomendação de livros sobre o Estado Novo</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>httpsobservadorptinterativovotometrolegislativasrespondaevejadequepartidoestamaisproximopoliticalcompasshttpsobservadorptinterativovotometrolegislativasrespondaevejadequepartidoestamaisproximopoliticalcompass devem existir outros tropecei neste</t>
+          <t>boa sei bem subreddit publicar pareceume fazer sentido então português expatriado desde jovem sei sobre história país agora procura recomendações livros sobre estado novo calhar abordando últimos ish ano portugal contenham algum contexto histórico sobre surgiu acabou obrigado</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>06-02-2024</t>
+          <t>26-02-2024</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Uma em cada duas crianças tem cárie e excesso de peso</t>
+          <t>Como saber se o azeite que está a comprar é realmente bom (não basta dizer extra virgem)</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>xb httpspreviewredditorlgfpknulfcjpgwidthformatpjpgautowebpseedabcafefeaccff</t>
+          <t>saber azeite comprar realmente bom basta dizer extra virgem tvi notícias iolpthttpstviiolptnoticiasescolherazeitecomprarazeitecomosaberseoazeitequeestaacomprarerealmentebomnaobastadizerextravirgemdbdeafafb</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>30-01-2024</t>
+          <t>24-02-2024</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Para compreender a súbita do preço da habitação</t>
+          <t>A prova indirecta</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>seguimento post anteriorhttpswwwredditcomrportugalcommentseltentreimpostosetaxasquemcaqueaindaconsegue sobre comprar casas portugal faltam algumas peças puzzle compreender melhor razões desta subida forte brusca diminuição número habitações construídas desvio casas alojamento local hotéis aumento nómadas digitais xb evolução número imigrantes rico expat evolução número imigrantes países pobres outros quais xb</t>
+          <t>ultima decisão caso sócrates colectivo juízes disse corrupção coloca escrito natural feito conversas deixar rastro provas corruptor burro faria contrato condições corrupção julgamentos baseiam prova indirecta algo ter acontecido desafia lógica racionalidade porque aconteceu fizermos deixem gastem dinheiro perseguir corrupção declarem lei selva oficial portugal vêse juizes ivo rosa comentários ai podese pagar metade preço mercado receber mihões euro explicação tudo absolvido falta provas menos exista documento escuta diz doute negócio dásme mil euro nbsp roubo duma televisão precisos documentos alguém assalta loja duas ruas frente policia apanhame correr televisão mão nenhum juiz absolve falta prova documentai</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>25-01-2024</t>
+          <t>15-02-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Tens muito, algum ou pouco interesse na vida política? - sondagem ao sub</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>obviamente resultados vão representativos generalidade população sub tido bastantes post sobre política view pollhttpswwwredditcompollapzv</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>17</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>12-02-2024</t>
         </is>
       </c>
     </row>

--- a/reddit_cleaned_processed.xlsx
+++ b/reddit_cleaned_processed.xlsx
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>

--- a/reddit_cleaned_processed.xlsx
+++ b/reddit_cleaned_processed.xlsx
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
